--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -5,20 +5,21 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\msr-quarc\wecker\QDK\integer-factorization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AB4B40-2441-414B-8B4E-09D1F243A236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16DA60-4BCF-47FD-9E55-2B202171A7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="8256" windowWidth="16080" windowHeight="10788" activeTab="1" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="624" yWindow="7932" windowWidth="16080" windowHeight="10788" activeTab="2" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Runs" sheetId="2" r:id="rId2"/>
+    <sheet name="Simple Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="55">
   <si>
     <t>Time (s)</t>
   </si>
@@ -254,6 +255,15 @@
   <si>
     <t>WU</t>
   </si>
+  <si>
+    <t>WU2</t>
+  </si>
+  <si>
+    <t>Benchmark speed up factors  (8e2,2e6):</t>
+  </si>
+  <si>
+    <t>Benchmark speed up factors  (8e7,2e1):</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -456,74 +466,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -580,60 +529,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3248,7 +3143,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
   <location ref="K2:T29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -3416,36 +3311,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="38">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="15">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3455,7 +3350,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3465,7 +3360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3475,29 +3370,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="8">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="4">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3507,7 +3402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3517,7 +3412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4870,7 +4765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB803F0-8526-4AD8-A3BB-F38B006D6766}">
   <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -10839,4 +10734,316 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5345642-87ED-41EA-A14F-EAA5E00ADC38}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1.07</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>2.38</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1.57</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>2.58</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1.96</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3.27</v>
+      </c>
+      <c r="C7" s="31">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>3.61</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2.66</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3.92</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2.95</v>
+      </c>
+      <c r="D9" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>4.42</v>
+      </c>
+      <c r="C10" s="31">
+        <v>3.19</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>1</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>2</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2.04</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D15" s="31">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31">
+        <v>3.03</v>
+      </c>
+      <c r="C16" s="31">
+        <v>3.03</v>
+      </c>
+      <c r="D16" s="31">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>4</v>
+      </c>
+      <c r="B17" s="31">
+        <v>4.05</v>
+      </c>
+      <c r="C17" s="31">
+        <v>4.03</v>
+      </c>
+      <c r="D17" s="31">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>5</v>
+      </c>
+      <c r="B18" s="31">
+        <v>5.04</v>
+      </c>
+      <c r="C18" s="31">
+        <v>5.04</v>
+      </c>
+      <c r="D18" s="31">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>6</v>
+      </c>
+      <c r="B19" s="31">
+        <v>6.03</v>
+      </c>
+      <c r="C19" s="31">
+        <v>6.01</v>
+      </c>
+      <c r="D19" s="31">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>7</v>
+      </c>
+      <c r="B20" s="31">
+        <v>6.99</v>
+      </c>
+      <c r="C20" s="31">
+        <v>6.96</v>
+      </c>
+      <c r="D20" s="31">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>8</v>
+      </c>
+      <c r="B21" s="31">
+        <v>7.79</v>
+      </c>
+      <c r="C21" s="31">
+        <v>7.85</v>
+      </c>
+      <c r="D21" s="31">
+        <v>7.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:D10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:D21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="8"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D16DA60-4BCF-47FD-9E55-2B202171A7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB45A0-6C29-4A75-A120-69550F28B23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="7932" windowWidth="16080" windowHeight="10788" activeTab="2" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="624" yWindow="7932" windowWidth="16080" windowHeight="10788" activeTab="1" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
   <si>
     <t>Time (s)</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Benchmark speed up factors  (8e7,2e1):</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -4765,8 +4768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB803F0-8526-4AD8-A3BB-F38B006D6766}">
   <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4884,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>41</v>
@@ -5031,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>43</v>
@@ -5072,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="27">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K6" s="24">
         <v>1</v>
@@ -5131,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="27">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7" s="24">
         <v>2</v>
@@ -5190,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8" s="24">
         <v>3</v>
@@ -5249,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="27">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9" s="24">
         <v>4</v>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="27">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>44</v>
@@ -5349,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="27">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11" s="24">
         <v>1</v>
@@ -5408,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="27">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" s="24">
         <v>2</v>
@@ -5467,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="27">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K13" s="24">
         <v>3</v>
@@ -5526,7 +5529,7 @@
         <v>0.95</v>
       </c>
       <c r="H14" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K14" s="24">
         <v>4</v>
@@ -5685,7 +5688,7 @@
         <v>0.95</v>
       </c>
       <c r="H17" s="27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K17" s="24">
         <v>2</v>
@@ -5744,7 +5747,7 @@
         <v>0.95</v>
       </c>
       <c r="H18" s="27">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" s="24">
         <v>3</v>
@@ -5803,7 +5806,7 @@
         <v>0.95</v>
       </c>
       <c r="H19" s="27">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K19" s="24">
         <v>4</v>
@@ -5862,7 +5865,7 @@
         <v>0.95</v>
       </c>
       <c r="H20" s="27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>46</v>
@@ -5903,7 +5906,7 @@
         <v>0.95</v>
       </c>
       <c r="H21" s="27">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K21" s="24">
         <v>1</v>
@@ -5962,7 +5965,7 @@
         <v>0.95</v>
       </c>
       <c r="H22" s="27">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K22" s="24">
         <v>2</v>
@@ -6021,7 +6024,7 @@
         <v>0.95</v>
       </c>
       <c r="H23" s="27">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K23" s="24">
         <v>3</v>
@@ -6139,7 +6142,7 @@
         <v>0.95</v>
       </c>
       <c r="H25" s="27">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>47</v>
@@ -6239,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="27">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K27" s="24">
         <v>2</v>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" s="24">
         <v>3</v>
@@ -6357,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="27">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K29" s="24">
         <v>4</v>
@@ -6416,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="27">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -6442,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="27">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -6468,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="27">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6494,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="27">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="27">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -6546,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="27">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -6572,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="27">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -6598,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="27">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -6624,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="28">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -6650,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -6676,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="28">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -6702,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -7274,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="27">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7300,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="27">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7352,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="H66" s="27">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7378,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="27">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7430,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -7456,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="27">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7508,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="27">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -7534,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -7560,7 +7563,7 @@
         <v>0.95</v>
       </c>
       <c r="H74" s="27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -7586,7 +7589,7 @@
         <v>0.95</v>
       </c>
       <c r="H75" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -7612,7 +7615,7 @@
         <v>0.95</v>
       </c>
       <c r="H76" s="27">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -7664,7 +7667,7 @@
         <v>0.95</v>
       </c>
       <c r="H78" s="27">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -7690,7 +7693,7 @@
         <v>0.95</v>
       </c>
       <c r="H79" s="27">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -7742,7 +7745,7 @@
         <v>0.95</v>
       </c>
       <c r="H81" s="27">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -7768,7 +7771,7 @@
         <v>0.95</v>
       </c>
       <c r="H82" s="27">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -7794,7 +7797,7 @@
         <v>0.95</v>
       </c>
       <c r="H83" s="27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -7820,7 +7823,7 @@
         <v>0.95</v>
       </c>
       <c r="H84" s="27">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -7846,7 +7849,7 @@
         <v>0.95</v>
       </c>
       <c r="H85" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -7950,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -7976,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="H90" s="27">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -8028,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="27">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -8054,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="27">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -8080,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="28">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -8106,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="27">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -8132,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="27">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>50</v>
       </c>
@@ -8158,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="H97" s="27">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>50</v>
       </c>
@@ -8186,8 +8189,11 @@
       <c r="H98" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>50</v>
       </c>
@@ -8213,7 +8219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>50</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>50</v>
       </c>
@@ -8265,7 +8271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
         <v>50</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>50</v>
       </c>
@@ -8317,7 +8323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>50</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>50</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>50</v>
       </c>
@@ -8395,7 +8401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
         <v>50</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
         <v>50</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
         <v>50</v>
       </c>
@@ -8473,7 +8479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>50</v>
       </c>
@@ -8499,7 +8505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
         <v>50</v>
       </c>
@@ -8525,7 +8531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
         <v>50</v>
       </c>
@@ -10740,8 +10746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5345642-87ED-41EA-A14F-EAA5E00ADC38}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129376EA-A830-4803-B7E5-2EBC9F3DABE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18F7BB-C721-4F04-A7C3-AB7492191EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13764" yWindow="8628" windowWidth="16080" windowHeight="10788" activeTab="1" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="57">
   <si>
     <t>Time (s)</t>
   </si>
@@ -267,6 +267,9 @@
   <si>
     <t>Scale factor</t>
   </si>
+  <si>
+    <t>W15tp</t>
+  </si>
 </sst>
 </file>
 
@@ -475,64 +478,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -775,16 +721,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43971.678834722225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="238" xr:uid="{22FAA616-9F74-4145-9671-E5F5B83F2D90}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43973.651789467593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="304" xr:uid="{22FAA616-9F74-4145-9671-E5F5B83F2D90}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Runs"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Env" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="7">
         <s v="W15"/>
         <s v="W15_WSL"/>
         <s v="WU"/>
+        <s v="W15tp"/>
         <m/>
         <s v="W1" u="1"/>
         <s v="WU_WSL" u="1"/>
@@ -828,7 +775,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.95"/>
     </cacheField>
     <cacheField name="kGpS" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="99"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="99"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -840,7 +787,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="238">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="304">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3093,6 +3040,756 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1.05"/>
+    <n v="1"/>
+    <n v="0.95"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="3.04"/>
+    <n v="1.96"/>
+    <n v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="13.7"/>
+    <n v="3.97"/>
+    <n v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="4"/>
     <x v="3"/>
     <x v="5"/>
     <x v="5"/>
@@ -3102,7 +3799,7 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="5"/>
     <x v="5"/>
@@ -3112,7 +3809,7 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="5"/>
     <x v="5"/>
@@ -3122,7 +3819,7 @@
     <m/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="4"/>
     <x v="3"/>
     <x v="5"/>
     <x v="5"/>
@@ -3131,111 +3828,22 @@
     <m/>
     <m/>
   </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
-  <location ref="J2:S34" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
+  <location ref="J2:V34" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="6"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3373,7 +3981,7 @@
     <field x="1"/>
     <field x="0"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="12">
     <i>
       <x v="1"/>
       <x/>
@@ -3383,6 +3991,9 @@
     </i>
     <i r="1">
       <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
@@ -3394,6 +4005,9 @@
     <i r="1">
       <x v="5"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i>
       <x v="3"/>
       <x/>
@@ -3404,41 +4018,44 @@
     <i r="1">
       <x v="5"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="94">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="72">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="71">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="70">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3448,7 +4065,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3458,7 +4075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3468,29 +4085,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="65">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="61">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3500,7 +4117,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -3510,7 +4127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4861,10 +5478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB803F0-8526-4AD8-A3BB-F38B006D6766}">
-  <dimension ref="A1:W238"/>
+  <dimension ref="A1:W304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4875,14 +5492,14 @@
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" style="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.109375" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -4998,8 +5615,9 @@
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="30"/>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
       <c r="W2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -5033,18 +5651,19 @@
       </c>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="30"/>
       <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -5085,25 +5704,32 @@
         <v>51</v>
       </c>
       <c r="N4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="Q4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="R4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="T4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="U4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="U4"/>
-      <c r="V4"/>
+      <c r="V4" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="W4"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -5143,8 +5769,9 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
-      <c r="U5"/>
-      <c r="V5"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
       <c r="W5"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -5185,25 +5812,32 @@
         <v>9</v>
       </c>
       <c r="N6" s="30">
+        <v>6</v>
+      </c>
+      <c r="O6" s="30">
         <v>28</v>
       </c>
-      <c r="O6" s="30">
+      <c r="P6" s="30">
         <v>34</v>
       </c>
-      <c r="P6" s="30">
+      <c r="Q6" s="30">
         <v>39</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="R6" s="30">
+        <v>8</v>
+      </c>
+      <c r="S6" s="30">
         <v>32</v>
       </c>
-      <c r="R6" s="30">
+      <c r="T6" s="30">
         <v>34</v>
       </c>
-      <c r="S6" s="30">
+      <c r="U6" s="30">
         <v>39</v>
       </c>
-      <c r="U6"/>
-      <c r="V6"/>
+      <c r="V6" s="30">
+        <v>8</v>
+      </c>
       <c r="W6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -5244,25 +5878,32 @@
         <v>16.5</v>
       </c>
       <c r="N7" s="30">
+        <v>11</v>
+      </c>
+      <c r="O7" s="30">
         <v>43</v>
       </c>
-      <c r="O7" s="30">
+      <c r="P7" s="30">
         <v>53</v>
       </c>
-      <c r="P7" s="30">
+      <c r="Q7" s="30">
         <v>57</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="R7" s="30">
+        <v>14</v>
+      </c>
+      <c r="S7" s="30">
         <v>44</v>
       </c>
-      <c r="R7" s="30">
+      <c r="T7" s="30">
         <v>53</v>
       </c>
-      <c r="S7" s="30">
+      <c r="U7" s="30">
         <v>55.5</v>
       </c>
-      <c r="U7"/>
-      <c r="V7"/>
+      <c r="V7" s="30">
+        <v>15</v>
+      </c>
       <c r="W7"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -5303,25 +5944,32 @@
         <v>21</v>
       </c>
       <c r="N8" s="30">
+        <v>15</v>
+      </c>
+      <c r="O8" s="30">
         <v>45</v>
       </c>
-      <c r="O8" s="30">
+      <c r="P8" s="30">
         <v>60</v>
       </c>
-      <c r="P8" s="30">
+      <c r="Q8" s="30">
         <v>70.5</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="R8" s="30">
+        <v>17</v>
+      </c>
+      <c r="S8" s="30">
         <v>48</v>
       </c>
-      <c r="R8" s="30">
+      <c r="T8" s="30">
         <v>59</v>
       </c>
-      <c r="S8" s="30">
+      <c r="U8" s="30">
         <v>69</v>
       </c>
-      <c r="U8"/>
-      <c r="V8"/>
+      <c r="V8" s="30">
+        <v>17</v>
+      </c>
       <c r="W8"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -5362,25 +6010,32 @@
         <v>27</v>
       </c>
       <c r="N9" s="30">
+        <v>14</v>
+      </c>
+      <c r="O9" s="30">
         <v>44</v>
       </c>
-      <c r="O9" s="30">
+      <c r="P9" s="30">
         <v>60</v>
       </c>
-      <c r="P9" s="30">
+      <c r="Q9" s="30">
         <v>78</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="R9" s="30">
+        <v>15</v>
+      </c>
+      <c r="S9" s="30">
         <v>47</v>
       </c>
-      <c r="R9" s="30">
+      <c r="T9" s="30">
         <v>57</v>
       </c>
-      <c r="S9" s="30">
+      <c r="U9" s="30">
         <v>78</v>
       </c>
-      <c r="U9"/>
-      <c r="V9"/>
+      <c r="V9" s="30">
+        <v>15</v>
+      </c>
       <c r="W9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -5421,25 +6076,32 @@
         <v>19.5</v>
       </c>
       <c r="N10" s="30">
+        <v>11</v>
+      </c>
+      <c r="O10" s="30">
         <v>45</v>
       </c>
-      <c r="O10" s="30">
+      <c r="P10" s="30">
         <v>55</v>
       </c>
-      <c r="P10" s="30">
+      <c r="Q10" s="30">
         <v>60</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="R10" s="30">
+        <v>10</v>
+      </c>
+      <c r="S10" s="30">
         <v>46</v>
       </c>
-      <c r="R10" s="30">
+      <c r="T10" s="30">
         <v>56</v>
       </c>
-      <c r="S10" s="30">
+      <c r="U10" s="30">
         <v>60</v>
       </c>
-      <c r="U10"/>
-      <c r="V10"/>
+      <c r="V10" s="30">
+        <v>10</v>
+      </c>
       <c r="W10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -5479,8 +6141,9 @@
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
-      <c r="U11"/>
-      <c r="V11"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
       <c r="W11"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -5521,25 +6184,32 @@
         <v>10.5</v>
       </c>
       <c r="N12" s="30">
+        <v>7</v>
+      </c>
+      <c r="O12" s="30">
         <v>31</v>
       </c>
-      <c r="O12" s="30">
+      <c r="P12" s="30">
         <v>35</v>
       </c>
-      <c r="P12" s="30">
+      <c r="Q12" s="30">
         <v>40.5</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="R12" s="30">
+        <v>9</v>
+      </c>
+      <c r="S12" s="30">
         <v>33</v>
       </c>
-      <c r="R12" s="30">
+      <c r="T12" s="30">
         <v>35</v>
       </c>
-      <c r="S12" s="30">
+      <c r="U12" s="30">
         <v>39</v>
       </c>
-      <c r="U12"/>
-      <c r="V12"/>
+      <c r="V12" s="30">
+        <v>9</v>
+      </c>
       <c r="W12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -5580,25 +6250,32 @@
         <v>16.5</v>
       </c>
       <c r="N13" s="30">
+        <v>12</v>
+      </c>
+      <c r="O13" s="30">
         <v>46</v>
       </c>
-      <c r="O13" s="30">
+      <c r="P13" s="30">
         <v>55</v>
       </c>
-      <c r="P13" s="30">
+      <c r="Q13" s="30">
         <v>58.5</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="R13" s="30">
+        <v>15</v>
+      </c>
+      <c r="S13" s="30">
         <v>45</v>
       </c>
-      <c r="R13" s="30">
+      <c r="T13" s="30">
         <v>55</v>
       </c>
-      <c r="S13" s="30">
+      <c r="U13" s="30">
         <v>58.5</v>
       </c>
-      <c r="U13"/>
-      <c r="V13"/>
+      <c r="V13" s="30">
+        <v>15</v>
+      </c>
       <c r="W13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -5639,25 +6316,32 @@
         <v>22.5</v>
       </c>
       <c r="N14" s="30">
+        <v>16</v>
+      </c>
+      <c r="O14" s="30">
         <v>47</v>
       </c>
-      <c r="O14" s="30">
+      <c r="P14" s="30">
         <v>59</v>
       </c>
-      <c r="P14" s="30">
+      <c r="Q14" s="30">
         <v>72</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="R14" s="30">
+        <v>18</v>
+      </c>
+      <c r="S14" s="30">
         <v>49</v>
       </c>
-      <c r="R14" s="30">
+      <c r="T14" s="30">
         <v>57</v>
       </c>
-      <c r="S14" s="30">
+      <c r="U14" s="30">
         <v>70.5</v>
       </c>
-      <c r="U14"/>
-      <c r="V14"/>
+      <c r="V14" s="30">
+        <v>18</v>
+      </c>
       <c r="W14"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -5698,25 +6382,32 @@
         <v>28.5</v>
       </c>
       <c r="N15" s="30">
+        <v>14</v>
+      </c>
+      <c r="O15" s="30">
         <v>45</v>
       </c>
-      <c r="O15" s="30">
+      <c r="P15" s="30">
         <v>60</v>
       </c>
-      <c r="P15" s="30">
+      <c r="Q15" s="30">
         <v>81</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="R15" s="30">
+        <v>16</v>
+      </c>
+      <c r="S15" s="30">
         <v>49</v>
       </c>
-      <c r="R15" s="30">
+      <c r="T15" s="30">
         <v>61</v>
       </c>
-      <c r="S15" s="30">
+      <c r="U15" s="30">
         <v>78</v>
       </c>
-      <c r="U15"/>
-      <c r="V15"/>
+      <c r="V15" s="30">
+        <v>14</v>
+      </c>
       <c r="W15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -5757,25 +6448,32 @@
         <v>19.5</v>
       </c>
       <c r="N16" s="30">
+        <v>10</v>
+      </c>
+      <c r="O16" s="30">
         <v>46</v>
       </c>
-      <c r="O16" s="30">
+      <c r="P16" s="30">
         <v>58</v>
       </c>
-      <c r="P16" s="30">
+      <c r="Q16" s="30">
         <v>61.5</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="R16" s="30">
+        <v>10</v>
+      </c>
+      <c r="S16" s="30">
         <v>47</v>
       </c>
-      <c r="R16" s="30">
+      <c r="T16" s="30">
         <v>58</v>
       </c>
-      <c r="S16" s="30">
+      <c r="U16" s="30">
         <v>61.5</v>
       </c>
-      <c r="U16"/>
-      <c r="V16"/>
+      <c r="V16" s="30">
+        <v>10</v>
+      </c>
       <c r="W16"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -5815,8 +6513,9 @@
       <c r="Q17" s="30"/>
       <c r="R17" s="30"/>
       <c r="S17" s="30"/>
-      <c r="U17"/>
-      <c r="V17"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
       <c r="W17"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -5857,25 +6556,32 @@
         <v>9</v>
       </c>
       <c r="N18" s="30">
+        <v>11</v>
+      </c>
+      <c r="O18" s="30">
         <v>46</v>
       </c>
-      <c r="O18" s="30">
+      <c r="P18" s="30">
         <v>49</v>
       </c>
-      <c r="P18" s="30">
+      <c r="Q18" s="30">
         <v>48</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="R18" s="30">
+        <v>16</v>
+      </c>
+      <c r="S18" s="30">
         <v>51</v>
       </c>
-      <c r="R18" s="30">
+      <c r="T18" s="30">
         <v>50</v>
       </c>
-      <c r="S18" s="30">
+      <c r="U18" s="30">
         <v>52.5</v>
       </c>
-      <c r="U18"/>
-      <c r="V18"/>
+      <c r="V18" s="30">
+        <v>17</v>
+      </c>
       <c r="W18"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -5916,25 +6622,32 @@
         <v>16.5</v>
       </c>
       <c r="N19" s="30">
+        <v>20</v>
+      </c>
+      <c r="O19" s="30">
         <v>66</v>
       </c>
-      <c r="O19" s="30">
+      <c r="P19" s="30">
         <v>75</v>
       </c>
-      <c r="P19" s="30">
+      <c r="Q19" s="30">
         <v>70.5</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="R19" s="30">
+        <v>27</v>
+      </c>
+      <c r="S19" s="30">
         <v>71</v>
       </c>
-      <c r="R19" s="30">
+      <c r="T19" s="30">
         <v>79</v>
       </c>
-      <c r="S19" s="30">
+      <c r="U19" s="30">
         <v>76.5</v>
       </c>
-      <c r="U19"/>
-      <c r="V19"/>
+      <c r="V19" s="30">
+        <v>29</v>
+      </c>
       <c r="W19"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -5975,25 +6688,32 @@
         <v>24</v>
       </c>
       <c r="N20" s="30">
+        <v>24</v>
+      </c>
+      <c r="O20" s="30">
         <v>67</v>
       </c>
-      <c r="O20" s="30">
+      <c r="P20" s="30">
         <v>85</v>
       </c>
-      <c r="P20" s="30">
+      <c r="Q20" s="30">
         <v>84</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="R20" s="30">
+        <v>32</v>
+      </c>
+      <c r="S20" s="30">
         <v>75</v>
       </c>
-      <c r="R20" s="30">
+      <c r="T20" s="30">
         <v>88</v>
       </c>
-      <c r="S20" s="30">
+      <c r="U20" s="30">
         <v>90</v>
       </c>
-      <c r="U20"/>
-      <c r="V20"/>
+      <c r="V20" s="30">
+        <v>33</v>
+      </c>
       <c r="W20"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -6034,25 +6754,32 @@
         <v>30</v>
       </c>
       <c r="N21" s="30">
+        <v>25</v>
+      </c>
+      <c r="O21" s="30">
         <v>68</v>
       </c>
-      <c r="O21" s="30">
+      <c r="P21" s="30">
         <v>81</v>
       </c>
-      <c r="P21" s="30">
+      <c r="Q21" s="30">
         <v>93</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="R21" s="30">
+        <v>30</v>
+      </c>
+      <c r="S21" s="30">
         <v>68</v>
       </c>
-      <c r="R21" s="30">
+      <c r="T21" s="30">
         <v>86</v>
       </c>
-      <c r="S21" s="30">
+      <c r="U21" s="30">
         <v>99</v>
       </c>
-      <c r="U21"/>
-      <c r="V21"/>
+      <c r="V21" s="30">
+        <v>34</v>
+      </c>
       <c r="W21"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -6093,25 +6820,32 @@
         <v>21</v>
       </c>
       <c r="N22" s="30">
+        <v>25</v>
+      </c>
+      <c r="O22" s="30">
         <v>63</v>
       </c>
-      <c r="O22" s="30">
+      <c r="P22" s="30">
         <v>77</v>
       </c>
-      <c r="P22" s="30">
+      <c r="Q22" s="30">
         <v>75</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="R22" s="30">
+        <v>30</v>
+      </c>
+      <c r="S22" s="30">
         <v>70</v>
       </c>
-      <c r="R22" s="30">
+      <c r="T22" s="30">
         <v>80</v>
       </c>
-      <c r="S22" s="30">
+      <c r="U22" s="30">
         <v>81</v>
       </c>
-      <c r="U22"/>
-      <c r="V22"/>
+      <c r="V22" s="30">
+        <v>30</v>
+      </c>
       <c r="W22"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
@@ -6151,8 +6885,9 @@
       <c r="Q23" s="30"/>
       <c r="R23" s="30"/>
       <c r="S23" s="30"/>
-      <c r="U23"/>
-      <c r="V23"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
       <c r="W23"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -6193,25 +6928,32 @@
         <v>12</v>
       </c>
       <c r="N24" s="30">
+        <v>15</v>
+      </c>
+      <c r="O24" s="30">
         <v>43</v>
       </c>
-      <c r="O24" s="30">
+      <c r="P24" s="30">
         <v>64</v>
       </c>
-      <c r="P24" s="30">
+      <c r="Q24" s="30">
         <v>57</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="R24" s="30">
+        <v>27</v>
+      </c>
+      <c r="S24" s="30">
         <v>56</v>
       </c>
-      <c r="R24" s="30">
+      <c r="T24" s="30">
         <v>64</v>
       </c>
-      <c r="S24" s="30">
+      <c r="U24" s="30">
         <v>55.5</v>
       </c>
-      <c r="U24"/>
-      <c r="V24"/>
+      <c r="V24" s="30">
+        <v>31</v>
+      </c>
       <c r="W24"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
@@ -6252,25 +6994,32 @@
         <v>21</v>
       </c>
       <c r="N25" s="30">
+        <v>25</v>
+      </c>
+      <c r="O25" s="30">
         <v>59</v>
       </c>
-      <c r="O25" s="30">
+      <c r="P25" s="30">
         <v>79</v>
       </c>
-      <c r="P25" s="30">
+      <c r="Q25" s="30">
         <v>69</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="R25" s="30">
+        <v>42</v>
+      </c>
+      <c r="S25" s="30">
         <v>72</v>
       </c>
-      <c r="R25" s="30">
+      <c r="T25" s="30">
         <v>80</v>
       </c>
-      <c r="S25" s="30">
+      <c r="U25" s="30">
         <v>67.5</v>
       </c>
-      <c r="U25"/>
-      <c r="V25"/>
+      <c r="V25" s="30">
+        <v>47</v>
+      </c>
       <c r="W25"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -6311,25 +7060,32 @@
         <v>27</v>
       </c>
       <c r="N26" s="30">
+        <v>31</v>
+      </c>
+      <c r="O26" s="30">
         <v>59</v>
       </c>
-      <c r="O26" s="30">
+      <c r="P26" s="30">
         <v>82</v>
       </c>
-      <c r="P26" s="30">
+      <c r="Q26" s="30">
         <v>73.5</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="R26" s="30">
+        <v>51</v>
+      </c>
+      <c r="S26" s="30">
         <v>72</v>
       </c>
-      <c r="R26" s="30">
+      <c r="T26" s="30">
         <v>82</v>
       </c>
-      <c r="S26" s="30">
+      <c r="U26" s="30">
         <v>75</v>
       </c>
-      <c r="U26"/>
-      <c r="V26"/>
+      <c r="V26" s="30">
+        <v>54</v>
+      </c>
       <c r="W26"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
@@ -6370,25 +7126,32 @@
         <v>33</v>
       </c>
       <c r="N27" s="30">
+        <v>32</v>
+      </c>
+      <c r="O27" s="30">
         <v>51</v>
       </c>
-      <c r="O27" s="30">
+      <c r="P27" s="30">
         <v>80</v>
       </c>
-      <c r="P27" s="30">
+      <c r="Q27" s="30">
         <v>79.5</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="R27" s="30">
+        <v>49</v>
+      </c>
+      <c r="S27" s="30">
         <v>65</v>
       </c>
-      <c r="R27" s="30">
+      <c r="T27" s="30">
         <v>81</v>
       </c>
-      <c r="S27" s="30">
+      <c r="U27" s="30">
         <v>78</v>
       </c>
-      <c r="U27"/>
-      <c r="V27"/>
+      <c r="V27" s="30">
+        <v>54</v>
+      </c>
       <c r="W27"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -6429,25 +7192,32 @@
         <v>22.5</v>
       </c>
       <c r="N28" s="30">
+        <v>32</v>
+      </c>
+      <c r="O28" s="30">
         <v>49</v>
       </c>
-      <c r="O28" s="30">
+      <c r="P28" s="30">
         <v>75</v>
       </c>
-      <c r="P28" s="30">
+      <c r="Q28" s="30">
         <v>66</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="R28" s="30">
+        <v>49</v>
+      </c>
+      <c r="S28" s="30">
         <v>62</v>
       </c>
-      <c r="R28" s="30">
+      <c r="T28" s="30">
         <v>75</v>
       </c>
-      <c r="S28" s="30">
+      <c r="U28" s="30">
         <v>64.5</v>
       </c>
-      <c r="U28"/>
-      <c r="V28"/>
+      <c r="V28" s="30">
+        <v>53</v>
+      </c>
       <c r="W28"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
@@ -6487,8 +7257,9 @@
       <c r="Q29" s="30"/>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
-      <c r="U29"/>
-      <c r="V29"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
       <c r="W29"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
@@ -6529,25 +7300,32 @@
         <v>9</v>
       </c>
       <c r="N30" s="30">
+        <v>4</v>
+      </c>
+      <c r="O30" s="30">
         <v>26</v>
       </c>
-      <c r="O30" s="30">
+      <c r="P30" s="30">
         <v>44</v>
       </c>
-      <c r="P30" s="30">
+      <c r="Q30" s="30">
         <v>40.5</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="R30" s="30">
+        <v>22</v>
+      </c>
+      <c r="S30" s="30">
         <v>30</v>
       </c>
-      <c r="R30" s="30">
+      <c r="T30" s="30">
         <v>38</v>
       </c>
-      <c r="S30" s="30">
+      <c r="U30" s="30">
         <v>40.5</v>
       </c>
-      <c r="U30"/>
-      <c r="V30"/>
+      <c r="V30" s="30">
+        <v>24</v>
+      </c>
       <c r="W30"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -6588,25 +7366,32 @@
         <v>15</v>
       </c>
       <c r="N31" s="30">
+        <v>8</v>
+      </c>
+      <c r="O31" s="30">
         <v>35</v>
-      </c>
-      <c r="O31" s="30">
-        <v>45</v>
       </c>
       <c r="P31" s="30">
         <v>45</v>
       </c>
       <c r="Q31" s="30">
+        <v>45</v>
+      </c>
+      <c r="R31" s="30">
+        <v>28</v>
+      </c>
+      <c r="S31" s="30">
         <v>38</v>
       </c>
-      <c r="R31" s="30">
+      <c r="T31" s="30">
         <v>46</v>
       </c>
-      <c r="S31" s="30">
+      <c r="U31" s="30">
         <v>45</v>
       </c>
-      <c r="U31"/>
-      <c r="V31"/>
+      <c r="V31" s="30">
+        <v>32</v>
+      </c>
       <c r="W31"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -6647,25 +7432,32 @@
         <v>19.5</v>
       </c>
       <c r="N32" s="30">
+        <v>11</v>
+      </c>
+      <c r="O32" s="30">
         <v>34</v>
       </c>
-      <c r="O32" s="30">
+      <c r="P32" s="30">
         <v>42</v>
       </c>
-      <c r="P32" s="30">
+      <c r="Q32" s="30">
         <v>45</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="R32" s="30">
+        <v>35</v>
+      </c>
+      <c r="S32" s="30">
         <v>38</v>
       </c>
-      <c r="R32" s="30">
+      <c r="T32" s="30">
         <v>44</v>
       </c>
-      <c r="S32" s="30">
+      <c r="U32" s="30">
         <v>46.5</v>
       </c>
-      <c r="U32"/>
-      <c r="V32"/>
+      <c r="V32" s="30">
+        <v>38</v>
+      </c>
       <c r="W32"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
@@ -6706,25 +7498,32 @@
         <v>22.5</v>
       </c>
       <c r="N33" s="30">
+        <v>13</v>
+      </c>
+      <c r="O33" s="30">
         <v>35</v>
       </c>
-      <c r="O33" s="30">
+      <c r="P33" s="30">
         <v>42</v>
       </c>
-      <c r="P33" s="30">
+      <c r="Q33" s="30">
         <v>46.5</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="R33" s="30">
+        <v>37</v>
+      </c>
+      <c r="S33" s="30">
         <v>35</v>
       </c>
-      <c r="R33" s="30">
+      <c r="T33" s="30">
         <v>41</v>
       </c>
-      <c r="S33" s="30">
+      <c r="U33" s="30">
         <v>46.5</v>
       </c>
-      <c r="U33"/>
-      <c r="V33"/>
+      <c r="V33" s="30">
+        <v>40</v>
+      </c>
       <c r="W33"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
@@ -6765,25 +7564,32 @@
         <v>16.5</v>
       </c>
       <c r="N34" s="30">
+        <v>15</v>
+      </c>
+      <c r="O34" s="30">
         <v>32</v>
       </c>
-      <c r="O34" s="30">
+      <c r="P34" s="30">
         <v>42</v>
       </c>
-      <c r="P34" s="30">
+      <c r="Q34" s="30">
         <v>37.5</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="R34" s="30">
+        <v>38</v>
+      </c>
+      <c r="S34" s="30">
         <v>35</v>
       </c>
-      <c r="R34" s="30">
+      <c r="T34" s="30">
         <v>41</v>
       </c>
-      <c r="S34" s="30">
+      <c r="U34" s="30">
         <v>37.5</v>
       </c>
-      <c r="U34"/>
-      <c r="V34"/>
+      <c r="V34" s="30">
+        <v>41</v>
+      </c>
       <c r="W34"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
@@ -12088,128 +12894,1976 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="25"/>
-      <c r="B227" s="21"/>
-      <c r="C227" s="21"/>
-      <c r="D227" s="21"/>
-      <c r="E227" s="21"/>
-      <c r="F227" s="21"/>
-      <c r="G227" s="21"/>
-      <c r="H227" s="28"/>
+      <c r="A227" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="21">
+        <v>1</v>
+      </c>
+      <c r="D227" s="21">
+        <v>0</v>
+      </c>
+      <c r="E227" s="21">
+        <v>1</v>
+      </c>
+      <c r="F227" s="21">
+        <v>1</v>
+      </c>
+      <c r="G227" s="21">
+        <v>0</v>
+      </c>
+      <c r="H227" s="27">
+        <v>6</v>
+      </c>
       <c r="I227" s="22"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="25"/>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="D228" s="21"/>
-      <c r="E228" s="21"/>
-      <c r="F228" s="21"/>
-      <c r="G228" s="21"/>
-      <c r="H228" s="28"/>
+      <c r="A228" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" s="21">
+        <v>1</v>
+      </c>
+      <c r="D228" s="21">
+        <v>0</v>
+      </c>
+      <c r="E228" s="21">
+        <v>1</v>
+      </c>
+      <c r="F228" s="21">
+        <v>1</v>
+      </c>
+      <c r="G228" s="21">
+        <v>0</v>
+      </c>
+      <c r="H228" s="27">
+        <v>8</v>
+      </c>
       <c r="I228" s="22"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="25"/>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
-      <c r="E229" s="21"/>
-      <c r="F229" s="21"/>
-      <c r="G229" s="21"/>
-      <c r="H229" s="28"/>
+      <c r="A229" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="21">
+        <v>1</v>
+      </c>
+      <c r="D229" s="21">
+        <v>0</v>
+      </c>
+      <c r="E229" s="21">
+        <v>1</v>
+      </c>
+      <c r="F229" s="21">
+        <v>1</v>
+      </c>
+      <c r="G229" s="21">
+        <v>0</v>
+      </c>
+      <c r="H229" s="27">
+        <v>8</v>
+      </c>
       <c r="I229" s="22"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="25"/>
-      <c r="B230" s="21"/>
-      <c r="C230" s="21"/>
-      <c r="D230" s="21"/>
-      <c r="E230" s="21"/>
-      <c r="F230" s="21"/>
-      <c r="G230" s="21"/>
-      <c r="H230" s="28"/>
+      <c r="A230" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B230" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" s="21">
+        <v>2</v>
+      </c>
+      <c r="D230" s="21">
+        <v>0</v>
+      </c>
+      <c r="E230" s="21">
+        <v>1</v>
+      </c>
+      <c r="F230" s="21">
+        <v>1</v>
+      </c>
+      <c r="G230" s="21">
+        <v>0</v>
+      </c>
+      <c r="H230" s="27">
+        <v>11</v>
+      </c>
       <c r="I230" s="22"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="25"/>
-      <c r="B231" s="21"/>
-      <c r="C231" s="21"/>
-      <c r="D231" s="21"/>
-      <c r="E231" s="21"/>
-      <c r="F231" s="21"/>
-      <c r="G231" s="21"/>
-      <c r="H231" s="28"/>
+      <c r="A231" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B231" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" s="21">
+        <v>2</v>
+      </c>
+      <c r="D231" s="21">
+        <v>0</v>
+      </c>
+      <c r="E231" s="21">
+        <v>1</v>
+      </c>
+      <c r="F231" s="21">
+        <v>1</v>
+      </c>
+      <c r="G231" s="21">
+        <v>0</v>
+      </c>
+      <c r="H231" s="27">
+        <v>14</v>
+      </c>
       <c r="I231" s="22"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="25"/>
-      <c r="B232" s="21"/>
-      <c r="C232" s="21"/>
-      <c r="D232" s="21"/>
-      <c r="E232" s="21"/>
-      <c r="F232" s="21"/>
-      <c r="G232" s="21"/>
-      <c r="H232" s="28"/>
+      <c r="A232" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B232" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="21">
+        <v>2</v>
+      </c>
+      <c r="D232" s="21">
+        <v>0</v>
+      </c>
+      <c r="E232" s="21">
+        <v>1</v>
+      </c>
+      <c r="F232" s="21">
+        <v>1</v>
+      </c>
+      <c r="G232" s="21">
+        <v>0</v>
+      </c>
+      <c r="H232" s="27">
+        <v>15</v>
+      </c>
       <c r="I232" s="22"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="25"/>
-      <c r="B233" s="21"/>
-      <c r="C233" s="21"/>
-      <c r="D233" s="21"/>
-      <c r="E233" s="21"/>
-      <c r="F233" s="21"/>
-      <c r="G233" s="21"/>
-      <c r="H233" s="28"/>
+      <c r="A233" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="21">
+        <v>3</v>
+      </c>
+      <c r="D233" s="21">
+        <v>0</v>
+      </c>
+      <c r="E233" s="21">
+        <v>1</v>
+      </c>
+      <c r="F233" s="21">
+        <v>1</v>
+      </c>
+      <c r="G233" s="21">
+        <v>0</v>
+      </c>
+      <c r="H233" s="27">
+        <v>15</v>
+      </c>
       <c r="I233" s="22"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="25"/>
-      <c r="B234" s="21"/>
-      <c r="C234" s="21"/>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="28"/>
+      <c r="A234" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B234" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C234" s="21">
+        <v>3</v>
+      </c>
+      <c r="D234" s="21">
+        <v>0</v>
+      </c>
+      <c r="E234" s="21">
+        <v>1</v>
+      </c>
+      <c r="F234" s="21">
+        <v>1</v>
+      </c>
+      <c r="G234" s="21">
+        <v>0</v>
+      </c>
+      <c r="H234" s="27">
+        <v>17</v>
+      </c>
       <c r="I234" s="22"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="25"/>
-      <c r="B235" s="21"/>
-      <c r="C235" s="21"/>
-      <c r="D235" s="21"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
+      <c r="A235" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B235" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" s="21">
+        <v>3</v>
+      </c>
+      <c r="D235" s="21">
+        <v>0</v>
+      </c>
+      <c r="E235" s="21">
+        <v>1</v>
+      </c>
+      <c r="F235" s="21">
+        <v>1</v>
+      </c>
+      <c r="G235" s="21">
+        <v>0</v>
+      </c>
+      <c r="H235" s="27">
+        <v>17</v>
+      </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="25"/>
-      <c r="B236" s="21"/>
-      <c r="C236" s="21"/>
-      <c r="D236" s="21"/>
-      <c r="E236" s="21"/>
-      <c r="F236" s="21"/>
+      <c r="A236" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B236" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" s="21">
+        <v>4</v>
+      </c>
+      <c r="D236" s="21">
+        <v>0</v>
+      </c>
+      <c r="E236" s="21">
+        <v>1</v>
+      </c>
+      <c r="F236" s="21">
+        <v>1</v>
+      </c>
+      <c r="G236" s="21">
+        <v>0</v>
+      </c>
+      <c r="H236" s="27">
+        <v>14</v>
+      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="25"/>
-      <c r="B237" s="21"/>
-      <c r="C237" s="21"/>
-      <c r="D237" s="21"/>
-      <c r="E237" s="21"/>
-      <c r="F237" s="21"/>
+      <c r="A237" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B237" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="21">
+        <v>4</v>
+      </c>
+      <c r="D237" s="21">
+        <v>0</v>
+      </c>
+      <c r="E237" s="21">
+        <v>1</v>
+      </c>
+      <c r="F237" s="21">
+        <v>1</v>
+      </c>
+      <c r="G237" s="21">
+        <v>0</v>
+      </c>
+      <c r="H237" s="27">
+        <v>15</v>
+      </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="25"/>
-      <c r="B238" s="21"/>
-      <c r="C238" s="21"/>
-      <c r="D238" s="21"/>
-      <c r="E238" s="21"/>
-      <c r="F238" s="21"/>
+      <c r="A238" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B238" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" s="21">
+        <v>4</v>
+      </c>
+      <c r="D238" s="21">
+        <v>0</v>
+      </c>
+      <c r="E238" s="21">
+        <v>1</v>
+      </c>
+      <c r="F238" s="21">
+        <v>1</v>
+      </c>
+      <c r="G238" s="21">
+        <v>0</v>
+      </c>
+      <c r="H238" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B239" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="21">
+        <v>5</v>
+      </c>
+      <c r="D239" s="21">
+        <v>0</v>
+      </c>
+      <c r="E239" s="21">
+        <v>1</v>
+      </c>
+      <c r="F239" s="21">
+        <v>1</v>
+      </c>
+      <c r="G239" s="21">
+        <v>0</v>
+      </c>
+      <c r="H239" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B240" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C240" s="21">
+        <v>5</v>
+      </c>
+      <c r="D240" s="21">
+        <v>0</v>
+      </c>
+      <c r="E240" s="21">
+        <v>1</v>
+      </c>
+      <c r="F240" s="21">
+        <v>1</v>
+      </c>
+      <c r="G240" s="21">
+        <v>0</v>
+      </c>
+      <c r="H240" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B241" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" s="21">
+        <v>5</v>
+      </c>
+      <c r="D241" s="21">
+        <v>0</v>
+      </c>
+      <c r="E241" s="21">
+        <v>1</v>
+      </c>
+      <c r="F241" s="21">
+        <v>1</v>
+      </c>
+      <c r="G241" s="21">
+        <v>0</v>
+      </c>
+      <c r="H241" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B242" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" s="21">
+        <v>1</v>
+      </c>
+      <c r="D242" s="21">
+        <v>1</v>
+      </c>
+      <c r="E242" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F242" s="21">
+        <v>1</v>
+      </c>
+      <c r="G242" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H242" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B243" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243" s="21">
+        <v>1</v>
+      </c>
+      <c r="D243" s="21">
+        <v>1</v>
+      </c>
+      <c r="E243" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F243" s="21">
+        <v>1</v>
+      </c>
+      <c r="G243" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H243" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B244" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" s="21">
+        <v>1</v>
+      </c>
+      <c r="D244" s="21">
+        <v>1</v>
+      </c>
+      <c r="E244" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F244" s="21">
+        <v>1</v>
+      </c>
+      <c r="G244" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H244" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" s="21">
+        <v>2</v>
+      </c>
+      <c r="D245" s="21">
+        <v>1</v>
+      </c>
+      <c r="E245" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F245" s="21">
+        <v>1</v>
+      </c>
+      <c r="G245" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H245" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C246" s="21">
+        <v>2</v>
+      </c>
+      <c r="D246" s="21">
+        <v>1</v>
+      </c>
+      <c r="E246" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F246" s="21">
+        <v>1</v>
+      </c>
+      <c r="G246" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H246" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="21">
+        <v>2</v>
+      </c>
+      <c r="D247" s="21">
+        <v>1</v>
+      </c>
+      <c r="E247" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F247" s="21">
+        <v>1</v>
+      </c>
+      <c r="G247" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H247" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="21">
+        <v>3</v>
+      </c>
+      <c r="D248" s="21">
+        <v>1</v>
+      </c>
+      <c r="E248" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F248" s="21">
+        <v>1</v>
+      </c>
+      <c r="G248" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H248" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" s="21">
+        <v>3</v>
+      </c>
+      <c r="D249" s="21">
+        <v>1</v>
+      </c>
+      <c r="E249" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F249" s="21">
+        <v>1</v>
+      </c>
+      <c r="G249" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H249" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B250" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" s="21">
+        <v>3</v>
+      </c>
+      <c r="D250" s="21">
+        <v>1</v>
+      </c>
+      <c r="E250" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F250" s="21">
+        <v>1</v>
+      </c>
+      <c r="G250" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H250" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C251" s="21">
+        <v>4</v>
+      </c>
+      <c r="D251" s="21">
+        <v>1</v>
+      </c>
+      <c r="E251" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F251" s="21">
+        <v>1</v>
+      </c>
+      <c r="G251" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H251" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B252" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C252" s="21">
+        <v>4</v>
+      </c>
+      <c r="D252" s="21">
+        <v>1</v>
+      </c>
+      <c r="E252" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F252" s="21">
+        <v>1</v>
+      </c>
+      <c r="G252" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H252" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B253" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" s="21">
+        <v>4</v>
+      </c>
+      <c r="D253" s="21">
+        <v>1</v>
+      </c>
+      <c r="E253" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F253" s="21">
+        <v>1</v>
+      </c>
+      <c r="G253" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H253" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254" s="21">
+        <v>5</v>
+      </c>
+      <c r="D254" s="21">
+        <v>1</v>
+      </c>
+      <c r="E254" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F254" s="21">
+        <v>1</v>
+      </c>
+      <c r="G254" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H254" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B255" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255" s="21">
+        <v>5</v>
+      </c>
+      <c r="D255" s="21">
+        <v>1</v>
+      </c>
+      <c r="E255" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F255" s="21">
+        <v>1</v>
+      </c>
+      <c r="G255" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H255" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B256" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="21">
+        <v>5</v>
+      </c>
+      <c r="D256" s="21">
+        <v>1</v>
+      </c>
+      <c r="E256" s="21">
+        <v>1.05</v>
+      </c>
+      <c r="F256" s="21">
+        <v>1</v>
+      </c>
+      <c r="G256" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="H256" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B257" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" s="21">
+        <v>1</v>
+      </c>
+      <c r="D257" s="21">
+        <v>2</v>
+      </c>
+      <c r="E257" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F257" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G257" s="21">
+        <v>0</v>
+      </c>
+      <c r="H257" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B258" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C258" s="21">
+        <v>1</v>
+      </c>
+      <c r="D258" s="21">
+        <v>2</v>
+      </c>
+      <c r="E258" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F258" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G258" s="21">
+        <v>0</v>
+      </c>
+      <c r="H258" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B259" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" s="21">
+        <v>1</v>
+      </c>
+      <c r="D259" s="21">
+        <v>2</v>
+      </c>
+      <c r="E259" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F259" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G259" s="21">
+        <v>0</v>
+      </c>
+      <c r="H259" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B260" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="21">
+        <v>2</v>
+      </c>
+      <c r="D260" s="21">
+        <v>2</v>
+      </c>
+      <c r="E260" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F260" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G260" s="21">
+        <v>0</v>
+      </c>
+      <c r="H260" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B261" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C261" s="21">
+        <v>2</v>
+      </c>
+      <c r="D261" s="21">
+        <v>2</v>
+      </c>
+      <c r="E261" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F261" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G261" s="21">
+        <v>0</v>
+      </c>
+      <c r="H261" s="27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B262" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" s="21">
+        <v>2</v>
+      </c>
+      <c r="D262" s="21">
+        <v>2</v>
+      </c>
+      <c r="E262" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F262" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G262" s="21">
+        <v>0</v>
+      </c>
+      <c r="H262" s="27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B263" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="21">
+        <v>3</v>
+      </c>
+      <c r="D263" s="21">
+        <v>2</v>
+      </c>
+      <c r="E263" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F263" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G263" s="21">
+        <v>0</v>
+      </c>
+      <c r="H263" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B264" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C264" s="21">
+        <v>3</v>
+      </c>
+      <c r="D264" s="21">
+        <v>2</v>
+      </c>
+      <c r="E264" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F264" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G264" s="21">
+        <v>0</v>
+      </c>
+      <c r="H264" s="27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C265" s="21">
+        <v>3</v>
+      </c>
+      <c r="D265" s="21">
+        <v>2</v>
+      </c>
+      <c r="E265" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F265" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G265" s="21">
+        <v>0</v>
+      </c>
+      <c r="H265" s="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B266" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="21">
+        <v>4</v>
+      </c>
+      <c r="D266" s="21">
+        <v>2</v>
+      </c>
+      <c r="E266" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F266" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G266" s="21">
+        <v>0</v>
+      </c>
+      <c r="H266" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B267" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C267" s="21">
+        <v>4</v>
+      </c>
+      <c r="D267" s="21">
+        <v>2</v>
+      </c>
+      <c r="E267" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F267" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G267" s="21">
+        <v>0</v>
+      </c>
+      <c r="H267" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B268" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C268" s="21">
+        <v>4</v>
+      </c>
+      <c r="D268" s="21">
+        <v>2</v>
+      </c>
+      <c r="E268" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F268" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G268" s="21">
+        <v>0</v>
+      </c>
+      <c r="H268" s="27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B269" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" s="21">
+        <v>5</v>
+      </c>
+      <c r="D269" s="21">
+        <v>2</v>
+      </c>
+      <c r="E269" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F269" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G269" s="21">
+        <v>0</v>
+      </c>
+      <c r="H269" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B270" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C270" s="21">
+        <v>5</v>
+      </c>
+      <c r="D270" s="21">
+        <v>2</v>
+      </c>
+      <c r="E270" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F270" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G270" s="21">
+        <v>0</v>
+      </c>
+      <c r="H270" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B271" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C271" s="21">
+        <v>5</v>
+      </c>
+      <c r="D271" s="21">
+        <v>2</v>
+      </c>
+      <c r="E271" s="21">
+        <v>3.04</v>
+      </c>
+      <c r="F271" s="21">
+        <v>1.96</v>
+      </c>
+      <c r="G271" s="21">
+        <v>0</v>
+      </c>
+      <c r="H271" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B272" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" s="21">
+        <v>1</v>
+      </c>
+      <c r="D272" s="21">
+        <v>3</v>
+      </c>
+      <c r="E272" s="21">
+        <v>8</v>
+      </c>
+      <c r="F272" s="21">
+        <v>3</v>
+      </c>
+      <c r="G272" s="21">
+        <v>0</v>
+      </c>
+      <c r="H272" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C273" s="21">
+        <v>1</v>
+      </c>
+      <c r="D273" s="21">
+        <v>3</v>
+      </c>
+      <c r="E273" s="21">
+        <v>8</v>
+      </c>
+      <c r="F273" s="21">
+        <v>3</v>
+      </c>
+      <c r="G273" s="21">
+        <v>0</v>
+      </c>
+      <c r="H273" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B274" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C274" s="21">
+        <v>1</v>
+      </c>
+      <c r="D274" s="21">
+        <v>3</v>
+      </c>
+      <c r="E274" s="21">
+        <v>8</v>
+      </c>
+      <c r="F274" s="21">
+        <v>3</v>
+      </c>
+      <c r="G274" s="21">
+        <v>0</v>
+      </c>
+      <c r="H274" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B275" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" s="21">
+        <v>2</v>
+      </c>
+      <c r="D275" s="21">
+        <v>3</v>
+      </c>
+      <c r="E275" s="21">
+        <v>8</v>
+      </c>
+      <c r="F275" s="21">
+        <v>3</v>
+      </c>
+      <c r="G275" s="21">
+        <v>0</v>
+      </c>
+      <c r="H275" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B276" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C276" s="21">
+        <v>2</v>
+      </c>
+      <c r="D276" s="21">
+        <v>3</v>
+      </c>
+      <c r="E276" s="21">
+        <v>8</v>
+      </c>
+      <c r="F276" s="21">
+        <v>3</v>
+      </c>
+      <c r="G276" s="21">
+        <v>0</v>
+      </c>
+      <c r="H276" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277" s="21">
+        <v>2</v>
+      </c>
+      <c r="D277" s="21">
+        <v>3</v>
+      </c>
+      <c r="E277" s="21">
+        <v>8</v>
+      </c>
+      <c r="F277" s="21">
+        <v>3</v>
+      </c>
+      <c r="G277" s="21">
+        <v>0</v>
+      </c>
+      <c r="H277" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" s="21">
+        <v>3</v>
+      </c>
+      <c r="D278" s="21">
+        <v>3</v>
+      </c>
+      <c r="E278" s="21">
+        <v>8</v>
+      </c>
+      <c r="F278" s="21">
+        <v>3</v>
+      </c>
+      <c r="G278" s="21">
+        <v>0</v>
+      </c>
+      <c r="H278" s="28">
+        <v>31</v>
+      </c>
+      <c r="I278" s="22"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B279" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C279" s="21">
+        <v>3</v>
+      </c>
+      <c r="D279" s="21">
+        <v>3</v>
+      </c>
+      <c r="E279" s="21">
+        <v>8</v>
+      </c>
+      <c r="F279" s="21">
+        <v>3</v>
+      </c>
+      <c r="G279" s="21">
+        <v>0</v>
+      </c>
+      <c r="H279" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B280" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" s="21">
+        <v>3</v>
+      </c>
+      <c r="D280" s="21">
+        <v>3</v>
+      </c>
+      <c r="E280" s="21">
+        <v>8</v>
+      </c>
+      <c r="F280" s="21">
+        <v>3</v>
+      </c>
+      <c r="G280" s="21">
+        <v>0</v>
+      </c>
+      <c r="H280" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" s="21">
+        <v>4</v>
+      </c>
+      <c r="D281" s="21">
+        <v>3</v>
+      </c>
+      <c r="E281" s="21">
+        <v>8</v>
+      </c>
+      <c r="F281" s="21">
+        <v>3</v>
+      </c>
+      <c r="G281" s="21">
+        <v>0</v>
+      </c>
+      <c r="H281" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B282" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C282" s="21">
+        <v>4</v>
+      </c>
+      <c r="D282" s="21">
+        <v>3</v>
+      </c>
+      <c r="E282" s="21">
+        <v>8</v>
+      </c>
+      <c r="F282" s="21">
+        <v>3</v>
+      </c>
+      <c r="G282" s="21">
+        <v>0</v>
+      </c>
+      <c r="H282" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B283" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" s="21">
+        <v>4</v>
+      </c>
+      <c r="D283" s="21">
+        <v>3</v>
+      </c>
+      <c r="E283" s="21">
+        <v>8</v>
+      </c>
+      <c r="F283" s="21">
+        <v>3</v>
+      </c>
+      <c r="G283" s="21">
+        <v>0</v>
+      </c>
+      <c r="H283" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B284" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" s="21">
+        <v>5</v>
+      </c>
+      <c r="D284" s="21">
+        <v>3</v>
+      </c>
+      <c r="E284" s="21">
+        <v>8</v>
+      </c>
+      <c r="F284" s="21">
+        <v>3</v>
+      </c>
+      <c r="G284" s="21">
+        <v>0</v>
+      </c>
+      <c r="H284" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C285" s="21">
+        <v>5</v>
+      </c>
+      <c r="D285" s="21">
+        <v>3</v>
+      </c>
+      <c r="E285" s="21">
+        <v>8</v>
+      </c>
+      <c r="F285" s="21">
+        <v>3</v>
+      </c>
+      <c r="G285" s="21">
+        <v>0</v>
+      </c>
+      <c r="H285" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B286" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C286" s="21">
+        <v>5</v>
+      </c>
+      <c r="D286" s="21">
+        <v>3</v>
+      </c>
+      <c r="E286" s="21">
+        <v>8</v>
+      </c>
+      <c r="F286" s="21">
+        <v>3</v>
+      </c>
+      <c r="G286" s="21">
+        <v>0</v>
+      </c>
+      <c r="H286" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B287" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" s="21">
+        <v>1</v>
+      </c>
+      <c r="D287" s="21">
+        <v>4</v>
+      </c>
+      <c r="E287" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F287" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G287" s="21">
+        <v>0</v>
+      </c>
+      <c r="H287" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B288" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C288" s="21">
+        <v>1</v>
+      </c>
+      <c r="D288" s="21">
+        <v>4</v>
+      </c>
+      <c r="E288" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F288" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G288" s="21">
+        <v>0</v>
+      </c>
+      <c r="H288" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B289" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" s="21">
+        <v>1</v>
+      </c>
+      <c r="D289" s="21">
+        <v>4</v>
+      </c>
+      <c r="E289" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F289" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G289" s="21">
+        <v>0</v>
+      </c>
+      <c r="H289" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C290" s="21">
+        <v>2</v>
+      </c>
+      <c r="D290" s="21">
+        <v>4</v>
+      </c>
+      <c r="E290" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F290" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G290" s="21">
+        <v>0</v>
+      </c>
+      <c r="H290" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B291" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C291" s="21">
+        <v>2</v>
+      </c>
+      <c r="D291" s="21">
+        <v>4</v>
+      </c>
+      <c r="E291" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F291" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G291" s="21">
+        <v>0</v>
+      </c>
+      <c r="H291" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B292" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C292" s="21">
+        <v>2</v>
+      </c>
+      <c r="D292" s="21">
+        <v>4</v>
+      </c>
+      <c r="E292" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F292" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G292" s="21">
+        <v>0</v>
+      </c>
+      <c r="H292" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B293" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C293" s="21">
+        <v>3</v>
+      </c>
+      <c r="D293" s="21">
+        <v>4</v>
+      </c>
+      <c r="E293" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F293" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G293" s="21">
+        <v>0</v>
+      </c>
+      <c r="H293" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B294" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C294" s="21">
+        <v>3</v>
+      </c>
+      <c r="D294" s="21">
+        <v>4</v>
+      </c>
+      <c r="E294" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F294" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G294" s="21">
+        <v>0</v>
+      </c>
+      <c r="H294" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B295" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C295" s="21">
+        <v>3</v>
+      </c>
+      <c r="D295" s="21">
+        <v>4</v>
+      </c>
+      <c r="E295" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F295" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G295" s="21">
+        <v>0</v>
+      </c>
+      <c r="H295" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B296" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C296" s="21">
+        <v>4</v>
+      </c>
+      <c r="D296" s="21">
+        <v>4</v>
+      </c>
+      <c r="E296" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F296" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G296" s="21">
+        <v>0</v>
+      </c>
+      <c r="H296" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297" s="21">
+        <v>4</v>
+      </c>
+      <c r="D297" s="21">
+        <v>4</v>
+      </c>
+      <c r="E297" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F297" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G297" s="21">
+        <v>0</v>
+      </c>
+      <c r="H297" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B298" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C298" s="21">
+        <v>4</v>
+      </c>
+      <c r="D298" s="21">
+        <v>4</v>
+      </c>
+      <c r="E298" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F298" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G298" s="21">
+        <v>0</v>
+      </c>
+      <c r="H298" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B299" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" s="21">
+        <v>5</v>
+      </c>
+      <c r="D299" s="21">
+        <v>4</v>
+      </c>
+      <c r="E299" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F299" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G299" s="21">
+        <v>0</v>
+      </c>
+      <c r="H299" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B300" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C300" s="21">
+        <v>5</v>
+      </c>
+      <c r="D300" s="21">
+        <v>4</v>
+      </c>
+      <c r="E300" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F300" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G300" s="21">
+        <v>0</v>
+      </c>
+      <c r="H300" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B301" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C301" s="21">
+        <v>5</v>
+      </c>
+      <c r="D301" s="21">
+        <v>4</v>
+      </c>
+      <c r="E301" s="21">
+        <v>13.7</v>
+      </c>
+      <c r="F301" s="21">
+        <v>3.97</v>
+      </c>
+      <c r="G301" s="21">
+        <v>0</v>
+      </c>
+      <c r="H301" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" s="25"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" s="25"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="K5:S34">
+  <conditionalFormatting pivot="1" sqref="K5:V34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F18F7BB-C721-4F04-A7C3-AB7492191EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA007572-0273-401E-BD80-08101EF48362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13764" yWindow="8628" windowWidth="16080" windowHeight="10788" activeTab="1" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="13764" yWindow="8628" windowWidth="16080" windowHeight="10788" activeTab="3" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Runs" sheetId="2" r:id="rId2"/>
     <sheet name="Simple Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Threading" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="61">
   <si>
     <t>Time (s)</t>
   </si>
@@ -270,6 +271,18 @@
   <si>
     <t>W15tp</t>
   </si>
+  <si>
+    <t>Fake Kernel</t>
+  </si>
+  <si>
+    <t>Real Kernel</t>
+  </si>
+  <si>
+    <t>Fake Chunked</t>
+  </si>
+  <si>
+    <t>Real Chunked</t>
+  </si>
 </sst>
 </file>
 
@@ -478,178 +491,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -720,6 +562,1353 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>H on 1 of 28 qubits, generic</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Threading!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fake Chunked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Threading!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Threading!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-298A-4281-B27F-6BB82231F95B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Threading!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Threading!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Threading!$E$2:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8918918918918919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4324324324324325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5675675675675675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6351351351351351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7702702702702702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8378378378378382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-298A-4281-B27F-6BB82231F95B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Threading!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fake Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Threading!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Threading!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-298A-4281-B27F-6BB82231F95B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Threading!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real Chunked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Threading!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Threading!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9034482758620688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3448275862068964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3448275862068964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3448275862068964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5517241379310347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6206896551724137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6206896551724137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-298A-4281-B27F-6BB82231F95B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="990414448"/>
+        <c:axId val="1109237376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="990414448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109237376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1109237376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990414448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7481214848143992E-2"/>
+          <c:y val="0.17460718194978991"/>
+          <c:w val="0.20122789651293588"/>
+          <c:h val="0.27232854301284087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B091860-DFAD-467F-8248-E3B9CDBA3628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43973.651789467593" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="304" xr:uid="{22FAA616-9F74-4145-9671-E5F5B83F2D90}">
   <cacheSource type="worksheet">
@@ -3832,7 +5021,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
   <location ref="J2:V34" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -4026,36 +5215,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="75">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="15">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="14">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4065,7 +5254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4075,7 +5264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4085,29 +5274,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="8">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="7">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="4">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4117,7 +5306,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -4127,7 +5316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -5480,7 +6669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB803F0-8526-4AD8-A3BB-F38B006D6766}">
   <dimension ref="A1:W304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -15190,4 +16379,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB03F3-1E21-47BB-8249-3AE50B9216F4}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.6</v>
+      </c>
+      <c r="C2">
+        <f>B2/$B$2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1.48</v>
+      </c>
+      <c r="E2">
+        <f>D2/$D$2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3.5</v>
+      </c>
+      <c r="G2">
+        <f>F2/$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.45</v>
+      </c>
+      <c r="I2">
+        <f>H2/$H$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D9" si="0">B3/$B$2</f>
+        <v>1.6538461538461537</v>
+      </c>
+      <c r="D3">
+        <v>2.8</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3/$D$2</f>
+        <v>1.8918918918918919</v>
+      </c>
+      <c r="F3">
+        <v>6.3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">F3/$F$2</f>
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>2.76</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">H3/$H$2</f>
+        <v>1.9034482758620688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="D4">
+        <v>3.7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="F4">
+        <v>7.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="H4">
+        <v>3.4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>2.3448275862068964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7.3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2.8076923076923075</v>
+      </c>
+      <c r="D5">
+        <v>3.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.4324324324324325</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="H5">
+        <v>3.4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2.3448275862068964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.5675675675675675</v>
+      </c>
+      <c r="F6">
+        <v>7.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>2.2285714285714286</v>
+      </c>
+      <c r="H6">
+        <v>3.4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2.3448275862068964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.6351351351351351</v>
+      </c>
+      <c r="F7">
+        <v>7.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2.1714285714285713</v>
+      </c>
+      <c r="H7">
+        <v>3.7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2.5517241379310347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.3846153846153846</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.7702702702702702</v>
+      </c>
+      <c r="F8">
+        <v>7.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>2.0857142857142859</v>
+      </c>
+      <c r="H8">
+        <v>3.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2.6206896551724137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.8378378378378382</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3.8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2.6206896551724137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA007572-0273-401E-BD80-08101EF48362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED315957-07FF-4DDF-AB86-40BABEDEB3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13764" yWindow="8628" windowWidth="16080" windowHeight="10788" activeTab="3" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="13872" yWindow="8628" windowWidth="15972" windowHeight="10788" activeTab="4" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Runs" sheetId="2" r:id="rId2"/>
     <sheet name="Simple Test" sheetId="3" r:id="rId3"/>
     <sheet name="Threading" sheetId="4" r:id="rId4"/>
+    <sheet name="Fusion" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="71">
   <si>
     <t>Time (s)</t>
   </si>
@@ -283,11 +285,44 @@
   <si>
     <t>Real Chunked</t>
   </si>
+  <si>
+    <t>Real 3 Qubit</t>
+  </si>
+  <si>
+    <t>Fuse Size</t>
+  </si>
+  <si>
+    <t>Qubits</t>
+  </si>
+  <si>
+    <t>Speed Up</t>
+  </si>
+  <si>
+    <t>Gates/s</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Fuse Span</t>
+  </si>
+  <si>
+    <t>Qs, Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Up </t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,11 +522,56 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -633,7 +713,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0369853768278968E-2"/>
+          <c:y val="0.13860239162929747"/>
+          <c:w val="0.88433490813648297"/>
+          <c:h val="0.66603727504913901"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1081,6 +1171,118 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Threading!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real 3 Qubit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Threading!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Threading!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2083333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-298A-4281-B27F-6BB82231F95B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1115,6 +1317,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1178,6 +1435,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed Up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1312,7 +1624,911 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[stats.xlsx]Fusion!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Fusion!$J$5:$J$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fusion!$K$5:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2707423580786026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3493449781659388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3100436681222707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.034934497816594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44104803493449779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28820960698689957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD55-4537-8A1F-4B932D836EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Fusion!$J$5:$J$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fusion!$L$5:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2477064220183487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2844036697247707</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2660550458715596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0321100917431192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47247706422018348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30275229357798167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD55-4537-8A1F-4B932D836EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Fusion!$J$5:$J$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fusion!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2560386473429952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2898550724637681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2415458937198067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48309178743961351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3188405797101449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD55-4537-8A1F-4B932D836EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Fusion!$J$5:$J$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fusion!$N$5:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1383647798742138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1761006289308176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1383647798742138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96226415094339623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37106918238993708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD55-4537-8A1F-4B932D836EF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1123732624"/>
+        <c:axId val="1220271952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1123732624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220271952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1220271952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123732624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1868,6 +3084,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1889,6 +3621,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B091860-DFAD-467F-8248-E3B9CDBA3628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D520B-3F0D-40C3-B199-E7B7987A62EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,6 +3748,61 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43974.612683564817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="75" xr:uid="{9170527B-1F1E-436B-88D5-FA411D0FCA7B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:H1048576" sheet="Fusion"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Qubits" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="28" count="3">
+        <n v="28"/>
+        <n v="8"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Threads" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Fuse Size" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="100" count="8">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="50"/>
+        <n v="100"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fuse Span" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Gates/s" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6" maxValue="309"/>
+    </cacheField>
+    <cacheField name="Base" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6" maxValue="229"/>
+    </cacheField>
+    <cacheField name="Speed Up" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.28820960698689957" maxValue="103.66666666666666"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="304">
   <r>
@@ -5013,6 +6841,686 @@
     <x v="5"/>
     <x v="5"/>
     <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="75">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.1"/>
+    <n v="1.6"/>
+    <n v="1.9375"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.6"/>
+    <n v="2.8749999999999996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9.4"/>
+    <n v="1.6"/>
+    <n v="5.875"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="17.3"/>
+    <n v="1.6"/>
+    <n v="10.8125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="80.2"/>
+    <n v="1.6"/>
+    <n v="50.125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="158"/>
+    <n v="1.6"/>
+    <n v="98.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="229"/>
+    <n v="229"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="291"/>
+    <n v="229"/>
+    <n v="1.2707423580786026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="309"/>
+    <n v="229"/>
+    <n v="1.3493449781659388"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="229"/>
+    <n v="1.3100436681222707"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="237"/>
+    <n v="229"/>
+    <n v="1.034934497816594"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="101"/>
+    <n v="229"/>
+    <n v="0.44104803493449779"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="229"/>
+    <n v="0.28820960698689957"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.8"/>
+    <n v="1.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3.5"/>
+    <n v="1.8"/>
+    <n v="1.9444444444444444"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.5"/>
+    <n v="1.8"/>
+    <n v="3.0555555555555554"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="11.2"/>
+    <n v="1.8"/>
+    <n v="6.2222222222222214"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="20.2"/>
+    <n v="1.8"/>
+    <n v="11.222222222222221"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="94.6"/>
+    <n v="1.8"/>
+    <n v="52.55555555555555"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="186.6"/>
+    <n v="1.8"/>
+    <n v="103.66666666666666"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="218"/>
+    <n v="218"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="272"/>
+    <n v="218"/>
+    <n v="1.2477064220183487"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="280"/>
+    <n v="218"/>
+    <n v="1.2844036697247707"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="276"/>
+    <n v="218"/>
+    <n v="1.2660550458715596"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="225"/>
+    <n v="218"/>
+    <n v="1.0321100917431192"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="103"/>
+    <n v="218"/>
+    <n v="0.47247706422018348"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="66"/>
+    <n v="218"/>
+    <n v="0.30275229357798167"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.4"/>
+    <n v="2.4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2.4"/>
+    <n v="2.0833333333333335"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.7"/>
+    <n v="2.4"/>
+    <n v="3.2083333333333335"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="14.6"/>
+    <n v="2.4"/>
+    <n v="6.083333333333333"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="2.4"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="123.8"/>
+    <n v="2.4"/>
+    <n v="51.583333333333336"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="244"/>
+    <n v="2.4"/>
+    <n v="101.66666666666667"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="207"/>
+    <n v="207"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="260"/>
+    <n v="207"/>
+    <n v="1.2560386473429952"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="267"/>
+    <n v="207"/>
+    <n v="1.2898550724637681"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="257"/>
+    <n v="207"/>
+    <n v="1.2415458937198067"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="216"/>
+    <n v="207"/>
+    <n v="1.0434782608695652"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="207"/>
+    <n v="0.48309178743961351"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="66"/>
+    <n v="207"/>
+    <n v="0.3188405797101449"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2.9"/>
+    <n v="2.9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5.8"/>
+    <n v="2.9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8.4"/>
+    <n v="2.9"/>
+    <n v="2.896551724137931"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="16.8"/>
+    <n v="2.9"/>
+    <n v="5.7931034482758621"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="31.7"/>
+    <n v="2.9"/>
+    <n v="10.931034482758621"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="147.69999999999999"/>
+    <n v="2.9"/>
+    <n v="50.931034482758619"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="291.7"/>
+    <n v="2.9"/>
+    <n v="100.58620689655173"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="181"/>
+    <n v="159"/>
+    <n v="1.1383647798742138"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="187"/>
+    <n v="159"/>
+    <n v="1.1761006289308176"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="181"/>
+    <n v="159"/>
+    <n v="1.1383647798742138"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="153"/>
+    <n v="159"/>
+    <n v="0.96226415094339623"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="87"/>
+    <n v="159"/>
+    <n v="0.54716981132075471"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="59"/>
+    <n v="159"/>
+    <n v="0.37106918238993708"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <x v="7"/>
+    <x v="4"/>
     <m/>
     <m/>
     <m/>
@@ -5215,8 +7723,79 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
+    <format dxfId="32">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0"/>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0"/>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0"/>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="18">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -5226,25 +7805,6 @@
       </pivotArea>
     </format>
     <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -5254,7 +7814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -5264,59 +7824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0"/>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0"/>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="0"/>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -5340,6 +7848,216 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+  <location ref="J3:N12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="3">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16383,15 +19101,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB03F3-1E21-47BB-8249-3AE50B9216F4}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -16407,8 +19125,11 @@
       <c r="I1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16440,8 +19161,15 @@
         <f>H2/$H$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>2.4</v>
+      </c>
+      <c r="K2">
+        <f>J2/$J$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16473,8 +19201,15 @@
         <f t="shared" ref="I3:I9" si="3">H3/$H$2</f>
         <v>1.9034482758620688</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="4">J3/$J$2</f>
+        <v>1.8333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16506,8 +19241,15 @@
         <f t="shared" si="3"/>
         <v>2.3448275862068964</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>5.4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16539,8 +19281,15 @@
         <f t="shared" si="3"/>
         <v>2.3448275862068964</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>5.4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16572,8 +19321,15 @@
         <f t="shared" si="3"/>
         <v>2.3448275862068964</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>5.4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16605,8 +19361,15 @@
         <f t="shared" si="3"/>
         <v>2.5517241379310347</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>2.291666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16638,8 +19401,15 @@
         <f t="shared" si="3"/>
         <v>2.6206896551724137</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>5.4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16670,6 +19440,13 @@
       <c r="I9">
         <f t="shared" si="3"/>
         <v>2.6206896551724137</v>
+      </c>
+      <c r="J9">
+        <v>5.3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>2.2083333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -16677,4 +19454,1920 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963EBF3F-DB39-45B2-8282-7F988BA14C2D}">
+  <dimension ref="B1:AF57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="5" width="8.88671875" style="29"/>
+    <col min="6" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="3.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B2" s="29">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H2" s="11">
+        <f>F2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B3" s="29">
+        <v>28</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H8" si="0">F3/G3</f>
+        <v>1.9375</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B4" s="29">
+        <v>28</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B5" s="29">
+        <v>28</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+      <c r="J5" s="23">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B6" s="29">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17.3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>10.8125</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>1</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>1</v>
+      </c>
+      <c r="N6" s="38">
+        <v>1</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B7" s="29">
+        <v>28</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>80.2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>50.125</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="M7" s="38">
+        <v>1.2560386473429952</v>
+      </c>
+      <c r="N7" s="38">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B8" s="29">
+        <v>28</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>158</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>98.75</v>
+      </c>
+      <c r="J8" s="24">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="M8" s="38">
+        <v>1.2898550724637681</v>
+      </c>
+      <c r="N8" s="38">
+        <v>1.1761006289308176</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>229</v>
+      </c>
+      <c r="G9" s="11">
+        <v>229</v>
+      </c>
+      <c r="H9" s="11">
+        <f>F9/G9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>5</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="M9" s="38">
+        <v>1.2415458937198067</v>
+      </c>
+      <c r="N9" s="38">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B10" s="29">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>291</v>
+      </c>
+      <c r="G10" s="11">
+        <v>229</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:H15" si="1">F10/G10</f>
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="J10" s="24">
+        <v>10</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1.034934497816594</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="M10" s="38">
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>309</v>
+      </c>
+      <c r="G11" s="11">
+        <v>229</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="J11" s="24">
+        <v>50</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.48309178743961351</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11">
+        <v>229</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="J12" s="24">
+        <v>100</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B13" s="29">
+        <v>8</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>10</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>237</v>
+      </c>
+      <c r="G13" s="11">
+        <v>229</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.034934497816594</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B14" s="29">
+        <v>8</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>50</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>101</v>
+      </c>
+      <c r="G14" s="11">
+        <v>229</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B15" s="29">
+        <v>8</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>100</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>66</v>
+      </c>
+      <c r="G15" s="11">
+        <v>229</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B16" s="29">
+        <v>28</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H16" s="11">
+        <f>F16/G16</f>
+        <v>1</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B17" s="29">
+        <v>28</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" ref="H17:H22" si="2">F17/G17</f>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B18" s="29">
+        <v>28</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B19" s="29">
+        <v>28</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="2"/>
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B20" s="29">
+        <v>28</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
+        <v>11.222222222222221</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B21" s="29">
+        <v>28</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>50</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="2"/>
+        <v>52.55555555555555</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B22" s="29">
+        <v>28</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>100</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11">
+        <v>186.6</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="2"/>
+        <v>103.66666666666666</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B23" s="29">
+        <v>8</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>218</v>
+      </c>
+      <c r="G23" s="11">
+        <v>218</v>
+      </c>
+      <c r="H23" s="11">
+        <f>F23/G23</f>
+        <v>1</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B24" s="29">
+        <v>8</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>272</v>
+      </c>
+      <c r="G24" s="11">
+        <v>218</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="3">F24/G24</f>
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B25" s="29">
+        <v>8</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29">
+        <v>2</v>
+      </c>
+      <c r="E25" s="29">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>280</v>
+      </c>
+      <c r="G25" s="11">
+        <v>218</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B26" s="29">
+        <v>8</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>276</v>
+      </c>
+      <c r="G26" s="11">
+        <v>218</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B27" s="29">
+        <v>8</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11">
+        <v>225</v>
+      </c>
+      <c r="G27" s="11">
+        <v>218</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B28" s="29">
+        <v>8</v>
+      </c>
+      <c r="C28" s="29">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>103</v>
+      </c>
+      <c r="G28" s="11">
+        <v>218</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="3"/>
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B29" s="29">
+        <v>8</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29">
+        <v>100</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
+        <v>66</v>
+      </c>
+      <c r="G29" s="11">
+        <v>218</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B30" s="29">
+        <v>28</v>
+      </c>
+      <c r="C30" s="29">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H30" s="11">
+        <f>F30/G30</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B31" s="29">
+        <v>28</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>3</v>
+      </c>
+      <c r="F31" s="11">
+        <v>5</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" ref="H31:H36" si="4">F31/G31</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B32" s="29">
+        <v>28</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>2</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="4"/>
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B33" s="29">
+        <v>28</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29">
+        <v>5</v>
+      </c>
+      <c r="E33" s="29">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="4"/>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B34" s="29">
+        <v>28</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>10</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B35" s="29">
+        <v>28</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1</v>
+      </c>
+      <c r="D35" s="29">
+        <v>50</v>
+      </c>
+      <c r="E35" s="29">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11">
+        <v>123.8</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="4"/>
+        <v>51.583333333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B36" s="29">
+        <v>28</v>
+      </c>
+      <c r="C36" s="29">
+        <v>1</v>
+      </c>
+      <c r="D36" s="29">
+        <v>100</v>
+      </c>
+      <c r="E36" s="29">
+        <v>3</v>
+      </c>
+      <c r="F36" s="11">
+        <v>244</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>101.66666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B37" s="29">
+        <v>8</v>
+      </c>
+      <c r="C37" s="29">
+        <v>1</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <v>3</v>
+      </c>
+      <c r="F37" s="11">
+        <v>207</v>
+      </c>
+      <c r="G37" s="11">
+        <v>207</v>
+      </c>
+      <c r="H37" s="11">
+        <f>F37/G37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B38" s="29">
+        <v>8</v>
+      </c>
+      <c r="C38" s="29">
+        <v>1</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11">
+        <v>260</v>
+      </c>
+      <c r="G38" s="11">
+        <v>207</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" ref="H38:H43" si="5">F38/G38</f>
+        <v>1.2560386473429952</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B39" s="29">
+        <v>8</v>
+      </c>
+      <c r="C39" s="29">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29">
+        <v>2</v>
+      </c>
+      <c r="E39" s="29">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>267</v>
+      </c>
+      <c r="G39" s="11">
+        <v>207</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2898550724637681</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B40" s="29">
+        <v>8</v>
+      </c>
+      <c r="C40" s="29">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29">
+        <v>5</v>
+      </c>
+      <c r="E40" s="29">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11">
+        <v>257</v>
+      </c>
+      <c r="G40" s="11">
+        <v>207</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2415458937198067</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B41" s="29">
+        <v>8</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29">
+        <v>10</v>
+      </c>
+      <c r="E41" s="29">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11">
+        <v>216</v>
+      </c>
+      <c r="G41" s="11">
+        <v>207</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0434782608695652</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B42" s="29">
+        <v>8</v>
+      </c>
+      <c r="C42" s="29">
+        <v>1</v>
+      </c>
+      <c r="D42" s="29">
+        <v>50</v>
+      </c>
+      <c r="E42" s="29">
+        <v>3</v>
+      </c>
+      <c r="F42" s="11">
+        <v>100</v>
+      </c>
+      <c r="G42" s="11">
+        <v>207</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="5"/>
+        <v>0.48309178743961351</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B43" s="29">
+        <v>8</v>
+      </c>
+      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29">
+        <v>100</v>
+      </c>
+      <c r="E43" s="29">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11">
+        <v>66</v>
+      </c>
+      <c r="G43" s="11">
+        <v>207</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="5"/>
+        <v>0.3188405797101449</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B44" s="29">
+        <v>28</v>
+      </c>
+      <c r="C44" s="29">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="G44" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H44" s="11">
+        <f>F44/G44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B45" s="29">
+        <v>28</v>
+      </c>
+      <c r="C45" s="29">
+        <v>1</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" ref="H45:H50" si="6">F45/G45</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B46" s="29">
+        <v>28</v>
+      </c>
+      <c r="C46" s="29">
+        <v>1</v>
+      </c>
+      <c r="D46" s="29">
+        <v>2</v>
+      </c>
+      <c r="E46" s="29">
+        <v>4</v>
+      </c>
+      <c r="F46" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="6"/>
+        <v>2.896551724137931</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B47" s="29">
+        <v>28</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29">
+        <v>5</v>
+      </c>
+      <c r="E47" s="29">
+        <v>4</v>
+      </c>
+      <c r="F47" s="11">
+        <v>16.8</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="6"/>
+        <v>5.7931034482758621</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B48" s="29">
+        <v>28</v>
+      </c>
+      <c r="C48" s="29">
+        <v>1</v>
+      </c>
+      <c r="D48" s="29">
+        <v>10</v>
+      </c>
+      <c r="E48" s="29">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11">
+        <v>31.7</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="6"/>
+        <v>10.931034482758621</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="29">
+        <v>28</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1</v>
+      </c>
+      <c r="D49" s="29">
+        <v>50</v>
+      </c>
+      <c r="E49" s="29">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="6"/>
+        <v>50.931034482758619</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="29">
+        <v>28</v>
+      </c>
+      <c r="C50" s="29">
+        <v>1</v>
+      </c>
+      <c r="D50" s="29">
+        <v>100</v>
+      </c>
+      <c r="E50" s="29">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11">
+        <v>291.7</v>
+      </c>
+      <c r="G50" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="6"/>
+        <v>100.58620689655173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="29">
+        <v>8</v>
+      </c>
+      <c r="C51" s="29">
+        <v>1</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29">
+        <v>4</v>
+      </c>
+      <c r="F51" s="11">
+        <v>159</v>
+      </c>
+      <c r="G51" s="11">
+        <v>159</v>
+      </c>
+      <c r="H51" s="11">
+        <f>F51/G51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="29">
+        <v>8</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="29">
+        <v>1</v>
+      </c>
+      <c r="E52" s="29">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11">
+        <v>181</v>
+      </c>
+      <c r="G52" s="11">
+        <v>159</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" ref="H52:H57" si="7">F52/G52</f>
+        <v>1.1383647798742138</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="29">
+        <v>8</v>
+      </c>
+      <c r="C53" s="29">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11">
+        <v>187</v>
+      </c>
+      <c r="G53" s="11">
+        <v>159</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1761006289308176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="29">
+        <v>8</v>
+      </c>
+      <c r="C54" s="29">
+        <v>1</v>
+      </c>
+      <c r="D54" s="29">
+        <v>5</v>
+      </c>
+      <c r="E54" s="29">
+        <v>4</v>
+      </c>
+      <c r="F54" s="11">
+        <v>181</v>
+      </c>
+      <c r="G54" s="11">
+        <v>159</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1383647798742138</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="29">
+        <v>8</v>
+      </c>
+      <c r="C55" s="29">
+        <v>1</v>
+      </c>
+      <c r="D55" s="29">
+        <v>10</v>
+      </c>
+      <c r="E55" s="29">
+        <v>4</v>
+      </c>
+      <c r="F55" s="11">
+        <v>153</v>
+      </c>
+      <c r="G55" s="11">
+        <v>159</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="7"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="29">
+        <v>8</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1</v>
+      </c>
+      <c r="D56" s="29">
+        <v>50</v>
+      </c>
+      <c r="E56" s="29">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11">
+        <v>87</v>
+      </c>
+      <c r="G56" s="11">
+        <v>159</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="7"/>
+        <v>0.54716981132075471</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="29">
+        <v>8</v>
+      </c>
+      <c r="C57" s="29">
+        <v>1</v>
+      </c>
+      <c r="D57" s="29">
+        <v>100</v>
+      </c>
+      <c r="E57" s="29">
+        <v>4</v>
+      </c>
+      <c r="F57" s="11">
+        <v>59</v>
+      </c>
+      <c r="G57" s="11">
+        <v>159</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="7"/>
+        <v>0.37106918238993708</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="K6:N12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED315957-07FF-4DDF-AB86-40BABEDEB3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37812C-7682-48E0-99FC-BEFF69C8DE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="8628" windowWidth="15972" windowHeight="10788" activeTab="4" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="19728" activeTab="4" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="14" r:id="rId7"/>
+    <pivotCache cacheId="11" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="88">
   <si>
     <t>Time (s)</t>
   </si>
@@ -315,6 +315,57 @@
   <si>
     <t>Span</t>
   </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>28,1</t>
+  </si>
+  <si>
+    <t>28,2</t>
+  </si>
+  <si>
+    <t>28,3</t>
+  </si>
+  <si>
+    <t>28,4</t>
+  </si>
+  <si>
+    <t>13,1</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>13,3</t>
+  </si>
+  <si>
+    <t>13,4</t>
+  </si>
+  <si>
+    <t>Simulator</t>
+  </si>
+  <si>
+    <t>18,1</t>
+  </si>
+  <si>
+    <t>18,2</t>
+  </si>
+  <si>
+    <t>18,3</t>
+  </si>
+  <si>
+    <t>18,4</t>
+  </si>
 </sst>
 </file>
 
@@ -529,37 +580,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -1637,259 +1658,116 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[stats.xlsx]Fusion!PivotTable3</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>1-4 Qubit Gates Fused</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Generic,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> 1 thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2666175348771076E-2"/>
+          <c:y val="8.4033613445378144E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9356028772265524E-2"/>
+          <c:y val="7.6391016733767997E-2"/>
+          <c:w val="0.8812122622603209"/>
+          <c:h val="0.82847658748538788"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fusion!$K$3:$K$4</c:f>
+              <c:f>Fusion!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8,1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1898,50 +1776,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Fusion!$J$5:$J$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Fusion!$K$5:$K$12</c:f>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$R$2:$R$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1965,11 +1849,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD55-4537-8A1F-4B932D836EF0}"/>
+              <c16:uniqueId val="{00000000-1C20-478C-99EA-75AB9958F781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1978,17 +1862,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fusion!$L$3:$L$4</c:f>
+              <c:f>Fusion!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>8,2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1997,50 +1881,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Fusion!$J$5:$J$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Fusion!$L$5:$L$12</c:f>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$S$2:$S$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2064,11 +1954,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD55-4537-8A1F-4B932D836EF0}"/>
+              <c16:uniqueId val="{00000001-1C20-478C-99EA-75AB9958F781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2077,17 +1967,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fusion!$M$3:$M$4</c:f>
+              <c:f>Fusion!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8,3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2096,50 +1986,56 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Fusion!$J$5:$J$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>Fusion!$M$5:$M$12</c:f>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$T$2:$T$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2163,11 +2059,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DD55-4537-8A1F-4B932D836EF0}"/>
+              <c16:uniqueId val="{00000002-1C20-478C-99EA-75AB9958F781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2176,17 +2072,17 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fusion!$N$3:$N$4</c:f>
+              <c:f>Fusion!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8,4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2195,78 +2091,1451 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Fusion!$J$5:$J$12</c:f>
-              <c:multiLvlStrCache>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$U$2:$U$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1383647798742138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1761006289308176</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1383647798742138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96226415094339623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54716981132075471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37106918238993708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$V$2:$V$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$W$2:$W$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.55555555555555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$X$2:$X$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2083333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.583333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.66666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>28,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$Y$2:$Y$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.896551724137931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.931034482758619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.58620689655173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>50</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>100</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>8</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Fusion!$N$5:$N$12</c:f>
+              <c:f>Fusion!$Z$2:$Z$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1383647798742138</c:v>
+                  <c:v>1.7906976744186047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1761006289308176</c:v>
+                  <c:v>2.441860465116279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1383647798742138</c:v>
+                  <c:v>3.5813953488372094</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96226415094339623</c:v>
+                  <c:v>3.9534883720930232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54716981132075471</c:v>
+                  <c:v>2.2790697674418605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37106918238993708</c:v>
+                  <c:v>1.4883720930232558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DD55-4537-8A1F-4B932D836EF0}"/>
+              <c16:uniqueId val="{00000008-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AA$2:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.709090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1454545454545455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AB$2:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6338028169014085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0422535211267605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.591549295774648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5211267605633805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3380281690140845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88732394366197187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AC$2:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8133333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-1C20-478C-99EA-75AB9958F781}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AD$2:$AD$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.933333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AE$2:$AE$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AF$2:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1C20-478C-99EA-75AB9958F781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fusion!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Fusion!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Fusion!$AG$2:$AG$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1C20-478C-99EA-75AB9958F781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2278,19 +3547,88 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1123732624"/>
-        <c:axId val="1220271952"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1123732624"/>
+        <c:axId val="1000080207"/>
+        <c:axId val="996962015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1000080207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fusion Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2298,8 +3636,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2326,17 +3664,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220271952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossAx val="996962015"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1220271952"/>
+        <c:axId val="996962015"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2354,14 +3691,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2385,9 +3783,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1123732624"/>
+        <c:crossAx val="1000080207"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2398,10 +3797,24 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6416137637967683E-2"/>
+          <c:y val="0.72857770606728456"/>
+          <c:w val="0.29815971279452136"/>
+          <c:h val="0.16571774682010904"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2469,22 +3882,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3085,7 +4483,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3112,8 +4510,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3193,11 +4591,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3208,11 +4601,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3224,7 +4612,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3244,9 +4632,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3259,10 +4644,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3302,22 +4687,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3422,8 +4808,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3555,19 +4941,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3581,6 +4968,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3645,23 +5043,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640D520B-3F0D-40C3-B199-E7B7987A62EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FE2AF8-2925-4BA6-AC2E-6CD48F429DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3680,6 +5078,52 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15928</cdr:x>
+      <cdr:y>0.67292</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28818</cdr:x>
+      <cdr:y>0.71687</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6D8BF9-37AB-4FF1-8BCF-90A7A6BC3976}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1478280" y="3966210"/>
+          <a:ext cx="1196340" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Qubits, Gate Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3749,15 +5193,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43974.612683564817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="75" xr:uid="{9170527B-1F1E-436B-88D5-FA411D0FCA7B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43975.317485532411" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="120" xr:uid="{9170527B-1F1E-436B-88D5-FA411D0FCA7B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:H1048576" sheet="Fusion"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Qubits" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="28" count="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="28" count="5">
         <n v="28"/>
         <n v="8"/>
+        <n v="13"/>
+        <n v="18"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3777,19 +5223,20 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Fuse Span" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="6">
         <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
+        <n v="0"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Gates/s" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6" maxValue="309"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.4" maxValue="309"/>
     </cacheField>
     <cacheField name="Base" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.6" maxValue="229"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.5" maxValue="229"/>
     </cacheField>
     <cacheField name="Speed Up" numFmtId="2">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.28820960698689957" maxValue="103.66666666666666"/>
@@ -6849,7 +8296,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="75">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
   <r>
     <x v="0"/>
     <n v="1"/>
@@ -7356,171 +8803,576 @@
   </r>
   <r>
     <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="43"/>
+    <n v="1.7906976744186047"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="105"/>
+    <n v="43"/>
+    <n v="2.441860465116279"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="154"/>
+    <n v="43"/>
+    <n v="3.5813953488372094"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="170"/>
+    <n v="43"/>
+    <n v="3.9534883720930232"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="43"/>
+    <n v="2.2790697674418605"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="43"/>
+    <n v="1.4883720930232558"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="94"/>
+    <n v="55"/>
+    <n v="1.709090909090909"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="123"/>
+    <n v="55"/>
+    <n v="2.2363636363636363"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="170"/>
+    <n v="55"/>
+    <n v="3.0909090909090908"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="174"/>
+    <n v="55"/>
+    <n v="3.1636363636363636"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="96"/>
+    <n v="55"/>
+    <n v="1.7454545454545454"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="63"/>
+    <n v="55"/>
+    <n v="1.1454545454545455"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="71"/>
+    <n v="71"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="116"/>
+    <n v="71"/>
+    <n v="1.6338028169014085"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="145"/>
+    <n v="71"/>
+    <n v="2.0422535211267605"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="184"/>
+    <n v="71"/>
+    <n v="2.591549295774648"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="179"/>
+    <n v="71"/>
+    <n v="2.5211267605633805"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="95"/>
+    <n v="71"/>
+    <n v="1.3380281690140845"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="71"/>
+    <n v="0.88732394366197187"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="75"/>
+    <n v="75"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="112"/>
+    <n v="75"/>
+    <n v="1.4933333333333334"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="131"/>
+    <n v="75"/>
+    <n v="1.7466666666666666"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="148"/>
+    <n v="75"/>
+    <n v="1.9733333333333334"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="136"/>
+    <n v="75"/>
+    <n v="1.8133333333333332"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="81"/>
+    <n v="75"/>
+    <n v="1.08"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="55"/>
+    <n v="75"/>
+    <n v="0.73333333333333328"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1.4"/>
+    <n v="1.6"/>
+    <n v="0.87499999999999989"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="1.5"/>
+    <n v="1.6"/>
+    <n v="0.9375"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.5"/>
+    <n v="1.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2.7"/>
+    <n v="1.5"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.8"/>
+    <n v="1.5"/>
+    <n v="2.5333333333333332"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8.6999999999999993"/>
+    <n v="1.5"/>
+    <n v="5.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16.399999999999999"/>
+    <n v="1.5"/>
+    <n v="10.933333333333332"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="1.5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="1.5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="4.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="22.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="41"/>
+    <n v="2"/>
+    <n v="20.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="1.6666666666666667"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="5.666666666666667"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="9.6666666666666661"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="51"/>
+    <n v="3"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="46"/>
+    <n v="3"/>
+    <n v="15.333333333333334"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.6"/>
+    <n v="3"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7.2"/>
+    <n v="3"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11.3"/>
+    <n v="3"/>
+    <n v="3.7666666666666671"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22"/>
+    <n v="3"/>
+    <n v="7.333333333333333"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="34"/>
+    <n v="3"/>
+    <n v="11.333333333333334"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="3"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="42"/>
+    <n v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
     <m/>
     <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="4"/>
+    <x v="5"/>
     <m/>
     <m/>
     <m/>
@@ -7723,36 +9575,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="32">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="19">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="17">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7762,7 +9614,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7772,7 +9624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7782,29 +9634,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="12">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="11">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="10">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="9">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7814,7 +9666,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7824,7 +9676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -7861,14 +9713,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
-  <location ref="J3:N12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+  <location ref="J3:N36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="3">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="5">
         <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -7886,12 +9740,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
+        <item x="5"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7903,9 +9758,81 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="32">
     <i>
       <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i r="1">
       <x/>
@@ -7950,13 +9877,13 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="1">
     <conditionalFormat priority="1">
-      <pivotAreas count="3">
+      <pivotAreas count="6">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
@@ -8005,59 +9932,57 @@
             </reference>
           </references>
         </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -19177,7 +21102,7 @@
         <v>4.3</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D9" si="0">B3/$B$2</f>
+        <f t="shared" ref="C3:C9" si="0">B3/$B$2</f>
         <v>1.6538461538461537</v>
       </c>
       <c r="D3">
@@ -19458,10 +21383,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963EBF3F-DB39-45B2-8282-7F988BA14C2D}">
-  <dimension ref="B1:AF57"/>
+  <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19471,25 +21396,17 @@
     <col min="6" max="9" width="8.88671875" style="11"/>
     <col min="10" max="10" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="3.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.88671875" style="11"/>
+    <col min="17" max="33" width="6.77734375" style="11" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="B1" s="37" t="s">
         <v>63</v>
       </c>
@@ -19513,8 +21430,62 @@
       </c>
       <c r="J1"/>
       <c r="K1"/>
-    </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="29">
         <v>28</v>
       </c>
@@ -19542,8 +21513,62 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-    </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1</v>
+      </c>
+      <c r="S2" s="11">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11">
+        <v>1</v>
+      </c>
+      <c r="U2" s="11">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B3" s="29">
         <v>28</v>
       </c>
@@ -19577,24 +21602,62 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1.2560386473429952</v>
+      </c>
+      <c r="U3" s="11">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="V3" s="11">
+        <v>1.9375</v>
+      </c>
+      <c r="W3" s="11">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>1.7906976744186047</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>1.709090909090909</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>1.6338028169014085</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>1.4933333333333334</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="29">
         <v>28</v>
       </c>
@@ -19634,24 +21697,62 @@
       </c>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="T4" s="11">
+        <v>1.2898550724637681</v>
+      </c>
+      <c r="U4" s="11">
+        <v>1.1761006289308176</v>
+      </c>
+      <c r="V4" s="11">
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="W4" s="11">
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="X4" s="11">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>2.896551724137931</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>2.441860465116279</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>2.2363636363636363</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>2.0422535211267605</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>1.7466666666666666</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>3.7666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B5" s="29">
         <v>28</v>
       </c>
@@ -19683,24 +21784,62 @@
       <c r="N5" s="38"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q5" s="11">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="T5" s="11">
+        <v>1.2415458937198067</v>
+      </c>
+      <c r="U5" s="11">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5.875</v>
+      </c>
+      <c r="W5" s="11">
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="X5" s="11">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>5.7931034482758621</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>3.5813953488372094</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>2.591549295774648</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>1.9733333333333334</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="29">
         <v>28</v>
       </c>
@@ -19740,24 +21879,62 @@
       </c>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q6" s="11">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1.034934497816594</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="V6" s="11">
+        <v>10.8125</v>
+      </c>
+      <c r="W6" s="11">
+        <v>11.222222222222221</v>
+      </c>
+      <c r="X6" s="11">
+        <v>11.25</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>10.931034482758621</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>3.9534883720930232</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>3.1636363636363636</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>2.5211267605633805</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>1.8133333333333332</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>10.933333333333332</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="29">
         <v>28</v>
       </c>
@@ -19797,24 +21974,62 @@
       </c>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q7" s="11">
+        <v>50</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.48309178743961351</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="V7" s="11">
+        <v>50.125</v>
+      </c>
+      <c r="W7" s="11">
+        <v>52.55555555555555</v>
+      </c>
+      <c r="X7" s="11">
+        <v>51.583333333333336</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>50.931034482758619</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>2.2790697674418605</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>1.7454545454545454</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1.3380281690140845</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>17</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="29">
         <v>28</v>
       </c>
@@ -19854,24 +22069,62 @@
       </c>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q8" s="11">
+        <v>100</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="V8" s="11">
+        <v>98.75</v>
+      </c>
+      <c r="W8" s="11">
+        <v>103.66666666666666</v>
+      </c>
+      <c r="X8" s="11">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>100.58620689655173</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>1.4883720930232558</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1.1454545454545455</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0.88732394366197187</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="29">
         <v>8</v>
       </c>
@@ -19911,24 +22164,11 @@
       </c>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="29">
         <v>8</v>
       </c>
@@ -19968,24 +22208,11 @@
       </c>
       <c r="O10"/>
       <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B11" s="29">
         <v>8</v>
       </c>
@@ -20025,24 +22252,11 @@
       </c>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
@@ -20082,24 +22296,11 @@
       </c>
       <c r="O12"/>
       <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="29">
         <v>8</v>
       </c>
@@ -20122,31 +22323,21 @@
         <f t="shared" si="1"/>
         <v>1.034934497816594</v>
       </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
+      <c r="J13" s="23">
+        <v>13</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B14" s="29">
         <v>8</v>
       </c>
@@ -20169,18 +22360,28 @@
         <f t="shared" si="1"/>
         <v>0.44104803493449779</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <v>1</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38">
+        <v>1</v>
+      </c>
+      <c r="N14" s="38">
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="29">
         <v>8</v>
       </c>
@@ -20203,18 +22404,28 @@
         <f t="shared" si="1"/>
         <v>0.28820960698689957</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
+        <v>1.7906976744186047</v>
+      </c>
+      <c r="L15" s="38">
+        <v>1.709090909090909</v>
+      </c>
+      <c r="M15" s="38">
+        <v>1.6338028169014085</v>
+      </c>
+      <c r="N15" s="38">
+        <v>1.4933333333333334</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="29">
         <v>28</v>
       </c>
@@ -20237,18 +22448,28 @@
         <f>F16/G16</f>
         <v>1</v>
       </c>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
+      <c r="J16" s="24">
+        <v>2</v>
+      </c>
+      <c r="K16" s="38">
+        <v>2.441860465116279</v>
+      </c>
+      <c r="L16" s="38">
+        <v>2.2363636363636363</v>
+      </c>
+      <c r="M16" s="38">
+        <v>2.0422535211267605</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1.7466666666666666</v>
+      </c>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B17" s="29">
         <v>28</v>
       </c>
@@ -20271,18 +22492,28 @@
         <f t="shared" ref="H17:H22" si="2">F17/G17</f>
         <v>1.9444444444444444</v>
       </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
+      <c r="J17" s="24">
+        <v>5</v>
+      </c>
+      <c r="K17" s="38">
+        <v>3.5813953488372094</v>
+      </c>
+      <c r="L17" s="38">
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="M17" s="38">
+        <v>2.591549295774648</v>
+      </c>
+      <c r="N17" s="38">
+        <v>1.9733333333333334</v>
+      </c>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B18" s="29">
         <v>28</v>
       </c>
@@ -20305,18 +22536,28 @@
         <f t="shared" si="2"/>
         <v>3.0555555555555554</v>
       </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" s="24">
+        <v>10</v>
+      </c>
+      <c r="K18" s="38">
+        <v>3.9534883720930232</v>
+      </c>
+      <c r="L18" s="38">
+        <v>3.1636363636363636</v>
+      </c>
+      <c r="M18" s="38">
+        <v>2.5211267605633805</v>
+      </c>
+      <c r="N18" s="38">
+        <v>1.8133333333333332</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B19" s="29">
         <v>28</v>
       </c>
@@ -20339,22 +22580,28 @@
         <f t="shared" si="2"/>
         <v>6.2222222222222214</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" s="24">
+        <v>50</v>
+      </c>
+      <c r="K19" s="38">
+        <v>2.2790697674418605</v>
+      </c>
+      <c r="L19" s="38">
+        <v>1.7454545454545454</v>
+      </c>
+      <c r="M19" s="38">
+        <v>1.3380281690140845</v>
+      </c>
+      <c r="N19" s="38">
+        <v>1.08</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B20" s="29">
         <v>28</v>
       </c>
@@ -20377,22 +22624,28 @@
         <f t="shared" si="2"/>
         <v>11.222222222222221</v>
       </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
+      <c r="J20" s="24">
+        <v>100</v>
+      </c>
+      <c r="K20" s="38">
+        <v>1.4883720930232558</v>
+      </c>
+      <c r="L20" s="38">
+        <v>1.1454545454545455</v>
+      </c>
+      <c r="M20" s="38">
+        <v>0.88732394366197187</v>
+      </c>
+      <c r="N20" s="38">
+        <v>0.73333333333333328</v>
+      </c>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B21" s="29">
         <v>28</v>
       </c>
@@ -20415,19 +22668,20 @@
         <f t="shared" si="2"/>
         <v>52.55555555555555</v>
       </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
+      <c r="J21" s="23">
+        <v>18</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B22" s="29">
         <v>28</v>
       </c>
@@ -20450,19 +22704,28 @@
         <f t="shared" si="2"/>
         <v>103.66666666666666</v>
       </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" s="24">
+        <v>0</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
+        <v>1</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1.2</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="29">
         <v>8</v>
       </c>
@@ -20485,19 +22748,28 @@
         <f>F23/G23</f>
         <v>1</v>
       </c>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="L23" s="38">
+        <v>2</v>
+      </c>
+      <c r="M23" s="38">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N23" s="38">
+        <v>2.4</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" s="29">
         <v>8</v>
       </c>
@@ -20520,12 +22792,27 @@
         <f t="shared" ref="H24:H29" si="3">F24/G24</f>
         <v>1.2477064220183487</v>
       </c>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J24" s="24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="38">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="L24" s="38">
+        <v>3</v>
+      </c>
+      <c r="M24" s="38">
+        <v>3</v>
+      </c>
+      <c r="N24" s="38">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B25" s="29">
         <v>8</v>
       </c>
@@ -20548,12 +22835,27 @@
         <f t="shared" si="3"/>
         <v>1.2844036697247707</v>
       </c>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J25" s="24">
+        <v>5</v>
+      </c>
+      <c r="K25" s="38">
+        <v>5.8</v>
+      </c>
+      <c r="L25" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="M25" s="38">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N25" s="38">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B26" s="29">
         <v>8</v>
       </c>
@@ -20576,12 +22878,27 @@
         <f t="shared" si="3"/>
         <v>1.2660550458715596</v>
       </c>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J26" s="24">
+        <v>10</v>
+      </c>
+      <c r="K26" s="38">
+        <v>10.933333333333332</v>
+      </c>
+      <c r="L26" s="38">
+        <v>8.5</v>
+      </c>
+      <c r="M26" s="38">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="N26" s="38">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B27" s="29">
         <v>8</v>
       </c>
@@ -20604,12 +22921,27 @@
         <f t="shared" si="3"/>
         <v>1.0321100917431192</v>
       </c>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J27" s="24">
+        <v>50</v>
+      </c>
+      <c r="K27" s="38">
+        <v>28</v>
+      </c>
+      <c r="L27" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="M27" s="38">
+        <v>17</v>
+      </c>
+      <c r="N27" s="38">
+        <v>19</v>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B28" s="29">
         <v>8</v>
       </c>
@@ -20632,12 +22964,27 @@
         <f t="shared" si="3"/>
         <v>0.47247706422018348</v>
       </c>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J28" s="24">
+        <v>100</v>
+      </c>
+      <c r="K28" s="38">
+        <v>28</v>
+      </c>
+      <c r="L28" s="38">
+        <v>20.5</v>
+      </c>
+      <c r="M28" s="38">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="N28" s="38">
+        <v>14</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B29" s="29">
         <v>8</v>
       </c>
@@ -20660,12 +23007,19 @@
         <f t="shared" si="3"/>
         <v>0.30275229357798167</v>
       </c>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J29" s="23">
+        <v>28</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B30" s="29">
         <v>28</v>
       </c>
@@ -20688,12 +23042,27 @@
         <f>F30/G30</f>
         <v>1</v>
       </c>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="38">
+        <v>1</v>
+      </c>
+      <c r="L30" s="38">
+        <v>1</v>
+      </c>
+      <c r="M30" s="38">
+        <v>1</v>
+      </c>
+      <c r="N30" s="38">
+        <v>1</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B31" s="29">
         <v>28</v>
       </c>
@@ -20716,12 +23085,27 @@
         <f t="shared" ref="H31:H36" si="4">F31/G31</f>
         <v>2.0833333333333335</v>
       </c>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J31" s="24">
+        <v>1</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1.9375</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="M31" s="38">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B32" s="29">
         <v>28</v>
       </c>
@@ -20744,12 +23128,27 @@
         <f t="shared" si="4"/>
         <v>3.2083333333333335</v>
       </c>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J32" s="24">
+        <v>2</v>
+      </c>
+      <c r="K32" s="38">
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="L32" s="38">
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="M32" s="38">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="N32" s="38">
+        <v>2.896551724137931</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B33" s="29">
         <v>28</v>
       </c>
@@ -20772,12 +23171,27 @@
         <f t="shared" si="4"/>
         <v>6.083333333333333</v>
       </c>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J33" s="24">
+        <v>5</v>
+      </c>
+      <c r="K33" s="38">
+        <v>5.875</v>
+      </c>
+      <c r="L33" s="38">
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="M33" s="38">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="N33" s="38">
+        <v>5.7931034482758621</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B34" s="29">
         <v>28</v>
       </c>
@@ -20800,8 +23214,27 @@
         <f t="shared" si="4"/>
         <v>11.25</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J34" s="24">
+        <v>10</v>
+      </c>
+      <c r="K34" s="38">
+        <v>10.8125</v>
+      </c>
+      <c r="L34" s="38">
+        <v>11.222222222222221</v>
+      </c>
+      <c r="M34" s="38">
+        <v>11.25</v>
+      </c>
+      <c r="N34" s="38">
+        <v>10.931034482758621</v>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B35" s="29">
         <v>28</v>
       </c>
@@ -20824,8 +23257,27 @@
         <f t="shared" si="4"/>
         <v>51.583333333333336</v>
       </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J35" s="24">
+        <v>50</v>
+      </c>
+      <c r="K35" s="38">
+        <v>50.125</v>
+      </c>
+      <c r="L35" s="38">
+        <v>52.55555555555555</v>
+      </c>
+      <c r="M35" s="38">
+        <v>51.583333333333336</v>
+      </c>
+      <c r="N35" s="38">
+        <v>50.931034482758619</v>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B36" s="29">
         <v>28</v>
       </c>
@@ -20848,8 +23300,27 @@
         <f t="shared" si="4"/>
         <v>101.66666666666667</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="J36" s="24">
+        <v>100</v>
+      </c>
+      <c r="K36" s="38">
+        <v>98.75</v>
+      </c>
+      <c r="L36" s="38">
+        <v>103.66666666666666</v>
+      </c>
+      <c r="M36" s="38">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="N36" s="38">
+        <v>100.58620689655173</v>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B37" s="29">
         <v>8</v>
       </c>
@@ -20873,7 +23344,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B38" s="29">
         <v>8</v>
       </c>
@@ -20897,7 +23371,10 @@
         <v>1.2560386473429952</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B39" s="29">
         <v>8</v>
       </c>
@@ -20921,7 +23398,10 @@
         <v>1.2898550724637681</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B40" s="29">
         <v>8</v>
       </c>
@@ -20945,7 +23425,10 @@
         <v>1.2415458937198067</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B41" s="29">
         <v>8</v>
       </c>
@@ -20969,7 +23452,10 @@
         <v>1.0434782608695652</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B42" s="29">
         <v>8</v>
       </c>
@@ -20993,7 +23479,10 @@
         <v>0.48309178743961351</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B43" s="29">
         <v>8</v>
       </c>
@@ -21017,7 +23506,10 @@
         <v>0.3188405797101449</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B44" s="29">
         <v>28</v>
       </c>
@@ -21041,7 +23533,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B45" s="29">
         <v>28</v>
       </c>
@@ -21065,7 +23560,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B46" s="29">
         <v>28</v>
       </c>
@@ -21089,7 +23587,10 @@
         <v>2.896551724137931</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B47" s="29">
         <v>28</v>
       </c>
@@ -21113,7 +23614,10 @@
         <v>5.7931034482758621</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B48" s="29">
         <v>28</v>
       </c>
@@ -21137,7 +23641,10 @@
         <v>10.931034482758621</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B49" s="29">
         <v>28</v>
       </c>
@@ -21161,7 +23668,10 @@
         <v>50.931034482758619</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B50" s="29">
         <v>28</v>
       </c>
@@ -21185,7 +23695,10 @@
         <v>100.58620689655173</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B51" s="29">
         <v>8</v>
       </c>
@@ -21209,7 +23722,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B52" s="29">
         <v>8</v>
       </c>
@@ -21233,7 +23749,10 @@
         <v>1.1383647798742138</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B53" s="29">
         <v>8</v>
       </c>
@@ -21257,7 +23776,10 @@
         <v>1.1761006289308176</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B54" s="29">
         <v>8</v>
       </c>
@@ -21281,7 +23803,10 @@
         <v>1.1383647798742138</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B55" s="29">
         <v>8</v>
       </c>
@@ -21305,7 +23830,10 @@
         <v>0.96226415094339623</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B56" s="29">
         <v>8</v>
       </c>
@@ -21329,7 +23857,10 @@
         <v>0.54716981132075471</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B57" s="29">
         <v>8</v>
       </c>
@@ -21353,8 +23884,1709 @@
         <v>0.37106918238993708</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="29">
+        <v>13</v>
+      </c>
+      <c r="C58" s="29">
+        <v>1</v>
+      </c>
+      <c r="D58" s="29">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>43</v>
+      </c>
+      <c r="G58" s="11">
+        <v>43</v>
+      </c>
+      <c r="H58" s="11">
+        <f>F58/G58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="29">
+        <v>13</v>
+      </c>
+      <c r="C59" s="29">
+        <v>1</v>
+      </c>
+      <c r="D59" s="29">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11">
+        <v>77</v>
+      </c>
+      <c r="G59" s="11">
+        <v>43</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" ref="H59:H64" si="8">F59/G59</f>
+        <v>1.7906976744186047</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="29">
+        <v>13</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1</v>
+      </c>
+      <c r="D60" s="29">
+        <v>2</v>
+      </c>
+      <c r="E60" s="29">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
+        <v>105</v>
+      </c>
+      <c r="G60" s="11">
+        <v>43</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="8"/>
+        <v>2.441860465116279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="29">
+        <v>13</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="29">
+        <v>5</v>
+      </c>
+      <c r="E61" s="29">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11">
+        <v>154</v>
+      </c>
+      <c r="G61" s="11">
+        <v>43</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="8"/>
+        <v>3.5813953488372094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="29">
+        <v>13</v>
+      </c>
+      <c r="C62" s="29">
+        <v>1</v>
+      </c>
+      <c r="D62" s="29">
+        <v>10</v>
+      </c>
+      <c r="E62" s="29">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11">
+        <v>170</v>
+      </c>
+      <c r="G62" s="11">
+        <v>43</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="8"/>
+        <v>3.9534883720930232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="29">
+        <v>13</v>
+      </c>
+      <c r="C63" s="29">
+        <v>1</v>
+      </c>
+      <c r="D63" s="29">
+        <v>50</v>
+      </c>
+      <c r="E63" s="29">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11">
+        <v>98</v>
+      </c>
+      <c r="G63" s="11">
+        <v>43</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="8"/>
+        <v>2.2790697674418605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="29">
+        <v>13</v>
+      </c>
+      <c r="C64" s="29">
+        <v>1</v>
+      </c>
+      <c r="D64" s="29">
+        <v>100</v>
+      </c>
+      <c r="E64" s="29">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <v>64</v>
+      </c>
+      <c r="G64" s="11">
+        <v>43</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="8"/>
+        <v>1.4883720930232558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="29">
+        <v>13</v>
+      </c>
+      <c r="C65" s="29">
+        <v>1</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11">
+        <v>55</v>
+      </c>
+      <c r="G65" s="11">
+        <v>55</v>
+      </c>
+      <c r="H65" s="11">
+        <f>F65/G65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="29">
+        <v>13</v>
+      </c>
+      <c r="C66" s="29">
+        <v>1</v>
+      </c>
+      <c r="D66" s="29">
+        <v>1</v>
+      </c>
+      <c r="E66" s="29">
+        <v>2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>94</v>
+      </c>
+      <c r="G66" s="11">
+        <v>55</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" ref="H66:H71" si="9">F66/G66</f>
+        <v>1.709090909090909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="29">
+        <v>13</v>
+      </c>
+      <c r="C67" s="29">
+        <v>1</v>
+      </c>
+      <c r="D67" s="29">
+        <v>2</v>
+      </c>
+      <c r="E67" s="29">
+        <v>2</v>
+      </c>
+      <c r="F67" s="11">
+        <v>123</v>
+      </c>
+      <c r="G67" s="11">
+        <v>55</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="9"/>
+        <v>2.2363636363636363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="29">
+        <v>13</v>
+      </c>
+      <c r="C68" s="29">
+        <v>1</v>
+      </c>
+      <c r="D68" s="29">
+        <v>5</v>
+      </c>
+      <c r="E68" s="29">
+        <v>2</v>
+      </c>
+      <c r="F68" s="11">
+        <v>170</v>
+      </c>
+      <c r="G68" s="11">
+        <v>55</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="9"/>
+        <v>3.0909090909090908</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="29">
+        <v>13</v>
+      </c>
+      <c r="C69" s="29">
+        <v>1</v>
+      </c>
+      <c r="D69" s="29">
+        <v>10</v>
+      </c>
+      <c r="E69" s="29">
+        <v>2</v>
+      </c>
+      <c r="F69" s="11">
+        <v>174</v>
+      </c>
+      <c r="G69" s="11">
+        <v>55</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="9"/>
+        <v>3.1636363636363636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="29">
+        <v>13</v>
+      </c>
+      <c r="C70" s="29">
+        <v>1</v>
+      </c>
+      <c r="D70" s="29">
+        <v>50</v>
+      </c>
+      <c r="E70" s="29">
+        <v>2</v>
+      </c>
+      <c r="F70" s="11">
+        <v>96</v>
+      </c>
+      <c r="G70" s="11">
+        <v>55</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="9"/>
+        <v>1.7454545454545454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="29">
+        <v>13</v>
+      </c>
+      <c r="C71" s="29">
+        <v>1</v>
+      </c>
+      <c r="D71" s="29">
+        <v>100</v>
+      </c>
+      <c r="E71" s="29">
+        <v>2</v>
+      </c>
+      <c r="F71" s="11">
+        <v>63</v>
+      </c>
+      <c r="G71" s="11">
+        <v>55</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="9"/>
+        <v>1.1454545454545455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="29">
+        <v>13</v>
+      </c>
+      <c r="C72" s="29">
+        <v>1</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
+        <v>3</v>
+      </c>
+      <c r="F72" s="11">
+        <v>71</v>
+      </c>
+      <c r="G72" s="11">
+        <v>71</v>
+      </c>
+      <c r="H72" s="11">
+        <f>F72/G72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="29">
+        <v>13</v>
+      </c>
+      <c r="C73" s="29">
+        <v>1</v>
+      </c>
+      <c r="D73" s="29">
+        <v>1</v>
+      </c>
+      <c r="E73" s="29">
+        <v>3</v>
+      </c>
+      <c r="F73" s="11">
+        <v>116</v>
+      </c>
+      <c r="G73" s="11">
+        <v>71</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" ref="H73:H78" si="10">F73/G73</f>
+        <v>1.6338028169014085</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="29">
+        <v>13</v>
+      </c>
+      <c r="C74" s="29">
+        <v>1</v>
+      </c>
+      <c r="D74" s="29">
+        <v>2</v>
+      </c>
+      <c r="E74" s="29">
+        <v>3</v>
+      </c>
+      <c r="F74" s="11">
+        <v>145</v>
+      </c>
+      <c r="G74" s="11">
+        <v>71</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="10"/>
+        <v>2.0422535211267605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="29">
+        <v>13</v>
+      </c>
+      <c r="C75" s="29">
+        <v>1</v>
+      </c>
+      <c r="D75" s="29">
+        <v>5</v>
+      </c>
+      <c r="E75" s="29">
+        <v>3</v>
+      </c>
+      <c r="F75" s="11">
+        <v>184</v>
+      </c>
+      <c r="G75" s="11">
+        <v>71</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="10"/>
+        <v>2.591549295774648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="29">
+        <v>13</v>
+      </c>
+      <c r="C76" s="29">
+        <v>1</v>
+      </c>
+      <c r="D76" s="29">
+        <v>10</v>
+      </c>
+      <c r="E76" s="29">
+        <v>3</v>
+      </c>
+      <c r="F76" s="11">
+        <v>179</v>
+      </c>
+      <c r="G76" s="11">
+        <v>71</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="10"/>
+        <v>2.5211267605633805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="29">
+        <v>13</v>
+      </c>
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="29">
+        <v>50</v>
+      </c>
+      <c r="E77" s="29">
+        <v>3</v>
+      </c>
+      <c r="F77" s="11">
+        <v>95</v>
+      </c>
+      <c r="G77" s="11">
+        <v>71</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="10"/>
+        <v>1.3380281690140845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="29">
+        <v>13</v>
+      </c>
+      <c r="C78" s="29">
+        <v>1</v>
+      </c>
+      <c r="D78" s="29">
+        <v>100</v>
+      </c>
+      <c r="E78" s="29">
+        <v>3</v>
+      </c>
+      <c r="F78" s="11">
+        <v>63</v>
+      </c>
+      <c r="G78" s="11">
+        <v>71</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="10"/>
+        <v>0.88732394366197187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="29">
+        <v>13</v>
+      </c>
+      <c r="C79" s="29">
+        <v>1</v>
+      </c>
+      <c r="D79" s="29">
+        <v>0</v>
+      </c>
+      <c r="E79" s="29">
+        <v>4</v>
+      </c>
+      <c r="F79" s="11">
+        <v>75</v>
+      </c>
+      <c r="G79" s="11">
+        <v>75</v>
+      </c>
+      <c r="H79" s="11">
+        <f>F79/G79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="29">
+        <v>13</v>
+      </c>
+      <c r="C80" s="29">
+        <v>1</v>
+      </c>
+      <c r="D80" s="29">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29">
+        <v>4</v>
+      </c>
+      <c r="F80" s="11">
+        <v>112</v>
+      </c>
+      <c r="G80" s="11">
+        <v>75</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" ref="H80:H85" si="11">F80/G80</f>
+        <v>1.4933333333333334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="29">
+        <v>13</v>
+      </c>
+      <c r="C81" s="29">
+        <v>1</v>
+      </c>
+      <c r="D81" s="29">
+        <v>2</v>
+      </c>
+      <c r="E81" s="29">
+        <v>4</v>
+      </c>
+      <c r="F81" s="11">
+        <v>131</v>
+      </c>
+      <c r="G81" s="11">
+        <v>75</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="11"/>
+        <v>1.7466666666666666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="29">
+        <v>13</v>
+      </c>
+      <c r="C82" s="29">
+        <v>1</v>
+      </c>
+      <c r="D82" s="29">
+        <v>5</v>
+      </c>
+      <c r="E82" s="29">
+        <v>4</v>
+      </c>
+      <c r="F82" s="11">
+        <v>148</v>
+      </c>
+      <c r="G82" s="11">
+        <v>75</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="11"/>
+        <v>1.9733333333333334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="29">
+        <v>13</v>
+      </c>
+      <c r="C83" s="29">
+        <v>1</v>
+      </c>
+      <c r="D83" s="29">
+        <v>10</v>
+      </c>
+      <c r="E83" s="29">
+        <v>4</v>
+      </c>
+      <c r="F83" s="11">
+        <v>136</v>
+      </c>
+      <c r="G83" s="11">
+        <v>75</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="11"/>
+        <v>1.8133333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="29">
+        <v>13</v>
+      </c>
+      <c r="C84" s="29">
+        <v>1</v>
+      </c>
+      <c r="D84" s="29">
+        <v>50</v>
+      </c>
+      <c r="E84" s="29">
+        <v>4</v>
+      </c>
+      <c r="F84" s="11">
+        <v>81</v>
+      </c>
+      <c r="G84" s="11">
+        <v>75</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="11"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="29">
+        <v>13</v>
+      </c>
+      <c r="C85" s="29">
+        <v>1</v>
+      </c>
+      <c r="D85" s="29">
+        <v>100</v>
+      </c>
+      <c r="E85" s="29">
+        <v>4</v>
+      </c>
+      <c r="F85" s="11">
+        <v>55</v>
+      </c>
+      <c r="G85" s="11">
+        <v>75</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="11"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="29">
+        <v>18</v>
+      </c>
+      <c r="C86" s="29">
+        <v>1</v>
+      </c>
+      <c r="D86" s="29">
+        <v>0</v>
+      </c>
+      <c r="E86" s="29">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H86" s="11">
+        <f>F86/G86</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="29">
+        <v>18</v>
+      </c>
+      <c r="C87" s="29">
+        <v>1</v>
+      </c>
+      <c r="D87" s="29">
+        <v>1</v>
+      </c>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G87" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" ref="H87:H92" si="12">F87/G87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="29">
+        <v>18</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1</v>
+      </c>
+      <c r="D88" s="29">
+        <v>2</v>
+      </c>
+      <c r="E88" s="29">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="29">
+        <v>18</v>
+      </c>
+      <c r="C89" s="29">
+        <v>1</v>
+      </c>
+      <c r="D89" s="29">
+        <v>5</v>
+      </c>
+      <c r="E89" s="29">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G89" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="29">
+        <v>18</v>
+      </c>
+      <c r="C90" s="29">
+        <v>1</v>
+      </c>
+      <c r="D90" s="29">
+        <v>10</v>
+      </c>
+      <c r="E90" s="29">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="29">
+        <v>18</v>
+      </c>
+      <c r="C91" s="29">
+        <v>1</v>
+      </c>
+      <c r="D91" s="29">
+        <v>50</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G91" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="12"/>
+        <v>0.87499999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="29">
+        <v>18</v>
+      </c>
+      <c r="C92" s="29">
+        <v>1</v>
+      </c>
+      <c r="D92" s="29">
+        <v>100</v>
+      </c>
+      <c r="E92" s="29">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G92" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="12"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="29">
+        <v>18</v>
+      </c>
+      <c r="C93" s="29">
+        <v>1</v>
+      </c>
+      <c r="D93" s="29">
+        <v>0</v>
+      </c>
+      <c r="E93" s="29">
+        <v>1</v>
+      </c>
+      <c r="F93" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H93" s="11">
+        <f>F93/G93</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="29">
+        <v>18</v>
+      </c>
+      <c r="C94" s="29">
+        <v>1</v>
+      </c>
+      <c r="D94" s="29">
+        <v>1</v>
+      </c>
+      <c r="E94" s="29">
+        <v>1</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" ref="H94:H99" si="13">F94/G94</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="29">
+        <v>18</v>
+      </c>
+      <c r="C95" s="29">
+        <v>1</v>
+      </c>
+      <c r="D95" s="29">
+        <v>2</v>
+      </c>
+      <c r="E95" s="29">
+        <v>1</v>
+      </c>
+      <c r="F95" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="G95" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="13"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="29">
+        <v>18</v>
+      </c>
+      <c r="C96" s="29">
+        <v>1</v>
+      </c>
+      <c r="D96" s="29">
+        <v>5</v>
+      </c>
+      <c r="E96" s="29">
+        <v>1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G96" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="29">
+        <v>18</v>
+      </c>
+      <c r="C97" s="29">
+        <v>1</v>
+      </c>
+      <c r="D97" s="29">
+        <v>10</v>
+      </c>
+      <c r="E97" s="29">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="13"/>
+        <v>10.933333333333332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="29">
+        <v>18</v>
+      </c>
+      <c r="C98" s="29">
+        <v>1</v>
+      </c>
+      <c r="D98" s="29">
+        <v>50</v>
+      </c>
+      <c r="E98" s="29">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>42</v>
+      </c>
+      <c r="G98" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="29">
+        <v>18</v>
+      </c>
+      <c r="C99" s="29">
+        <v>1</v>
+      </c>
+      <c r="D99" s="29">
+        <v>100</v>
+      </c>
+      <c r="E99" s="29">
+        <v>1</v>
+      </c>
+      <c r="F99" s="11">
+        <v>42</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="29">
+        <v>18</v>
+      </c>
+      <c r="C100" s="29">
+        <v>1</v>
+      </c>
+      <c r="D100" s="29">
+        <v>0</v>
+      </c>
+      <c r="E100" s="29">
+        <v>2</v>
+      </c>
+      <c r="F100" s="11">
+        <v>2</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2</v>
+      </c>
+      <c r="H100" s="11">
+        <f>F100/G100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="29">
+        <v>18</v>
+      </c>
+      <c r="C101" s="29">
+        <v>1</v>
+      </c>
+      <c r="D101" s="29">
+        <v>1</v>
+      </c>
+      <c r="E101" s="29">
+        <v>2</v>
+      </c>
+      <c r="F101" s="11">
+        <v>4</v>
+      </c>
+      <c r="G101" s="11">
+        <v>2</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" ref="H101:H106" si="14">F101/G101</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="29">
+        <v>18</v>
+      </c>
+      <c r="C102" s="29">
+        <v>1</v>
+      </c>
+      <c r="D102" s="29">
+        <v>2</v>
+      </c>
+      <c r="E102" s="29">
+        <v>2</v>
+      </c>
+      <c r="F102" s="11">
+        <v>6</v>
+      </c>
+      <c r="G102" s="11">
+        <v>2</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="29">
+        <v>18</v>
+      </c>
+      <c r="C103" s="29">
+        <v>1</v>
+      </c>
+      <c r="D103" s="29">
+        <v>5</v>
+      </c>
+      <c r="E103" s="29">
+        <v>2</v>
+      </c>
+      <c r="F103" s="11">
+        <v>9</v>
+      </c>
+      <c r="G103" s="11">
+        <v>2</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="29">
+        <v>18</v>
+      </c>
+      <c r="C104" s="29">
+        <v>1</v>
+      </c>
+      <c r="D104" s="29">
+        <v>10</v>
+      </c>
+      <c r="E104" s="29">
+        <v>2</v>
+      </c>
+      <c r="F104" s="11">
+        <v>17</v>
+      </c>
+      <c r="G104" s="11">
+        <v>2</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="29">
+        <v>18</v>
+      </c>
+      <c r="C105" s="29">
+        <v>1</v>
+      </c>
+      <c r="D105" s="29">
+        <v>50</v>
+      </c>
+      <c r="E105" s="29">
+        <v>2</v>
+      </c>
+      <c r="F105" s="11">
+        <v>45</v>
+      </c>
+      <c r="G105" s="11">
+        <v>2</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="14"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="29">
+        <v>18</v>
+      </c>
+      <c r="C106" s="29">
+        <v>1</v>
+      </c>
+      <c r="D106" s="29">
+        <v>100</v>
+      </c>
+      <c r="E106" s="29">
+        <v>2</v>
+      </c>
+      <c r="F106" s="11">
+        <v>41</v>
+      </c>
+      <c r="G106" s="11">
+        <v>2</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="14"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="29">
+        <v>18</v>
+      </c>
+      <c r="C107" s="29">
+        <v>1</v>
+      </c>
+      <c r="D107" s="29">
+        <v>0</v>
+      </c>
+      <c r="E107" s="29">
+        <v>3</v>
+      </c>
+      <c r="F107" s="11">
+        <v>3</v>
+      </c>
+      <c r="G107" s="11">
+        <v>3</v>
+      </c>
+      <c r="H107" s="11">
+        <f>F107/G107</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="29">
+        <v>18</v>
+      </c>
+      <c r="C108" s="29">
+        <v>1</v>
+      </c>
+      <c r="D108" s="29">
+        <v>1</v>
+      </c>
+      <c r="E108" s="29">
+        <v>3</v>
+      </c>
+      <c r="F108" s="11">
+        <v>5</v>
+      </c>
+      <c r="G108" s="11">
+        <v>3</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" ref="H108:H113" si="15">F108/G108</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="29">
+        <v>18</v>
+      </c>
+      <c r="C109" s="29">
+        <v>1</v>
+      </c>
+      <c r="D109" s="29">
+        <v>2</v>
+      </c>
+      <c r="E109" s="29">
+        <v>3</v>
+      </c>
+      <c r="F109" s="11">
+        <v>9</v>
+      </c>
+      <c r="G109" s="11">
+        <v>3</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="29">
+        <v>18</v>
+      </c>
+      <c r="C110" s="29">
+        <v>1</v>
+      </c>
+      <c r="D110" s="29">
+        <v>5</v>
+      </c>
+      <c r="E110" s="29">
+        <v>3</v>
+      </c>
+      <c r="F110" s="11">
+        <v>17</v>
+      </c>
+      <c r="G110" s="11">
+        <v>3</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="15"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="29">
+        <v>18</v>
+      </c>
+      <c r="C111" s="29">
+        <v>1</v>
+      </c>
+      <c r="D111" s="29">
+        <v>10</v>
+      </c>
+      <c r="E111" s="29">
+        <v>3</v>
+      </c>
+      <c r="F111" s="11">
+        <v>29</v>
+      </c>
+      <c r="G111" s="11">
+        <v>3</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="29">
+        <v>18</v>
+      </c>
+      <c r="C112" s="29">
+        <v>1</v>
+      </c>
+      <c r="D112" s="29">
+        <v>50</v>
+      </c>
+      <c r="E112" s="29">
+        <v>3</v>
+      </c>
+      <c r="F112" s="11">
+        <v>51</v>
+      </c>
+      <c r="G112" s="11">
+        <v>3</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="29">
+        <v>18</v>
+      </c>
+      <c r="C113" s="29">
+        <v>1</v>
+      </c>
+      <c r="D113" s="29">
+        <v>100</v>
+      </c>
+      <c r="E113" s="29">
+        <v>3</v>
+      </c>
+      <c r="F113" s="11">
+        <v>46</v>
+      </c>
+      <c r="G113" s="11">
+        <v>3</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="15"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="29">
+        <v>18</v>
+      </c>
+      <c r="C114" s="29">
+        <v>1</v>
+      </c>
+      <c r="D114" s="29">
+        <v>0</v>
+      </c>
+      <c r="E114" s="29">
+        <v>4</v>
+      </c>
+      <c r="F114" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="G114" s="11">
+        <v>3</v>
+      </c>
+      <c r="H114" s="11">
+        <f>F114/G114</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="29">
+        <v>18</v>
+      </c>
+      <c r="C115" s="29">
+        <v>1</v>
+      </c>
+      <c r="D115" s="29">
+        <v>1</v>
+      </c>
+      <c r="E115" s="29">
+        <v>4</v>
+      </c>
+      <c r="F115" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="G115" s="11">
+        <v>3</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" ref="H115:H120" si="16">F115/G115</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="29">
+        <v>18</v>
+      </c>
+      <c r="C116" s="29">
+        <v>1</v>
+      </c>
+      <c r="D116" s="29">
+        <v>2</v>
+      </c>
+      <c r="E116" s="29">
+        <v>4</v>
+      </c>
+      <c r="F116" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="G116" s="11">
+        <v>3</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="16"/>
+        <v>3.7666666666666671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="29">
+        <v>18</v>
+      </c>
+      <c r="C117" s="29">
+        <v>1</v>
+      </c>
+      <c r="D117" s="29">
+        <v>5</v>
+      </c>
+      <c r="E117" s="29">
+        <v>4</v>
+      </c>
+      <c r="F117" s="11">
+        <v>22</v>
+      </c>
+      <c r="G117" s="11">
+        <v>3</v>
+      </c>
+      <c r="H117" s="11">
+        <f t="shared" si="16"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="29">
+        <v>18</v>
+      </c>
+      <c r="C118" s="29">
+        <v>1</v>
+      </c>
+      <c r="D118" s="29">
+        <v>10</v>
+      </c>
+      <c r="E118" s="29">
+        <v>4</v>
+      </c>
+      <c r="F118" s="11">
+        <v>34</v>
+      </c>
+      <c r="G118" s="11">
+        <v>3</v>
+      </c>
+      <c r="H118" s="11">
+        <f t="shared" si="16"/>
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="29">
+        <v>18</v>
+      </c>
+      <c r="C119" s="29">
+        <v>1</v>
+      </c>
+      <c r="D119" s="29">
+        <v>50</v>
+      </c>
+      <c r="E119" s="29">
+        <v>4</v>
+      </c>
+      <c r="F119" s="11">
+        <v>57</v>
+      </c>
+      <c r="G119" s="11">
+        <v>3</v>
+      </c>
+      <c r="H119" s="11">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="29">
+        <v>18</v>
+      </c>
+      <c r="C120" s="29">
+        <v>1</v>
+      </c>
+      <c r="D120" s="29">
+        <v>100</v>
+      </c>
+      <c r="E120" s="29">
+        <v>4</v>
+      </c>
+      <c r="F120" s="11">
+        <v>42</v>
+      </c>
+      <c r="G120" s="11">
+        <v>3</v>
+      </c>
+      <c r="H120" s="11">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="K6:N12">
+  <conditionalFormatting pivot="1" sqref="K6:N12 K13:N13 K14:N20 K29:N29 K30:N36 K22:N28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37812C-7682-48E0-99FC-BEFF69C8DE8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA92171-6031-4F07-9E34-8B0C3D4ECE0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="19728" activeTab="4" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30168" windowHeight="19728" firstSheet="1" activeTab="4" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="Simple Test" sheetId="3" r:id="rId3"/>
     <sheet name="Threading" sheetId="4" r:id="rId4"/>
     <sheet name="Fusion" sheetId="5" r:id="rId5"/>
+    <sheet name="Fusion (2)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="92">
   <si>
     <t>Time (s)</t>
   </si>
@@ -365,6 +367,18 @@
   </si>
   <si>
     <t>18,4</t>
+  </si>
+  <si>
+    <t>13,1*</t>
+  </si>
+  <si>
+    <t>13,2*</t>
+  </si>
+  <si>
+    <t>13,3*</t>
+  </si>
+  <si>
+    <t>13,4*</t>
   </si>
 </sst>
 </file>
@@ -3886,6 +3900,1328 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>1-4 Qubit Gates Fused</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Generic,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> 1 thread</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2666175348771076E-2"/>
+          <c:y val="8.4033613445378144E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9356028772265524E-2"/>
+          <c:y val="7.6391016733767997E-2"/>
+          <c:w val="0.8812122622603209"/>
+          <c:h val="0.82847658748538788"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Z$2:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7906976744186047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.441860465116279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5813953488372094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9534883720930232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2790697674418605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4883720930232558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AA$2:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.709090909090909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2363636363636363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1454545454545455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AB$2:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6338028169014085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0422535211267605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.591549295774648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5211267605633805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3380281690140845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88732394366197187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AC$2:$AC$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7466666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9733333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8133333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,1*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AH$2:$AH$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8478260869565217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0652173913043477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5217391304347823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.978260869565217</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.586956521739131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,2*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AI$2:$AI$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7166666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0333333333333332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,3*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AJ$2:$AJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98765432098765427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2962962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.617283950617284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2469135802469138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6913580246913584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fusion (2)'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13,4*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$Q$2:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fusion (2)'!$AK$2:$AK$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98863636363636365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2954545454545454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7840909090909092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2840909090909092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4318181818181817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-9AEF-4CEB-8FB9-9950EEA63447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1000080207"/>
+        <c:axId val="996962015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1000080207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Fusion Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="996962015"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="996962015"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1000080207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6416137637967683E-2"/>
+          <c:y val="0.82769427577208954"/>
+          <c:w val="0.29815971279452136"/>
+          <c:h val="6.6601177115304028E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3927,6 +5263,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4998,6 +6374,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5081,6 +6973,95 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.15928</cdr:x>
+      <cdr:y>0.67292</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28818</cdr:x>
+      <cdr:y>0.71687</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6D8BF9-37AB-4FF1-8BCF-90A7A6BC3976}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1478280" y="3966210"/>
+          <a:ext cx="1196340" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Qubits, Gate Size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741D4AE4-2318-49D9-928B-9DC29FF4B819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5250,6 +7231,64 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43975.553922453706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="120" xr:uid="{A50E2393-BF3D-4AAC-AF53-BD5B12BC179E}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:H1048576" sheet="Fusion (2)"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Qubits" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="28" count="5">
+        <n v="28"/>
+        <n v="8"/>
+        <n v="13"/>
+        <n v="18"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Threads" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Fuse Size" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="100" count="8">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="50"/>
+        <n v="100"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fuse Span" numFmtId="1">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="4" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="0"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Gates/s" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.4" maxValue="625"/>
+    </cacheField>
+    <cacheField name="Base" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.5" maxValue="229"/>
+    </cacheField>
+    <cacheField name="Speed Up" numFmtId="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.28820960698689957" maxValue="103.66666666666666"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="304">
   <r>
@@ -9052,6 +11091,1091 @@
     <n v="55"/>
     <n v="75"/>
     <n v="0.73333333333333328"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="1.4"/>
+    <n v="1.6"/>
+    <n v="0.87499999999999989"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="1.5"/>
+    <n v="1.6"/>
+    <n v="0.9375"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.5"/>
+    <n v="1.5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2.7"/>
+    <n v="1.5"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.8"/>
+    <n v="1.5"/>
+    <n v="2.5333333333333332"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8.6999999999999993"/>
+    <n v="1.5"/>
+    <n v="5.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16.399999999999999"/>
+    <n v="1.5"/>
+    <n v="10.933333333333332"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="1.5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="42"/>
+    <n v="1.5"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="4.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="2"/>
+    <n v="8.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="22.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="41"/>
+    <n v="2"/>
+    <n v="20.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="1.6666666666666667"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="5.666666666666667"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="29"/>
+    <n v="3"/>
+    <n v="9.6666666666666661"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="51"/>
+    <n v="3"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="46"/>
+    <n v="3"/>
+    <n v="15.333333333333334"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.6"/>
+    <n v="3"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7.2"/>
+    <n v="3"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11.3"/>
+    <n v="3"/>
+    <n v="3.7666666666666671"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="22"/>
+    <n v="3"/>
+    <n v="7.333333333333333"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="34"/>
+    <n v="3"/>
+    <n v="11.333333333333334"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="57"/>
+    <n v="3"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="42"/>
+    <n v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.6"/>
+    <n v="1.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.1"/>
+    <n v="1.6"/>
+    <n v="1.9375"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.5999999999999996"/>
+    <n v="1.6"/>
+    <n v="2.8749999999999996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9.4"/>
+    <n v="1.6"/>
+    <n v="5.875"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="17.3"/>
+    <n v="1.6"/>
+    <n v="10.8125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="80.2"/>
+    <n v="1.6"/>
+    <n v="50.125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="158"/>
+    <n v="1.6"/>
+    <n v="98.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="229"/>
+    <n v="229"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="291"/>
+    <n v="229"/>
+    <n v="1.2707423580786026"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="309"/>
+    <n v="229"/>
+    <n v="1.3493449781659388"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="229"/>
+    <n v="1.3100436681222707"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="237"/>
+    <n v="229"/>
+    <n v="1.034934497816594"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="101"/>
+    <n v="229"/>
+    <n v="0.44104803493449779"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="66"/>
+    <n v="229"/>
+    <n v="0.28820960698689957"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.8"/>
+    <n v="1.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="3.5"/>
+    <n v="1.8"/>
+    <n v="1.9444444444444444"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.5"/>
+    <n v="1.8"/>
+    <n v="3.0555555555555554"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="11.2"/>
+    <n v="1.8"/>
+    <n v="6.2222222222222214"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="20.2"/>
+    <n v="1.8"/>
+    <n v="11.222222222222221"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="94.6"/>
+    <n v="1.8"/>
+    <n v="52.55555555555555"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="186.6"/>
+    <n v="1.8"/>
+    <n v="103.66666666666666"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="218"/>
+    <n v="218"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="272"/>
+    <n v="218"/>
+    <n v="1.2477064220183487"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="280"/>
+    <n v="218"/>
+    <n v="1.2844036697247707"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="276"/>
+    <n v="218"/>
+    <n v="1.2660550458715596"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="225"/>
+    <n v="218"/>
+    <n v="1.0321100917431192"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="103"/>
+    <n v="218"/>
+    <n v="0.47247706422018348"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="66"/>
+    <n v="218"/>
+    <n v="0.30275229357798167"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2.4"/>
+    <n v="2.4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2.4"/>
+    <n v="2.0833333333333335"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7.7"/>
+    <n v="2.4"/>
+    <n v="3.2083333333333335"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="14.6"/>
+    <n v="2.4"/>
+    <n v="6.083333333333333"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="27"/>
+    <n v="2.4"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="123.8"/>
+    <n v="2.4"/>
+    <n v="51.583333333333336"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="244"/>
+    <n v="2.4"/>
+    <n v="101.66666666666667"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="207"/>
+    <n v="207"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="260"/>
+    <n v="207"/>
+    <n v="1.2560386473429952"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="267"/>
+    <n v="207"/>
+    <n v="1.2898550724637681"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="257"/>
+    <n v="207"/>
+    <n v="1.2415458937198067"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="216"/>
+    <n v="207"/>
+    <n v="1.0434782608695652"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="207"/>
+    <n v="0.48309178743961351"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="66"/>
+    <n v="207"/>
+    <n v="0.3188405797101449"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2.9"/>
+    <n v="2.9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5.8"/>
+    <n v="2.9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8.4"/>
+    <n v="2.9"/>
+    <n v="2.896551724137931"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="16.8"/>
+    <n v="2.9"/>
+    <n v="5.7931034482758621"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="31.7"/>
+    <n v="2.9"/>
+    <n v="10.931034482758621"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="147.69999999999999"/>
+    <n v="2.9"/>
+    <n v="50.931034482758619"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="291.7"/>
+    <n v="2.9"/>
+    <n v="100.58620689655173"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="181"/>
+    <n v="159"/>
+    <n v="1.1383647798742138"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="187"/>
+    <n v="159"/>
+    <n v="1.1761006289308176"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="181"/>
+    <n v="159"/>
+    <n v="1.1383647798742138"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="153"/>
+    <n v="159"/>
+    <n v="0.96226415094339623"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="87"/>
+    <n v="159"/>
+    <n v="0.54716981132075471"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="59"/>
+    <n v="159"/>
+    <n v="0.37106918238993708"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="46"/>
+    <n v="1.8478260869565217"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="187"/>
+    <n v="46"/>
+    <n v="4.0652173913043477"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="300"/>
+    <n v="46"/>
+    <n v="6.5217391304347823"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="551"/>
+    <n v="46"/>
+    <n v="11.978260869565217"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="625"/>
+    <n v="46"/>
+    <n v="13.586956521739131"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="60"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="59"/>
+    <n v="60"/>
+    <n v="0.98333333333333328"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="112"/>
+    <n v="60"/>
+    <n v="1.8666666666666667"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="223"/>
+    <n v="60"/>
+    <n v="3.7166666666666668"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="334"/>
+    <n v="60"/>
+    <n v="5.5666666666666664"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="518"/>
+    <n v="60"/>
+    <n v="8.6333333333333329"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="542"/>
+    <n v="60"/>
+    <n v="9.0333333333333332"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="81"/>
+    <n v="0.98765432098765427"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="141"/>
+    <n v="81"/>
+    <n v="1.7407407407407407"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="267"/>
+    <n v="81"/>
+    <n v="3.2962962962962963"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="374"/>
+    <n v="81"/>
+    <n v="4.617283950617284"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="506"/>
+    <n v="81"/>
+    <n v="6.2469135802469138"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="542"/>
+    <n v="81"/>
+    <n v="6.6913580246913584"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="88"/>
+    <n v="88"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="87"/>
+    <n v="88"/>
+    <n v="0.98863636363636365"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="136"/>
+    <n v="88"/>
+    <n v="1.5454545454545454"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="202"/>
+    <n v="88"/>
+    <n v="2.2954545454545454"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="245"/>
+    <n v="88"/>
+    <n v="2.7840909090909092"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="289"/>
+    <n v="88"/>
+    <n v="3.2840909090909092"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="302"/>
+    <n v="88"/>
+    <n v="3.4318181818181817"/>
   </r>
   <r>
     <x v="3"/>
@@ -9713,7 +12837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
   <location ref="J3:N36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -9878,6 +13002,289 @@
   </dataFields>
   <formats count="1">
     <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="6">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{978B9CE9-7C66-406A-9101-DCFFCF2A4F38}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+  <location ref="J3:N36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item h="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="32">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21385,8 +24792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963EBF3F-DB39-45B2-8282-7F988BA14C2D}">
   <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25602,4 +29009,4323 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EE0BEC-398D-41EB-94AE-567DFD002B88}">
+  <dimension ref="A1:AK120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="5" width="8.88671875" style="29"/>
+    <col min="6" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="33" width="6.77734375" style="11" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="Q1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="29">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H2" s="11">
+        <f>F2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>1</v>
+      </c>
+      <c r="S2" s="11">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11">
+        <v>1</v>
+      </c>
+      <c r="U2" s="11">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="29">
+        <v>28</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3.1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3:H8" si="0">F3/G3</f>
+        <v>1.9375</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1.2560386473429952</v>
+      </c>
+      <c r="U3" s="11">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="V3" s="11">
+        <v>1.9375</v>
+      </c>
+      <c r="W3" s="11">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>1.7906976744186047</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>1.709090909090909</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>1.6338028169014085</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>1.4933333333333334</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>0.98863636363636365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="29">
+        <v>28</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="T4" s="11">
+        <v>1.2898550724637681</v>
+      </c>
+      <c r="U4" s="11">
+        <v>1.1761006289308176</v>
+      </c>
+      <c r="V4" s="11">
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="W4" s="11">
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="X4" s="11">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>2.896551724137931</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>2.441860465116279</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>2.2363636363636363</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>2.0422535211267605</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>1.7466666666666666</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>1.8478260869565217</v>
+      </c>
+      <c r="AI4" s="11">
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="AJ4" s="11">
+        <v>1.7407407407407407</v>
+      </c>
+      <c r="AK4" s="11">
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="29">
+        <v>28</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>5.875</v>
+      </c>
+      <c r="J5" s="23">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" s="11">
+        <v>5</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="T5" s="11">
+        <v>1.2415458937198067</v>
+      </c>
+      <c r="U5" s="11">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="V5" s="11">
+        <v>5.875</v>
+      </c>
+      <c r="W5" s="11">
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="X5" s="11">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>5.7931034482758621</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>3.5813953488372094</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>2.591549295774648</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>1.9733333333333334</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AF5" s="11">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="AH5" s="11">
+        <v>4.0652173913043477</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>3.7166666666666668</v>
+      </c>
+      <c r="AJ5" s="11">
+        <v>3.2962962962962963</v>
+      </c>
+      <c r="AK5" s="11">
+        <v>2.2954545454545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29">
+        <v>28</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>17.3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="0"/>
+        <v>10.8125</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>1</v>
+      </c>
+      <c r="L6" s="38">
+        <v>1</v>
+      </c>
+      <c r="M6" s="38">
+        <v>1</v>
+      </c>
+      <c r="N6" s="38">
+        <v>1</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" s="11">
+        <v>10</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1.034934497816594</v>
+      </c>
+      <c r="S6" s="11">
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="U6" s="11">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="V6" s="11">
+        <v>10.8125</v>
+      </c>
+      <c r="W6" s="11">
+        <v>11.222222222222221</v>
+      </c>
+      <c r="X6" s="11">
+        <v>11.25</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>10.931034482758621</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>3.9534883720930232</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>3.1636363636363636</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>2.5211267605633805</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>1.8133333333333332</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>10.933333333333332</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="AI6" s="11">
+        <v>5.5666666666666664</v>
+      </c>
+      <c r="AJ6" s="11">
+        <v>4.617283950617284</v>
+      </c>
+      <c r="AK6" s="11">
+        <v>2.7840909090909092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="29">
+        <v>28</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>80.2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>50.125</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="38">
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="L7" s="38">
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="M7" s="38">
+        <v>1.2560386473429952</v>
+      </c>
+      <c r="N7" s="38">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="11">
+        <v>50</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.48309178743961351</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="V7" s="11">
+        <v>50.125</v>
+      </c>
+      <c r="W7" s="11">
+        <v>52.55555555555555</v>
+      </c>
+      <c r="X7" s="11">
+        <v>51.583333333333336</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>50.931034482758619</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>2.2790697674418605</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>1.7454545454545454</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1.3380281690140845</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>22.5</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>17</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>11.978260869565217</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>8.6333333333333329</v>
+      </c>
+      <c r="AJ7" s="11">
+        <v>6.2469135802469138</v>
+      </c>
+      <c r="AK7" s="11">
+        <v>3.2840909090909092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="29">
+        <v>28</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>158</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>98.75</v>
+      </c>
+      <c r="J8" s="24">
+        <v>2</v>
+      </c>
+      <c r="K8" s="38">
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="L8" s="38">
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="M8" s="38">
+        <v>1.2898550724637681</v>
+      </c>
+      <c r="N8" s="38">
+        <v>1.1761006289308176</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="11">
+        <v>100</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="T8" s="11">
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="V8" s="11">
+        <v>98.75</v>
+      </c>
+      <c r="W8" s="11">
+        <v>103.66666666666666</v>
+      </c>
+      <c r="X8" s="11">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>100.58620689655173</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>1.4883720930232558</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1.1454545454545455</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0.88732394366197187</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>13.586956521739131</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>9.0333333333333332</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>6.6913580246913584</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>3.4318181818181817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="29">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>229</v>
+      </c>
+      <c r="G9" s="11">
+        <v>229</v>
+      </c>
+      <c r="H9" s="11">
+        <f>F9/G9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <v>5</v>
+      </c>
+      <c r="K9" s="38">
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="L9" s="38">
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="M9" s="38">
+        <v>1.2415458937198067</v>
+      </c>
+      <c r="N9" s="38">
+        <v>1.1383647798742138</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="29">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>291</v>
+      </c>
+      <c r="G10" s="11">
+        <v>229</v>
+      </c>
+      <c r="H10" s="11">
+        <f t="shared" ref="H10:H15" si="1">F10/G10</f>
+        <v>1.2707423580786026</v>
+      </c>
+      <c r="J10" s="24">
+        <v>10</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1.034934497816594</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="M10" s="38">
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="29">
+        <v>8</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>309</v>
+      </c>
+      <c r="G11" s="11">
+        <v>229</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3493449781659388</v>
+      </c>
+      <c r="J11" s="24">
+        <v>50</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0.48309178743961351</v>
+      </c>
+      <c r="N11" s="38">
+        <v>0.54716981132075471</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" s="29">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11">
+        <v>229</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3100436681222707</v>
+      </c>
+      <c r="J12" s="24">
+        <v>100</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="M12" s="38">
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="N12" s="38">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="29">
+        <v>8</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>10</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>237</v>
+      </c>
+      <c r="G13" s="11">
+        <v>229</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.034934497816594</v>
+      </c>
+      <c r="J13" s="23">
+        <v>13</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="29">
+        <v>8</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>50</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>101</v>
+      </c>
+      <c r="G14" s="11">
+        <v>229</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.44104803493449779</v>
+      </c>
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <v>1</v>
+      </c>
+      <c r="L14" s="38">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38">
+        <v>1</v>
+      </c>
+      <c r="N14" s="38">
+        <v>1</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="29">
+        <v>8</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>100</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>66</v>
+      </c>
+      <c r="G15" s="11">
+        <v>229</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>0.28820960698689957</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="38">
+        <v>1</v>
+      </c>
+      <c r="L15" s="38">
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="M15" s="38">
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="29">
+        <v>28</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H16" s="11">
+        <f>F16/G16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="24">
+        <v>2</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1.8478260869565217</v>
+      </c>
+      <c r="L16" s="38">
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="M16" s="38">
+        <v>1.7407407407407407</v>
+      </c>
+      <c r="N16" s="38">
+        <v>1.5454545454545454</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="29">
+        <v>28</v>
+      </c>
+      <c r="C17" s="29">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" ref="H17:H22" si="2">F17/G17</f>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="J17" s="24">
+        <v>5</v>
+      </c>
+      <c r="K17" s="38">
+        <v>4.0652173913043477</v>
+      </c>
+      <c r="L17" s="38">
+        <v>3.7166666666666668</v>
+      </c>
+      <c r="M17" s="38">
+        <v>3.2962962962962963</v>
+      </c>
+      <c r="N17" s="38">
+        <v>2.2954545454545454</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="29">
+        <v>28</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H18" s="11">
+        <f t="shared" si="2"/>
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="J18" s="24">
+        <v>10</v>
+      </c>
+      <c r="K18" s="38">
+        <v>6.5217391304347823</v>
+      </c>
+      <c r="L18" s="38">
+        <v>5.5666666666666664</v>
+      </c>
+      <c r="M18" s="38">
+        <v>4.617283950617284</v>
+      </c>
+      <c r="N18" s="38">
+        <v>2.7840909090909092</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="29">
+        <v>28</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>5</v>
+      </c>
+      <c r="E19" s="29">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>11.2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H19" s="11">
+        <f t="shared" si="2"/>
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="J19" s="24">
+        <v>50</v>
+      </c>
+      <c r="K19" s="38">
+        <v>11.978260869565217</v>
+      </c>
+      <c r="L19" s="38">
+        <v>8.6333333333333329</v>
+      </c>
+      <c r="M19" s="38">
+        <v>6.2469135802469138</v>
+      </c>
+      <c r="N19" s="38">
+        <v>3.2840909090909092</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="29">
+        <v>28</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
+        <v>20.2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="2"/>
+        <v>11.222222222222221</v>
+      </c>
+      <c r="J20" s="24">
+        <v>100</v>
+      </c>
+      <c r="K20" s="38">
+        <v>13.586956521739131</v>
+      </c>
+      <c r="L20" s="38">
+        <v>9.0333333333333332</v>
+      </c>
+      <c r="M20" s="38">
+        <v>6.6913580246913584</v>
+      </c>
+      <c r="N20" s="38">
+        <v>3.4318181818181817</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="29">
+        <v>28</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <v>50</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>94.6</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="2"/>
+        <v>52.55555555555555</v>
+      </c>
+      <c r="J21" s="23">
+        <v>18</v>
+      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="29">
+        <v>28</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>100</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2</v>
+      </c>
+      <c r="F22" s="11">
+        <v>186.6</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="2"/>
+        <v>103.66666666666666</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0</v>
+      </c>
+      <c r="K22" s="38">
+        <v>1</v>
+      </c>
+      <c r="L22" s="38">
+        <v>1</v>
+      </c>
+      <c r="M22" s="38">
+        <v>1</v>
+      </c>
+      <c r="N22" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="29">
+        <v>8</v>
+      </c>
+      <c r="C23" s="29">
+        <v>1</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>218</v>
+      </c>
+      <c r="G23" s="11">
+        <v>218</v>
+      </c>
+      <c r="H23" s="11">
+        <f>F23/G23</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="24">
+        <v>1</v>
+      </c>
+      <c r="K23" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="L23" s="38">
+        <v>2</v>
+      </c>
+      <c r="M23" s="38">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N23" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="29">
+        <v>8</v>
+      </c>
+      <c r="C24" s="29">
+        <v>1</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>272</v>
+      </c>
+      <c r="G24" s="11">
+        <v>218</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" ref="H24:H29" si="3">F24/G24</f>
+        <v>1.2477064220183487</v>
+      </c>
+      <c r="J24" s="24">
+        <v>2</v>
+      </c>
+      <c r="K24" s="38">
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="L24" s="38">
+        <v>3</v>
+      </c>
+      <c r="M24" s="38">
+        <v>3</v>
+      </c>
+      <c r="N24" s="38">
+        <v>3.7666666666666671</v>
+      </c>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="29">
+        <v>8</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29">
+        <v>2</v>
+      </c>
+      <c r="E25" s="29">
+        <v>2</v>
+      </c>
+      <c r="F25" s="11">
+        <v>280</v>
+      </c>
+      <c r="G25" s="11">
+        <v>218</v>
+      </c>
+      <c r="H25" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2844036697247707</v>
+      </c>
+      <c r="J25" s="24">
+        <v>5</v>
+      </c>
+      <c r="K25" s="38">
+        <v>5.8</v>
+      </c>
+      <c r="L25" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="M25" s="38">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N25" s="38">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="29">
+        <v>8</v>
+      </c>
+      <c r="C26" s="29">
+        <v>1</v>
+      </c>
+      <c r="D26" s="29">
+        <v>5</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11">
+        <v>276</v>
+      </c>
+      <c r="G26" s="11">
+        <v>218</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2660550458715596</v>
+      </c>
+      <c r="J26" s="24">
+        <v>10</v>
+      </c>
+      <c r="K26" s="38">
+        <v>10.933333333333332</v>
+      </c>
+      <c r="L26" s="38">
+        <v>8.5</v>
+      </c>
+      <c r="M26" s="38">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="N26" s="38">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="29">
+        <v>8</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1</v>
+      </c>
+      <c r="D27" s="29">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11">
+        <v>225</v>
+      </c>
+      <c r="G27" s="11">
+        <v>218</v>
+      </c>
+      <c r="H27" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0321100917431192</v>
+      </c>
+      <c r="J27" s="24">
+        <v>50</v>
+      </c>
+      <c r="K27" s="38">
+        <v>28</v>
+      </c>
+      <c r="L27" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="M27" s="38">
+        <v>17</v>
+      </c>
+      <c r="N27" s="38">
+        <v>19</v>
+      </c>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="29">
+        <v>8</v>
+      </c>
+      <c r="C28" s="29">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>103</v>
+      </c>
+      <c r="G28" s="11">
+        <v>218</v>
+      </c>
+      <c r="H28" s="11">
+        <f t="shared" si="3"/>
+        <v>0.47247706422018348</v>
+      </c>
+      <c r="J28" s="24">
+        <v>100</v>
+      </c>
+      <c r="K28" s="38">
+        <v>28</v>
+      </c>
+      <c r="L28" s="38">
+        <v>20.5</v>
+      </c>
+      <c r="M28" s="38">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="N28" s="38">
+        <v>14</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="29">
+        <v>8</v>
+      </c>
+      <c r="C29" s="29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="29">
+        <v>100</v>
+      </c>
+      <c r="E29" s="29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11">
+        <v>66</v>
+      </c>
+      <c r="G29" s="11">
+        <v>218</v>
+      </c>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
+        <v>0.30275229357798167</v>
+      </c>
+      <c r="J29" s="23">
+        <v>28</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="29">
+        <v>28</v>
+      </c>
+      <c r="C30" s="29">
+        <v>1</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <v>3</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H30" s="11">
+        <f>F30/G30</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="24">
+        <v>0</v>
+      </c>
+      <c r="K30" s="38">
+        <v>1</v>
+      </c>
+      <c r="L30" s="38">
+        <v>1</v>
+      </c>
+      <c r="M30" s="38">
+        <v>1</v>
+      </c>
+      <c r="N30" s="38">
+        <v>1</v>
+      </c>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="29">
+        <v>28</v>
+      </c>
+      <c r="C31" s="29">
+        <v>1</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29">
+        <v>3</v>
+      </c>
+      <c r="F31" s="11">
+        <v>5</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" ref="H31:H36" si="4">F31/G31</f>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J31" s="24">
+        <v>1</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1.9375</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="M31" s="38">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2</v>
+      </c>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="29">
+        <v>28</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>2</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="4"/>
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="J32" s="24">
+        <v>2</v>
+      </c>
+      <c r="K32" s="38">
+        <v>2.8749999999999996</v>
+      </c>
+      <c r="L32" s="38">
+        <v>3.0555555555555554</v>
+      </c>
+      <c r="M32" s="38">
+        <v>3.2083333333333335</v>
+      </c>
+      <c r="N32" s="38">
+        <v>2.896551724137931</v>
+      </c>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="29">
+        <v>28</v>
+      </c>
+      <c r="C33" s="29">
+        <v>1</v>
+      </c>
+      <c r="D33" s="29">
+        <v>5</v>
+      </c>
+      <c r="E33" s="29">
+        <v>3</v>
+      </c>
+      <c r="F33" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="4"/>
+        <v>6.083333333333333</v>
+      </c>
+      <c r="J33" s="24">
+        <v>5</v>
+      </c>
+      <c r="K33" s="38">
+        <v>5.875</v>
+      </c>
+      <c r="L33" s="38">
+        <v>6.2222222222222214</v>
+      </c>
+      <c r="M33" s="38">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="N33" s="38">
+        <v>5.7931034482758621</v>
+      </c>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <v>28</v>
+      </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29">
+        <v>10</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3</v>
+      </c>
+      <c r="F34" s="11">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="J34" s="24">
+        <v>10</v>
+      </c>
+      <c r="K34" s="38">
+        <v>10.8125</v>
+      </c>
+      <c r="L34" s="38">
+        <v>11.222222222222221</v>
+      </c>
+      <c r="M34" s="38">
+        <v>11.25</v>
+      </c>
+      <c r="N34" s="38">
+        <v>10.931034482758621</v>
+      </c>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29">
+        <v>28</v>
+      </c>
+      <c r="C35" s="29">
+        <v>1</v>
+      </c>
+      <c r="D35" s="29">
+        <v>50</v>
+      </c>
+      <c r="E35" s="29">
+        <v>3</v>
+      </c>
+      <c r="F35" s="11">
+        <v>123.8</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="4"/>
+        <v>51.583333333333336</v>
+      </c>
+      <c r="J35" s="24">
+        <v>50</v>
+      </c>
+      <c r="K35" s="38">
+        <v>50.125</v>
+      </c>
+      <c r="L35" s="38">
+        <v>52.55555555555555</v>
+      </c>
+      <c r="M35" s="38">
+        <v>51.583333333333336</v>
+      </c>
+      <c r="N35" s="38">
+        <v>50.931034482758619</v>
+      </c>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="29">
+        <v>28</v>
+      </c>
+      <c r="C36" s="29">
+        <v>1</v>
+      </c>
+      <c r="D36" s="29">
+        <v>100</v>
+      </c>
+      <c r="E36" s="29">
+        <v>3</v>
+      </c>
+      <c r="F36" s="11">
+        <v>244</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="4"/>
+        <v>101.66666666666667</v>
+      </c>
+      <c r="J36" s="24">
+        <v>100</v>
+      </c>
+      <c r="K36" s="38">
+        <v>98.75</v>
+      </c>
+      <c r="L36" s="38">
+        <v>103.66666666666666</v>
+      </c>
+      <c r="M36" s="38">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="N36" s="38">
+        <v>100.58620689655173</v>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="29">
+        <v>8</v>
+      </c>
+      <c r="C37" s="29">
+        <v>1</v>
+      </c>
+      <c r="D37" s="29">
+        <v>0</v>
+      </c>
+      <c r="E37" s="29">
+        <v>3</v>
+      </c>
+      <c r="F37" s="11">
+        <v>207</v>
+      </c>
+      <c r="G37" s="11">
+        <v>207</v>
+      </c>
+      <c r="H37" s="11">
+        <f>F37/G37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="29">
+        <v>8</v>
+      </c>
+      <c r="C38" s="29">
+        <v>1</v>
+      </c>
+      <c r="D38" s="29">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11">
+        <v>260</v>
+      </c>
+      <c r="G38" s="11">
+        <v>207</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" ref="H38:H43" si="5">F38/G38</f>
+        <v>1.2560386473429952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="29">
+        <v>8</v>
+      </c>
+      <c r="C39" s="29">
+        <v>1</v>
+      </c>
+      <c r="D39" s="29">
+        <v>2</v>
+      </c>
+      <c r="E39" s="29">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11">
+        <v>267</v>
+      </c>
+      <c r="G39" s="11">
+        <v>207</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2898550724637681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="29">
+        <v>8</v>
+      </c>
+      <c r="C40" s="29">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29">
+        <v>5</v>
+      </c>
+      <c r="E40" s="29">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11">
+        <v>257</v>
+      </c>
+      <c r="G40" s="11">
+        <v>207</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2415458937198067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="29">
+        <v>8</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1</v>
+      </c>
+      <c r="D41" s="29">
+        <v>10</v>
+      </c>
+      <c r="E41" s="29">
+        <v>3</v>
+      </c>
+      <c r="F41" s="11">
+        <v>216</v>
+      </c>
+      <c r="G41" s="11">
+        <v>207</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0434782608695652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="29">
+        <v>8</v>
+      </c>
+      <c r="C42" s="29">
+        <v>1</v>
+      </c>
+      <c r="D42" s="29">
+        <v>50</v>
+      </c>
+      <c r="E42" s="29">
+        <v>3</v>
+      </c>
+      <c r="F42" s="11">
+        <v>100</v>
+      </c>
+      <c r="G42" s="11">
+        <v>207</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="5"/>
+        <v>0.48309178743961351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="29">
+        <v>8</v>
+      </c>
+      <c r="C43" s="29">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29">
+        <v>100</v>
+      </c>
+      <c r="E43" s="29">
+        <v>3</v>
+      </c>
+      <c r="F43" s="11">
+        <v>66</v>
+      </c>
+      <c r="G43" s="11">
+        <v>207</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="5"/>
+        <v>0.3188405797101449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="29">
+        <v>28</v>
+      </c>
+      <c r="C44" s="29">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="G44" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H44" s="11">
+        <f>F44/G44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="29">
+        <v>28</v>
+      </c>
+      <c r="C45" s="29">
+        <v>1</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11">
+        <v>5.8</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" ref="H45:H50" si="6">F45/G45</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="29">
+        <v>28</v>
+      </c>
+      <c r="C46" s="29">
+        <v>1</v>
+      </c>
+      <c r="D46" s="29">
+        <v>2</v>
+      </c>
+      <c r="E46" s="29">
+        <v>4</v>
+      </c>
+      <c r="F46" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="6"/>
+        <v>2.896551724137931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="29">
+        <v>28</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29">
+        <v>5</v>
+      </c>
+      <c r="E47" s="29">
+        <v>4</v>
+      </c>
+      <c r="F47" s="11">
+        <v>16.8</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="6"/>
+        <v>5.7931034482758621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="29">
+        <v>28</v>
+      </c>
+      <c r="C48" s="29">
+        <v>1</v>
+      </c>
+      <c r="D48" s="29">
+        <v>10</v>
+      </c>
+      <c r="E48" s="29">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11">
+        <v>31.7</v>
+      </c>
+      <c r="G48" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="6"/>
+        <v>10.931034482758621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="29">
+        <v>28</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1</v>
+      </c>
+      <c r="D49" s="29">
+        <v>50</v>
+      </c>
+      <c r="E49" s="29">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="6"/>
+        <v>50.931034482758619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="29">
+        <v>28</v>
+      </c>
+      <c r="C50" s="29">
+        <v>1</v>
+      </c>
+      <c r="D50" s="29">
+        <v>100</v>
+      </c>
+      <c r="E50" s="29">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11">
+        <v>291.7</v>
+      </c>
+      <c r="G50" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="6"/>
+        <v>100.58620689655173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="29">
+        <v>8</v>
+      </c>
+      <c r="C51" s="29">
+        <v>1</v>
+      </c>
+      <c r="D51" s="29">
+        <v>0</v>
+      </c>
+      <c r="E51" s="29">
+        <v>4</v>
+      </c>
+      <c r="F51" s="11">
+        <v>159</v>
+      </c>
+      <c r="G51" s="11">
+        <v>159</v>
+      </c>
+      <c r="H51" s="11">
+        <f>F51/G51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="29">
+        <v>8</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="29">
+        <v>1</v>
+      </c>
+      <c r="E52" s="29">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11">
+        <v>181</v>
+      </c>
+      <c r="G52" s="11">
+        <v>159</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" ref="H52:H57" si="7">F52/G52</f>
+        <v>1.1383647798742138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="29">
+        <v>8</v>
+      </c>
+      <c r="C53" s="29">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11">
+        <v>187</v>
+      </c>
+      <c r="G53" s="11">
+        <v>159</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1761006289308176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="29">
+        <v>8</v>
+      </c>
+      <c r="C54" s="29">
+        <v>1</v>
+      </c>
+      <c r="D54" s="29">
+        <v>5</v>
+      </c>
+      <c r="E54" s="29">
+        <v>4</v>
+      </c>
+      <c r="F54" s="11">
+        <v>181</v>
+      </c>
+      <c r="G54" s="11">
+        <v>159</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1383647798742138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="29">
+        <v>8</v>
+      </c>
+      <c r="C55" s="29">
+        <v>1</v>
+      </c>
+      <c r="D55" s="29">
+        <v>10</v>
+      </c>
+      <c r="E55" s="29">
+        <v>4</v>
+      </c>
+      <c r="F55" s="11">
+        <v>153</v>
+      </c>
+      <c r="G55" s="11">
+        <v>159</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="7"/>
+        <v>0.96226415094339623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="29">
+        <v>8</v>
+      </c>
+      <c r="C56" s="29">
+        <v>1</v>
+      </c>
+      <c r="D56" s="29">
+        <v>50</v>
+      </c>
+      <c r="E56" s="29">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11">
+        <v>87</v>
+      </c>
+      <c r="G56" s="11">
+        <v>159</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="7"/>
+        <v>0.54716981132075471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="29">
+        <v>8</v>
+      </c>
+      <c r="C57" s="29">
+        <v>1</v>
+      </c>
+      <c r="D57" s="29">
+        <v>100</v>
+      </c>
+      <c r="E57" s="29">
+        <v>4</v>
+      </c>
+      <c r="F57" s="11">
+        <v>59</v>
+      </c>
+      <c r="G57" s="11">
+        <v>159</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="7"/>
+        <v>0.37106918238993708</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="29">
+        <v>13</v>
+      </c>
+      <c r="C58" s="29">
+        <v>1</v>
+      </c>
+      <c r="D58" s="29">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>46</v>
+      </c>
+      <c r="G58" s="11">
+        <v>46</v>
+      </c>
+      <c r="H58" s="11">
+        <f>F58/G58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="29">
+        <v>13</v>
+      </c>
+      <c r="C59" s="29">
+        <v>1</v>
+      </c>
+      <c r="D59" s="29">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11">
+        <v>46</v>
+      </c>
+      <c r="G59" s="11">
+        <v>46</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" ref="H59:H64" si="8">F59/G59</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="29">
+        <v>13</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1</v>
+      </c>
+      <c r="D60" s="29">
+        <v>2</v>
+      </c>
+      <c r="E60" s="29">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
+        <v>85</v>
+      </c>
+      <c r="G60" s="11">
+        <v>46</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="8"/>
+        <v>1.8478260869565217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="29">
+        <v>13</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="29">
+        <v>5</v>
+      </c>
+      <c r="E61" s="29">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11">
+        <v>187</v>
+      </c>
+      <c r="G61" s="11">
+        <v>46</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="8"/>
+        <v>4.0652173913043477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="29">
+        <v>13</v>
+      </c>
+      <c r="C62" s="29">
+        <v>1</v>
+      </c>
+      <c r="D62" s="29">
+        <v>10</v>
+      </c>
+      <c r="E62" s="29">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11">
+        <v>300</v>
+      </c>
+      <c r="G62" s="11">
+        <v>46</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="8"/>
+        <v>6.5217391304347823</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="29">
+        <v>13</v>
+      </c>
+      <c r="C63" s="29">
+        <v>1</v>
+      </c>
+      <c r="D63" s="29">
+        <v>50</v>
+      </c>
+      <c r="E63" s="29">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11">
+        <v>551</v>
+      </c>
+      <c r="G63" s="11">
+        <v>46</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="8"/>
+        <v>11.978260869565217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="29">
+        <v>13</v>
+      </c>
+      <c r="C64" s="29">
+        <v>1</v>
+      </c>
+      <c r="D64" s="29">
+        <v>100</v>
+      </c>
+      <c r="E64" s="29">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <v>625</v>
+      </c>
+      <c r="G64" s="11">
+        <v>46</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="8"/>
+        <v>13.586956521739131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="29">
+        <v>13</v>
+      </c>
+      <c r="C65" s="29">
+        <v>1</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29">
+        <v>2</v>
+      </c>
+      <c r="F65" s="11">
+        <v>60</v>
+      </c>
+      <c r="G65" s="11">
+        <v>60</v>
+      </c>
+      <c r="H65" s="11">
+        <f>F65/G65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="29">
+        <v>13</v>
+      </c>
+      <c r="C66" s="29">
+        <v>1</v>
+      </c>
+      <c r="D66" s="29">
+        <v>1</v>
+      </c>
+      <c r="E66" s="29">
+        <v>2</v>
+      </c>
+      <c r="F66" s="11">
+        <v>59</v>
+      </c>
+      <c r="G66" s="11">
+        <v>60</v>
+      </c>
+      <c r="H66" s="11">
+        <f t="shared" ref="H66:H71" si="9">F66/G66</f>
+        <v>0.98333333333333328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="29">
+        <v>13</v>
+      </c>
+      <c r="C67" s="29">
+        <v>1</v>
+      </c>
+      <c r="D67" s="29">
+        <v>2</v>
+      </c>
+      <c r="E67" s="29">
+        <v>2</v>
+      </c>
+      <c r="F67" s="11">
+        <v>112</v>
+      </c>
+      <c r="G67" s="11">
+        <v>60</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="9"/>
+        <v>1.8666666666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="29">
+        <v>13</v>
+      </c>
+      <c r="C68" s="29">
+        <v>1</v>
+      </c>
+      <c r="D68" s="29">
+        <v>5</v>
+      </c>
+      <c r="E68" s="29">
+        <v>2</v>
+      </c>
+      <c r="F68" s="11">
+        <v>223</v>
+      </c>
+      <c r="G68" s="11">
+        <v>60</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="9"/>
+        <v>3.7166666666666668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="29">
+        <v>13</v>
+      </c>
+      <c r="C69" s="29">
+        <v>1</v>
+      </c>
+      <c r="D69" s="29">
+        <v>10</v>
+      </c>
+      <c r="E69" s="29">
+        <v>2</v>
+      </c>
+      <c r="F69" s="11">
+        <v>334</v>
+      </c>
+      <c r="G69" s="11">
+        <v>60</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="9"/>
+        <v>5.5666666666666664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="29">
+        <v>13</v>
+      </c>
+      <c r="C70" s="29">
+        <v>1</v>
+      </c>
+      <c r="D70" s="29">
+        <v>50</v>
+      </c>
+      <c r="E70" s="29">
+        <v>2</v>
+      </c>
+      <c r="F70" s="11">
+        <v>518</v>
+      </c>
+      <c r="G70" s="11">
+        <v>60</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="9"/>
+        <v>8.6333333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="29">
+        <v>13</v>
+      </c>
+      <c r="C71" s="29">
+        <v>1</v>
+      </c>
+      <c r="D71" s="29">
+        <v>100</v>
+      </c>
+      <c r="E71" s="29">
+        <v>2</v>
+      </c>
+      <c r="F71" s="11">
+        <v>542</v>
+      </c>
+      <c r="G71" s="11">
+        <v>60</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="9"/>
+        <v>9.0333333333333332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="29">
+        <v>13</v>
+      </c>
+      <c r="C72" s="29">
+        <v>1</v>
+      </c>
+      <c r="D72" s="29">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29">
+        <v>3</v>
+      </c>
+      <c r="F72" s="11">
+        <v>81</v>
+      </c>
+      <c r="G72" s="11">
+        <v>81</v>
+      </c>
+      <c r="H72" s="11">
+        <f>F72/G72</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="29">
+        <v>13</v>
+      </c>
+      <c r="C73" s="29">
+        <v>1</v>
+      </c>
+      <c r="D73" s="29">
+        <v>1</v>
+      </c>
+      <c r="E73" s="29">
+        <v>3</v>
+      </c>
+      <c r="F73" s="11">
+        <v>80</v>
+      </c>
+      <c r="G73" s="11">
+        <v>81</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" ref="H73:H78" si="10">F73/G73</f>
+        <v>0.98765432098765427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="29">
+        <v>13</v>
+      </c>
+      <c r="C74" s="29">
+        <v>1</v>
+      </c>
+      <c r="D74" s="29">
+        <v>2</v>
+      </c>
+      <c r="E74" s="29">
+        <v>3</v>
+      </c>
+      <c r="F74" s="11">
+        <v>141</v>
+      </c>
+      <c r="G74" s="11">
+        <v>81</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="10"/>
+        <v>1.7407407407407407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="29">
+        <v>13</v>
+      </c>
+      <c r="C75" s="29">
+        <v>1</v>
+      </c>
+      <c r="D75" s="29">
+        <v>5</v>
+      </c>
+      <c r="E75" s="29">
+        <v>3</v>
+      </c>
+      <c r="F75" s="11">
+        <v>267</v>
+      </c>
+      <c r="G75" s="11">
+        <v>81</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="10"/>
+        <v>3.2962962962962963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="29">
+        <v>13</v>
+      </c>
+      <c r="C76" s="29">
+        <v>1</v>
+      </c>
+      <c r="D76" s="29">
+        <v>10</v>
+      </c>
+      <c r="E76" s="29">
+        <v>3</v>
+      </c>
+      <c r="F76" s="11">
+        <v>374</v>
+      </c>
+      <c r="G76" s="11">
+        <v>81</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="10"/>
+        <v>4.617283950617284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="29">
+        <v>13</v>
+      </c>
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="29">
+        <v>50</v>
+      </c>
+      <c r="E77" s="29">
+        <v>3</v>
+      </c>
+      <c r="F77" s="11">
+        <v>506</v>
+      </c>
+      <c r="G77" s="11">
+        <v>81</v>
+      </c>
+      <c r="H77" s="11">
+        <f t="shared" si="10"/>
+        <v>6.2469135802469138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="29">
+        <v>13</v>
+      </c>
+      <c r="C78" s="29">
+        <v>1</v>
+      </c>
+      <c r="D78" s="29">
+        <v>100</v>
+      </c>
+      <c r="E78" s="29">
+        <v>3</v>
+      </c>
+      <c r="F78" s="11">
+        <v>542</v>
+      </c>
+      <c r="G78" s="11">
+        <v>81</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="10"/>
+        <v>6.6913580246913584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="29">
+        <v>13</v>
+      </c>
+      <c r="C79" s="29">
+        <v>1</v>
+      </c>
+      <c r="D79" s="29">
+        <v>0</v>
+      </c>
+      <c r="E79" s="29">
+        <v>4</v>
+      </c>
+      <c r="F79" s="11">
+        <v>88</v>
+      </c>
+      <c r="G79" s="11">
+        <v>88</v>
+      </c>
+      <c r="H79" s="11">
+        <f>F79/G79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="29">
+        <v>13</v>
+      </c>
+      <c r="C80" s="29">
+        <v>1</v>
+      </c>
+      <c r="D80" s="29">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29">
+        <v>4</v>
+      </c>
+      <c r="F80" s="11">
+        <v>87</v>
+      </c>
+      <c r="G80" s="11">
+        <v>88</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" ref="H80:H85" si="11">F80/G80</f>
+        <v>0.98863636363636365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="29">
+        <v>13</v>
+      </c>
+      <c r="C81" s="29">
+        <v>1</v>
+      </c>
+      <c r="D81" s="29">
+        <v>2</v>
+      </c>
+      <c r="E81" s="29">
+        <v>4</v>
+      </c>
+      <c r="F81" s="11">
+        <v>136</v>
+      </c>
+      <c r="G81" s="11">
+        <v>88</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="11"/>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="29">
+        <v>13</v>
+      </c>
+      <c r="C82" s="29">
+        <v>1</v>
+      </c>
+      <c r="D82" s="29">
+        <v>5</v>
+      </c>
+      <c r="E82" s="29">
+        <v>4</v>
+      </c>
+      <c r="F82" s="11">
+        <v>202</v>
+      </c>
+      <c r="G82" s="11">
+        <v>88</v>
+      </c>
+      <c r="H82" s="11">
+        <f t="shared" si="11"/>
+        <v>2.2954545454545454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="29">
+        <v>13</v>
+      </c>
+      <c r="C83" s="29">
+        <v>1</v>
+      </c>
+      <c r="D83" s="29">
+        <v>10</v>
+      </c>
+      <c r="E83" s="29">
+        <v>4</v>
+      </c>
+      <c r="F83" s="11">
+        <v>245</v>
+      </c>
+      <c r="G83" s="11">
+        <v>88</v>
+      </c>
+      <c r="H83" s="11">
+        <f t="shared" si="11"/>
+        <v>2.7840909090909092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="29">
+        <v>13</v>
+      </c>
+      <c r="C84" s="29">
+        <v>1</v>
+      </c>
+      <c r="D84" s="29">
+        <v>50</v>
+      </c>
+      <c r="E84" s="29">
+        <v>4</v>
+      </c>
+      <c r="F84" s="11">
+        <v>289</v>
+      </c>
+      <c r="G84" s="11">
+        <v>88</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="11"/>
+        <v>3.2840909090909092</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="29">
+        <v>13</v>
+      </c>
+      <c r="C85" s="29">
+        <v>1</v>
+      </c>
+      <c r="D85" s="29">
+        <v>100</v>
+      </c>
+      <c r="E85" s="29">
+        <v>4</v>
+      </c>
+      <c r="F85" s="11">
+        <v>302</v>
+      </c>
+      <c r="G85" s="11">
+        <v>88</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="11"/>
+        <v>3.4318181818181817</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="29">
+        <v>18</v>
+      </c>
+      <c r="C86" s="29">
+        <v>1</v>
+      </c>
+      <c r="D86" s="29">
+        <v>0</v>
+      </c>
+      <c r="E86" s="29">
+        <v>0</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H86" s="11">
+        <f>F86/G86</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="29">
+        <v>18</v>
+      </c>
+      <c r="C87" s="29">
+        <v>1</v>
+      </c>
+      <c r="D87" s="29">
+        <v>1</v>
+      </c>
+      <c r="E87" s="29">
+        <v>0</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G87" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H87" s="11">
+        <f t="shared" ref="H87:H92" si="12">F87/G87</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="29">
+        <v>18</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1</v>
+      </c>
+      <c r="D88" s="29">
+        <v>2</v>
+      </c>
+      <c r="E88" s="29">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G88" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H88" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="29">
+        <v>18</v>
+      </c>
+      <c r="C89" s="29">
+        <v>1</v>
+      </c>
+      <c r="D89" s="29">
+        <v>5</v>
+      </c>
+      <c r="E89" s="29">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G89" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="29">
+        <v>18</v>
+      </c>
+      <c r="C90" s="29">
+        <v>1</v>
+      </c>
+      <c r="D90" s="29">
+        <v>10</v>
+      </c>
+      <c r="E90" s="29">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H90" s="11">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="29">
+        <v>18</v>
+      </c>
+      <c r="C91" s="29">
+        <v>1</v>
+      </c>
+      <c r="D91" s="29">
+        <v>50</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G91" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" si="12"/>
+        <v>0.87499999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="29">
+        <v>18</v>
+      </c>
+      <c r="C92" s="29">
+        <v>1</v>
+      </c>
+      <c r="D92" s="29">
+        <v>100</v>
+      </c>
+      <c r="E92" s="29">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G92" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="12"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="29">
+        <v>18</v>
+      </c>
+      <c r="C93" s="29">
+        <v>1</v>
+      </c>
+      <c r="D93" s="29">
+        <v>0</v>
+      </c>
+      <c r="E93" s="29">
+        <v>1</v>
+      </c>
+      <c r="F93" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G93" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H93" s="11">
+        <f>F93/G93</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="29">
+        <v>18</v>
+      </c>
+      <c r="C94" s="29">
+        <v>1</v>
+      </c>
+      <c r="D94" s="29">
+        <v>1</v>
+      </c>
+      <c r="E94" s="29">
+        <v>1</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" ref="H94:H99" si="13">F94/G94</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="29">
+        <v>18</v>
+      </c>
+      <c r="C95" s="29">
+        <v>1</v>
+      </c>
+      <c r="D95" s="29">
+        <v>2</v>
+      </c>
+      <c r="E95" s="29">
+        <v>1</v>
+      </c>
+      <c r="F95" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="G95" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="13"/>
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="29">
+        <v>18</v>
+      </c>
+      <c r="C96" s="29">
+        <v>1</v>
+      </c>
+      <c r="D96" s="29">
+        <v>5</v>
+      </c>
+      <c r="E96" s="29">
+        <v>1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G96" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="13"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="29">
+        <v>18</v>
+      </c>
+      <c r="C97" s="29">
+        <v>1</v>
+      </c>
+      <c r="D97" s="29">
+        <v>10</v>
+      </c>
+      <c r="E97" s="29">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="13"/>
+        <v>10.933333333333332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="29">
+        <v>18</v>
+      </c>
+      <c r="C98" s="29">
+        <v>1</v>
+      </c>
+      <c r="D98" s="29">
+        <v>50</v>
+      </c>
+      <c r="E98" s="29">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>42</v>
+      </c>
+      <c r="G98" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="29">
+        <v>18</v>
+      </c>
+      <c r="C99" s="29">
+        <v>1</v>
+      </c>
+      <c r="D99" s="29">
+        <v>100</v>
+      </c>
+      <c r="E99" s="29">
+        <v>1</v>
+      </c>
+      <c r="F99" s="11">
+        <v>42</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="29">
+        <v>18</v>
+      </c>
+      <c r="C100" s="29">
+        <v>1</v>
+      </c>
+      <c r="D100" s="29">
+        <v>0</v>
+      </c>
+      <c r="E100" s="29">
+        <v>2</v>
+      </c>
+      <c r="F100" s="11">
+        <v>2</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2</v>
+      </c>
+      <c r="H100" s="11">
+        <f>F100/G100</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="29">
+        <v>18</v>
+      </c>
+      <c r="C101" s="29">
+        <v>1</v>
+      </c>
+      <c r="D101" s="29">
+        <v>1</v>
+      </c>
+      <c r="E101" s="29">
+        <v>2</v>
+      </c>
+      <c r="F101" s="11">
+        <v>4</v>
+      </c>
+      <c r="G101" s="11">
+        <v>2</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" ref="H101:H106" si="14">F101/G101</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="29">
+        <v>18</v>
+      </c>
+      <c r="C102" s="29">
+        <v>1</v>
+      </c>
+      <c r="D102" s="29">
+        <v>2</v>
+      </c>
+      <c r="E102" s="29">
+        <v>2</v>
+      </c>
+      <c r="F102" s="11">
+        <v>6</v>
+      </c>
+      <c r="G102" s="11">
+        <v>2</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="29">
+        <v>18</v>
+      </c>
+      <c r="C103" s="29">
+        <v>1</v>
+      </c>
+      <c r="D103" s="29">
+        <v>5</v>
+      </c>
+      <c r="E103" s="29">
+        <v>2</v>
+      </c>
+      <c r="F103" s="11">
+        <v>9</v>
+      </c>
+      <c r="G103" s="11">
+        <v>2</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="14"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="29">
+        <v>18</v>
+      </c>
+      <c r="C104" s="29">
+        <v>1</v>
+      </c>
+      <c r="D104" s="29">
+        <v>10</v>
+      </c>
+      <c r="E104" s="29">
+        <v>2</v>
+      </c>
+      <c r="F104" s="11">
+        <v>17</v>
+      </c>
+      <c r="G104" s="11">
+        <v>2</v>
+      </c>
+      <c r="H104" s="11">
+        <f t="shared" si="14"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="29">
+        <v>18</v>
+      </c>
+      <c r="C105" s="29">
+        <v>1</v>
+      </c>
+      <c r="D105" s="29">
+        <v>50</v>
+      </c>
+      <c r="E105" s="29">
+        <v>2</v>
+      </c>
+      <c r="F105" s="11">
+        <v>45</v>
+      </c>
+      <c r="G105" s="11">
+        <v>2</v>
+      </c>
+      <c r="H105" s="11">
+        <f t="shared" si="14"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="29">
+        <v>18</v>
+      </c>
+      <c r="C106" s="29">
+        <v>1</v>
+      </c>
+      <c r="D106" s="29">
+        <v>100</v>
+      </c>
+      <c r="E106" s="29">
+        <v>2</v>
+      </c>
+      <c r="F106" s="11">
+        <v>41</v>
+      </c>
+      <c r="G106" s="11">
+        <v>2</v>
+      </c>
+      <c r="H106" s="11">
+        <f t="shared" si="14"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="29">
+        <v>18</v>
+      </c>
+      <c r="C107" s="29">
+        <v>1</v>
+      </c>
+      <c r="D107" s="29">
+        <v>0</v>
+      </c>
+      <c r="E107" s="29">
+        <v>3</v>
+      </c>
+      <c r="F107" s="11">
+        <v>3</v>
+      </c>
+      <c r="G107" s="11">
+        <v>3</v>
+      </c>
+      <c r="H107" s="11">
+        <f>F107/G107</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="29">
+        <v>18</v>
+      </c>
+      <c r="C108" s="29">
+        <v>1</v>
+      </c>
+      <c r="D108" s="29">
+        <v>1</v>
+      </c>
+      <c r="E108" s="29">
+        <v>3</v>
+      </c>
+      <c r="F108" s="11">
+        <v>5</v>
+      </c>
+      <c r="G108" s="11">
+        <v>3</v>
+      </c>
+      <c r="H108" s="11">
+        <f t="shared" ref="H108:H113" si="15">F108/G108</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="29">
+        <v>18</v>
+      </c>
+      <c r="C109" s="29">
+        <v>1</v>
+      </c>
+      <c r="D109" s="29">
+        <v>2</v>
+      </c>
+      <c r="E109" s="29">
+        <v>3</v>
+      </c>
+      <c r="F109" s="11">
+        <v>9</v>
+      </c>
+      <c r="G109" s="11">
+        <v>3</v>
+      </c>
+      <c r="H109" s="11">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="29">
+        <v>18</v>
+      </c>
+      <c r="C110" s="29">
+        <v>1</v>
+      </c>
+      <c r="D110" s="29">
+        <v>5</v>
+      </c>
+      <c r="E110" s="29">
+        <v>3</v>
+      </c>
+      <c r="F110" s="11">
+        <v>17</v>
+      </c>
+      <c r="G110" s="11">
+        <v>3</v>
+      </c>
+      <c r="H110" s="11">
+        <f t="shared" si="15"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="29">
+        <v>18</v>
+      </c>
+      <c r="C111" s="29">
+        <v>1</v>
+      </c>
+      <c r="D111" s="29">
+        <v>10</v>
+      </c>
+      <c r="E111" s="29">
+        <v>3</v>
+      </c>
+      <c r="F111" s="11">
+        <v>29</v>
+      </c>
+      <c r="G111" s="11">
+        <v>3</v>
+      </c>
+      <c r="H111" s="11">
+        <f t="shared" si="15"/>
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="29">
+        <v>18</v>
+      </c>
+      <c r="C112" s="29">
+        <v>1</v>
+      </c>
+      <c r="D112" s="29">
+        <v>50</v>
+      </c>
+      <c r="E112" s="29">
+        <v>3</v>
+      </c>
+      <c r="F112" s="11">
+        <v>51</v>
+      </c>
+      <c r="G112" s="11">
+        <v>3</v>
+      </c>
+      <c r="H112" s="11">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="29">
+        <v>18</v>
+      </c>
+      <c r="C113" s="29">
+        <v>1</v>
+      </c>
+      <c r="D113" s="29">
+        <v>100</v>
+      </c>
+      <c r="E113" s="29">
+        <v>3</v>
+      </c>
+      <c r="F113" s="11">
+        <v>46</v>
+      </c>
+      <c r="G113" s="11">
+        <v>3</v>
+      </c>
+      <c r="H113" s="11">
+        <f t="shared" si="15"/>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="29">
+        <v>18</v>
+      </c>
+      <c r="C114" s="29">
+        <v>1</v>
+      </c>
+      <c r="D114" s="29">
+        <v>0</v>
+      </c>
+      <c r="E114" s="29">
+        <v>4</v>
+      </c>
+      <c r="F114" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="G114" s="11">
+        <v>3</v>
+      </c>
+      <c r="H114" s="11">
+        <f>F114/G114</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="29">
+        <v>18</v>
+      </c>
+      <c r="C115" s="29">
+        <v>1</v>
+      </c>
+      <c r="D115" s="29">
+        <v>1</v>
+      </c>
+      <c r="E115" s="29">
+        <v>4</v>
+      </c>
+      <c r="F115" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="G115" s="11">
+        <v>3</v>
+      </c>
+      <c r="H115" s="11">
+        <f t="shared" ref="H115:H120" si="16">F115/G115</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="29">
+        <v>18</v>
+      </c>
+      <c r="C116" s="29">
+        <v>1</v>
+      </c>
+      <c r="D116" s="29">
+        <v>2</v>
+      </c>
+      <c r="E116" s="29">
+        <v>4</v>
+      </c>
+      <c r="F116" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="G116" s="11">
+        <v>3</v>
+      </c>
+      <c r="H116" s="11">
+        <f t="shared" si="16"/>
+        <v>3.7666666666666671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="29">
+        <v>18</v>
+      </c>
+      <c r="C117" s="29">
+        <v>1</v>
+      </c>
+      <c r="D117" s="29">
+        <v>5</v>
+      </c>
+      <c r="E117" s="29">
+        <v>4</v>
+      </c>
+      <c r="F117" s="11">
+        <v>22</v>
+      </c>
+      <c r="G117" s="11">
+        <v>3</v>
+      </c>
+      <c r="H117" s="11">
+        <f t="shared" si="16"/>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="29">
+        <v>18</v>
+      </c>
+      <c r="C118" s="29">
+        <v>1</v>
+      </c>
+      <c r="D118" s="29">
+        <v>10</v>
+      </c>
+      <c r="E118" s="29">
+        <v>4</v>
+      </c>
+      <c r="F118" s="11">
+        <v>34</v>
+      </c>
+      <c r="G118" s="11">
+        <v>3</v>
+      </c>
+      <c r="H118" s="11">
+        <f t="shared" si="16"/>
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="29">
+        <v>18</v>
+      </c>
+      <c r="C119" s="29">
+        <v>1</v>
+      </c>
+      <c r="D119" s="29">
+        <v>50</v>
+      </c>
+      <c r="E119" s="29">
+        <v>4</v>
+      </c>
+      <c r="F119" s="11">
+        <v>57</v>
+      </c>
+      <c r="G119" s="11">
+        <v>3</v>
+      </c>
+      <c r="H119" s="11">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="29">
+        <v>18</v>
+      </c>
+      <c r="C120" s="29">
+        <v>1</v>
+      </c>
+      <c r="D120" s="29">
+        <v>100</v>
+      </c>
+      <c r="E120" s="29">
+        <v>4</v>
+      </c>
+      <c r="F120" s="11">
+        <v>42</v>
+      </c>
+      <c r="G120" s="11">
+        <v>3</v>
+      </c>
+      <c r="H120" s="11">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="K6:N12 K13:N13 K14:N20 K29:N29 K30:N36 K22:N28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7AB32-2D40-44CE-9C00-B0647B88EF04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78952B05-BF02-408A-B771-E02FACB2C078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13896" yWindow="600" windowWidth="15972" windowHeight="18888" firstSheet="1" activeTab="6" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
@@ -23,10 +23,10 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
-    <pivotCache cacheId="8" r:id="rId10"/>
-    <pivotCache cacheId="18" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="15" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="106">
   <si>
     <t>Time (s)</t>
   </si>
@@ -404,9 +404,6 @@
     <t>kGates/s</t>
   </si>
   <si>
-    <t>Width, Threads</t>
-  </si>
-  <si>
     <t>1 Depth=1.03</t>
   </si>
   <si>
@@ -422,7 +419,10 @@
     <t>WSL</t>
   </si>
   <si>
-    <t>Sim,Env</t>
+    <t>Wid,Thrds</t>
+  </si>
+  <si>
+    <t>15 Qubit</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="78">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -812,124 +812,14 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -7621,15 +7511,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43977.438191203706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="97" xr:uid="{77688D98-53B0-44DF-AB00-3088DD8CD484}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43977.468925578702" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="145" xr:uid="{77688D98-53B0-44DF-AB00-3088DD8CD484}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Fusion (3)"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Env" numFmtId="2">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="W15"/>
         <s v="W15_WSL"/>
+        <s v="WU2"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -7672,7 +7563,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15"/>
     </cacheField>
     <cacheField name="Speed Up" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.36000000000000004" maxValue="13.666666666666666"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.36000000000000004" maxValue="16.100000000000001"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -13469,7 +13360,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="97">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="145">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -14528,6 +14419,534 @@
   </r>
   <r>
     <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="29"/>
+    <n v="15"/>
+    <n v="2.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="28"/>
+    <n v="15"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="4.4000000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="44"/>
+    <n v="15"/>
+    <n v="4.4000000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="1.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="56"/>
+    <n v="15"/>
+    <n v="5.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="54"/>
+    <n v="15"/>
+    <n v="5.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="20"/>
+    <n v="15"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="62"/>
+    <n v="15"/>
+    <n v="6.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.03"/>
+    <n v="61"/>
+    <n v="15"/>
+    <n v="6.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="29"/>
+    <n v="15"/>
+    <n v="2.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="107"/>
+    <n v="15"/>
+    <n v="10.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="105"/>
+    <n v="15"/>
+    <n v="10.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="49"/>
+    <n v="15"/>
+    <n v="4.9000000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="140"/>
+    <n v="15"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="135"/>
+    <n v="15"/>
+    <n v="13.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="63"/>
+    <n v="15"/>
+    <n v="6.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="155"/>
+    <n v="15"/>
+    <n v="15.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="150"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="73"/>
+    <n v="15"/>
+    <n v="7.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="161"/>
+    <n v="15"/>
+    <n v="16.100000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5.38"/>
+    <n v="160"/>
+    <n v="15"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="1.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="60"/>
+    <n v="15"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="59"/>
+    <n v="15"/>
+    <n v="5.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="21"/>
+    <n v="15"/>
+    <n v="2.1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="84"/>
+    <n v="15"/>
+    <n v="8.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="84"/>
+    <n v="15"/>
+    <n v="8.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="28"/>
+    <n v="15"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="93"/>
+    <n v="15"/>
+    <n v="9.3000000000000007"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="94"/>
+    <n v="15"/>
+    <n v="9.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="35"/>
+    <n v="15"/>
+    <n v="3.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="104"/>
+    <n v="15"/>
+    <n v="10.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.67"/>
+    <n v="103"/>
+    <n v="15"/>
+    <n v="10.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="7"/>
+    <n v="15"/>
+    <n v="0.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="38"/>
+    <n v="15"/>
+    <n v="3.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="39"/>
+    <n v="15"/>
+    <n v="3.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="13"/>
+    <n v="15"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="59"/>
+    <n v="15"/>
+    <n v="5.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="59"/>
+    <n v="15"/>
+    <n v="5.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="18"/>
+    <n v="15"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="67"/>
+    <n v="15"/>
+    <n v="6.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="67"/>
+    <n v="15"/>
+    <n v="6.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="23"/>
+    <n v="15"/>
+    <n v="2.2999999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="77"/>
+    <n v="15"/>
+    <n v="7.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="17.5"/>
+    <n v="75"/>
+    <n v="15"/>
+    <n v="7.5"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="3"/>
     <m/>
     <x v="4"/>
@@ -14541,7 +14960,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF1768AF-73FC-4A05-B410-0579B3B8096E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Fusion, Thrds" colHeaderCaption=" ">
   <location ref="J2:P29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -14703,36 +15122,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="116">
+    <format dxfId="77">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="75">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="74">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="73">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="72">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14742,7 +15161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14752,7 +15171,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14762,29 +15181,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="67">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="66">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="65">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="64">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="63">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14794,7 +15213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14804,7 +15223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -14954,7 +15373,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C0CA7F-ABA7-4661-9D43-2315E8137FE0}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
   <location ref="J3:N36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -15118,7 +15537,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="97">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15237,7 +15656,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{978B9CE9-7C66-406A-9101-DCFFCF2A4F38}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{978B9CE9-7C66-406A-9101-DCFFCF2A4F38}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Qs, Depth" colHeaderCaption="Span">
   <location ref="J3:N36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -15401,7 +15820,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="96">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15520,13 +15939,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Threads" colHeaderCaption="Sim,Env">
-  <location ref="K2:Q24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Wid,Thrds" colHeaderCaption=" ">
+  <location ref="K2:T24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="0"/>
         <item n="WSL" x="1"/>
+        <item x="3"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -15634,13 +16054,16 @@
     <field x="1"/>
     <field x="0"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="9">
     <i>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
@@ -15649,6 +16072,9 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="2"/>
       <x/>
@@ -15656,31 +16082,34 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="95">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="34">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -15693,7 +16122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -15706,7 +16135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -15721,7 +16150,7 @@
     </format>
   </formats>
   <conditionalFormats count="1">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="2">
       <pivotAreas count="7">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -36931,10 +37360,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1306160B-1DA9-4FAC-BA9F-E9F284318313}">
-  <dimension ref="A1:AL97"/>
+  <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36942,9 +37371,10 @@
     <col min="1" max="2" width="8.88671875" style="11"/>
     <col min="3" max="5" width="8.88671875" style="29"/>
     <col min="6" max="10" width="8.88671875" style="11"/>
-    <col min="11" max="11" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="7.5546875" style="38" customWidth="1"/>
-    <col min="18" max="21" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="11" customWidth="1"/>
+    <col min="12" max="17" width="5.21875" style="38" customWidth="1"/>
+    <col min="18" max="20" width="5.21875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="34" width="6.77734375" style="11" customWidth="1"/>
@@ -36979,7 +37409,9 @@
       <c r="I1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K1"/>
+      <c r="K1" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
@@ -37035,11 +37467,11 @@
         <v>69</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+        <v>42</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -37077,15 +37509,14 @@
       <c r="L3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="O3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="R3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -37120,29 +37551,35 @@
         <v>1.9333333333333333</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>49</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>104</v>
-      </c>
       <c r="P4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="S4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -37177,11 +37614,11 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+        <v>99</v>
+      </c>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -37225,20 +37662,26 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="N6" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="38">
         <v>1.8</v>
       </c>
-      <c r="O6" s="38">
+      <c r="P6" s="38">
         <v>2.4</v>
       </c>
-      <c r="P6" s="38">
+      <c r="Q6" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="R6" s="38">
         <v>1.9333333333333333</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="S6" s="38">
         <v>2.3333333333333335</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="T6" s="38">
+        <v>2.8</v>
+      </c>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -37282,20 +37725,26 @@
         <v>1.2666666666666666</v>
       </c>
       <c r="N7" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="O7" s="38">
         <v>2.9333333333333331</v>
       </c>
-      <c r="O7" s="38">
+      <c r="P7" s="38">
         <v>3.6666666666666665</v>
       </c>
-      <c r="P7" s="38">
+      <c r="Q7" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R7" s="38">
         <v>3.1333333333333333</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="S7" s="38">
         <v>3.6666666666666665</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="T7" s="38">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -37339,20 +37788,26 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="N8" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="O8" s="38">
         <v>3.2</v>
       </c>
-      <c r="O8" s="38">
+      <c r="P8" s="38">
         <v>4.4666666666666668</v>
       </c>
-      <c r="P8" s="38">
+      <c r="Q8" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="R8" s="38">
         <v>3.4666666666666668</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="S8" s="38">
         <v>4.333333333333333</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="T8" s="38">
+        <v>5.4</v>
+      </c>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -37396,20 +37851,26 @@
         <v>1.5333333333333334</v>
       </c>
       <c r="N9" s="38">
+        <v>2</v>
+      </c>
+      <c r="O9" s="38">
         <v>3.1333333333333333</v>
       </c>
-      <c r="O9" s="38">
+      <c r="P9" s="38">
         <v>4.2666666666666666</v>
       </c>
-      <c r="P9" s="38">
+      <c r="Q9" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="R9" s="38">
         <v>3.4</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="S9" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+      <c r="T9" s="38">
+        <v>6.1</v>
+      </c>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -37444,11 +37905,11 @@
         <v>3.4666666666666668</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+        <v>100</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -37492,20 +37953,26 @@
         <v>3.2</v>
       </c>
       <c r="N11" s="38">
+        <v>2.9</v>
+      </c>
+      <c r="O11" s="38">
         <v>7.5333333333333332</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P11" s="38">
         <v>8.9333333333333336</v>
       </c>
-      <c r="P11" s="38">
+      <c r="Q11" s="38">
+        <v>10.7</v>
+      </c>
+      <c r="R11" s="38">
         <v>8.3333333333333339</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="S11" s="38">
         <v>8.9333333333333336</v>
       </c>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="T11" s="38">
+        <v>10.5</v>
+      </c>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -37549,20 +38016,26 @@
         <v>5.4</v>
       </c>
       <c r="N12" s="38">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O12" s="38">
         <v>10.066666666666666</v>
       </c>
-      <c r="O12" s="38">
+      <c r="P12" s="38">
         <v>12.666666666666666</v>
       </c>
-      <c r="P12" s="38">
+      <c r="Q12" s="38">
+        <v>14</v>
+      </c>
+      <c r="R12" s="38">
         <v>10.8</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="S12" s="38">
         <v>11.733333333333333</v>
       </c>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+      <c r="T12" s="38">
+        <v>13.5</v>
+      </c>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -37606,20 +38079,26 @@
         <v>6.4666666666666668</v>
       </c>
       <c r="N13" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="O13" s="38">
         <v>10.266666666666667</v>
       </c>
-      <c r="O13" s="38">
+      <c r="P13" s="38">
         <v>13.466666666666667</v>
       </c>
-      <c r="P13" s="38">
+      <c r="Q13" s="38">
+        <v>15.5</v>
+      </c>
+      <c r="R13" s="38">
         <v>9.8666666666666671</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="S13" s="38">
         <v>13.333333333333334</v>
       </c>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
+      <c r="T13" s="38">
+        <v>15</v>
+      </c>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -37663,20 +38142,26 @@
         <v>7</v>
       </c>
       <c r="N14" s="38">
+        <v>7.3</v>
+      </c>
+      <c r="O14" s="38">
         <v>10.133333333333333</v>
       </c>
-      <c r="O14" s="38">
+      <c r="P14" s="38">
         <v>13.666666666666666</v>
       </c>
-      <c r="P14" s="38">
+      <c r="Q14" s="38">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R14" s="38">
         <v>10.733333333333333</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="S14" s="38">
         <v>13.4</v>
       </c>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="T14" s="38">
+        <v>16</v>
+      </c>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -37711,11 +38196,11 @@
         <v>7.5333333333333332</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+        <v>101</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -37759,20 +38244,26 @@
         <v>1.2</v>
       </c>
       <c r="N16" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="O16" s="38">
         <v>4</v>
       </c>
-      <c r="O16" s="38">
+      <c r="P16" s="38">
         <v>5.8</v>
       </c>
-      <c r="P16" s="38">
+      <c r="Q16" s="38">
+        <v>6</v>
+      </c>
+      <c r="R16" s="38">
         <v>5.1333333333333337</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="S16" s="38">
         <v>5.8</v>
       </c>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="T16" s="38">
+        <v>5.9</v>
+      </c>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -37816,20 +38307,26 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="N17" s="38">
+        <v>2.1</v>
+      </c>
+      <c r="O17" s="38">
         <v>6.0666666666666664</v>
       </c>
-      <c r="O17" s="38">
+      <c r="P17" s="38">
         <v>8.6</v>
       </c>
-      <c r="P17" s="38">
+      <c r="Q17" s="38">
+        <v>8.4</v>
+      </c>
+      <c r="R17" s="38">
         <v>7.2666666666666666</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="S17" s="38">
         <v>8.7333333333333325</v>
       </c>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
+      <c r="T17" s="38">
+        <v>8.4</v>
+      </c>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -37873,20 +38370,26 @@
         <v>3</v>
       </c>
       <c r="N18" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="O18" s="38">
         <v>5.666666666666667</v>
       </c>
-      <c r="O18" s="38">
+      <c r="P18" s="38">
         <v>9.9333333333333336</v>
       </c>
-      <c r="P18" s="38">
+      <c r="Q18" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="R18" s="38">
         <v>7.1333333333333337</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="S18" s="38">
         <v>9.7333333333333325</v>
       </c>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="T18" s="38">
+        <v>9.4</v>
+      </c>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -37930,20 +38433,26 @@
         <v>3.2</v>
       </c>
       <c r="N19" s="38">
+        <v>3.5</v>
+      </c>
+      <c r="O19" s="38">
         <v>5.333333333333333</v>
       </c>
-      <c r="O19" s="38">
+      <c r="P19" s="38">
         <v>9.7333333333333325</v>
       </c>
-      <c r="P19" s="38">
+      <c r="Q19" s="38">
+        <v>10.4</v>
+      </c>
+      <c r="R19" s="38">
         <v>6.9333333333333336</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="S19" s="38">
         <v>10</v>
       </c>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="T19" s="38">
+        <v>10.3</v>
+      </c>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -37978,11 +38487,11 @@
         <v>6.8666666666666663</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
+        <v>102</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -38026,20 +38535,26 @@
         <v>0.8</v>
       </c>
       <c r="N21" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="O21" s="38">
         <v>1.9333333333333333</v>
       </c>
-      <c r="O21" s="38">
+      <c r="P21" s="38">
         <v>4.2</v>
       </c>
-      <c r="P21" s="38">
+      <c r="Q21" s="38">
+        <v>3.8</v>
+      </c>
+      <c r="R21" s="38">
         <v>2.1333333333333333</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="S21" s="38">
         <v>4.1333333333333337</v>
       </c>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="T21" s="38">
+        <v>3.9</v>
+      </c>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -38083,20 +38598,26 @@
         <v>1.4666666666666666</v>
       </c>
       <c r="N22" s="38">
+        <v>1.3</v>
+      </c>
+      <c r="O22" s="38">
         <v>2.8666666666666667</v>
       </c>
-      <c r="O22" s="38">
+      <c r="P22" s="38">
         <v>6.4666666666666668</v>
       </c>
-      <c r="P22" s="38">
+      <c r="Q22" s="38">
+        <v>5.9</v>
+      </c>
+      <c r="R22" s="38">
         <v>3.1333333333333333</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="S22" s="38">
         <v>6.5333333333333332</v>
       </c>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" s="38">
+        <v>5.9</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -38140,20 +38661,26 @@
         <v>1.7333333333333334</v>
       </c>
       <c r="N23" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="O23" s="38">
         <v>3</v>
       </c>
-      <c r="O23" s="38">
+      <c r="P23" s="38">
         <v>6.8</v>
       </c>
-      <c r="P23" s="38">
+      <c r="Q23" s="38">
+        <v>6.7</v>
+      </c>
+      <c r="R23" s="38">
         <v>3.4</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="S23" s="38">
         <v>7</v>
       </c>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="T23" s="38">
+        <v>6.7</v>
+      </c>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -38197,20 +38724,26 @@
         <v>1.9333333333333333</v>
       </c>
       <c r="N24" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O24" s="38">
         <v>2.7333333333333334</v>
       </c>
-      <c r="O24" s="38">
+      <c r="P24" s="38">
         <v>7.9333333333333336</v>
       </c>
-      <c r="P24" s="38">
+      <c r="Q24" s="38">
+        <v>7.7</v>
+      </c>
+      <c r="R24" s="38">
         <v>3.2</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="S24" s="38">
         <v>7.4666666666666668</v>
       </c>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+      <c r="T24" s="38">
+        <v>7.5</v>
+      </c>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -40405,7 +40938,7 @@
         <v>7.9333333333333336</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>50</v>
       </c>
@@ -40435,10 +40968,1453 @@
         <v>7.4666666666666668</v>
       </c>
     </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="29">
+        <v>15</v>
+      </c>
+      <c r="D98" s="29">
+        <v>1</v>
+      </c>
+      <c r="E98" s="29">
+        <v>1</v>
+      </c>
+      <c r="F98" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G98" s="11">
+        <v>6</v>
+      </c>
+      <c r="H98" s="11">
+        <v>15</v>
+      </c>
+      <c r="I98" s="11">
+        <f>$J$98*G98/H98</f>
+        <v>0.6</v>
+      </c>
+      <c r="J98" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="29">
+        <v>15</v>
+      </c>
+      <c r="D99" s="29">
+        <v>1</v>
+      </c>
+      <c r="E99" s="29">
+        <v>1</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G99" s="11">
+        <v>29</v>
+      </c>
+      <c r="H99" s="11">
+        <v>15</v>
+      </c>
+      <c r="I99" s="11">
+        <f t="shared" ref="I99:I145" si="8">$J$98*G99/H99</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="29">
+        <v>15</v>
+      </c>
+      <c r="D100" s="29">
+        <v>1</v>
+      </c>
+      <c r="E100" s="29">
+        <v>1</v>
+      </c>
+      <c r="F100" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G100" s="11">
+        <v>28</v>
+      </c>
+      <c r="H100" s="11">
+        <v>15</v>
+      </c>
+      <c r="I100" s="11">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="29">
+        <v>15</v>
+      </c>
+      <c r="D101" s="29">
+        <v>2</v>
+      </c>
+      <c r="E101" s="29">
+        <v>1</v>
+      </c>
+      <c r="F101" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G101" s="11">
+        <v>12</v>
+      </c>
+      <c r="H101" s="11">
+        <v>15</v>
+      </c>
+      <c r="I101" s="11">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="29">
+        <v>15</v>
+      </c>
+      <c r="D102" s="29">
+        <v>2</v>
+      </c>
+      <c r="E102" s="29">
+        <v>1</v>
+      </c>
+      <c r="F102" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G102" s="11">
+        <v>44</v>
+      </c>
+      <c r="H102" s="11">
+        <v>15</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="29">
+        <v>15</v>
+      </c>
+      <c r="D103" s="29">
+        <v>2</v>
+      </c>
+      <c r="E103" s="29">
+        <v>1</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G103" s="11">
+        <v>44</v>
+      </c>
+      <c r="H103" s="11">
+        <v>15</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="8"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="29">
+        <v>15</v>
+      </c>
+      <c r="D104" s="29">
+        <v>3</v>
+      </c>
+      <c r="E104" s="29">
+        <v>1</v>
+      </c>
+      <c r="F104" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G104" s="11">
+        <v>16</v>
+      </c>
+      <c r="H104" s="11">
+        <v>15</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="29">
+        <v>15</v>
+      </c>
+      <c r="D105" s="29">
+        <v>3</v>
+      </c>
+      <c r="E105" s="29">
+        <v>1</v>
+      </c>
+      <c r="F105" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G105" s="11">
+        <v>56</v>
+      </c>
+      <c r="H105" s="11">
+        <v>15</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="8"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="29">
+        <v>15</v>
+      </c>
+      <c r="D106" s="29">
+        <v>3</v>
+      </c>
+      <c r="E106" s="29">
+        <v>1</v>
+      </c>
+      <c r="F106" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G106" s="11">
+        <v>54</v>
+      </c>
+      <c r="H106" s="11">
+        <v>15</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="8"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="29">
+        <v>15</v>
+      </c>
+      <c r="D107" s="29">
+        <v>4</v>
+      </c>
+      <c r="E107" s="29">
+        <v>1</v>
+      </c>
+      <c r="F107" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G107" s="11">
+        <v>20</v>
+      </c>
+      <c r="H107" s="11">
+        <v>15</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="29">
+        <v>15</v>
+      </c>
+      <c r="D108" s="29">
+        <v>4</v>
+      </c>
+      <c r="E108" s="29">
+        <v>1</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G108" s="11">
+        <v>62</v>
+      </c>
+      <c r="H108" s="11">
+        <v>15</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="8"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" s="29">
+        <v>15</v>
+      </c>
+      <c r="D109" s="29">
+        <v>4</v>
+      </c>
+      <c r="E109" s="29">
+        <v>1</v>
+      </c>
+      <c r="F109" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="G109" s="11">
+        <v>61</v>
+      </c>
+      <c r="H109" s="11">
+        <v>15</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="8"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="29">
+        <v>15</v>
+      </c>
+      <c r="D110" s="29">
+        <v>1</v>
+      </c>
+      <c r="E110" s="29">
+        <v>2</v>
+      </c>
+      <c r="F110" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G110" s="11">
+        <v>29</v>
+      </c>
+      <c r="H110" s="11">
+        <v>15</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="8"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="29">
+        <v>15</v>
+      </c>
+      <c r="D111" s="29">
+        <v>1</v>
+      </c>
+      <c r="E111" s="29">
+        <v>2</v>
+      </c>
+      <c r="F111" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G111" s="11">
+        <v>107</v>
+      </c>
+      <c r="H111" s="11">
+        <v>15</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="8"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="29">
+        <v>15</v>
+      </c>
+      <c r="D112" s="29">
+        <v>1</v>
+      </c>
+      <c r="E112" s="29">
+        <v>2</v>
+      </c>
+      <c r="F112" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G112" s="11">
+        <v>105</v>
+      </c>
+      <c r="H112" s="11">
+        <v>15</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="29">
+        <v>15</v>
+      </c>
+      <c r="D113" s="29">
+        <v>2</v>
+      </c>
+      <c r="E113" s="29">
+        <v>2</v>
+      </c>
+      <c r="F113" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G113" s="11">
+        <v>49</v>
+      </c>
+      <c r="H113" s="11">
+        <v>15</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="8"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="29">
+        <v>15</v>
+      </c>
+      <c r="D114" s="29">
+        <v>2</v>
+      </c>
+      <c r="E114" s="29">
+        <v>2</v>
+      </c>
+      <c r="F114" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G114" s="11">
+        <v>140</v>
+      </c>
+      <c r="H114" s="11">
+        <v>15</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="29">
+        <v>15</v>
+      </c>
+      <c r="D115" s="29">
+        <v>2</v>
+      </c>
+      <c r="E115" s="29">
+        <v>2</v>
+      </c>
+      <c r="F115" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G115" s="11">
+        <v>135</v>
+      </c>
+      <c r="H115" s="11">
+        <v>15</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="8"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="29">
+        <v>15</v>
+      </c>
+      <c r="D116" s="29">
+        <v>3</v>
+      </c>
+      <c r="E116" s="29">
+        <v>2</v>
+      </c>
+      <c r="F116" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G116" s="11">
+        <v>63</v>
+      </c>
+      <c r="H116" s="11">
+        <v>15</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="8"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="29">
+        <v>15</v>
+      </c>
+      <c r="D117" s="29">
+        <v>3</v>
+      </c>
+      <c r="E117" s="29">
+        <v>2</v>
+      </c>
+      <c r="F117" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G117" s="11">
+        <v>155</v>
+      </c>
+      <c r="H117" s="11">
+        <v>15</v>
+      </c>
+      <c r="I117" s="11">
+        <f t="shared" si="8"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="29">
+        <v>15</v>
+      </c>
+      <c r="D118" s="29">
+        <v>3</v>
+      </c>
+      <c r="E118" s="29">
+        <v>2</v>
+      </c>
+      <c r="F118" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G118" s="11">
+        <v>150</v>
+      </c>
+      <c r="H118" s="11">
+        <v>15</v>
+      </c>
+      <c r="I118" s="11">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="29">
+        <v>15</v>
+      </c>
+      <c r="D119" s="29">
+        <v>4</v>
+      </c>
+      <c r="E119" s="29">
+        <v>2</v>
+      </c>
+      <c r="F119" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G119" s="11">
+        <v>73</v>
+      </c>
+      <c r="H119" s="11">
+        <v>15</v>
+      </c>
+      <c r="I119" s="11">
+        <f t="shared" si="8"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="29">
+        <v>15</v>
+      </c>
+      <c r="D120" s="29">
+        <v>4</v>
+      </c>
+      <c r="E120" s="29">
+        <v>2</v>
+      </c>
+      <c r="F120" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G120" s="11">
+        <v>161</v>
+      </c>
+      <c r="H120" s="11">
+        <v>15</v>
+      </c>
+      <c r="I120" s="11">
+        <f t="shared" si="8"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="29">
+        <v>15</v>
+      </c>
+      <c r="D121" s="29">
+        <v>4</v>
+      </c>
+      <c r="E121" s="29">
+        <v>2</v>
+      </c>
+      <c r="F121" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="G121" s="11">
+        <v>160</v>
+      </c>
+      <c r="H121" s="11">
+        <v>15</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="29">
+        <v>15</v>
+      </c>
+      <c r="D122" s="29">
+        <v>1</v>
+      </c>
+      <c r="E122" s="29">
+        <v>3</v>
+      </c>
+      <c r="F122" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G122" s="11">
+        <v>12</v>
+      </c>
+      <c r="H122" s="11">
+        <v>15</v>
+      </c>
+      <c r="I122" s="11">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="29">
+        <v>15</v>
+      </c>
+      <c r="D123" s="29">
+        <v>1</v>
+      </c>
+      <c r="E123" s="29">
+        <v>3</v>
+      </c>
+      <c r="F123" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G123" s="11">
+        <v>60</v>
+      </c>
+      <c r="H123" s="11">
+        <v>15</v>
+      </c>
+      <c r="I123" s="11">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="29">
+        <v>15</v>
+      </c>
+      <c r="D124" s="29">
+        <v>1</v>
+      </c>
+      <c r="E124" s="29">
+        <v>3</v>
+      </c>
+      <c r="F124" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G124" s="11">
+        <v>59</v>
+      </c>
+      <c r="H124" s="11">
+        <v>15</v>
+      </c>
+      <c r="I124" s="11">
+        <f t="shared" si="8"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="29">
+        <v>15</v>
+      </c>
+      <c r="D125" s="29">
+        <v>2</v>
+      </c>
+      <c r="E125" s="29">
+        <v>3</v>
+      </c>
+      <c r="F125" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G125" s="11">
+        <v>21</v>
+      </c>
+      <c r="H125" s="11">
+        <v>15</v>
+      </c>
+      <c r="I125" s="11">
+        <f t="shared" si="8"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="29">
+        <v>15</v>
+      </c>
+      <c r="D126" s="29">
+        <v>2</v>
+      </c>
+      <c r="E126" s="29">
+        <v>3</v>
+      </c>
+      <c r="F126" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G126" s="11">
+        <v>84</v>
+      </c>
+      <c r="H126" s="11">
+        <v>15</v>
+      </c>
+      <c r="I126" s="11">
+        <f t="shared" si="8"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="29">
+        <v>15</v>
+      </c>
+      <c r="D127" s="29">
+        <v>2</v>
+      </c>
+      <c r="E127" s="29">
+        <v>3</v>
+      </c>
+      <c r="F127" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G127" s="11">
+        <v>84</v>
+      </c>
+      <c r="H127" s="11">
+        <v>15</v>
+      </c>
+      <c r="I127" s="11">
+        <f t="shared" si="8"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="29">
+        <v>15</v>
+      </c>
+      <c r="D128" s="29">
+        <v>3</v>
+      </c>
+      <c r="E128" s="29">
+        <v>3</v>
+      </c>
+      <c r="F128" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G128" s="11">
+        <v>28</v>
+      </c>
+      <c r="H128" s="11">
+        <v>15</v>
+      </c>
+      <c r="I128" s="11">
+        <f t="shared" si="8"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="29">
+        <v>15</v>
+      </c>
+      <c r="D129" s="29">
+        <v>3</v>
+      </c>
+      <c r="E129" s="29">
+        <v>3</v>
+      </c>
+      <c r="F129" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G129" s="11">
+        <v>93</v>
+      </c>
+      <c r="H129" s="11">
+        <v>15</v>
+      </c>
+      <c r="I129" s="11">
+        <f t="shared" si="8"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="29">
+        <v>15</v>
+      </c>
+      <c r="D130" s="29">
+        <v>3</v>
+      </c>
+      <c r="E130" s="29">
+        <v>3</v>
+      </c>
+      <c r="F130" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G130" s="11">
+        <v>94</v>
+      </c>
+      <c r="H130" s="11">
+        <v>15</v>
+      </c>
+      <c r="I130" s="11">
+        <f t="shared" si="8"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="29">
+        <v>15</v>
+      </c>
+      <c r="D131" s="29">
+        <v>4</v>
+      </c>
+      <c r="E131" s="29">
+        <v>3</v>
+      </c>
+      <c r="F131" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G131" s="11">
+        <v>35</v>
+      </c>
+      <c r="H131" s="11">
+        <v>15</v>
+      </c>
+      <c r="I131" s="11">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="29">
+        <v>15</v>
+      </c>
+      <c r="D132" s="29">
+        <v>4</v>
+      </c>
+      <c r="E132" s="29">
+        <v>3</v>
+      </c>
+      <c r="F132" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G132" s="11">
+        <v>104</v>
+      </c>
+      <c r="H132" s="11">
+        <v>15</v>
+      </c>
+      <c r="I132" s="11">
+        <f t="shared" si="8"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C133" s="29">
+        <v>15</v>
+      </c>
+      <c r="D133" s="29">
+        <v>4</v>
+      </c>
+      <c r="E133" s="29">
+        <v>3</v>
+      </c>
+      <c r="F133" s="11">
+        <v>11.67</v>
+      </c>
+      <c r="G133" s="11">
+        <v>103</v>
+      </c>
+      <c r="H133" s="11">
+        <v>15</v>
+      </c>
+      <c r="I133" s="11">
+        <f t="shared" si="8"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="29">
+        <v>15</v>
+      </c>
+      <c r="D134" s="29">
+        <v>1</v>
+      </c>
+      <c r="E134" s="29">
+        <v>4</v>
+      </c>
+      <c r="F134" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G134" s="11">
+        <v>7</v>
+      </c>
+      <c r="H134" s="11">
+        <v>15</v>
+      </c>
+      <c r="I134" s="11">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="29">
+        <v>15</v>
+      </c>
+      <c r="D135" s="29">
+        <v>1</v>
+      </c>
+      <c r="E135" s="29">
+        <v>4</v>
+      </c>
+      <c r="F135" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G135" s="11">
+        <v>38</v>
+      </c>
+      <c r="H135" s="11">
+        <v>15</v>
+      </c>
+      <c r="I135" s="11">
+        <f t="shared" si="8"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="29">
+        <v>15</v>
+      </c>
+      <c r="D136" s="29">
+        <v>1</v>
+      </c>
+      <c r="E136" s="29">
+        <v>4</v>
+      </c>
+      <c r="F136" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G136" s="11">
+        <v>39</v>
+      </c>
+      <c r="H136" s="11">
+        <v>15</v>
+      </c>
+      <c r="I136" s="11">
+        <f t="shared" si="8"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="29">
+        <v>15</v>
+      </c>
+      <c r="D137" s="29">
+        <v>2</v>
+      </c>
+      <c r="E137" s="29">
+        <v>4</v>
+      </c>
+      <c r="F137" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G137" s="11">
+        <v>13</v>
+      </c>
+      <c r="H137" s="11">
+        <v>15</v>
+      </c>
+      <c r="I137" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="29">
+        <v>15</v>
+      </c>
+      <c r="D138" s="29">
+        <v>2</v>
+      </c>
+      <c r="E138" s="29">
+        <v>4</v>
+      </c>
+      <c r="F138" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G138" s="11">
+        <v>59</v>
+      </c>
+      <c r="H138" s="11">
+        <v>15</v>
+      </c>
+      <c r="I138" s="11">
+        <f t="shared" si="8"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" s="29">
+        <v>15</v>
+      </c>
+      <c r="D139" s="29">
+        <v>2</v>
+      </c>
+      <c r="E139" s="29">
+        <v>4</v>
+      </c>
+      <c r="F139" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G139" s="11">
+        <v>59</v>
+      </c>
+      <c r="H139" s="11">
+        <v>15</v>
+      </c>
+      <c r="I139" s="11">
+        <f t="shared" si="8"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="29">
+        <v>15</v>
+      </c>
+      <c r="D140" s="29">
+        <v>3</v>
+      </c>
+      <c r="E140" s="29">
+        <v>4</v>
+      </c>
+      <c r="F140" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G140" s="11">
+        <v>18</v>
+      </c>
+      <c r="H140" s="11">
+        <v>15</v>
+      </c>
+      <c r="I140" s="11">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="29">
+        <v>15</v>
+      </c>
+      <c r="D141" s="29">
+        <v>3</v>
+      </c>
+      <c r="E141" s="29">
+        <v>4</v>
+      </c>
+      <c r="F141" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G141" s="11">
+        <v>67</v>
+      </c>
+      <c r="H141" s="11">
+        <v>15</v>
+      </c>
+      <c r="I141" s="11">
+        <f t="shared" si="8"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="29">
+        <v>15</v>
+      </c>
+      <c r="D142" s="29">
+        <v>3</v>
+      </c>
+      <c r="E142" s="29">
+        <v>4</v>
+      </c>
+      <c r="F142" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G142" s="11">
+        <v>67</v>
+      </c>
+      <c r="H142" s="11">
+        <v>15</v>
+      </c>
+      <c r="I142" s="11">
+        <f t="shared" si="8"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="29">
+        <v>15</v>
+      </c>
+      <c r="D143" s="29">
+        <v>4</v>
+      </c>
+      <c r="E143" s="29">
+        <v>4</v>
+      </c>
+      <c r="F143" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G143" s="11">
+        <v>23</v>
+      </c>
+      <c r="H143" s="11">
+        <v>15</v>
+      </c>
+      <c r="I143" s="11">
+        <f t="shared" si="8"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="29">
+        <v>15</v>
+      </c>
+      <c r="D144" s="29">
+        <v>4</v>
+      </c>
+      <c r="E144" s="29">
+        <v>4</v>
+      </c>
+      <c r="F144" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G144" s="11">
+        <v>77</v>
+      </c>
+      <c r="H144" s="11">
+        <v>15</v>
+      </c>
+      <c r="I144" s="11">
+        <f t="shared" si="8"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="29">
+        <v>15</v>
+      </c>
+      <c r="D145" s="29">
+        <v>4</v>
+      </c>
+      <c r="E145" s="29">
+        <v>4</v>
+      </c>
+      <c r="F145" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="G145" s="11">
+        <v>75</v>
+      </c>
+      <c r="H145" s="11">
+        <v>15</v>
+      </c>
+      <c r="I145" s="11">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="L6:Q9 L10:Q10 L11:Q14 L15:Q15 L16:Q19 L20:Q20 L21:Q24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting pivot="1" sqref="L6:T9 L10:T10 L11:T14 L15:T15 L16:T19 L20:T20 L21:T24">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78952B05-BF02-408A-B771-E02FACB2C078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D0C3A-7CEF-4A7F-96D8-3C2E18378BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13896" yWindow="600" windowWidth="15972" windowHeight="18888" firstSheet="1" activeTab="6" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="15" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="106">
   <si>
     <t>Time (s)</t>
   </si>
@@ -419,10 +419,10 @@
     <t>WSL</t>
   </si>
   <si>
-    <t>Wid,Thrds</t>
+    <t>15 Qubit</t>
   </si>
   <si>
-    <t>15 Qubit</t>
+    <t>Width,Thrds</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -666,160 +666,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -15122,36 +14968,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="77">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="25">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="24">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15161,7 +15007,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15171,7 +15017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15181,29 +15027,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="17">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="16">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="14">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15213,7 +15059,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15223,7 +15069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15537,7 +15383,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="58">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15820,7 +15666,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="57">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15939,7 +15785,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Wid,Thrds" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width,Thrds" colHeaderCaption=" ">
   <location ref="K2:T24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -16090,26 +15936,26 @@
     <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="32">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="6">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="5">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -16122,7 +15968,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -16135,7 +15981,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -37360,10 +37206,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1306160B-1DA9-4FAC-BA9F-E9F284318313}">
-  <dimension ref="A1:AL145"/>
+  <dimension ref="A1:AL289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37371,7 +37217,7 @@
     <col min="1" max="2" width="8.88671875" style="11"/>
     <col min="3" max="5" width="8.88671875" style="29"/>
     <col min="6" max="10" width="8.88671875" style="11"/>
-    <col min="11" max="11" width="11.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="11" customWidth="1"/>
     <col min="12" max="17" width="5.21875" style="38" customWidth="1"/>
     <col min="18" max="20" width="5.21875" style="11" customWidth="1"/>
     <col min="21" max="21" width="12" style="11" bestFit="1" customWidth="1"/>
@@ -37410,7 +37256,7 @@
         <v>64</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
@@ -37551,7 +37397,7 @@
         <v>1.9333333333333333</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>49</v>
@@ -42409,6 +42255,4326 @@
       <c r="I145" s="11">
         <f t="shared" si="8"/>
         <v>7.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="29">
+        <v>26</v>
+      </c>
+      <c r="D146" s="29">
+        <v>1</v>
+      </c>
+      <c r="E146" s="29">
+        <v>1</v>
+      </c>
+      <c r="F146" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G146" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H146" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I146" s="11">
+        <f>G146/H146</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="29">
+        <v>26</v>
+      </c>
+      <c r="D147" s="29">
+        <v>1</v>
+      </c>
+      <c r="E147" s="29">
+        <v>1</v>
+      </c>
+      <c r="F147" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G147" s="11">
+        <v>14.6</v>
+      </c>
+      <c r="H147" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I147" s="11">
+        <f t="shared" ref="I147:I157" si="9">G147/H147</f>
+        <v>1.6590909090909089</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="29">
+        <v>26</v>
+      </c>
+      <c r="D148" s="29">
+        <v>1</v>
+      </c>
+      <c r="E148" s="29">
+        <v>1</v>
+      </c>
+      <c r="F148" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G148" s="11">
+        <v>15.9</v>
+      </c>
+      <c r="H148" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I148" s="11">
+        <f t="shared" si="9"/>
+        <v>1.8068181818181817</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="29">
+        <v>26</v>
+      </c>
+      <c r="D149" s="29">
+        <v>2</v>
+      </c>
+      <c r="E149" s="29">
+        <v>1</v>
+      </c>
+      <c r="F149" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G149" s="11">
+        <v>17</v>
+      </c>
+      <c r="H149" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I149" s="11">
+        <f t="shared" si="9"/>
+        <v>1.9318181818181817</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="29">
+        <v>26</v>
+      </c>
+      <c r="D150" s="29">
+        <v>2</v>
+      </c>
+      <c r="E150" s="29">
+        <v>1</v>
+      </c>
+      <c r="F150" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G150" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="H150" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I150" s="11">
+        <f t="shared" si="9"/>
+        <v>3.0795454545454546</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" s="29">
+        <v>26</v>
+      </c>
+      <c r="D151" s="29">
+        <v>2</v>
+      </c>
+      <c r="E151" s="29">
+        <v>1</v>
+      </c>
+      <c r="F151" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G151" s="11">
+        <v>28</v>
+      </c>
+      <c r="H151" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I151" s="11">
+        <f t="shared" si="9"/>
+        <v>3.1818181818181817</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="29">
+        <v>26</v>
+      </c>
+      <c r="D152" s="29">
+        <v>3</v>
+      </c>
+      <c r="E152" s="29">
+        <v>1</v>
+      </c>
+      <c r="F152" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G152" s="11">
+        <v>21.3</v>
+      </c>
+      <c r="H152" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I152" s="11">
+        <f t="shared" si="9"/>
+        <v>2.4204545454545454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="29">
+        <v>26</v>
+      </c>
+      <c r="D153" s="29">
+        <v>3</v>
+      </c>
+      <c r="E153" s="29">
+        <v>1</v>
+      </c>
+      <c r="F153" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G153" s="11">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H153" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I153" s="11">
+        <f t="shared" si="9"/>
+        <v>3.9545454545454537</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="29">
+        <v>26</v>
+      </c>
+      <c r="D154" s="29">
+        <v>3</v>
+      </c>
+      <c r="E154" s="29">
+        <v>1</v>
+      </c>
+      <c r="F154" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G154" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H154" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I154" s="11">
+        <f t="shared" si="9"/>
+        <v>4.1590909090909092</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="29">
+        <v>26</v>
+      </c>
+      <c r="D155" s="29">
+        <v>4</v>
+      </c>
+      <c r="E155" s="29">
+        <v>1</v>
+      </c>
+      <c r="F155" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G155" s="11">
+        <v>22.4</v>
+      </c>
+      <c r="H155" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I155" s="11">
+        <f t="shared" si="9"/>
+        <v>2.545454545454545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="29">
+        <v>26</v>
+      </c>
+      <c r="D156" s="29">
+        <v>4</v>
+      </c>
+      <c r="E156" s="29">
+        <v>1</v>
+      </c>
+      <c r="F156" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G156" s="11">
+        <v>34.9</v>
+      </c>
+      <c r="H156" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I156" s="11">
+        <f t="shared" si="9"/>
+        <v>3.9659090909090904</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="29">
+        <v>26</v>
+      </c>
+      <c r="D157" s="29">
+        <v>4</v>
+      </c>
+      <c r="E157" s="29">
+        <v>1</v>
+      </c>
+      <c r="F157" s="11">
+        <v>1.95</v>
+      </c>
+      <c r="G157" s="11">
+        <v>36</v>
+      </c>
+      <c r="H157" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I157" s="11">
+        <f t="shared" si="9"/>
+        <v>4.0909090909090908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="29">
+        <v>26</v>
+      </c>
+      <c r="D158" s="29">
+        <v>1</v>
+      </c>
+      <c r="E158" s="29">
+        <v>2</v>
+      </c>
+      <c r="F158" s="11">
+        <v>1.88</v>
+      </c>
+      <c r="G158" s="11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H158" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I158" s="11">
+        <f>G158/H158</f>
+        <v>3.7840909090909083</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="29">
+        <v>26</v>
+      </c>
+      <c r="D159" s="29">
+        <v>1</v>
+      </c>
+      <c r="E159" s="29">
+        <v>2</v>
+      </c>
+      <c r="F159" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G159" s="11">
+        <v>65.7</v>
+      </c>
+      <c r="H159" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I159" s="11">
+        <f t="shared" ref="I159:I169" si="10">G159/H159</f>
+        <v>7.4659090909090908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="29">
+        <v>26</v>
+      </c>
+      <c r="D160" s="29">
+        <v>1</v>
+      </c>
+      <c r="E160" s="29">
+        <v>2</v>
+      </c>
+      <c r="F160" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G160" s="11">
+        <v>70</v>
+      </c>
+      <c r="H160" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I160" s="11">
+        <f t="shared" si="10"/>
+        <v>7.9545454545454541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="29">
+        <v>26</v>
+      </c>
+      <c r="D161" s="29">
+        <v>2</v>
+      </c>
+      <c r="E161" s="29">
+        <v>2</v>
+      </c>
+      <c r="F161" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G161" s="11">
+        <v>63</v>
+      </c>
+      <c r="H161" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I161" s="11">
+        <f t="shared" si="10"/>
+        <v>7.1590909090909083</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="29">
+        <v>26</v>
+      </c>
+      <c r="D162" s="29">
+        <v>2</v>
+      </c>
+      <c r="E162" s="29">
+        <v>2</v>
+      </c>
+      <c r="F162" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G162" s="11">
+        <v>116.2</v>
+      </c>
+      <c r="H162" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I162" s="11">
+        <f t="shared" si="10"/>
+        <v>13.204545454545453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C163" s="29">
+        <v>26</v>
+      </c>
+      <c r="D163" s="29">
+        <v>2</v>
+      </c>
+      <c r="E163" s="29">
+        <v>2</v>
+      </c>
+      <c r="F163" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G163" s="11">
+        <v>121.9</v>
+      </c>
+      <c r="H163" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I163" s="11">
+        <f t="shared" si="10"/>
+        <v>13.852272727272727</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="29">
+        <v>26</v>
+      </c>
+      <c r="D164" s="29">
+        <v>3</v>
+      </c>
+      <c r="E164" s="29">
+        <v>2</v>
+      </c>
+      <c r="F164" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G164" s="11">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="H164" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I164" s="11">
+        <f t="shared" si="10"/>
+        <v>9.1590909090909083</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="29">
+        <v>26</v>
+      </c>
+      <c r="D165" s="29">
+        <v>3</v>
+      </c>
+      <c r="E165" s="29">
+        <v>2</v>
+      </c>
+      <c r="F165" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G165" s="11">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="H165" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I165" s="11">
+        <f t="shared" si="10"/>
+        <v>16.670454545454543</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="29">
+        <v>26</v>
+      </c>
+      <c r="D166" s="29">
+        <v>3</v>
+      </c>
+      <c r="E166" s="29">
+        <v>2</v>
+      </c>
+      <c r="F166" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G166" s="11">
+        <v>154.9</v>
+      </c>
+      <c r="H166" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I166" s="11">
+        <f t="shared" si="10"/>
+        <v>17.602272727272727</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="29">
+        <v>26</v>
+      </c>
+      <c r="D167" s="29">
+        <v>4</v>
+      </c>
+      <c r="E167" s="29">
+        <v>2</v>
+      </c>
+      <c r="F167" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G167" s="11">
+        <v>86.4</v>
+      </c>
+      <c r="H167" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I167" s="11">
+        <f t="shared" si="10"/>
+        <v>9.8181818181818183</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="29">
+        <v>26</v>
+      </c>
+      <c r="D168" s="29">
+        <v>4</v>
+      </c>
+      <c r="E168" s="29">
+        <v>2</v>
+      </c>
+      <c r="F168" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G168" s="11">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="H168" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I168" s="11">
+        <f t="shared" si="10"/>
+        <v>17.18181818181818</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" s="29">
+        <v>26</v>
+      </c>
+      <c r="D169" s="29">
+        <v>4</v>
+      </c>
+      <c r="E169" s="29">
+        <v>2</v>
+      </c>
+      <c r="F169" s="11">
+        <v>1.89</v>
+      </c>
+      <c r="G169" s="11">
+        <v>157.1</v>
+      </c>
+      <c r="H169" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I169" s="11">
+        <f t="shared" si="10"/>
+        <v>17.852272727272727</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="29">
+        <v>26</v>
+      </c>
+      <c r="D170" s="29">
+        <v>1</v>
+      </c>
+      <c r="E170" s="29">
+        <v>3</v>
+      </c>
+      <c r="F170" s="11">
+        <v>3</v>
+      </c>
+      <c r="G170" s="11">
+        <v>12</v>
+      </c>
+      <c r="H170" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I170" s="11">
+        <f>G170/H170</f>
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="29">
+        <v>26</v>
+      </c>
+      <c r="D171" s="29">
+        <v>1</v>
+      </c>
+      <c r="E171" s="29">
+        <v>3</v>
+      </c>
+      <c r="F171" s="11">
+        <v>3</v>
+      </c>
+      <c r="G171" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H171" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I171" s="11">
+        <f t="shared" ref="I171:I181" si="11">G171/H171</f>
+        <v>4.1590909090909092</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="29">
+        <v>26</v>
+      </c>
+      <c r="D172" s="29">
+        <v>1</v>
+      </c>
+      <c r="E172" s="29">
+        <v>3</v>
+      </c>
+      <c r="F172" s="11">
+        <v>3</v>
+      </c>
+      <c r="G172" s="11">
+        <v>49.8</v>
+      </c>
+      <c r="H172" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I172" s="11">
+        <f t="shared" si="11"/>
+        <v>5.6590909090909083</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="29">
+        <v>26</v>
+      </c>
+      <c r="D173" s="29">
+        <v>2</v>
+      </c>
+      <c r="E173" s="29">
+        <v>3</v>
+      </c>
+      <c r="F173" s="11">
+        <v>3</v>
+      </c>
+      <c r="G173" s="11">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H173" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I173" s="11">
+        <f t="shared" si="11"/>
+        <v>2.3181818181818179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="29">
+        <v>26</v>
+      </c>
+      <c r="D174" s="29">
+        <v>2</v>
+      </c>
+      <c r="E174" s="29">
+        <v>3</v>
+      </c>
+      <c r="F174" s="11">
+        <v>3</v>
+      </c>
+      <c r="G174" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="H174" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I174" s="11">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="29">
+        <v>26</v>
+      </c>
+      <c r="D175" s="29">
+        <v>2</v>
+      </c>
+      <c r="E175" s="29">
+        <v>3</v>
+      </c>
+      <c r="F175" s="11">
+        <v>3</v>
+      </c>
+      <c r="G175" s="11">
+        <v>86.1</v>
+      </c>
+      <c r="H175" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I175" s="11">
+        <f t="shared" si="11"/>
+        <v>9.7840909090909083</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="29">
+        <v>26</v>
+      </c>
+      <c r="D176" s="29">
+        <v>3</v>
+      </c>
+      <c r="E176" s="29">
+        <v>3</v>
+      </c>
+      <c r="F176" s="11">
+        <v>3</v>
+      </c>
+      <c r="G176" s="11">
+        <v>22.1</v>
+      </c>
+      <c r="H176" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I176" s="11">
+        <f t="shared" si="11"/>
+        <v>2.5113636363636362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="29">
+        <v>26</v>
+      </c>
+      <c r="D177" s="29">
+        <v>3</v>
+      </c>
+      <c r="E177" s="29">
+        <v>3</v>
+      </c>
+      <c r="F177" s="11">
+        <v>3</v>
+      </c>
+      <c r="G177" s="11">
+        <v>68.3</v>
+      </c>
+      <c r="H177" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I177" s="11">
+        <f t="shared" si="11"/>
+        <v>7.7613636363636358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="29">
+        <v>26</v>
+      </c>
+      <c r="D178" s="29">
+        <v>3</v>
+      </c>
+      <c r="E178" s="29">
+        <v>3</v>
+      </c>
+      <c r="F178" s="11">
+        <v>3</v>
+      </c>
+      <c r="G178" s="11">
+        <v>98.5</v>
+      </c>
+      <c r="H178" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I178" s="11">
+        <f t="shared" si="11"/>
+        <v>11.193181818181817</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="29">
+        <v>26</v>
+      </c>
+      <c r="D179" s="29">
+        <v>4</v>
+      </c>
+      <c r="E179" s="29">
+        <v>3</v>
+      </c>
+      <c r="F179" s="11">
+        <v>3</v>
+      </c>
+      <c r="G179" s="11">
+        <v>28</v>
+      </c>
+      <c r="H179" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I179" s="11">
+        <f t="shared" si="11"/>
+        <v>3.1818181818181817</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="29">
+        <v>26</v>
+      </c>
+      <c r="D180" s="29">
+        <v>4</v>
+      </c>
+      <c r="E180" s="29">
+        <v>3</v>
+      </c>
+      <c r="F180" s="11">
+        <v>3</v>
+      </c>
+      <c r="G180" s="11">
+        <v>74</v>
+      </c>
+      <c r="H180" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I180" s="11">
+        <f t="shared" si="11"/>
+        <v>8.4090909090909083</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C181" s="29">
+        <v>26</v>
+      </c>
+      <c r="D181" s="29">
+        <v>4</v>
+      </c>
+      <c r="E181" s="29">
+        <v>3</v>
+      </c>
+      <c r="F181" s="11">
+        <v>3</v>
+      </c>
+      <c r="G181" s="11">
+        <v>104.5</v>
+      </c>
+      <c r="H181" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I181" s="11">
+        <f t="shared" si="11"/>
+        <v>11.874999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="29">
+        <v>26</v>
+      </c>
+      <c r="D182" s="29">
+        <v>1</v>
+      </c>
+      <c r="E182" s="29">
+        <v>4</v>
+      </c>
+      <c r="F182" s="11">
+        <v>3.8</v>
+      </c>
+      <c r="G182" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="H182" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I182" s="11">
+        <f>G182/H182</f>
+        <v>0.39772727272727271</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="29">
+        <v>26</v>
+      </c>
+      <c r="D183" s="29">
+        <v>1</v>
+      </c>
+      <c r="E183" s="29">
+        <v>4</v>
+      </c>
+      <c r="F183" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G183" s="11">
+        <v>18.8</v>
+      </c>
+      <c r="H183" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I183" s="11">
+        <f t="shared" ref="I183:I193" si="12">G183/H183</f>
+        <v>2.1363636363636362</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" s="29">
+        <v>26</v>
+      </c>
+      <c r="D184" s="29">
+        <v>1</v>
+      </c>
+      <c r="E184" s="29">
+        <v>4</v>
+      </c>
+      <c r="F184" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G184" s="11">
+        <v>21.5</v>
+      </c>
+      <c r="H184" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I184" s="11">
+        <f t="shared" si="12"/>
+        <v>2.4431818181818179</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="29">
+        <v>26</v>
+      </c>
+      <c r="D185" s="29">
+        <v>2</v>
+      </c>
+      <c r="E185" s="29">
+        <v>4</v>
+      </c>
+      <c r="F185" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G185" s="11">
+        <v>6</v>
+      </c>
+      <c r="H185" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I185" s="11">
+        <f t="shared" si="12"/>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="29">
+        <v>26</v>
+      </c>
+      <c r="D186" s="29">
+        <v>2</v>
+      </c>
+      <c r="E186" s="29">
+        <v>4</v>
+      </c>
+      <c r="F186" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G186" s="11">
+        <v>31.2</v>
+      </c>
+      <c r="H186" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I186" s="11">
+        <f t="shared" si="12"/>
+        <v>3.545454545454545</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="29">
+        <v>26</v>
+      </c>
+      <c r="D187" s="29">
+        <v>2</v>
+      </c>
+      <c r="E187" s="29">
+        <v>4</v>
+      </c>
+      <c r="F187" s="11">
+        <v>3.86</v>
+      </c>
+      <c r="G187" s="11">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H187" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I187" s="11">
+        <f t="shared" si="12"/>
+        <v>4.1136363636363633</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="29">
+        <v>26</v>
+      </c>
+      <c r="D188" s="29">
+        <v>3</v>
+      </c>
+      <c r="E188" s="29">
+        <v>4</v>
+      </c>
+      <c r="F188" s="11">
+        <v>3.84</v>
+      </c>
+      <c r="G188" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="H188" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I188" s="11">
+        <f t="shared" si="12"/>
+        <v>0.86363636363636354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="29">
+        <v>26</v>
+      </c>
+      <c r="D189" s="29">
+        <v>3</v>
+      </c>
+      <c r="E189" s="29">
+        <v>4</v>
+      </c>
+      <c r="F189" s="11">
+        <v>3.86</v>
+      </c>
+      <c r="G189" s="11">
+        <v>36.6</v>
+      </c>
+      <c r="H189" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I189" s="11">
+        <f t="shared" si="12"/>
+        <v>4.1590909090909092</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C190" s="29">
+        <v>26</v>
+      </c>
+      <c r="D190" s="29">
+        <v>3</v>
+      </c>
+      <c r="E190" s="29">
+        <v>4</v>
+      </c>
+      <c r="F190" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G190" s="11">
+        <v>42.3</v>
+      </c>
+      <c r="H190" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I190" s="11">
+        <f t="shared" si="12"/>
+        <v>4.8068181818181808</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="29">
+        <v>26</v>
+      </c>
+      <c r="D191" s="29">
+        <v>4</v>
+      </c>
+      <c r="E191" s="29">
+        <v>4</v>
+      </c>
+      <c r="F191" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G191" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="H191" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I191" s="11">
+        <f t="shared" si="12"/>
+        <v>0.76136363636363635</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="29">
+        <v>26</v>
+      </c>
+      <c r="D192" s="29">
+        <v>4</v>
+      </c>
+      <c r="E192" s="29">
+        <v>4</v>
+      </c>
+      <c r="F192" s="11">
+        <v>3.85</v>
+      </c>
+      <c r="G192" s="11">
+        <v>42.1</v>
+      </c>
+      <c r="H192" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I192" s="11">
+        <f t="shared" si="12"/>
+        <v>4.7840909090909092</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C193" s="29">
+        <v>26</v>
+      </c>
+      <c r="D193" s="29">
+        <v>4</v>
+      </c>
+      <c r="E193" s="29">
+        <v>4</v>
+      </c>
+      <c r="F193" s="11">
+        <v>3.86</v>
+      </c>
+      <c r="G193" s="11">
+        <v>46.7</v>
+      </c>
+      <c r="H193" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I193" s="11">
+        <f t="shared" si="12"/>
+        <v>5.3068181818181817</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="29">
+        <v>26</v>
+      </c>
+      <c r="D194" s="29">
+        <v>1</v>
+      </c>
+      <c r="E194" s="29">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1.95</v>
+      </c>
+      <c r="G194">
+        <v>5.2</v>
+      </c>
+      <c r="H194" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I194" s="11">
+        <f>G194/H194</f>
+        <v>0.59090909090909083</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="29">
+        <v>26</v>
+      </c>
+      <c r="D195" s="29">
+        <v>1</v>
+      </c>
+      <c r="E195" s="29">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1.95</v>
+      </c>
+      <c r="G195">
+        <v>14</v>
+      </c>
+      <c r="H195" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I195" s="11">
+        <f t="shared" ref="I195:I205" si="13">G195/H195</f>
+        <v>1.5909090909090908</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C196" s="29">
+        <v>26</v>
+      </c>
+      <c r="D196" s="29">
+        <v>1</v>
+      </c>
+      <c r="E196" s="29">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1.95</v>
+      </c>
+      <c r="G196">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H196" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I196" s="11">
+        <f t="shared" si="13"/>
+        <v>1.8636363636363633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="29">
+        <v>26</v>
+      </c>
+      <c r="D197" s="29">
+        <v>2</v>
+      </c>
+      <c r="E197" s="29">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>1.95</v>
+      </c>
+      <c r="G197">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H197" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I197" s="11">
+        <f t="shared" si="13"/>
+        <v>1.0454545454545452</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="29">
+        <v>26</v>
+      </c>
+      <c r="D198" s="29">
+        <v>2</v>
+      </c>
+      <c r="E198" s="29">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1.95</v>
+      </c>
+      <c r="G198">
+        <v>21.1</v>
+      </c>
+      <c r="H198" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I198" s="11">
+        <f t="shared" si="13"/>
+        <v>2.3977272727272725</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C199" s="29">
+        <v>26</v>
+      </c>
+      <c r="D199" s="29">
+        <v>2</v>
+      </c>
+      <c r="E199" s="29">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1.95</v>
+      </c>
+      <c r="G199">
+        <v>28.5</v>
+      </c>
+      <c r="H199" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I199" s="11">
+        <f t="shared" si="13"/>
+        <v>3.2386363636363633</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="29">
+        <v>26</v>
+      </c>
+      <c r="D200" s="29">
+        <v>3</v>
+      </c>
+      <c r="E200" s="29">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1.95</v>
+      </c>
+      <c r="G200">
+        <v>10.3</v>
+      </c>
+      <c r="H200" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I200" s="11">
+        <f t="shared" si="13"/>
+        <v>1.1704545454545454</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="29">
+        <v>26</v>
+      </c>
+      <c r="D201" s="29">
+        <v>3</v>
+      </c>
+      <c r="E201" s="29">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1.95</v>
+      </c>
+      <c r="G201">
+        <v>32.5</v>
+      </c>
+      <c r="H201" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I201" s="11">
+        <f t="shared" si="13"/>
+        <v>3.6931818181818179</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C202" s="29">
+        <v>26</v>
+      </c>
+      <c r="D202" s="29">
+        <v>3</v>
+      </c>
+      <c r="E202" s="29">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1.95</v>
+      </c>
+      <c r="G202">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H202" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I202" s="11">
+        <f t="shared" si="13"/>
+        <v>3.8863636363636362</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="29">
+        <v>26</v>
+      </c>
+      <c r="D203" s="29">
+        <v>4</v>
+      </c>
+      <c r="E203" s="29">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1.95</v>
+      </c>
+      <c r="G203">
+        <v>13.3</v>
+      </c>
+      <c r="H203" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I203" s="11">
+        <f t="shared" si="13"/>
+        <v>1.5113636363636362</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" s="29">
+        <v>26</v>
+      </c>
+      <c r="D204" s="29">
+        <v>4</v>
+      </c>
+      <c r="E204" s="29">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1.95</v>
+      </c>
+      <c r="G204">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H204" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I204" s="11">
+        <f t="shared" si="13"/>
+        <v>4.2272727272727275</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C205" s="29">
+        <v>26</v>
+      </c>
+      <c r="D205" s="29">
+        <v>4</v>
+      </c>
+      <c r="E205" s="29">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1.95</v>
+      </c>
+      <c r="G205">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H205" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I205" s="11">
+        <f t="shared" si="13"/>
+        <v>4.2272727272727275</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" s="29">
+        <v>26</v>
+      </c>
+      <c r="D206" s="29">
+        <v>1</v>
+      </c>
+      <c r="E206" s="29">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>1.88</v>
+      </c>
+      <c r="G206">
+        <v>19.8</v>
+      </c>
+      <c r="H206" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I206" s="11">
+        <f>G206/H206</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" s="29">
+        <v>26</v>
+      </c>
+      <c r="D207" s="29">
+        <v>1</v>
+      </c>
+      <c r="E207" s="29">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>1.89</v>
+      </c>
+      <c r="G207">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="H207" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I207" s="11">
+        <f t="shared" ref="I207:I217" si="14">G207/H207</f>
+        <v>7.4886363636363633</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C208" s="29">
+        <v>26</v>
+      </c>
+      <c r="D208" s="29">
+        <v>1</v>
+      </c>
+      <c r="E208" s="29">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>1.89</v>
+      </c>
+      <c r="G208">
+        <v>66.2</v>
+      </c>
+      <c r="H208" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I208" s="11">
+        <f t="shared" si="14"/>
+        <v>7.5227272727272725</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" s="29">
+        <v>26</v>
+      </c>
+      <c r="D209" s="29">
+        <v>2</v>
+      </c>
+      <c r="E209" s="29">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>1.89</v>
+      </c>
+      <c r="G209">
+        <v>35.6</v>
+      </c>
+      <c r="H209" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I209" s="11">
+        <f t="shared" si="14"/>
+        <v>4.045454545454545</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C210" s="29">
+        <v>26</v>
+      </c>
+      <c r="D210" s="29">
+        <v>2</v>
+      </c>
+      <c r="E210" s="29">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>1.89</v>
+      </c>
+      <c r="G210">
+        <v>112.5</v>
+      </c>
+      <c r="H210" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I210" s="11">
+        <f t="shared" si="14"/>
+        <v>12.784090909090908</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C211" s="29">
+        <v>26</v>
+      </c>
+      <c r="D211" s="29">
+        <v>2</v>
+      </c>
+      <c r="E211" s="29">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>1.89</v>
+      </c>
+      <c r="G211">
+        <v>127.6</v>
+      </c>
+      <c r="H211" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I211" s="11">
+        <f t="shared" si="14"/>
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="29">
+        <v>26</v>
+      </c>
+      <c r="D212" s="29">
+        <v>3</v>
+      </c>
+      <c r="E212" s="29">
+        <v>2</v>
+      </c>
+      <c r="F212">
+        <v>1.89</v>
+      </c>
+      <c r="G212">
+        <v>48.6</v>
+      </c>
+      <c r="H212" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I212" s="11">
+        <f t="shared" si="14"/>
+        <v>5.5227272727272725</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C213" s="29">
+        <v>26</v>
+      </c>
+      <c r="D213" s="29">
+        <v>3</v>
+      </c>
+      <c r="E213" s="29">
+        <v>2</v>
+      </c>
+      <c r="F213">
+        <v>1.89</v>
+      </c>
+      <c r="G213">
+        <v>134.5</v>
+      </c>
+      <c r="H213" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I213" s="11">
+        <f t="shared" si="14"/>
+        <v>15.284090909090908</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="29">
+        <v>26</v>
+      </c>
+      <c r="D214" s="29">
+        <v>3</v>
+      </c>
+      <c r="E214" s="29">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>1.89</v>
+      </c>
+      <c r="G214">
+        <v>114.5</v>
+      </c>
+      <c r="H214" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I214" s="11">
+        <f t="shared" si="14"/>
+        <v>13.011363636363635</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" s="29">
+        <v>26</v>
+      </c>
+      <c r="D215" s="29">
+        <v>4</v>
+      </c>
+      <c r="E215" s="29">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>1.89</v>
+      </c>
+      <c r="G215">
+        <v>35.5</v>
+      </c>
+      <c r="H215" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I215" s="11">
+        <f t="shared" si="14"/>
+        <v>4.0340909090909092</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C216" s="29">
+        <v>26</v>
+      </c>
+      <c r="D216" s="29">
+        <v>4</v>
+      </c>
+      <c r="E216" s="29">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>1.89</v>
+      </c>
+      <c r="G216">
+        <v>120.2</v>
+      </c>
+      <c r="H216" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I216" s="11">
+        <f t="shared" si="14"/>
+        <v>13.659090909090908</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B217" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C217" s="29">
+        <v>26</v>
+      </c>
+      <c r="D217" s="29">
+        <v>4</v>
+      </c>
+      <c r="E217" s="29">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>1.89</v>
+      </c>
+      <c r="G217">
+        <v>150.1</v>
+      </c>
+      <c r="H217" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I217" s="11">
+        <f t="shared" si="14"/>
+        <v>17.05681818181818</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="29">
+        <v>26</v>
+      </c>
+      <c r="D218" s="29">
+        <v>1</v>
+      </c>
+      <c r="E218" s="29">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+      <c r="G218">
+        <v>6.2</v>
+      </c>
+      <c r="H218" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I218" s="11">
+        <f>G218/H218</f>
+        <v>0.70454545454545447</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C219" s="29">
+        <v>26</v>
+      </c>
+      <c r="D219" s="29">
+        <v>1</v>
+      </c>
+      <c r="E219" s="29">
+        <v>3</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>46.9</v>
+      </c>
+      <c r="H219" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I219" s="11">
+        <f t="shared" ref="I219:I229" si="15">G219/H219</f>
+        <v>5.3295454545454541</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C220" s="29">
+        <v>26</v>
+      </c>
+      <c r="D220" s="29">
+        <v>1</v>
+      </c>
+      <c r="E220" s="29">
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>50.8</v>
+      </c>
+      <c r="H220" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I220" s="11">
+        <f t="shared" si="15"/>
+        <v>5.7727272727272716</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" s="29">
+        <v>26</v>
+      </c>
+      <c r="D221" s="29">
+        <v>2</v>
+      </c>
+      <c r="E221" s="29">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>11</v>
+      </c>
+      <c r="H221" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I221" s="11">
+        <f t="shared" si="15"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C222" s="29">
+        <v>26</v>
+      </c>
+      <c r="D222" s="29">
+        <v>2</v>
+      </c>
+      <c r="E222" s="29">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+      <c r="G222">
+        <v>101.2</v>
+      </c>
+      <c r="H222" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I222" s="11">
+        <f t="shared" si="15"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C223" s="29">
+        <v>26</v>
+      </c>
+      <c r="D223" s="29">
+        <v>2</v>
+      </c>
+      <c r="E223" s="29">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+      <c r="G223">
+        <v>79.5</v>
+      </c>
+      <c r="H223" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I223" s="11">
+        <f t="shared" si="15"/>
+        <v>9.0340909090909083</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" s="29">
+        <v>26</v>
+      </c>
+      <c r="D224" s="29">
+        <v>3</v>
+      </c>
+      <c r="E224" s="29">
+        <v>3</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H224" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I224" s="11">
+        <f t="shared" si="15"/>
+        <v>2.0909090909090904</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C225" s="29">
+        <v>26</v>
+      </c>
+      <c r="D225" s="29">
+        <v>3</v>
+      </c>
+      <c r="E225" s="29">
+        <v>3</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>109</v>
+      </c>
+      <c r="H225" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I225" s="11">
+        <f t="shared" si="15"/>
+        <v>12.386363636363635</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C226" s="29">
+        <v>26</v>
+      </c>
+      <c r="D226" s="29">
+        <v>3</v>
+      </c>
+      <c r="E226" s="29">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+      <c r="G226">
+        <v>100.5</v>
+      </c>
+      <c r="H226" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I226" s="11">
+        <f t="shared" si="15"/>
+        <v>11.420454545454545</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" s="29">
+        <v>26</v>
+      </c>
+      <c r="D227" s="29">
+        <v>4</v>
+      </c>
+      <c r="E227" s="29">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>3</v>
+      </c>
+      <c r="G227">
+        <v>20.3</v>
+      </c>
+      <c r="H227" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I227" s="11">
+        <f t="shared" si="15"/>
+        <v>2.3068181818181817</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B228" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C228" s="29">
+        <v>26</v>
+      </c>
+      <c r="D228" s="29">
+        <v>4</v>
+      </c>
+      <c r="E228" s="29">
+        <v>3</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>112.4</v>
+      </c>
+      <c r="H228" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I228" s="11">
+        <f t="shared" si="15"/>
+        <v>12.772727272727272</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="29">
+        <v>26</v>
+      </c>
+      <c r="D229" s="29">
+        <v>4</v>
+      </c>
+      <c r="E229" s="29">
+        <v>3</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+      <c r="G229">
+        <v>111.6</v>
+      </c>
+      <c r="H229" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I229" s="11">
+        <f t="shared" si="15"/>
+        <v>12.68181818181818</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" s="29">
+        <v>26</v>
+      </c>
+      <c r="D230" s="29">
+        <v>1</v>
+      </c>
+      <c r="E230" s="29">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>3.86</v>
+      </c>
+      <c r="G230">
+        <v>5.2</v>
+      </c>
+      <c r="H230" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I230" s="11">
+        <f>G230/H230</f>
+        <v>0.59090909090909083</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C231" s="29">
+        <v>26</v>
+      </c>
+      <c r="D231" s="29">
+        <v>1</v>
+      </c>
+      <c r="E231" s="29">
+        <v>4</v>
+      </c>
+      <c r="F231">
+        <v>3.86</v>
+      </c>
+      <c r="G231">
+        <v>54.3</v>
+      </c>
+      <c r="H231" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I231" s="11">
+        <f t="shared" ref="I231:I241" si="16">G231/H231</f>
+        <v>6.170454545454545</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="29">
+        <v>26</v>
+      </c>
+      <c r="D232" s="29">
+        <v>1</v>
+      </c>
+      <c r="E232" s="29">
+        <v>4</v>
+      </c>
+      <c r="F232">
+        <v>3.85</v>
+      </c>
+      <c r="G232">
+        <v>55.1</v>
+      </c>
+      <c r="H232" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I232" s="11">
+        <f t="shared" si="16"/>
+        <v>6.2613636363636358</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" s="29">
+        <v>26</v>
+      </c>
+      <c r="D233" s="29">
+        <v>2</v>
+      </c>
+      <c r="E233" s="29">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>3.85</v>
+      </c>
+      <c r="G233">
+        <v>5.9</v>
+      </c>
+      <c r="H233" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I233" s="11">
+        <f t="shared" si="16"/>
+        <v>0.67045454545454541</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C234" s="29">
+        <v>26</v>
+      </c>
+      <c r="D234" s="29">
+        <v>2</v>
+      </c>
+      <c r="E234" s="29">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>3.86</v>
+      </c>
+      <c r="G234">
+        <v>103.5</v>
+      </c>
+      <c r="H234" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I234" s="11">
+        <f t="shared" si="16"/>
+        <v>11.761363636363635</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C235" s="29">
+        <v>26</v>
+      </c>
+      <c r="D235" s="29">
+        <v>2</v>
+      </c>
+      <c r="E235" s="29">
+        <v>4</v>
+      </c>
+      <c r="F235">
+        <v>3.86</v>
+      </c>
+      <c r="G235">
+        <v>104.5</v>
+      </c>
+      <c r="H235" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I235" s="11">
+        <f t="shared" si="16"/>
+        <v>11.874999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" s="29">
+        <v>26</v>
+      </c>
+      <c r="D236" s="29">
+        <v>3</v>
+      </c>
+      <c r="E236" s="29">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>3.84</v>
+      </c>
+      <c r="G236">
+        <v>11</v>
+      </c>
+      <c r="H236" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I236" s="11">
+        <f t="shared" si="16"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="29">
+        <v>26</v>
+      </c>
+      <c r="D237" s="29">
+        <v>3</v>
+      </c>
+      <c r="E237" s="29">
+        <v>4</v>
+      </c>
+      <c r="F237">
+        <v>3.86</v>
+      </c>
+      <c r="G237">
+        <v>111</v>
+      </c>
+      <c r="H237" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I237" s="11">
+        <f t="shared" si="16"/>
+        <v>12.613636363636363</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C238" s="29">
+        <v>26</v>
+      </c>
+      <c r="D238" s="29">
+        <v>3</v>
+      </c>
+      <c r="E238" s="29">
+        <v>4</v>
+      </c>
+      <c r="F238">
+        <v>3.86</v>
+      </c>
+      <c r="G238">
+        <v>111.4</v>
+      </c>
+      <c r="H238" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I238" s="11">
+        <f t="shared" si="16"/>
+        <v>12.659090909090908</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="29">
+        <v>26</v>
+      </c>
+      <c r="D239" s="29">
+        <v>4</v>
+      </c>
+      <c r="E239" s="29">
+        <v>4</v>
+      </c>
+      <c r="F239">
+        <v>3.86</v>
+      </c>
+      <c r="G239">
+        <v>12.3</v>
+      </c>
+      <c r="H239" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I239" s="11">
+        <f t="shared" si="16"/>
+        <v>1.3977272727272727</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C240" s="29">
+        <v>26</v>
+      </c>
+      <c r="D240" s="29">
+        <v>4</v>
+      </c>
+      <c r="E240" s="29">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>3.86</v>
+      </c>
+      <c r="G240">
+        <v>124.7</v>
+      </c>
+      <c r="H240" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I240" s="11">
+        <f t="shared" si="16"/>
+        <v>14.170454545454545</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C241" s="29">
+        <v>26</v>
+      </c>
+      <c r="D241" s="29">
+        <v>4</v>
+      </c>
+      <c r="E241" s="29">
+        <v>4</v>
+      </c>
+      <c r="F241">
+        <v>3.86</v>
+      </c>
+      <c r="G241">
+        <v>123.9</v>
+      </c>
+      <c r="H241" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I241" s="11">
+        <f t="shared" si="16"/>
+        <v>14.079545454545453</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" s="29">
+        <v>26</v>
+      </c>
+      <c r="D242" s="29">
+        <v>1</v>
+      </c>
+      <c r="E242" s="29">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1.95</v>
+      </c>
+      <c r="G242">
+        <v>3.8</v>
+      </c>
+      <c r="H242" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I242" s="11">
+        <f>$J$98*G242/H242</f>
+        <v>0.6477272727272726</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243" s="29">
+        <v>26</v>
+      </c>
+      <c r="D243" s="29">
+        <v>1</v>
+      </c>
+      <c r="E243" s="29">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1.95</v>
+      </c>
+      <c r="G243">
+        <v>11.4</v>
+      </c>
+      <c r="H243" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I243" s="11">
+        <f t="shared" ref="I243:I289" si="17">$J$98*G243/H243</f>
+        <v>1.9431818181818181</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244" s="29">
+        <v>26</v>
+      </c>
+      <c r="D244" s="29">
+        <v>1</v>
+      </c>
+      <c r="E244" s="29">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1.95</v>
+      </c>
+      <c r="G244">
+        <v>11.2</v>
+      </c>
+      <c r="H244" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I244" s="11">
+        <f t="shared" si="17"/>
+        <v>1.9090909090909085</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" s="29">
+        <v>26</v>
+      </c>
+      <c r="D245" s="29">
+        <v>2</v>
+      </c>
+      <c r="E245" s="29">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1.95</v>
+      </c>
+      <c r="G245">
+        <v>6.9</v>
+      </c>
+      <c r="H245" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I245" s="11">
+        <f t="shared" si="17"/>
+        <v>1.1761363636363638</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C246" s="29">
+        <v>26</v>
+      </c>
+      <c r="D246" s="29">
+        <v>2</v>
+      </c>
+      <c r="E246" s="29">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1.95</v>
+      </c>
+      <c r="G246">
+        <v>21.7</v>
+      </c>
+      <c r="H246" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I246" s="11">
+        <f t="shared" si="17"/>
+        <v>3.6988636363636358</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247" s="29">
+        <v>26</v>
+      </c>
+      <c r="D247" s="29">
+        <v>2</v>
+      </c>
+      <c r="E247" s="29">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1.95</v>
+      </c>
+      <c r="G247">
+        <v>21.9</v>
+      </c>
+      <c r="H247" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I247" s="11">
+        <f t="shared" si="17"/>
+        <v>3.7329545454545445</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" s="29">
+        <v>26</v>
+      </c>
+      <c r="D248" s="29">
+        <v>3</v>
+      </c>
+      <c r="E248" s="29">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1.95</v>
+      </c>
+      <c r="G248">
+        <v>9.6</v>
+      </c>
+      <c r="H248" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I248" s="11">
+        <f t="shared" si="17"/>
+        <v>1.636363636363636</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C249" s="29">
+        <v>26</v>
+      </c>
+      <c r="D249" s="29">
+        <v>3</v>
+      </c>
+      <c r="E249" s="29">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1.95</v>
+      </c>
+      <c r="G249">
+        <v>30.9</v>
+      </c>
+      <c r="H249" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I249" s="11">
+        <f t="shared" si="17"/>
+        <v>5.2670454545454533</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C250" s="29">
+        <v>26</v>
+      </c>
+      <c r="D250" s="29">
+        <v>3</v>
+      </c>
+      <c r="E250" s="29">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1.95</v>
+      </c>
+      <c r="G250">
+        <v>30.6</v>
+      </c>
+      <c r="H250" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I250" s="11">
+        <f t="shared" si="17"/>
+        <v>5.2159090909090908</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C251" s="29">
+        <v>26</v>
+      </c>
+      <c r="D251" s="29">
+        <v>4</v>
+      </c>
+      <c r="E251" s="29">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1.95</v>
+      </c>
+      <c r="G251">
+        <v>12.4</v>
+      </c>
+      <c r="H251" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I251" s="11">
+        <f t="shared" si="17"/>
+        <v>2.1136363636363638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B252" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C252" s="29">
+        <v>26</v>
+      </c>
+      <c r="D252" s="29">
+        <v>4</v>
+      </c>
+      <c r="E252" s="29">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1.95</v>
+      </c>
+      <c r="G252">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H252" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I252" s="11">
+        <f t="shared" si="17"/>
+        <v>6.7840909090909083</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" s="29">
+        <v>26</v>
+      </c>
+      <c r="D253" s="29">
+        <v>4</v>
+      </c>
+      <c r="E253" s="29">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1.95</v>
+      </c>
+      <c r="G253">
+        <v>38.9</v>
+      </c>
+      <c r="H253" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I253" s="11">
+        <f t="shared" si="17"/>
+        <v>6.6306818181818166</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B254" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254" s="29">
+        <v>26</v>
+      </c>
+      <c r="D254" s="29">
+        <v>1</v>
+      </c>
+      <c r="E254" s="29">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <v>1.9</v>
+      </c>
+      <c r="G254">
+        <v>13.4</v>
+      </c>
+      <c r="H254" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I254" s="11">
+        <f t="shared" si="17"/>
+        <v>2.2840909090909092</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B255" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C255" s="29">
+        <v>26</v>
+      </c>
+      <c r="D255" s="29">
+        <v>1</v>
+      </c>
+      <c r="E255" s="29">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>1.89</v>
+      </c>
+      <c r="G255">
+        <v>49.2</v>
+      </c>
+      <c r="H255" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I255" s="11">
+        <f t="shared" si="17"/>
+        <v>8.3863636363636367</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" s="29">
+        <v>26</v>
+      </c>
+      <c r="D256" s="29">
+        <v>1</v>
+      </c>
+      <c r="E256" s="29">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <v>1.89</v>
+      </c>
+      <c r="G256">
+        <v>49</v>
+      </c>
+      <c r="H256" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I256" s="11">
+        <f t="shared" si="17"/>
+        <v>8.3522727272727266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" s="29">
+        <v>26</v>
+      </c>
+      <c r="D257" s="29">
+        <v>2</v>
+      </c>
+      <c r="E257" s="29">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>1.89</v>
+      </c>
+      <c r="G257">
+        <v>25.9</v>
+      </c>
+      <c r="H257" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I257" s="11">
+        <f t="shared" si="17"/>
+        <v>4.4147727272727266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C258" s="29">
+        <v>26</v>
+      </c>
+      <c r="D258" s="29">
+        <v>2</v>
+      </c>
+      <c r="E258" s="29">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>1.89</v>
+      </c>
+      <c r="G258">
+        <v>95.8</v>
+      </c>
+      <c r="H258" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I258" s="11">
+        <f t="shared" si="17"/>
+        <v>16.329545454545453</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" s="29">
+        <v>26</v>
+      </c>
+      <c r="D259" s="29">
+        <v>2</v>
+      </c>
+      <c r="E259" s="29">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <v>1.89</v>
+      </c>
+      <c r="G259">
+        <v>94.1</v>
+      </c>
+      <c r="H259" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I259" s="11">
+        <f t="shared" si="17"/>
+        <v>16.039772727272723</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="29">
+        <v>26</v>
+      </c>
+      <c r="D260" s="29">
+        <v>3</v>
+      </c>
+      <c r="E260" s="29">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>1.88</v>
+      </c>
+      <c r="G260">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H260" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I260" s="11">
+        <f t="shared" si="17"/>
+        <v>6.0170454545454533</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C261" s="29">
+        <v>26</v>
+      </c>
+      <c r="D261" s="29">
+        <v>3</v>
+      </c>
+      <c r="E261" s="29">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>1.89</v>
+      </c>
+      <c r="G261">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="H261" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I261" s="11">
+        <f t="shared" si="17"/>
+        <v>23.30113636363636</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" s="29">
+        <v>26</v>
+      </c>
+      <c r="D262" s="29">
+        <v>3</v>
+      </c>
+      <c r="E262" s="29">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>1.89</v>
+      </c>
+      <c r="G262">
+        <v>134</v>
+      </c>
+      <c r="H262" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I262" s="11">
+        <f t="shared" si="17"/>
+        <v>22.84090909090909</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="29">
+        <v>26</v>
+      </c>
+      <c r="D263" s="29">
+        <v>4</v>
+      </c>
+      <c r="E263" s="29">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>1.89</v>
+      </c>
+      <c r="G263">
+        <v>46.4</v>
+      </c>
+      <c r="H263" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I263" s="11">
+        <f t="shared" si="17"/>
+        <v>7.9090909090909074</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C264" s="29">
+        <v>26</v>
+      </c>
+      <c r="D264" s="29">
+        <v>4</v>
+      </c>
+      <c r="E264" s="29">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>1.89</v>
+      </c>
+      <c r="G264">
+        <v>174.9</v>
+      </c>
+      <c r="H264" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I264" s="11">
+        <f t="shared" si="17"/>
+        <v>29.8125</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C265" s="29">
+        <v>26</v>
+      </c>
+      <c r="D265" s="29">
+        <v>4</v>
+      </c>
+      <c r="E265" s="29">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>1.89</v>
+      </c>
+      <c r="G265">
+        <v>173.2</v>
+      </c>
+      <c r="H265" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I265" s="11">
+        <f t="shared" si="17"/>
+        <v>29.522727272727266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" s="29">
+        <v>26</v>
+      </c>
+      <c r="D266" s="29">
+        <v>1</v>
+      </c>
+      <c r="E266" s="29">
+        <v>3</v>
+      </c>
+      <c r="F266">
+        <v>3</v>
+      </c>
+      <c r="G266">
+        <v>5.3</v>
+      </c>
+      <c r="H266" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I266" s="11">
+        <f t="shared" si="17"/>
+        <v>0.90340909090909072</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C267" s="29">
+        <v>26</v>
+      </c>
+      <c r="D267" s="29">
+        <v>1</v>
+      </c>
+      <c r="E267" s="29">
+        <v>3</v>
+      </c>
+      <c r="F267">
+        <v>3</v>
+      </c>
+      <c r="G267">
+        <v>38</v>
+      </c>
+      <c r="H267" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I267" s="11">
+        <f t="shared" si="17"/>
+        <v>6.4772727272727266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C268" s="29">
+        <v>26</v>
+      </c>
+      <c r="D268" s="29">
+        <v>1</v>
+      </c>
+      <c r="E268" s="29">
+        <v>3</v>
+      </c>
+      <c r="F268">
+        <v>3</v>
+      </c>
+      <c r="G268">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H268" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I268" s="11">
+        <f t="shared" si="17"/>
+        <v>6.4261363636363633</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" s="29">
+        <v>26</v>
+      </c>
+      <c r="D269" s="29">
+        <v>2</v>
+      </c>
+      <c r="E269" s="29">
+        <v>3</v>
+      </c>
+      <c r="F269">
+        <v>3</v>
+      </c>
+      <c r="G269">
+        <v>10</v>
+      </c>
+      <c r="H269" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I269" s="11">
+        <f t="shared" si="17"/>
+        <v>1.7045454545454544</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C270" s="29">
+        <v>26</v>
+      </c>
+      <c r="D270" s="29">
+        <v>2</v>
+      </c>
+      <c r="E270" s="29">
+        <v>3</v>
+      </c>
+      <c r="F270">
+        <v>3</v>
+      </c>
+      <c r="G270">
+        <v>72.2</v>
+      </c>
+      <c r="H270" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I270" s="11">
+        <f t="shared" si="17"/>
+        <v>12.306818181818182</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C271" s="29">
+        <v>26</v>
+      </c>
+      <c r="D271" s="29">
+        <v>2</v>
+      </c>
+      <c r="E271" s="29">
+        <v>3</v>
+      </c>
+      <c r="F271">
+        <v>3</v>
+      </c>
+      <c r="G271">
+        <v>68.7</v>
+      </c>
+      <c r="H271" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I271" s="11">
+        <f t="shared" si="17"/>
+        <v>11.710227272727273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" s="29">
+        <v>26</v>
+      </c>
+      <c r="D272" s="29">
+        <v>3</v>
+      </c>
+      <c r="E272" s="29">
+        <v>3</v>
+      </c>
+      <c r="F272">
+        <v>3</v>
+      </c>
+      <c r="G272">
+        <v>14.5</v>
+      </c>
+      <c r="H272" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I272" s="11">
+        <f t="shared" si="17"/>
+        <v>2.4715909090909087</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C273" s="29">
+        <v>26</v>
+      </c>
+      <c r="D273" s="29">
+        <v>3</v>
+      </c>
+      <c r="E273" s="29">
+        <v>3</v>
+      </c>
+      <c r="F273">
+        <v>3</v>
+      </c>
+      <c r="G273">
+        <v>104.9</v>
+      </c>
+      <c r="H273" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I273" s="11">
+        <f t="shared" si="17"/>
+        <v>17.88068181818182</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C274" s="29">
+        <v>26</v>
+      </c>
+      <c r="D274" s="29">
+        <v>3</v>
+      </c>
+      <c r="E274" s="29">
+        <v>3</v>
+      </c>
+      <c r="F274">
+        <v>3</v>
+      </c>
+      <c r="G274">
+        <v>101.6</v>
+      </c>
+      <c r="H274" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I274" s="11">
+        <f t="shared" si="17"/>
+        <v>17.318181818181813</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" s="29">
+        <v>26</v>
+      </c>
+      <c r="D275" s="29">
+        <v>4</v>
+      </c>
+      <c r="E275" s="29">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <v>3</v>
+      </c>
+      <c r="G275">
+        <v>18.8</v>
+      </c>
+      <c r="H275" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I275" s="11">
+        <f t="shared" si="17"/>
+        <v>3.2045454545454546</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C276" s="29">
+        <v>26</v>
+      </c>
+      <c r="D276" s="29">
+        <v>4</v>
+      </c>
+      <c r="E276" s="29">
+        <v>3</v>
+      </c>
+      <c r="F276">
+        <v>3</v>
+      </c>
+      <c r="G276">
+        <v>134.6</v>
+      </c>
+      <c r="H276" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I276" s="11">
+        <f t="shared" si="17"/>
+        <v>22.943181818181813</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C277" s="29">
+        <v>26</v>
+      </c>
+      <c r="D277" s="29">
+        <v>4</v>
+      </c>
+      <c r="E277" s="29">
+        <v>3</v>
+      </c>
+      <c r="F277">
+        <v>3</v>
+      </c>
+      <c r="G277">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="H277" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I277" s="11">
+        <f t="shared" si="17"/>
+        <v>22.278409090909086</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" s="29">
+        <v>26</v>
+      </c>
+      <c r="D278" s="29">
+        <v>1</v>
+      </c>
+      <c r="E278" s="29">
+        <v>4</v>
+      </c>
+      <c r="F278">
+        <v>3.78</v>
+      </c>
+      <c r="G278">
+        <v>3.8</v>
+      </c>
+      <c r="H278" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I278" s="11">
+        <f t="shared" si="17"/>
+        <v>0.6477272727272726</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C279" s="29">
+        <v>26</v>
+      </c>
+      <c r="D279" s="29">
+        <v>1</v>
+      </c>
+      <c r="E279" s="29">
+        <v>4</v>
+      </c>
+      <c r="F279">
+        <v>3.85</v>
+      </c>
+      <c r="G279">
+        <v>37</v>
+      </c>
+      <c r="H279" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I279" s="11">
+        <f t="shared" si="17"/>
+        <v>6.3068181818181817</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" s="29">
+        <v>26</v>
+      </c>
+      <c r="D280" s="29">
+        <v>1</v>
+      </c>
+      <c r="E280" s="29">
+        <v>4</v>
+      </c>
+      <c r="F280">
+        <v>3.85</v>
+      </c>
+      <c r="G280">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H280" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I280" s="11">
+        <f t="shared" si="17"/>
+        <v>6.3409090909090908</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" s="29">
+        <v>26</v>
+      </c>
+      <c r="D281" s="29">
+        <v>2</v>
+      </c>
+      <c r="E281" s="29">
+        <v>4</v>
+      </c>
+      <c r="F281">
+        <v>3.85</v>
+      </c>
+      <c r="G281">
+        <v>7</v>
+      </c>
+      <c r="H281" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I281" s="11">
+        <f t="shared" si="17"/>
+        <v>1.1931818181818181</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C282" s="29">
+        <v>26</v>
+      </c>
+      <c r="D282" s="29">
+        <v>2</v>
+      </c>
+      <c r="E282" s="29">
+        <v>4</v>
+      </c>
+      <c r="F282">
+        <v>3.86</v>
+      </c>
+      <c r="G282">
+        <v>72.3</v>
+      </c>
+      <c r="H282" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I282" s="11">
+        <f t="shared" si="17"/>
+        <v>12.323863636363635</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C283" s="29">
+        <v>26</v>
+      </c>
+      <c r="D283" s="29">
+        <v>2</v>
+      </c>
+      <c r="E283" s="29">
+        <v>4</v>
+      </c>
+      <c r="F283">
+        <v>3.85</v>
+      </c>
+      <c r="G283">
+        <v>71.5</v>
+      </c>
+      <c r="H283" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I283" s="11">
+        <f t="shared" si="17"/>
+        <v>12.187499999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" s="29">
+        <v>26</v>
+      </c>
+      <c r="D284" s="29">
+        <v>3</v>
+      </c>
+      <c r="E284" s="29">
+        <v>4</v>
+      </c>
+      <c r="F284">
+        <v>3.84</v>
+      </c>
+      <c r="G284">
+        <v>10.4</v>
+      </c>
+      <c r="H284" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I284" s="11">
+        <f t="shared" si="17"/>
+        <v>1.7727272727272727</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C285" s="29">
+        <v>26</v>
+      </c>
+      <c r="D285" s="29">
+        <v>3</v>
+      </c>
+      <c r="E285" s="29">
+        <v>4</v>
+      </c>
+      <c r="F285">
+        <v>3.85</v>
+      </c>
+      <c r="G285">
+        <v>108.2</v>
+      </c>
+      <c r="H285" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I285" s="11">
+        <f t="shared" si="17"/>
+        <v>18.443181818181817</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C286" s="29">
+        <v>26</v>
+      </c>
+      <c r="D286" s="29">
+        <v>3</v>
+      </c>
+      <c r="E286" s="29">
+        <v>4</v>
+      </c>
+      <c r="F286">
+        <v>3.86</v>
+      </c>
+      <c r="G286">
+        <v>106.6</v>
+      </c>
+      <c r="H286" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I286" s="11">
+        <f t="shared" si="17"/>
+        <v>18.17045454545454</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" s="29">
+        <v>26</v>
+      </c>
+      <c r="D287" s="29">
+        <v>4</v>
+      </c>
+      <c r="E287" s="29">
+        <v>4</v>
+      </c>
+      <c r="F287">
+        <v>3.83</v>
+      </c>
+      <c r="G287">
+        <v>13.5</v>
+      </c>
+      <c r="H287" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I287" s="11">
+        <f t="shared" si="17"/>
+        <v>2.3011363636363633</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C288" s="29">
+        <v>26</v>
+      </c>
+      <c r="D288" s="29">
+        <v>4</v>
+      </c>
+      <c r="E288" s="29">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>3.86</v>
+      </c>
+      <c r="G288">
+        <v>141.6</v>
+      </c>
+      <c r="H288" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I288" s="11">
+        <f t="shared" si="17"/>
+        <v>24.136363636363633</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C289" s="29">
+        <v>26</v>
+      </c>
+      <c r="D289" s="29">
+        <v>4</v>
+      </c>
+      <c r="E289" s="29">
+        <v>4</v>
+      </c>
+      <c r="F289">
+        <v>3.86</v>
+      </c>
+      <c r="G289">
+        <v>139.4</v>
+      </c>
+      <c r="H289" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I289" s="11">
+        <f t="shared" si="17"/>
+        <v>23.761363636363637</v>
       </c>
     </row>
   </sheetData>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D0C3A-7CEF-4A7F-96D8-3C2E18378BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23864DF8-84CC-450B-8E3B-8EDFF6DB6C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13896" yWindow="600" windowWidth="15972" windowHeight="18888" firstSheet="1" activeTab="6" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <pivotCache cacheId="0" r:id="rId8"/>
     <pivotCache cacheId="1" r:id="rId9"/>
     <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="18" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="107">
   <si>
     <t>Time (s)</t>
   </si>
@@ -419,10 +419,13 @@
     <t>WSL</t>
   </si>
   <si>
-    <t>15 Qubit</t>
+    <t>Width,Thrds</t>
   </si>
   <si>
-    <t>Width,Thrds</t>
+    <t>WSL2</t>
+  </si>
+  <si>
+    <t>Qs</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,12 +640,275 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="117">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -7357,17 +7623,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43977.468925578702" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="145" xr:uid="{77688D98-53B0-44DF-AB00-3088DD8CD484}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43977.615024652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="289" xr:uid="{77688D98-53B0-44DF-AB00-3088DD8CD484}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Fusion (3)"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Env" numFmtId="2">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="W15"/>
-        <s v="W15_WSL"/>
+        <s v="WSL"/>
         <s v="WU2"/>
         <m/>
+        <s v="W15_WSL" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Simulator" numFmtId="2">
@@ -7379,7 +7646,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Qubits" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="26" count="3">
+        <n v="15"/>
+        <n v="26"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Threads" numFmtId="1">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="5">
@@ -7399,17 +7670,17 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Fuse Depth" numFmtId="2">
+    <cacheField name="Fuse Depth" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.03" maxValue="17.5"/>
     </cacheField>
-    <cacheField name="kGates/s" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.4" maxValue="205"/>
+    <cacheField name="kGates/s" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.5" maxValue="205"/>
     </cacheField>
     <cacheField name="Base" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.8000000000000007" maxValue="15"/>
     </cacheField>
     <cacheField name="Speed Up" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.36000000000000004" maxValue="16.100000000000001"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.36000000000000004" maxValue="29.8125"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -13206,11 +13477,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="145">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="15"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="289">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13221,7 +13492,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13232,7 +13503,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13243,7 +13514,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13254,7 +13525,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13265,7 +13536,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13276,7 +13547,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13287,7 +13558,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13298,7 +13569,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13309,7 +13580,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13320,7 +13591,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13331,7 +13602,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13342,7 +13613,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13353,7 +13624,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13364,7 +13635,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13375,7 +13646,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13386,7 +13657,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13397,7 +13668,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13408,7 +13679,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13419,7 +13690,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13430,7 +13701,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13441,7 +13712,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13452,7 +13723,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13463,7 +13734,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13474,7 +13745,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13485,7 +13756,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13496,7 +13767,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13507,7 +13778,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13518,7 +13789,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13529,7 +13800,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13540,7 +13811,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13551,7 +13822,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13562,7 +13833,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13573,7 +13844,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13584,7 +13855,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13595,7 +13866,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -13606,7 +13877,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13617,7 +13888,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13628,7 +13899,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13639,7 +13910,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13650,7 +13921,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13661,7 +13932,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13672,7 +13943,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13683,7 +13954,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13694,7 +13965,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13705,7 +13976,7 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13716,7 +13987,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13727,7 +13998,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -13738,7 +14009,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13749,7 +14020,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13760,7 +14031,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13771,7 +14042,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13782,7 +14053,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13793,7 +14064,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13804,7 +14075,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13815,7 +14086,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13826,7 +14097,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13837,7 +14108,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13848,7 +14119,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13859,7 +14130,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -13870,7 +14141,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13881,7 +14152,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13892,7 +14163,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13903,7 +14174,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13914,7 +14185,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13925,7 +14196,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13936,7 +14207,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13947,7 +14218,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13958,7 +14229,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13969,7 +14240,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13980,7 +14251,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -13991,7 +14262,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14002,7 +14273,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14013,7 +14284,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14024,7 +14295,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14035,7 +14306,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14046,7 +14317,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14057,7 +14328,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14068,7 +14339,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14079,7 +14350,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14090,7 +14361,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14101,7 +14372,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14112,7 +14383,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14123,7 +14394,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14134,7 +14405,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14145,7 +14416,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14156,7 +14427,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14167,7 +14438,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14178,7 +14449,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14189,7 +14460,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14200,7 +14471,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14211,7 +14482,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14222,7 +14493,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14233,7 +14504,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14244,7 +14515,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14255,7 +14526,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14266,7 +14537,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14277,7 +14548,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14288,7 +14559,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14299,7 +14570,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14310,7 +14581,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14321,7 +14592,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14332,7 +14603,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14343,7 +14614,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14354,7 +14625,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14365,7 +14636,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14376,7 +14647,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14387,7 +14658,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
     <n v="1.03"/>
@@ -14398,7 +14669,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14409,7 +14680,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14420,7 +14691,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14431,7 +14702,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14442,7 +14713,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14453,7 +14724,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14464,7 +14735,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14475,7 +14746,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14486,7 +14757,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14497,7 +14768,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14508,7 +14779,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14519,7 +14790,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="1"/>
     <n v="5.38"/>
@@ -14530,7 +14801,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14541,7 +14812,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14552,7 +14823,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14563,7 +14834,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14574,7 +14845,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14585,7 +14856,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14596,7 +14867,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14607,7 +14878,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14618,7 +14889,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14629,7 +14900,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14640,7 +14911,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14651,7 +14922,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="2"/>
     <n v="11.67"/>
@@ -14662,7 +14933,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14673,7 +14944,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14684,7 +14955,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14695,7 +14966,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14706,7 +14977,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14717,7 +14988,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14728,7 +14999,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14739,7 +15010,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14750,7 +15021,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14761,7 +15032,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14772,7 +15043,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14783,7 +15054,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="0"/>
     <x v="3"/>
     <x v="3"/>
     <n v="17.5"/>
@@ -14792,9 +15063,1593 @@
     <n v="7.5"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="3"/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="8.8000000000000007"/>
+    <n v="8.8000000000000007"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="14.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.6590909090909089"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="15.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.8068181818181817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="17"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.9318181818181817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="27.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.0795454545454546"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="28"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.1818181818181817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="21.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.4204545454545454"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="34.799999999999997"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.9545454545454537"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="36.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.1590909090909092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="22.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.545454545454545"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="34.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.9659090909090904"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="36"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.0909090909090908"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.88"/>
+    <n v="33.299999999999997"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.7840909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="65.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.4659090909090908"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="70"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.9545454545454541"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="63"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.1590909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="116.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="13.204545454545453"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="121.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="13.852272727272727"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="80.599999999999994"/>
+    <n v="8.8000000000000007"/>
+    <n v="9.1590909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="146.69999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="16.670454545454543"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="154.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.602272727272727"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="86.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="9.8181818181818183"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="151.19999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.18181818181818"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="157.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.852272727272727"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="12"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.3636363636363635"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="36.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.1590909090909092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="49.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.6590909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="20.399999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.3181818181818179"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="61.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="86.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="9.7840909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="22.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.5113636363636362"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="68.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.7613636363636358"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="98.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.193181818181817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.1818181818181817"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="74"/>
+    <n v="8.8000000000000007"/>
+    <n v="8.4090909090909083"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="104.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.874999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.8"/>
+    <n v="3.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.39772727272727271"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="18.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.1363636363636362"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="21.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.4431818181818179"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="6"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.68181818181818177"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="31.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.545454545454545"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="36.200000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.1136363636363633"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.84"/>
+    <n v="7.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.86363636363636354"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="36.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.1590909090909092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="42.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.8068181818181808"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="6.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.76136363636363635"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="42.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.7840909090909092"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="46.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.3068181818181817"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="5.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.59090909090909083"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="14"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.5909090909090908"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="16.399999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.8636363636363633"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="9.1999999999999993"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.0454545454545452"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="21.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.3977272727272725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="28.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.2386363636363633"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="10.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.1704545454545454"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="32.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.6931818181818179"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="34.200000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.8863636363636362"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="13.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.5113636363636362"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="37.200000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.2272727272727275"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="37.200000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.2272727272727275"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.88"/>
+    <n v="19.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="65.900000000000006"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.4886363636363633"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="66.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.5227272727272725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="35.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.045454545454545"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="112.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.784090909090908"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="127.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="14.499999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="48.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.5227272727272725"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="134.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="15.284090909090908"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="114.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="13.011363636363635"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="35.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.0340909090909092"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="120.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="13.659090909090908"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="150.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.05681818181818"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="6.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.70454545454545447"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="46.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.3295454545454541"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="50.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.7727272727272716"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="101.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="79.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="9.0340909090909083"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="18.399999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.0909090909090904"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="109"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.386363636363635"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="100.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.420454545454545"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="20.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.3068181818181817"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="112.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.772727272727272"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="111.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.68181818181818"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="5.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.59090909090909083"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="54.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.170454545454545"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="55.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.2613636363636358"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="5.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.67045454545454541"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="103.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.761363636363635"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="104.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.874999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.84"/>
+    <n v="11"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.25"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="111"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.613636363636363"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="111.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.659090909090908"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="12.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.3977272727272727"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="124.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="14.170454545454545"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="123.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="14.079545454545453"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="3.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.6477272727272726"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="11.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.9431818181818181"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="11.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.9090909090909085"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="6.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.1761363636363638"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="21.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.6988636363636358"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="21.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.7329545454545445"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="9.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.636363636363636"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="30.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.2670454545454533"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="30.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="5.2159090909090908"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="12.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.1136363636363638"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="39.799999999999997"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.7840909090909083"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.95"/>
+    <n v="38.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.6306818181818166"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.9"/>
+    <n v="13.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.2840909090909092"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="49.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="8.3863636363636367"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="49"/>
+    <n v="8.8000000000000007"/>
+    <n v="8.3522727272727266"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="25.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="4.4147727272727266"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="95.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="16.329545454545453"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="94.1"/>
+    <n v="8.8000000000000007"/>
+    <n v="16.039772727272723"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.88"/>
+    <n v="35.299999999999997"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.0170454545454533"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="136.69999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="23.30113636363636"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="134"/>
+    <n v="8.8000000000000007"/>
+    <n v="22.84090909090909"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="46.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="7.9090909090909074"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="174.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="29.8125"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.89"/>
+    <n v="173.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="29.522727272727266"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="5.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.90340909090909072"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="38"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.4772727272727266"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="37.700000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.4261363636363633"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.7045454545454544"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="72.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.306818181818182"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="68.7"/>
+    <n v="8.8000000000000007"/>
+    <n v="11.710227272727273"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="14.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.4715909090909087"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="104.9"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.88068181818182"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="101.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="17.318181818181813"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="18.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="3.2045454545454546"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="134.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="22.943181818181813"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="130.69999999999999"/>
+    <n v="8.8000000000000007"/>
+    <n v="22.278409090909086"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.78"/>
+    <n v="3.8"/>
+    <n v="8.8000000000000007"/>
+    <n v="0.6477272727272726"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="37"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.3068181818181817"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="37.200000000000003"/>
+    <n v="8.8000000000000007"/>
+    <n v="6.3409090909090908"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="7"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.1931818181818181"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="72.3"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.323863636363635"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="71.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="12.187499999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.84"/>
+    <n v="10.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="1.7727272727272727"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.85"/>
+    <n v="108.2"/>
+    <n v="8.8000000000000007"/>
+    <n v="18.443181818181817"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="106.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="18.17045454545454"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.83"/>
+    <n v="13.5"/>
+    <n v="8.8000000000000007"/>
+    <n v="2.3011363636363633"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="141.6"/>
+    <n v="8.8000000000000007"/>
+    <n v="24.136363636363633"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="3.86"/>
+    <n v="139.4"/>
+    <n v="8.8000000000000007"/>
+    <n v="23.761363636363637"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="4"/>
     <m/>
@@ -14968,36 +16823,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="28">
+    <format dxfId="116">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="114">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="113">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="112">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="111">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15007,7 +16862,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15017,7 +16872,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15027,29 +16882,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="106">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="105">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="104">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="103">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="102">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15059,7 +16914,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15069,7 +16924,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -15383,7 +17238,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15666,7 +17521,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15785,15 +17640,16 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width,Thrds" colHeaderCaption=" ">
-  <location ref="K2:T24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9CCBE66D-345A-4559-8CB4-662DFEEC623C}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width,Thrds" colHeaderCaption="Qs">
+  <location ref="K3:AC26" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
-        <item n="WSL" x="1"/>
+        <item n="WSL" m="1" x="4"/>
         <item x="3"/>
         <item x="2"/>
+        <item n="WSL2" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15805,7 +17661,13 @@
         <item h="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -15896,66 +17758,99 @@
       <x v="3"/>
     </i>
   </rowItems>
-  <colFields count="2">
+  <colFields count="3">
+    <field x="2"/>
     <field x="1"/>
     <field x="0"/>
   </colFields>
-  <colItems count="9">
+  <colItems count="18">
     <i>
       <x/>
       <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2">
       <x v="3"/>
     </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i>
       <x v="2"/>
       <x/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
     <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2">
       <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    <format dxfId="9">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="5">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    <format dxfId="10">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -15968,7 +17863,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -15981,7 +17876,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="2">
@@ -37208,8 +39103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1306160B-1DA9-4FAC-BA9F-E9F284318313}">
   <dimension ref="A1:AL289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:A241"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="I227" sqref="I227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37217,13 +39112,12 @@
     <col min="1" max="2" width="8.88671875" style="11"/>
     <col min="3" max="5" width="8.88671875" style="29"/>
     <col min="6" max="10" width="8.88671875" style="11"/>
-    <col min="11" max="11" width="13.77734375" style="11" customWidth="1"/>
-    <col min="12" max="17" width="5.21875" style="38" customWidth="1"/>
-    <col min="18" max="20" width="5.21875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="34" width="6.77734375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="6.33203125" style="38" customWidth="1"/>
+    <col min="18" max="29" width="6.33203125" style="11" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="6.77734375" style="11" customWidth="1"/>
     <col min="35" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
@@ -37255,9 +39149,8 @@
       <c r="I1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="K1"/>
+      <c r="L1"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
       <c r="T1" s="19"/>
@@ -37309,15 +39202,16 @@
         <f>G2/H2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -37351,21 +39245,26 @@
         <f t="shared" ref="I3:I13" si="0">G3/H3</f>
         <v>1.8</v>
       </c>
-      <c r="K3"/>
-      <c r="L3" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="38" t="s">
-        <v>35</v>
-      </c>
+      <c r="K3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="38"/>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
@@ -37396,39 +39295,31 @@
         <f t="shared" si="0"/>
         <v>1.9333333333333333</v>
       </c>
-      <c r="K4" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U4"/>
+      <c r="K4"/>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4">
+        <v>26</v>
+      </c>
       <c r="V4"/>
       <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
@@ -37459,15 +39350,35 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="38"/>
+      <c r="K5"/>
+      <c r="L5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
+      <c r="U5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -37498,39 +39409,65 @@
         <f t="shared" si="0"/>
         <v>2.9333333333333331</v>
       </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="38">
-        <v>1</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N6" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="38">
-        <v>1.8</v>
-      </c>
-      <c r="P6" s="38">
-        <v>2.4</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>2.9</v>
-      </c>
-      <c r="R6" s="38">
-        <v>1.9333333333333333</v>
-      </c>
-      <c r="S6" s="38">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="T6" s="38">
-        <v>2.8</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
+      <c r="K6" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -37561,39 +39498,23 @@
         <f t="shared" si="0"/>
         <v>3.1333333333333333</v>
       </c>
-      <c r="K7" s="24">
-        <v>2</v>
-      </c>
-      <c r="L7" s="38">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="M7" s="38">
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="N7" s="38">
-        <v>1.2</v>
-      </c>
-      <c r="O7" s="38">
-        <v>2.9333333333333331</v>
-      </c>
-      <c r="P7" s="38">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="R7" s="38">
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="S7" s="38">
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="T7" s="38">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
+      <c r="K7" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -37625,38 +39546,64 @@
         <v>1.8666666666666667</v>
       </c>
       <c r="K8" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="38">
-        <v>1.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="M8" s="38">
-        <v>1.6666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="N8" s="38">
-        <v>1.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="O8" s="38">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="P8" s="38">
-        <v>4.4666666666666668</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" s="38">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="R8" s="38">
-        <v>3.4666666666666668</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="S8" s="38">
-        <v>4.333333333333333</v>
+        <v>2.8</v>
       </c>
       <c r="T8" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="U8" s="38">
+        <v>1</v>
+      </c>
+      <c r="V8" s="38">
+        <v>0.6477272727272726</v>
+      </c>
+      <c r="W8" s="38">
+        <v>0.59090909090909083</v>
+      </c>
+      <c r="X8" s="38">
+        <v>1.6590909090909089</v>
+      </c>
+      <c r="Y8" s="38">
+        <v>1.9431818181818181</v>
+      </c>
+      <c r="Z8" s="38">
+        <v>1.5909090909090908</v>
+      </c>
+      <c r="AA8" s="38">
+        <v>1.8068181818181817</v>
+      </c>
+      <c r="AB8" s="38">
+        <v>1.9090909090909085</v>
+      </c>
+      <c r="AC8" s="38">
+        <v>1.8636363636363633</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
@@ -37688,38 +39635,64 @@
         <v>3.2</v>
       </c>
       <c r="K9" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" s="38">
-        <v>1.8</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="M9" s="38">
-        <v>1.5333333333333334</v>
+        <v>1.2</v>
       </c>
       <c r="N9" s="38">
-        <v>2</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="O9" s="38">
+        <v>2.9333333333333331</v>
+      </c>
+      <c r="P9" s="38">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="R9" s="38">
         <v>3.1333333333333333</v>
       </c>
-      <c r="P9" s="38">
-        <v>4.2666666666666666</v>
-      </c>
-      <c r="Q9" s="38">
-        <v>6.2</v>
-      </c>
-      <c r="R9" s="38">
-        <v>3.4</v>
-      </c>
       <c r="S9" s="38">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T9" s="38">
-        <v>6.1</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="U9" s="38">
+        <v>1.9318181818181817</v>
+      </c>
+      <c r="V9" s="38">
+        <v>1.1761363636363638</v>
+      </c>
+      <c r="W9" s="38">
+        <v>1.0454545454545452</v>
+      </c>
+      <c r="X9" s="38">
+        <v>3.0795454545454546</v>
+      </c>
+      <c r="Y9" s="38">
+        <v>3.6988636363636358</v>
+      </c>
+      <c r="Z9" s="38">
+        <v>2.3977272727272725</v>
+      </c>
+      <c r="AA9" s="38">
+        <v>3.1818181818181817</v>
+      </c>
+      <c r="AB9" s="38">
+        <v>3.7329545454545445</v>
+      </c>
+      <c r="AC9" s="38">
+        <v>3.2386363636363633</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
@@ -37750,15 +39723,65 @@
         <f t="shared" si="0"/>
         <v>3.4666666666666668</v>
       </c>
-      <c r="K10" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
+      <c r="K10" s="24">
+        <v>3</v>
+      </c>
+      <c r="L10" s="38">
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="M10" s="38">
+        <v>1.6</v>
+      </c>
+      <c r="N10" s="38">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O10" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="P10" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="R10" s="38">
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="S10" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="T10" s="38">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U10" s="38">
+        <v>2.4204545454545454</v>
+      </c>
+      <c r="V10" s="38">
+        <v>1.636363636363636</v>
+      </c>
+      <c r="W10" s="38">
+        <v>1.1704545454545454</v>
+      </c>
+      <c r="X10" s="38">
+        <v>3.9545454545454537</v>
+      </c>
+      <c r="Y10" s="38">
+        <v>5.2670454545454533</v>
+      </c>
+      <c r="Z10" s="38">
+        <v>3.6931818181818179</v>
+      </c>
+      <c r="AA10" s="38">
+        <v>4.1590909090909092</v>
+      </c>
+      <c r="AB10" s="38">
+        <v>5.2159090909090908</v>
+      </c>
+      <c r="AC10" s="38">
+        <v>3.8863636363636362</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
@@ -37790,38 +39813,64 @@
         <v>1.8</v>
       </c>
       <c r="K11" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="M11" s="38">
+        <v>2</v>
+      </c>
+      <c r="N11" s="38">
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="O11" s="38">
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="P11" s="38">
+        <v>6.2</v>
+      </c>
+      <c r="Q11" s="38">
         <v>4.2666666666666666</v>
       </c>
-      <c r="M11" s="38">
-        <v>3.2</v>
-      </c>
-      <c r="N11" s="38">
-        <v>2.9</v>
-      </c>
-      <c r="O11" s="38">
-        <v>7.5333333333333332</v>
-      </c>
-      <c r="P11" s="38">
-        <v>8.9333333333333336</v>
-      </c>
-      <c r="Q11" s="38">
-        <v>10.7</v>
-      </c>
       <c r="R11" s="38">
-        <v>8.3333333333333339</v>
+        <v>3.4</v>
       </c>
       <c r="S11" s="38">
-        <v>8.9333333333333336</v>
+        <v>6.1</v>
       </c>
       <c r="T11" s="38">
-        <v>10.5</v>
-      </c>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U11" s="38">
+        <v>2.545454545454545</v>
+      </c>
+      <c r="V11" s="38">
+        <v>2.1136363636363638</v>
+      </c>
+      <c r="W11" s="38">
+        <v>1.5113636363636362</v>
+      </c>
+      <c r="X11" s="38">
+        <v>3.9659090909090904</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>6.7840909090909083</v>
+      </c>
+      <c r="Z11" s="38">
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="AA11" s="38">
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="AB11" s="38">
+        <v>6.6306818181818166</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>4.2272727272727275</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -37852,39 +39901,23 @@
         <f t="shared" si="0"/>
         <v>3.1333333333333333</v>
       </c>
-      <c r="K12" s="24">
-        <v>2</v>
-      </c>
-      <c r="L12" s="38">
-        <v>6.333333333333333</v>
-      </c>
-      <c r="M12" s="38">
-        <v>5.4</v>
-      </c>
-      <c r="N12" s="38">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O12" s="38">
-        <v>10.066666666666666</v>
-      </c>
-      <c r="P12" s="38">
-        <v>12.666666666666666</v>
-      </c>
-      <c r="Q12" s="38">
-        <v>14</v>
-      </c>
-      <c r="R12" s="38">
-        <v>10.8</v>
-      </c>
-      <c r="S12" s="38">
-        <v>11.733333333333333</v>
-      </c>
-      <c r="T12" s="38">
-        <v>13.5</v>
-      </c>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
+      <c r="K12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -37916,38 +39949,64 @@
         <v>3.4</v>
       </c>
       <c r="K13" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" s="38">
-        <v>6.8666666666666663</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="M13" s="38">
-        <v>6.4666666666666668</v>
+        <v>2.9</v>
       </c>
       <c r="N13" s="38">
-        <v>6.3</v>
+        <v>3.2</v>
       </c>
       <c r="O13" s="38">
-        <v>10.266666666666667</v>
+        <v>7.5333333333333332</v>
       </c>
       <c r="P13" s="38">
-        <v>13.466666666666667</v>
+        <v>10.7</v>
       </c>
       <c r="Q13" s="38">
-        <v>15.5</v>
+        <v>8.9333333333333336</v>
       </c>
       <c r="R13" s="38">
-        <v>9.8666666666666671</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="S13" s="38">
-        <v>13.333333333333334</v>
+        <v>10.5</v>
       </c>
       <c r="T13" s="38">
-        <v>15</v>
-      </c>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="U13" s="38">
+        <v>3.7840909090909083</v>
+      </c>
+      <c r="V13" s="38">
+        <v>2.2840909090909092</v>
+      </c>
+      <c r="W13" s="38">
+        <v>2.25</v>
+      </c>
+      <c r="X13" s="38">
+        <v>7.4659090909090908</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>8.3863636363636367</v>
+      </c>
+      <c r="Z13" s="38">
+        <v>7.4886363636363633</v>
+      </c>
+      <c r="AA13" s="38">
+        <v>7.9545454545454541</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>8.3522727272727266</v>
+      </c>
+      <c r="AC13" s="38">
+        <v>7.5227272727272725</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
@@ -37979,38 +40038,64 @@
         <v>4.2666666666666666</v>
       </c>
       <c r="K14" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L14" s="38">
-        <v>6.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="M14" s="38">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N14" s="38">
-        <v>7.3</v>
+        <v>5.4</v>
       </c>
       <c r="O14" s="38">
-        <v>10.133333333333333</v>
+        <v>10.066666666666666</v>
       </c>
       <c r="P14" s="38">
-        <v>13.666666666666666</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="38">
-        <v>16.100000000000001</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="R14" s="38">
-        <v>10.733333333333333</v>
+        <v>10.8</v>
       </c>
       <c r="S14" s="38">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="T14" s="38">
-        <v>16</v>
-      </c>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
+        <v>11.733333333333333</v>
+      </c>
+      <c r="U14" s="38">
+        <v>7.1590909090909083</v>
+      </c>
+      <c r="V14" s="38">
+        <v>4.4147727272727266</v>
+      </c>
+      <c r="W14" s="38">
+        <v>4.045454545454545</v>
+      </c>
+      <c r="X14" s="38">
+        <v>13.204545454545453</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>16.329545454545453</v>
+      </c>
+      <c r="Z14" s="38">
+        <v>12.784090909090908</v>
+      </c>
+      <c r="AA14" s="38">
+        <v>13.852272727272727</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>16.039772727272723</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
@@ -38041,15 +40126,65 @@
         <f t="shared" ref="I15:I25" si="1">G15/H15</f>
         <v>7.5333333333333332</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
+      <c r="K15" s="24">
+        <v>3</v>
+      </c>
+      <c r="L15" s="38">
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="M15" s="38">
+        <v>6.3</v>
+      </c>
+      <c r="N15" s="38">
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="O15" s="38">
+        <v>10.266666666666667</v>
+      </c>
+      <c r="P15" s="38">
+        <v>15.5</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>13.466666666666667</v>
+      </c>
+      <c r="R15" s="38">
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="S15" s="38">
+        <v>15</v>
+      </c>
+      <c r="T15" s="38">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="U15" s="38">
+        <v>9.1590909090909083</v>
+      </c>
+      <c r="V15" s="38">
+        <v>6.0170454545454533</v>
+      </c>
+      <c r="W15" s="38">
+        <v>5.5227272727272725</v>
+      </c>
+      <c r="X15" s="38">
+        <v>16.670454545454543</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>23.30113636363636</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>15.284090909090908</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>17.602272727272727</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>22.84090909090909</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>13.011363636363635</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
@@ -38081,40 +40216,66 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="K16" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="38">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="M16" s="38">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="N16" s="38">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="O16" s="38">
-        <v>4</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="P16" s="38">
-        <v>5.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q16" s="38">
-        <v>6</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="R16" s="38">
-        <v>5.1333333333333337</v>
+        <v>10.733333333333333</v>
       </c>
       <c r="S16" s="38">
-        <v>5.8</v>
+        <v>16</v>
       </c>
       <c r="T16" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>13.4</v>
+      </c>
+      <c r="U16" s="38">
+        <v>9.8181818181818183</v>
+      </c>
+      <c r="V16" s="38">
+        <v>7.9090909090909074</v>
+      </c>
+      <c r="W16" s="38">
+        <v>4.0340909090909092</v>
+      </c>
+      <c r="X16" s="38">
+        <v>17.18181818181818</v>
+      </c>
+      <c r="Y16" s="38">
+        <v>29.8125</v>
+      </c>
+      <c r="Z16" s="38">
+        <v>13.659090909090908</v>
+      </c>
+      <c r="AA16" s="38">
+        <v>17.852272727272727</v>
+      </c>
+      <c r="AB16" s="38">
+        <v>29.522727272727266</v>
+      </c>
+      <c r="AC16" s="38">
+        <v>17.05681818181818</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
@@ -38143,41 +40304,25 @@
         <f t="shared" si="1"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="K17" s="24">
-        <v>2</v>
-      </c>
-      <c r="L17" s="38">
-        <v>2.6</v>
-      </c>
-      <c r="M17" s="38">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="N17" s="38">
-        <v>2.1</v>
-      </c>
-      <c r="O17" s="38">
-        <v>6.0666666666666664</v>
-      </c>
-      <c r="P17" s="38">
-        <v>8.6</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>8.4</v>
-      </c>
-      <c r="R17" s="38">
-        <v>7.2666666666666666</v>
-      </c>
-      <c r="S17" s="38">
-        <v>8.7333333333333325</v>
-      </c>
-      <c r="T17" s="38">
-        <v>8.4</v>
-      </c>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>49</v>
       </c>
@@ -38207,40 +40352,66 @@
         <v>10.066666666666666</v>
       </c>
       <c r="K18" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" s="38">
-        <v>2.6666666666666665</v>
+        <v>1.6</v>
       </c>
       <c r="M18" s="38">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="N18" s="38">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="O18" s="38">
-        <v>5.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="P18" s="38">
-        <v>9.9333333333333336</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="38">
-        <v>9.3000000000000007</v>
+        <v>5.8</v>
       </c>
       <c r="R18" s="38">
-        <v>7.1333333333333337</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="S18" s="38">
-        <v>9.7333333333333325</v>
+        <v>5.9</v>
       </c>
       <c r="T18" s="38">
-        <v>9.4</v>
-      </c>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5.8</v>
+      </c>
+      <c r="U18" s="38">
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="V18" s="38">
+        <v>0.90340909090909072</v>
+      </c>
+      <c r="W18" s="38">
+        <v>0.70454545454545447</v>
+      </c>
+      <c r="X18" s="38">
+        <v>4.1590909090909092</v>
+      </c>
+      <c r="Y18" s="38">
+        <v>6.4772727272727266</v>
+      </c>
+      <c r="Z18" s="38">
+        <v>5.3295454545454541</v>
+      </c>
+      <c r="AA18" s="38">
+        <v>5.6590909090909083</v>
+      </c>
+      <c r="AB18" s="38">
+        <v>6.4261363636363633</v>
+      </c>
+      <c r="AC18" s="38">
+        <v>5.7727272727272716</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>49</v>
       </c>
@@ -38270,40 +40441,66 @@
         <v>10.8</v>
       </c>
       <c r="K19" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L19" s="38">
-        <v>2.6666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="M19" s="38">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="N19" s="38">
-        <v>3.5</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O19" s="38">
-        <v>5.333333333333333</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="P19" s="38">
-        <v>9.7333333333333325</v>
+        <v>8.4</v>
       </c>
       <c r="Q19" s="38">
-        <v>10.4</v>
+        <v>8.6</v>
       </c>
       <c r="R19" s="38">
-        <v>6.9333333333333336</v>
+        <v>7.2666666666666666</v>
       </c>
       <c r="S19" s="38">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="T19" s="38">
-        <v>10.3</v>
-      </c>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="U19" s="38">
+        <v>2.3181818181818179</v>
+      </c>
+      <c r="V19" s="38">
+        <v>1.7045454545454544</v>
+      </c>
+      <c r="W19" s="38">
+        <v>1.25</v>
+      </c>
+      <c r="X19" s="38">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="38">
+        <v>12.306818181818182</v>
+      </c>
+      <c r="Z19" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" s="38">
+        <v>9.7840909090909083</v>
+      </c>
+      <c r="AB19" s="38">
+        <v>11.710227272727273</v>
+      </c>
+      <c r="AC19" s="38">
+        <v>9.0340909090909083</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
@@ -38332,17 +40529,67 @@
         <f t="shared" si="1"/>
         <v>6.8666666666666663</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K20" s="24">
+        <v>3</v>
+      </c>
+      <c r="L20" s="38">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M20" s="38">
+        <v>2.8</v>
+      </c>
+      <c r="N20" s="38">
+        <v>3</v>
+      </c>
+      <c r="O20" s="38">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="P20" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>9.9333333333333336</v>
+      </c>
+      <c r="R20" s="38">
+        <v>7.1333333333333337</v>
+      </c>
+      <c r="S20" s="38">
+        <v>9.4</v>
+      </c>
+      <c r="T20" s="38">
+        <v>9.7333333333333325</v>
+      </c>
+      <c r="U20" s="38">
+        <v>2.5113636363636362</v>
+      </c>
+      <c r="V20" s="38">
+        <v>2.4715909090909087</v>
+      </c>
+      <c r="W20" s="38">
+        <v>2.0909090909090904</v>
+      </c>
+      <c r="X20" s="38">
+        <v>7.7613636363636358</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>17.88068181818182</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>12.386363636363635</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>11.193181818181817</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>17.318181818181813</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>11.420454545454545</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
@@ -38372,40 +40619,66 @@
         <v>10.266666666666667</v>
       </c>
       <c r="K21" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="38">
-        <v>0.36000000000000004</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="M21" s="38">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="N21" s="38">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="O21" s="38">
-        <v>1.9333333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="P21" s="38">
-        <v>4.2</v>
+        <v>10.4</v>
       </c>
       <c r="Q21" s="38">
-        <v>3.8</v>
+        <v>9.7333333333333325</v>
       </c>
       <c r="R21" s="38">
-        <v>2.1333333333333333</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="S21" s="38">
-        <v>4.1333333333333337</v>
+        <v>10.3</v>
       </c>
       <c r="T21" s="38">
-        <v>3.9</v>
-      </c>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="U21" s="38">
+        <v>3.1818181818181817</v>
+      </c>
+      <c r="V21" s="38">
+        <v>3.2045454545454546</v>
+      </c>
+      <c r="W21" s="38">
+        <v>2.3068181818181817</v>
+      </c>
+      <c r="X21" s="38">
+        <v>8.4090909090909083</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>22.943181818181813</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>12.772727272727272</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>11.874999999999998</v>
+      </c>
+      <c r="AB21" s="38">
+        <v>22.278409090909086</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>12.68181818181818</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
@@ -38434,41 +40707,25 @@
         <f t="shared" si="1"/>
         <v>9.8666666666666671</v>
       </c>
-      <c r="K22" s="24">
-        <v>2</v>
-      </c>
-      <c r="L22" s="38">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M22" s="38">
-        <v>1.4666666666666666</v>
-      </c>
-      <c r="N22" s="38">
-        <v>1.3</v>
-      </c>
-      <c r="O22" s="38">
-        <v>2.8666666666666667</v>
-      </c>
-      <c r="P22" s="38">
-        <v>6.4666666666666668</v>
-      </c>
-      <c r="Q22" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="R22" s="38">
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="S22" s="38">
-        <v>6.5333333333333332</v>
-      </c>
-      <c r="T22" s="38">
-        <v>5.9</v>
-      </c>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>49</v>
       </c>
@@ -38498,40 +40755,66 @@
         <v>6.4</v>
       </c>
       <c r="K23" s="24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="38">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="M23" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="N23" s="38">
         <v>0.8</v>
       </c>
-      <c r="M23" s="38">
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="N23" s="38">
-        <v>1.8</v>
-      </c>
       <c r="O23" s="38">
-        <v>3</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="P23" s="38">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q23" s="38">
-        <v>6.7</v>
+        <v>4.2</v>
       </c>
       <c r="R23" s="38">
-        <v>3.4</v>
+        <v>2.1333333333333333</v>
       </c>
       <c r="S23" s="38">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="T23" s="38">
-        <v>6.7</v>
-      </c>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="U23" s="38">
+        <v>0.39772727272727271</v>
+      </c>
+      <c r="V23" s="38">
+        <v>0.6477272727272726</v>
+      </c>
+      <c r="W23" s="38">
+        <v>0.59090909090909083</v>
+      </c>
+      <c r="X23" s="38">
+        <v>2.1363636363636362</v>
+      </c>
+      <c r="Y23" s="38">
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="Z23" s="38">
+        <v>6.170454545454545</v>
+      </c>
+      <c r="AA23" s="38">
+        <v>2.4431818181818179</v>
+      </c>
+      <c r="AB23" s="38">
+        <v>6.3409090909090908</v>
+      </c>
+      <c r="AC23" s="38">
+        <v>6.2613636363636358</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>49</v>
       </c>
@@ -38561,40 +40844,66 @@
         <v>10.133333333333333</v>
       </c>
       <c r="K24" s="24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" s="38">
-        <v>0.8666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M24" s="38">
-        <v>1.9333333333333333</v>
+        <v>1.3</v>
       </c>
       <c r="N24" s="38">
-        <v>2.2999999999999998</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="O24" s="38">
-        <v>2.7333333333333334</v>
+        <v>2.8666666666666667</v>
       </c>
       <c r="P24" s="38">
-        <v>7.9333333333333336</v>
+        <v>5.9</v>
       </c>
       <c r="Q24" s="38">
-        <v>7.7</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="R24" s="38">
-        <v>3.2</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="S24" s="38">
-        <v>7.4666666666666668</v>
+        <v>5.9</v>
       </c>
       <c r="T24" s="38">
-        <v>7.5</v>
-      </c>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="U24" s="38">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="V24" s="38">
+        <v>1.1931818181818181</v>
+      </c>
+      <c r="W24" s="38">
+        <v>0.67045454545454541</v>
+      </c>
+      <c r="X24" s="38">
+        <v>3.545454545454545</v>
+      </c>
+      <c r="Y24" s="38">
+        <v>12.323863636363635</v>
+      </c>
+      <c r="Z24" s="38">
+        <v>11.761363636363635</v>
+      </c>
+      <c r="AA24" s="38">
+        <v>4.1136363636363633</v>
+      </c>
+      <c r="AB24" s="38">
+        <v>12.187499999999998</v>
+      </c>
+      <c r="AC24" s="38">
+        <v>11.874999999999998</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
@@ -38623,15 +40932,67 @@
         <f t="shared" si="1"/>
         <v>10.733333333333333</v>
       </c>
-      <c r="K25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K25" s="24">
+        <v>3</v>
+      </c>
+      <c r="L25" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="38">
+        <v>1.8</v>
+      </c>
+      <c r="N25" s="38">
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="O25" s="38">
+        <v>3</v>
+      </c>
+      <c r="P25" s="38">
+        <v>6.7</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>6.8</v>
+      </c>
+      <c r="R25" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="S25" s="38">
+        <v>6.7</v>
+      </c>
+      <c r="T25" s="38">
+        <v>7</v>
+      </c>
+      <c r="U25" s="38">
+        <v>0.86363636363636354</v>
+      </c>
+      <c r="V25" s="38">
+        <v>1.7727272727272727</v>
+      </c>
+      <c r="W25" s="38">
+        <v>1.25</v>
+      </c>
+      <c r="X25" s="38">
+        <v>4.1590909090909092</v>
+      </c>
+      <c r="Y25" s="38">
+        <v>18.443181818181817</v>
+      </c>
+      <c r="Z25" s="38">
+        <v>12.613636363636363</v>
+      </c>
+      <c r="AA25" s="38">
+        <v>4.8068181818181808</v>
+      </c>
+      <c r="AB25" s="38">
+        <v>18.17045454545454</v>
+      </c>
+      <c r="AC25" s="38">
+        <v>12.659090909090908</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>49</v>
       </c>
@@ -38660,15 +41021,67 @@
         <f>G26/H26</f>
         <v>1.6</v>
       </c>
-      <c r="K26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K26" s="24">
+        <v>4</v>
+      </c>
+      <c r="L26" s="38">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="M26" s="38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N26" s="38">
+        <v>1.9333333333333333</v>
+      </c>
+      <c r="O26" s="38">
+        <v>2.7333333333333334</v>
+      </c>
+      <c r="P26" s="38">
+        <v>7.7</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>7.9333333333333336</v>
+      </c>
+      <c r="R26" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="S26" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="T26" s="38">
+        <v>7.4666666666666668</v>
+      </c>
+      <c r="U26" s="38">
+        <v>0.76136363636363635</v>
+      </c>
+      <c r="V26" s="38">
+        <v>2.3011363636363633</v>
+      </c>
+      <c r="W26" s="38">
+        <v>1.3977272727272727</v>
+      </c>
+      <c r="X26" s="38">
+        <v>4.7840909090909092</v>
+      </c>
+      <c r="Y26" s="38">
+        <v>24.136363636363633</v>
+      </c>
+      <c r="Z26" s="38">
+        <v>14.170454545454545</v>
+      </c>
+      <c r="AA26" s="38">
+        <v>5.3068181818181817</v>
+      </c>
+      <c r="AB26" s="38">
+        <v>23.761363636363637</v>
+      </c>
+      <c r="AC26" s="38">
+        <v>14.079545454545453</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>49</v>
       </c>
@@ -38705,7 +41118,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
@@ -38736,7 +41149,7 @@
       </c>
       <c r="K28"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>49</v>
       </c>
@@ -38767,7 +41180,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>49</v>
       </c>
@@ -38798,7 +41211,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>49</v>
       </c>
@@ -38829,7 +41242,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>49</v>
       </c>
@@ -39376,7 +41789,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>33</v>
@@ -39406,7 +41819,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -39436,7 +41849,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>35</v>
@@ -39466,7 +41879,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>33</v>
@@ -39496,7 +41909,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>34</v>
@@ -39526,7 +41939,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>35</v>
@@ -39556,7 +41969,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>33</v>
@@ -39586,7 +41999,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>34</v>
@@ -39616,7 +42029,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>35</v>
@@ -39646,7 +42059,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>33</v>
@@ -39676,7 +42089,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>34</v>
@@ -39706,7 +42119,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>35</v>
@@ -39736,7 +42149,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>33</v>
@@ -39766,7 +42179,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>34</v>
@@ -39796,7 +42209,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>35</v>
@@ -39826,7 +42239,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>33</v>
@@ -39856,7 +42269,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>34</v>
@@ -39886,7 +42299,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>35</v>
@@ -39916,7 +42329,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>33</v>
@@ -39946,7 +42359,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>34</v>
@@ -39976,7 +42389,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>35</v>
@@ -40006,7 +42419,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>33</v>
@@ -40036,7 +42449,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>34</v>
@@ -40066,7 +42479,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>35</v>
@@ -40096,7 +42509,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>33</v>
@@ -40126,7 +42539,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>34</v>
@@ -40156,7 +42569,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>35</v>
@@ -40186,7 +42599,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>33</v>
@@ -40216,7 +42629,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>34</v>
@@ -40246,7 +42659,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>35</v>
@@ -40276,7 +42689,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>33</v>
@@ -40306,7 +42719,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>34</v>
@@ -40336,7 +42749,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>35</v>
@@ -40366,7 +42779,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>33</v>
@@ -40396,7 +42809,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>34</v>
@@ -40426,7 +42839,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>35</v>
@@ -40456,7 +42869,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>33</v>
@@ -40486,7 +42899,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>34</v>
@@ -40516,7 +42929,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>35</v>
@@ -40546,7 +42959,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>33</v>
@@ -40576,7 +42989,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>34</v>
@@ -40606,7 +43019,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>35</v>
@@ -40636,7 +43049,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>33</v>
@@ -40666,7 +43079,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>34</v>
@@ -40696,7 +43109,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>35</v>
@@ -40726,7 +43139,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>33</v>
@@ -40756,7 +43169,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>34</v>
@@ -40786,7 +43199,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>35</v>
@@ -46579,7 +48992,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="L6:T9 L10:T10 L11:T14 L15:T15 L16:T19 L20:T20 L21:T24">
+  <conditionalFormatting pivot="1" sqref="L8:AC11 L12:AC12 L13:AC16 L17:AC17 L18:AC21 L22:AC22 L23:AC26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5DC1A9-B6D7-46E5-946B-9C8FE89B15A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1096EA-1FD7-4876-952A-8C815A59EA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="624" windowWidth="20268" windowHeight="18888" firstSheet="4" activeTab="7" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="6936" yWindow="624" windowWidth="20268" windowHeight="18888" firstSheet="5" activeTab="7" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <pivotCache cacheId="0" r:id="rId9"/>
     <pivotCache cacheId="1" r:id="rId10"/>
     <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="10" r:id="rId12"/>
-    <pivotCache cacheId="51" r:id="rId13"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="11" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="127">
   <si>
     <t>Time (s)</t>
   </si>
@@ -481,7 +481,13 @@
     <t>Liquid</t>
   </si>
   <si>
-    <t>Sum of Speed Up</t>
+    <t>2 d=6.1</t>
+  </si>
+  <si>
+    <t>3 d=12.1</t>
+  </si>
+  <si>
+    <t>4 d=17.0</t>
   </si>
 </sst>
 </file>
@@ -722,7 +728,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="286">
+  <dxfs count="172">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -749,6 +803,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -799,52 +859,37 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -895,52 +940,37 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -991,28 +1021,70 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1061,414 +1133,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -8276,7 +7940,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43984.375722685189" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="297" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43984.678717476854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="297" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Fusion (4)"/>
   </cacheSource>
@@ -17852,8 +17516,8 @@
     <x v="0"/>
     <n v="1.03"/>
     <n v="11"/>
-    <n v="33.9"/>
-    <n v="0.32448377581120946"/>
+    <n v="36"/>
+    <n v="0.30555555555555558"/>
   </r>
   <r>
     <x v="1"/>
@@ -19434,20 +19098,20 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1.95"/>
-    <n v="5.2"/>
-    <n v="14"/>
-    <n v="0.37142857142857144"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="14"/>
-    <n v="14"/>
+    <n v="1.19"/>
+    <n v="14.1"/>
+    <n v="21"/>
+    <n v="0.67142857142857137"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="21"/>
+    <n v="21"/>
     <n v="1"/>
   </r>
   <r>
@@ -19456,505 +19120,505 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1.95"/>
-    <n v="16.399999999999999"/>
-    <n v="14"/>
-    <n v="1.1714285714285713"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="9.1999999999999993"/>
-    <n v="14"/>
-    <n v="0.65714285714285714"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
+    <n v="1.18"/>
+    <n v="19.600000000000001"/>
+    <n v="21"/>
+    <n v="0.93333333333333335"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="27.1"/>
+    <n v="21"/>
+    <n v="1.2904761904761906"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="34.4"/>
+    <n v="21"/>
+    <n v="1.638095238095238"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="33.5"/>
+    <n v="21"/>
+    <n v="1.5952380952380953"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="23.5"/>
+    <n v="21"/>
+    <n v="1.1190476190476191"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="34.9"/>
+    <n v="21"/>
+    <n v="1.6619047619047618"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="34.5"/>
+    <n v="21"/>
+    <n v="1.6428571428571428"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="31.4"/>
+    <n v="21"/>
+    <n v="1.4952380952380953"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="37.9"/>
+    <n v="21"/>
+    <n v="1.8047619047619048"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="36.9"/>
+    <n v="21"/>
+    <n v="1.7571428571428571"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="45.3"/>
+    <n v="21"/>
+    <n v="2.157142857142857"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="76.8"/>
+    <n v="21"/>
+    <n v="3.657142857142857"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="75.7"/>
+    <n v="21"/>
+    <n v="3.6047619047619048"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.21"/>
+    <n v="83.7"/>
+    <n v="21"/>
+    <n v="3.9857142857142858"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="130.30000000000001"/>
+    <n v="21"/>
+    <n v="6.2047619047619049"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="140.4"/>
+    <n v="21"/>
+    <n v="6.6857142857142859"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.21"/>
+    <n v="112.7"/>
+    <n v="21"/>
+    <n v="5.3666666666666671"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="163.80000000000001"/>
+    <n v="21"/>
+    <n v="7.8000000000000007"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="146.19999999999999"/>
+    <n v="21"/>
+    <n v="6.9619047619047612"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="104.7"/>
+    <n v="21"/>
+    <n v="4.9857142857142858"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="165.3"/>
+    <n v="21"/>
+    <n v="7.8714285714285719"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="149.69999999999999"/>
+    <n v="21"/>
+    <n v="7.1285714285714281"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12.04"/>
+    <n v="14.6"/>
+    <n v="21"/>
+    <n v="0.69523809523809521"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="67"/>
+    <n v="21"/>
+    <n v="3.1904761904761907"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.94"/>
+    <n v="73.5"/>
+    <n v="21"/>
+    <n v="3.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.95"/>
+    <n v="32.5"/>
+    <n v="21"/>
+    <n v="1.5476190476190477"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="131.69999999999999"/>
+    <n v="21"/>
+    <n v="6.2714285714285705"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="132.19999999999999"/>
+    <n v="21"/>
+    <n v="6.2952380952380951"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.96"/>
+    <n v="42.3"/>
+    <n v="21"/>
+    <n v="2.0142857142857142"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="154.80000000000001"/>
+    <n v="21"/>
+    <n v="7.3714285714285719"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="160.80000000000001"/>
+    <n v="21"/>
+    <n v="7.6571428571428575"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.96"/>
+    <n v="47.6"/>
+    <n v="21"/>
+    <n v="2.2666666666666666"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="168.1"/>
+    <n v="21"/>
+    <n v="8.0047619047619047"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="155.6"/>
+    <n v="21"/>
+    <n v="7.409523809523809"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.260000000000002"/>
+    <n v="10.6"/>
+    <n v="21"/>
+    <n v="0.50476190476190474"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="70.099999999999994"/>
+    <n v="21"/>
+    <n v="3.3380952380952378"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="69"/>
+    <n v="21"/>
+    <n v="3.2857142857142856"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.260000000000002"/>
     <n v="21.1"/>
-    <n v="14"/>
-    <n v="1.5071428571428573"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="28.5"/>
-    <n v="14"/>
-    <n v="2.0357142857142856"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="10.3"/>
-    <n v="14"/>
-    <n v="0.73571428571428577"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="32.5"/>
-    <n v="14"/>
-    <n v="2.3214285714285716"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="34.200000000000003"/>
-    <n v="14"/>
-    <n v="2.4428571428571431"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="13.3"/>
-    <n v="14"/>
-    <n v="0.95000000000000007"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="37.200000000000003"/>
-    <n v="14"/>
-    <n v="2.6571428571428575"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="37.200000000000003"/>
-    <n v="14"/>
-    <n v="2.6571428571428575"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.88"/>
-    <n v="19.8"/>
-    <n v="14"/>
-    <n v="1.4142857142857144"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="65.900000000000006"/>
-    <n v="14"/>
-    <n v="4.7071428571428573"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="66.2"/>
-    <n v="14"/>
-    <n v="4.7285714285714286"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="35.6"/>
-    <n v="14"/>
-    <n v="2.5428571428571431"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="112.5"/>
-    <n v="14"/>
-    <n v="8.0357142857142865"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="127.6"/>
-    <n v="14"/>
-    <n v="9.1142857142857139"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="48.6"/>
-    <n v="14"/>
-    <n v="3.4714285714285715"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="134.5"/>
-    <n v="14"/>
-    <n v="9.6071428571428577"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="114.5"/>
-    <n v="14"/>
-    <n v="8.1785714285714288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="35.5"/>
-    <n v="14"/>
-    <n v="2.5357142857142856"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="120.2"/>
-    <n v="14"/>
-    <n v="8.5857142857142854"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="150.1"/>
-    <n v="14"/>
-    <n v="10.721428571428572"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="6.2"/>
-    <n v="14"/>
-    <n v="0.44285714285714289"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="46.9"/>
-    <n v="14"/>
-    <n v="3.35"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="50.8"/>
-    <n v="14"/>
-    <n v="3.6285714285714286"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="11"/>
-    <n v="14"/>
-    <n v="0.7857142857142857"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="101.2"/>
-    <n v="14"/>
-    <n v="7.2285714285714286"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="79.5"/>
-    <n v="14"/>
-    <n v="5.6785714285714288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="18.399999999999999"/>
-    <n v="14"/>
-    <n v="1.3142857142857143"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="109"/>
-    <n v="14"/>
-    <n v="7.7857142857142856"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="100.5"/>
-    <n v="14"/>
-    <n v="7.1785714285714288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="20.3"/>
-    <n v="14"/>
-    <n v="1.45"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="112.4"/>
-    <n v="14"/>
-    <n v="8.0285714285714285"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="111.6"/>
-    <n v="14"/>
-    <n v="7.9714285714285706"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="5.2"/>
-    <n v="14"/>
-    <n v="0.37142857142857144"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="54.3"/>
-    <n v="14"/>
-    <n v="3.8785714285714286"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="55.1"/>
-    <n v="14"/>
-    <n v="3.9357142857142859"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="5.9"/>
-    <n v="14"/>
-    <n v="0.42142857142857143"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="103.5"/>
-    <n v="14"/>
-    <n v="7.3928571428571432"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="104.5"/>
-    <n v="14"/>
-    <n v="7.4642857142857144"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.84"/>
-    <n v="11"/>
-    <n v="14"/>
-    <n v="0.7857142857142857"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="111"/>
-    <n v="14"/>
-    <n v="7.9285714285714288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="111.4"/>
-    <n v="14"/>
-    <n v="7.9571428571428573"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="12.3"/>
-    <n v="14"/>
-    <n v="0.87857142857142867"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="124.7"/>
-    <n v="14"/>
-    <n v="8.9071428571428566"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="123.9"/>
-    <n v="14"/>
-    <n v="8.85"/>
+    <n v="21"/>
+    <n v="1.0047619047619047"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="129.4"/>
+    <n v="21"/>
+    <n v="6.1619047619047622"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="122.6"/>
+    <n v="21"/>
+    <n v="5.8380952380952378"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.25"/>
+    <n v="26.2"/>
+    <n v="21"/>
+    <n v="1.2476190476190476"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="150.6"/>
+    <n v="21"/>
+    <n v="7.1714285714285708"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.22"/>
+    <n v="149.9"/>
+    <n v="21"/>
+    <n v="7.1380952380952385"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="29.2"/>
+    <n v="21"/>
+    <n v="1.3904761904761904"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="167.2"/>
+    <n v="21"/>
+    <n v="7.9619047619047612"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="165"/>
+    <n v="21"/>
+    <n v="7.8571428571428568"/>
   </r>
   <r>
     <x v="2"/>
@@ -20749,36 +20413,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="285">
+    <format dxfId="171">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="284">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="283">
+    <format dxfId="169">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="282">
+    <format dxfId="168">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="281">
+    <format dxfId="167">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="280">
+    <format dxfId="166">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="279">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="278">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20788,7 +20452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="277">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20798,7 +20462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="276">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20808,29 +20472,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="275">
+    <format dxfId="161">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="160">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="159">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="272">
+    <format dxfId="158">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="157">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="270">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20840,7 +20504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20850,7 +20514,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="267">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -21164,7 +20828,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="266">
+    <format dxfId="152">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21447,7 +21111,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="265">
+    <format dxfId="151">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21566,7 +21230,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1D42410-11DD-49F8-AAE0-94EA0CBF909A}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1D42410-11DD-49F8-AAE0-94EA0CBF909A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
   <location ref="L2:X25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -21737,26 +21401,26 @@
     <dataField name="Speed Up " fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="264">
+    <format dxfId="150">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="263">
+    <format dxfId="149">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="262">
+    <format dxfId="148">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="261">
+    <format dxfId="147">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="260">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="145">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21770,7 +21434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="144">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21784,7 +21448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21798,26 +21462,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="142">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="141">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="140">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="253">
+    <format dxfId="139">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="252">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="251">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21831,7 +21495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="250">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21845,7 +21509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="249">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21886,25 +21550,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
-  <location ref="L2:P25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
+  <location ref="L2:R25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0" nonAutoSortDefault="1">
-      <items count="6">
+    <pivotField axis="axisCol" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0">
+      <items count="5">
         <item n="Gen" h="1" x="0"/>
         <item h="1" x="1"/>
         <item x="2"/>
         <item h="1" x="4"/>
         <item x="3"/>
-        <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -21927,9 +21590,9 @@
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="5">
         <item n="1 d=1.2" x="0"/>
-        <item n="2 d=5.6" x="1"/>
-        <item n="3 d=10.0" x="2"/>
-        <item n="4 d=14.4" x="3"/>
+        <item n="2 d=6.1" x="1"/>
+        <item n="3 d=12.1" x="2"/>
+        <item n="4 d=17.0" x="3"/>
         <item h="1" x="4"/>
       </items>
     </pivotField>
@@ -22009,10 +21672,14 @@
     <field x="0"/>
     <field x="1"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="6">
     <i>
       <x/>
       <x/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
       <x v="2"/>
     </i>
     <i r="2">
@@ -22023,34 +21690,52 @@
       <x/>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
     <i r="2">
       <x v="4"/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Speed Up" fld="8" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="25">
-    <format dxfId="201">
+  <formats count="27">
+    <format dxfId="134">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="133">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="132">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="131">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="129">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -22064,7 +21749,40 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="127">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="126">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="125">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
+    </format>
+    <format dxfId="124">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
+    </format>
+    <format dxfId="123">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="122">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -22078,7 +21796,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="120">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -22092,83 +21824,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="118">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="117">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="116">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="211">
+    <format dxfId="115">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="212">
+    <format dxfId="114">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="213">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="214">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="215">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="216">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -22178,7 +21849,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -22188,7 +21859,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -22199,12 +21870,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
           <reference field="1" count="0"/>
           <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
             <x v="1"/>
           </reference>
         </references>
@@ -53316,9 +53005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DB23A-8D81-4433-B1C6-7993A3C53A82}">
   <dimension ref="A1:AL297"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53328,12 +53017,12 @@
     <col min="6" max="6" width="11" style="11" customWidth="1"/>
     <col min="7" max="10" width="8.88671875" style="11"/>
     <col min="11" max="11" width="15.77734375" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.109375" style="40" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5546875" style="40" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
@@ -53436,7 +53125,7 @@
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="36" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="M2" s="47" t="s">
         <v>100</v>
@@ -53444,8 +53133,8 @@
       <c r="N2" s="42"/>
       <c r="O2" s="42"/>
       <c r="P2" s="42"/>
-      <c r="Q2"/>
-      <c r="R2"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
@@ -53492,16 +53181,16 @@
       </c>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" s="11">
+      <c r="M3" s="29">
         <v>15</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29">
         <v>26</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3"/>
-      <c r="R3"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -53552,15 +53241,18 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="42"/>
+      <c r="P4" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4"/>
-      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
@@ -53615,17 +53307,21 @@
       <c r="M5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="P5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="Q5" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="Q5"/>
-      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -53681,8 +53377,8 @@
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
-      <c r="Q6"/>
-      <c r="R6"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -53735,15 +53431,19 @@
         <v>1</v>
       </c>
       <c r="M7" s="42">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="N7" s="42">
         <v>1.0914454277286136</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q7" s="42">
         <v>1.0440251572327044</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7"/>
-      <c r="R7"/>
+      <c r="R7" s="42"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -53796,15 +53496,19 @@
         <v>2</v>
       </c>
       <c r="M8" s="42">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="N8" s="42">
         <v>1.5486725663716814</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42">
+      <c r="O8" s="42"/>
+      <c r="P8" s="42">
+        <v>1.5952380952380953</v>
+      </c>
+      <c r="Q8" s="42">
         <v>1.6037735849056602</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8"/>
-      <c r="R8"/>
+      <c r="R8" s="42"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -53857,15 +53561,19 @@
         <v>3</v>
       </c>
       <c r="M9" s="42">
+        <v>1.8055555555555556</v>
+      </c>
+      <c r="N9" s="42">
         <v>1.6991150442477878</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42">
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="Q9" s="42">
         <v>2.1446540880503147</v>
       </c>
-      <c r="P9" s="42"/>
-      <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" s="42"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9"/>
@@ -53918,19 +53626,23 @@
         <v>4</v>
       </c>
       <c r="M10" s="42">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="N10" s="42">
         <v>1.7256637168141593</v>
       </c>
-      <c r="N10" s="42">
+      <c r="O10" s="42">
         <v>4.4247787610619468E-2</v>
       </c>
-      <c r="O10" s="42">
+      <c r="P10" s="42">
+        <v>1.7571428571428571</v>
+      </c>
+      <c r="Q10" s="42">
         <v>2.2578616352201255</v>
       </c>
-      <c r="P10" s="42">
+      <c r="R10" s="42">
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="Q10"/>
-      <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
@@ -53980,14 +53692,14 @@
       </c>
       <c r="K11"/>
       <c r="L11" s="23" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
-      <c r="Q11"/>
-      <c r="R11"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
@@ -54040,15 +53752,19 @@
         <v>1</v>
       </c>
       <c r="M12" s="42">
+        <v>3.7222222222222223</v>
+      </c>
+      <c r="N12" s="42">
         <v>3.9498525073746316</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42">
+      <c r="O12" s="42"/>
+      <c r="P12" s="42">
+        <v>3.6047619047619048</v>
+      </c>
+      <c r="Q12" s="42">
         <v>4.7295597484276728</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12"/>
-      <c r="R12"/>
+      <c r="R12" s="42"/>
       <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
@@ -54101,15 +53817,19 @@
         <v>2</v>
       </c>
       <c r="M13" s="42">
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="N13" s="42">
         <v>4.3893805309734519</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42">
+      <c r="O13" s="42"/>
+      <c r="P13" s="42">
+        <v>6.6857142857142859</v>
+      </c>
+      <c r="Q13" s="42">
         <v>8.0440251572327046</v>
       </c>
-      <c r="P13" s="42"/>
-      <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" s="42"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
@@ -54162,15 +53882,19 @@
         <v>3</v>
       </c>
       <c r="M14" s="42">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="N14" s="42">
         <v>4.1032448377581119</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42">
+      <c r="O14" s="42"/>
+      <c r="P14" s="42">
+        <v>6.9619047619047612</v>
+      </c>
+      <c r="Q14" s="42">
         <v>9.3459119496855347</v>
       </c>
-      <c r="P14" s="42"/>
-      <c r="Q14"/>
-      <c r="R14"/>
+      <c r="R14" s="42"/>
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
@@ -54223,19 +53947,23 @@
         <v>4</v>
       </c>
       <c r="M15" s="42">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="N15" s="42">
         <v>4.3274336283185839</v>
       </c>
-      <c r="N15" s="42">
+      <c r="O15" s="42">
         <v>7.6696165191740412E-2</v>
       </c>
-      <c r="O15" s="42">
+      <c r="P15" s="42">
+        <v>7.1285714285714281</v>
+      </c>
+      <c r="Q15" s="42">
         <v>9.5031446540880502</v>
       </c>
-      <c r="P15" s="42">
+      <c r="R15" s="42">
         <v>5.0314465408805034E-2</v>
       </c>
-      <c r="Q15"/>
-      <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
       <c r="U15"/>
@@ -54285,14 +54013,14 @@
       </c>
       <c r="K16"/>
       <c r="L16" s="23" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
-      <c r="Q16"/>
-      <c r="R16"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
@@ -54345,15 +54073,19 @@
         <v>1</v>
       </c>
       <c r="M17" s="42">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="N17" s="42">
         <v>2.3392330383480826</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42">
+      <c r="O17" s="42"/>
+      <c r="P17" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" s="42">
         <v>3.742138364779874</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" s="42"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -54406,15 +54138,19 @@
         <v>2</v>
       </c>
       <c r="M18" s="42">
+        <v>3.6388888888888888</v>
+      </c>
+      <c r="N18" s="42">
         <v>2.7699115044247788</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42">
+      <c r="O18" s="42"/>
+      <c r="P18" s="42">
+        <v>6.2952380952380951</v>
+      </c>
+      <c r="Q18" s="42">
         <v>6.6352201257861632</v>
       </c>
-      <c r="P18" s="42"/>
-      <c r="Q18"/>
-      <c r="R18"/>
+      <c r="R18" s="42"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -54467,15 +54203,19 @@
         <v>3</v>
       </c>
       <c r="M19" s="42">
+        <v>4.0555555555555554</v>
+      </c>
+      <c r="N19" s="42">
         <v>2.9764011799410031</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42">
+      <c r="O19" s="42"/>
+      <c r="P19" s="42">
+        <v>7.6571428571428575</v>
+      </c>
+      <c r="Q19" s="42">
         <v>7.1635220125786168</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19"/>
-      <c r="R19"/>
+      <c r="R19" s="42"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -54528,19 +54268,23 @@
         <v>4</v>
       </c>
       <c r="M20" s="42">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N20" s="42">
         <v>2.8849557522123894</v>
       </c>
-      <c r="N20" s="42">
+      <c r="O20" s="42">
         <v>0.17699115044247787</v>
       </c>
-      <c r="O20" s="42">
+      <c r="P20" s="42">
+        <v>7.409523809523809</v>
+      </c>
+      <c r="Q20" s="42">
         <v>7.5723270440251573</v>
       </c>
-      <c r="P20" s="42">
+      <c r="R20" s="42">
         <v>0.12641509433962261</v>
       </c>
-      <c r="Q20"/>
-      <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -54590,14 +54334,14 @@
       </c>
       <c r="K21"/>
       <c r="L21" s="23" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
-      <c r="Q21"/>
-      <c r="R21"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -54650,15 +54394,19 @@
         <v>1</v>
       </c>
       <c r="M22" s="42">
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="N22" s="42">
         <v>0.98230088495575218</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42">
+      <c r="O22" s="42"/>
+      <c r="P22" s="42">
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="Q22" s="42">
         <v>1.4968553459119498</v>
       </c>
-      <c r="P22" s="42"/>
-      <c r="Q22"/>
-      <c r="R22"/>
+      <c r="R22" s="42"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -54711,15 +54459,19 @@
         <v>2</v>
       </c>
       <c r="M23" s="42">
+        <v>2.7222222222222223</v>
+      </c>
+      <c r="N23" s="42">
         <v>1.4926253687315636</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42">
+      <c r="O23" s="42"/>
+      <c r="P23" s="42">
+        <v>5.8380952380952378</v>
+      </c>
+      <c r="Q23" s="42">
         <v>2.5786163522012577</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23"/>
-      <c r="R23"/>
+      <c r="R23" s="42"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
@@ -54772,15 +54524,19 @@
         <v>3</v>
       </c>
       <c r="M24" s="42">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="N24" s="42">
         <v>1.5250737463126844</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42">
+      <c r="O24" s="42"/>
+      <c r="P24" s="42">
+        <v>7.1380952380952385</v>
+      </c>
+      <c r="Q24" s="42">
         <v>3.1069182389937104</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24"/>
-      <c r="R24"/>
+      <c r="R24" s="42"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -54833,19 +54589,23 @@
         <v>4</v>
       </c>
       <c r="M25" s="42">
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="N25" s="42">
         <v>1.5309734513274336</v>
       </c>
-      <c r="N25" s="42">
+      <c r="O25" s="42">
         <v>0.17699115044247787</v>
       </c>
-      <c r="O25" s="42">
+      <c r="P25" s="42">
+        <v>7.8571428571428568</v>
+      </c>
+      <c r="Q25" s="42">
         <v>3.4528301886792452</v>
       </c>
-      <c r="P25" s="42">
+      <c r="R25" s="42">
         <v>0.13962264150943396</v>
       </c>
-      <c r="Q25"/>
-      <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -55853,11 +55613,11 @@
         <v>11</v>
       </c>
       <c r="H50" s="11">
-        <v>33.9</v>
+        <v>36</v>
       </c>
       <c r="I50" s="11">
         <f>G50/H50</f>
-        <v>0.32448377581120946</v>
+        <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -60154,56 +59914,56 @@
       <c r="A194" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" t="s">
         <v>33</v>
       </c>
-      <c r="C194" s="29">
+      <c r="C194">
         <v>26</v>
       </c>
-      <c r="D194" s="29">
-        <v>1</v>
-      </c>
-      <c r="E194" s="29">
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
         <v>1</v>
       </c>
       <c r="F194">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="G194">
-        <v>5.2</v>
+        <v>14.1</v>
       </c>
       <c r="H194" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I194" s="11">
         <f>G194/H194</f>
-        <v>0.37142857142857144</v>
+        <v>0.67142857142857137</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" t="s">
         <v>34</v>
       </c>
-      <c r="C195" s="29">
+      <c r="C195">
         <v>26</v>
       </c>
-      <c r="D195" s="29">
-        <v>1</v>
-      </c>
-      <c r="E195" s="29">
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G195">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H195" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I195" s="11">
         <f t="shared" ref="I195:I205" si="13">G195/H195</f>
@@ -60214,1380 +59974,1380 @@
       <c r="A196" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" t="s">
         <v>35</v>
       </c>
-      <c r="C196" s="29">
+      <c r="C196">
         <v>26</v>
       </c>
-      <c r="D196" s="29">
-        <v>1</v>
-      </c>
-      <c r="E196" s="29">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
         <v>1</v>
       </c>
       <c r="F196">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G196">
-        <v>16.399999999999999</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H196" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I196" s="11">
         <f t="shared" si="13"/>
-        <v>1.1714285714285713</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" t="s">
         <v>33</v>
       </c>
-      <c r="C197" s="29">
+      <c r="C197">
         <v>26</v>
       </c>
-      <c r="D197" s="29">
+      <c r="D197">
         <v>2</v>
       </c>
-      <c r="E197" s="29">
+      <c r="E197">
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="G197">
-        <v>9.1999999999999993</v>
+        <v>27.1</v>
       </c>
       <c r="H197" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I197" s="11">
         <f t="shared" si="13"/>
-        <v>0.65714285714285714</v>
+        <v>1.2904761904761906</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" t="s">
         <v>34</v>
       </c>
-      <c r="C198" s="29">
+      <c r="C198">
         <v>26</v>
       </c>
-      <c r="D198" s="29">
+      <c r="D198">
         <v>2</v>
       </c>
-      <c r="E198" s="29">
+      <c r="E198">
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G198">
-        <v>21.1</v>
+        <v>34.4</v>
       </c>
       <c r="H198" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I198" s="11">
         <f t="shared" si="13"/>
-        <v>1.5071428571428573</v>
+        <v>1.638095238095238</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" t="s">
         <v>35</v>
       </c>
-      <c r="C199" s="29">
+      <c r="C199">
         <v>26</v>
       </c>
-      <c r="D199" s="29">
+      <c r="D199">
         <v>2</v>
       </c>
-      <c r="E199" s="29">
+      <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="G199">
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
       <c r="H199" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I199" s="11">
         <f t="shared" si="13"/>
-        <v>2.0357142857142856</v>
+        <v>1.5952380952380953</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" t="s">
         <v>33</v>
       </c>
-      <c r="C200" s="29">
+      <c r="C200">
         <v>26</v>
       </c>
-      <c r="D200" s="29">
-        <v>3</v>
-      </c>
-      <c r="E200" s="29">
+      <c r="D200">
+        <v>3</v>
+      </c>
+      <c r="E200">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G200">
-        <v>10.3</v>
+        <v>23.5</v>
       </c>
       <c r="H200" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I200" s="11">
         <f t="shared" si="13"/>
-        <v>0.73571428571428577</v>
+        <v>1.1190476190476191</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" t="s">
         <v>34</v>
       </c>
-      <c r="C201" s="29">
+      <c r="C201">
         <v>26</v>
       </c>
-      <c r="D201" s="29">
-        <v>3</v>
-      </c>
-      <c r="E201" s="29">
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G201">
-        <v>32.5</v>
+        <v>34.9</v>
       </c>
       <c r="H201" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I201" s="11">
         <f t="shared" si="13"/>
-        <v>2.3214285714285716</v>
+        <v>1.6619047619047618</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" t="s">
         <v>35</v>
       </c>
-      <c r="C202" s="29">
+      <c r="C202">
         <v>26</v>
       </c>
-      <c r="D202" s="29">
-        <v>3</v>
-      </c>
-      <c r="E202" s="29">
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202">
         <v>1</v>
       </c>
       <c r="F202">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G202">
-        <v>34.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="H202" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I202" s="11">
         <f t="shared" si="13"/>
-        <v>2.4428571428571431</v>
+        <v>1.6428571428571428</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" t="s">
         <v>33</v>
       </c>
-      <c r="C203" s="29">
+      <c r="C203">
         <v>26</v>
       </c>
-      <c r="D203" s="29">
+      <c r="D203">
         <v>4</v>
       </c>
-      <c r="E203" s="29">
+      <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="G203">
-        <v>13.3</v>
+        <v>31.4</v>
       </c>
       <c r="H203" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I203" s="11">
         <f t="shared" si="13"/>
-        <v>0.95000000000000007</v>
+        <v>1.4952380952380953</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" t="s">
         <v>34</v>
       </c>
-      <c r="C204" s="29">
+      <c r="C204">
         <v>26</v>
       </c>
-      <c r="D204" s="29">
+      <c r="D204">
         <v>4</v>
       </c>
-      <c r="E204" s="29">
+      <c r="E204">
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="G204">
-        <v>37.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="H204" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I204" s="11">
         <f t="shared" si="13"/>
-        <v>2.6571428571428575</v>
+        <v>1.8047619047619048</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" t="s">
         <v>35</v>
       </c>
-      <c r="C205" s="29">
+      <c r="C205">
         <v>26</v>
       </c>
-      <c r="D205" s="29">
+      <c r="D205">
         <v>4</v>
       </c>
-      <c r="E205" s="29">
+      <c r="E205">
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
       <c r="G205">
-        <v>37.200000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="H205" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I205" s="11">
         <f t="shared" si="13"/>
-        <v>2.6571428571428575</v>
+        <v>1.7571428571428571</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" t="s">
         <v>33</v>
       </c>
-      <c r="C206" s="29">
+      <c r="C206">
         <v>26</v>
       </c>
-      <c r="D206" s="29">
-        <v>1</v>
-      </c>
-      <c r="E206" s="29">
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
         <v>2</v>
       </c>
       <c r="F206">
-        <v>1.88</v>
+        <v>6.2</v>
       </c>
       <c r="G206">
-        <v>19.8</v>
+        <v>45.3</v>
       </c>
       <c r="H206" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I206" s="11">
         <f>G206/H206</f>
-        <v>1.4142857142857144</v>
+        <v>2.157142857142857</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="29">
+      <c r="C207">
         <v>26</v>
       </c>
-      <c r="D207" s="29">
-        <v>1</v>
-      </c>
-      <c r="E207" s="29">
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
         <v>2</v>
       </c>
       <c r="F207">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G207">
-        <v>65.900000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="H207" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I207" s="11">
         <f t="shared" ref="I207:I217" si="14">G207/H207</f>
-        <v>4.7071428571428573</v>
+        <v>3.657142857142857</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" t="s">
         <v>35</v>
       </c>
-      <c r="C208" s="29">
+      <c r="C208">
         <v>26</v>
       </c>
-      <c r="D208" s="29">
-        <v>1</v>
-      </c>
-      <c r="E208" s="29">
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
         <v>2</v>
       </c>
       <c r="F208">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G208">
-        <v>66.2</v>
+        <v>75.7</v>
       </c>
       <c r="H208" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I208" s="11">
         <f t="shared" si="14"/>
-        <v>4.7285714285714286</v>
+        <v>3.6047619047619048</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" t="s">
         <v>33</v>
       </c>
-      <c r="C209" s="29">
+      <c r="C209">
         <v>26</v>
       </c>
-      <c r="D209" s="29">
+      <c r="D209">
         <v>2</v>
       </c>
-      <c r="E209" s="29">
+      <c r="E209">
         <v>2</v>
       </c>
       <c r="F209">
-        <v>1.89</v>
+        <v>6.21</v>
       </c>
       <c r="G209">
-        <v>35.6</v>
+        <v>83.7</v>
       </c>
       <c r="H209" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I209" s="11">
         <f t="shared" si="14"/>
-        <v>2.5428571428571431</v>
+        <v>3.9857142857142858</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" t="s">
         <v>34</v>
       </c>
-      <c r="C210" s="29">
+      <c r="C210">
         <v>26</v>
       </c>
-      <c r="D210" s="29">
+      <c r="D210">
         <v>2</v>
       </c>
-      <c r="E210" s="29">
+      <c r="E210">
         <v>2</v>
       </c>
       <c r="F210">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G210">
-        <v>112.5</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="H210" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I210" s="11">
         <f t="shared" si="14"/>
-        <v>8.0357142857142865</v>
+        <v>6.2047619047619049</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" t="s">
         <v>35</v>
       </c>
-      <c r="C211" s="29">
+      <c r="C211">
         <v>26</v>
       </c>
-      <c r="D211" s="29">
+      <c r="D211">
         <v>2</v>
       </c>
-      <c r="E211" s="29">
+      <c r="E211">
         <v>2</v>
       </c>
       <c r="F211">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G211">
-        <v>127.6</v>
+        <v>140.4</v>
       </c>
       <c r="H211" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I211" s="11">
         <f t="shared" si="14"/>
-        <v>9.1142857142857139</v>
+        <v>6.6857142857142859</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="29">
+      <c r="C212">
         <v>26</v>
       </c>
-      <c r="D212" s="29">
-        <v>3</v>
-      </c>
-      <c r="E212" s="29">
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212">
         <v>2</v>
       </c>
       <c r="F212">
-        <v>1.89</v>
+        <v>6.21</v>
       </c>
       <c r="G212">
-        <v>48.6</v>
+        <v>112.7</v>
       </c>
       <c r="H212" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I212" s="11">
         <f t="shared" si="14"/>
-        <v>3.4714285714285715</v>
+        <v>5.3666666666666671</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" t="s">
         <v>34</v>
       </c>
-      <c r="C213" s="29">
+      <c r="C213">
         <v>26</v>
       </c>
-      <c r="D213" s="29">
-        <v>3</v>
-      </c>
-      <c r="E213" s="29">
+      <c r="D213">
+        <v>3</v>
+      </c>
+      <c r="E213">
         <v>2</v>
       </c>
       <c r="F213">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G213">
-        <v>134.5</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="H213" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I213" s="11">
         <f t="shared" si="14"/>
-        <v>9.6071428571428577</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" t="s">
         <v>35</v>
       </c>
-      <c r="C214" s="29">
+      <c r="C214">
         <v>26</v>
       </c>
-      <c r="D214" s="29">
-        <v>3</v>
-      </c>
-      <c r="E214" s="29">
+      <c r="D214">
+        <v>3</v>
+      </c>
+      <c r="E214">
         <v>2</v>
       </c>
       <c r="F214">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G214">
-        <v>114.5</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="H214" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I214" s="11">
         <f t="shared" si="14"/>
-        <v>8.1785714285714288</v>
+        <v>6.9619047619047612</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" t="s">
         <v>33</v>
       </c>
-      <c r="C215" s="29">
+      <c r="C215">
         <v>26</v>
       </c>
-      <c r="D215" s="29">
+      <c r="D215">
         <v>4</v>
       </c>
-      <c r="E215" s="29">
+      <c r="E215">
         <v>2</v>
       </c>
       <c r="F215">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G215">
-        <v>35.5</v>
+        <v>104.7</v>
       </c>
       <c r="H215" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I215" s="11">
         <f t="shared" si="14"/>
-        <v>2.5357142857142856</v>
+        <v>4.9857142857142858</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" t="s">
         <v>34</v>
       </c>
-      <c r="C216" s="29">
+      <c r="C216">
         <v>26</v>
       </c>
-      <c r="D216" s="29">
+      <c r="D216">
         <v>4</v>
       </c>
-      <c r="E216" s="29">
+      <c r="E216">
         <v>2</v>
       </c>
       <c r="F216">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G216">
-        <v>120.2</v>
+        <v>165.3</v>
       </c>
       <c r="H216" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I216" s="11">
         <f t="shared" si="14"/>
-        <v>8.5857142857142854</v>
+        <v>7.8714285714285719</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" t="s">
         <v>35</v>
       </c>
-      <c r="C217" s="29">
+      <c r="C217">
         <v>26</v>
       </c>
-      <c r="D217" s="29">
+      <c r="D217">
         <v>4</v>
       </c>
-      <c r="E217" s="29">
+      <c r="E217">
         <v>2</v>
       </c>
       <c r="F217">
-        <v>1.89</v>
+        <v>6.2</v>
       </c>
       <c r="G217">
-        <v>150.1</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="H217" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I217" s="11">
         <f t="shared" si="14"/>
-        <v>10.721428571428572</v>
+        <v>7.1285714285714281</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" t="s">
         <v>33</v>
       </c>
-      <c r="C218" s="29">
+      <c r="C218">
         <v>26</v>
       </c>
-      <c r="D218" s="29">
-        <v>1</v>
-      </c>
-      <c r="E218" s="29">
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
         <v>3</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>12.04</v>
       </c>
       <c r="G218">
-        <v>6.2</v>
+        <v>14.6</v>
       </c>
       <c r="H218" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I218" s="11">
         <f>G218/H218</f>
-        <v>0.44285714285714289</v>
+        <v>0.69523809523809521</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" t="s">
         <v>34</v>
       </c>
-      <c r="C219" s="29">
+      <c r="C219">
         <v>26</v>
       </c>
-      <c r="D219" s="29">
-        <v>1</v>
-      </c>
-      <c r="E219" s="29">
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
         <v>3</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G219">
-        <v>46.9</v>
+        <v>67</v>
       </c>
       <c r="H219" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I219" s="11">
         <f t="shared" ref="I219:I229" si="15">G219/H219</f>
-        <v>3.35</v>
+        <v>3.1904761904761907</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" t="s">
         <v>35</v>
       </c>
-      <c r="C220" s="29">
+      <c r="C220">
         <v>26</v>
       </c>
-      <c r="D220" s="29">
-        <v>1</v>
-      </c>
-      <c r="E220" s="29">
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
         <v>3</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>11.94</v>
       </c>
       <c r="G220">
-        <v>50.8</v>
+        <v>73.5</v>
       </c>
       <c r="H220" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I220" s="11">
         <f t="shared" si="15"/>
-        <v>3.6285714285714286</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" t="s">
         <v>33</v>
       </c>
-      <c r="C221" s="29">
+      <c r="C221">
         <v>26</v>
       </c>
-      <c r="D221" s="29">
+      <c r="D221">
         <v>2</v>
       </c>
-      <c r="E221" s="29">
+      <c r="E221">
         <v>3</v>
       </c>
       <c r="F221">
-        <v>3</v>
+        <v>11.95</v>
       </c>
       <c r="G221">
-        <v>11</v>
+        <v>32.5</v>
       </c>
       <c r="H221" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I221" s="11">
         <f t="shared" si="15"/>
-        <v>0.7857142857142857</v>
+        <v>1.5476190476190477</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" t="s">
         <v>34</v>
       </c>
-      <c r="C222" s="29">
+      <c r="C222">
         <v>26</v>
       </c>
-      <c r="D222" s="29">
+      <c r="D222">
         <v>2</v>
       </c>
-      <c r="E222" s="29">
+      <c r="E222">
         <v>3</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G222">
-        <v>101.2</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="H222" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I222" s="11">
         <f t="shared" si="15"/>
-        <v>7.2285714285714286</v>
+        <v>6.2714285714285705</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" t="s">
         <v>35</v>
       </c>
-      <c r="C223" s="29">
+      <c r="C223">
         <v>26</v>
       </c>
-      <c r="D223" s="29">
+      <c r="D223">
         <v>2</v>
       </c>
-      <c r="E223" s="29">
+      <c r="E223">
         <v>3</v>
       </c>
       <c r="F223">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G223">
-        <v>79.5</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="H223" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I223" s="11">
         <f t="shared" si="15"/>
-        <v>5.6785714285714288</v>
+        <v>6.2952380952380951</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" t="s">
         <v>33</v>
       </c>
-      <c r="C224" s="29">
+      <c r="C224">
         <v>26</v>
       </c>
-      <c r="D224" s="29">
-        <v>3</v>
-      </c>
-      <c r="E224" s="29">
+      <c r="D224">
+        <v>3</v>
+      </c>
+      <c r="E224">
         <v>3</v>
       </c>
       <c r="F224">
-        <v>3</v>
+        <v>11.96</v>
       </c>
       <c r="G224">
-        <v>18.399999999999999</v>
+        <v>42.3</v>
       </c>
       <c r="H224" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I224" s="11">
         <f t="shared" si="15"/>
-        <v>1.3142857142857143</v>
+        <v>2.0142857142857142</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" t="s">
         <v>34</v>
       </c>
-      <c r="C225" s="29">
+      <c r="C225">
         <v>26</v>
       </c>
-      <c r="D225" s="29">
-        <v>3</v>
-      </c>
-      <c r="E225" s="29">
+      <c r="D225">
+        <v>3</v>
+      </c>
+      <c r="E225">
         <v>3</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G225">
-        <v>109</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H225" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I225" s="11">
         <f t="shared" si="15"/>
-        <v>7.7857142857142856</v>
+        <v>7.3714285714285719</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" t="s">
         <v>35</v>
       </c>
-      <c r="C226" s="29">
+      <c r="C226">
         <v>26</v>
       </c>
-      <c r="D226" s="29">
-        <v>3</v>
-      </c>
-      <c r="E226" s="29">
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226">
         <v>3</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G226">
-        <v>100.5</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="H226" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I226" s="11">
         <f t="shared" si="15"/>
-        <v>7.1785714285714288</v>
+        <v>7.6571428571428575</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" t="s">
         <v>33</v>
       </c>
-      <c r="C227" s="29">
+      <c r="C227">
         <v>26</v>
       </c>
-      <c r="D227" s="29">
+      <c r="D227">
         <v>4</v>
       </c>
-      <c r="E227" s="29">
+      <c r="E227">
         <v>3</v>
       </c>
       <c r="F227">
-        <v>3</v>
+        <v>11.96</v>
       </c>
       <c r="G227">
-        <v>20.3</v>
+        <v>47.6</v>
       </c>
       <c r="H227" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I227" s="11">
         <f t="shared" si="15"/>
-        <v>1.45</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" t="s">
         <v>34</v>
       </c>
-      <c r="C228" s="29">
+      <c r="C228">
         <v>26</v>
       </c>
-      <c r="D228" s="29">
+      <c r="D228">
         <v>4</v>
       </c>
-      <c r="E228" s="29">
+      <c r="E228">
         <v>3</v>
       </c>
       <c r="F228">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G228">
-        <v>112.4</v>
+        <v>168.1</v>
       </c>
       <c r="H228" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I228" s="11">
         <f t="shared" si="15"/>
-        <v>8.0285714285714285</v>
+        <v>8.0047619047619047</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" t="s">
         <v>35</v>
       </c>
-      <c r="C229" s="29">
+      <c r="C229">
         <v>26</v>
       </c>
-      <c r="D229" s="29">
+      <c r="D229">
         <v>4</v>
       </c>
-      <c r="E229" s="29">
+      <c r="E229">
         <v>3</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>11.93</v>
       </c>
       <c r="G229">
-        <v>111.6</v>
+        <v>155.6</v>
       </c>
       <c r="H229" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I229" s="11">
         <f t="shared" si="15"/>
-        <v>7.9714285714285706</v>
+        <v>7.409523809523809</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" t="s">
         <v>33</v>
       </c>
-      <c r="C230" s="29">
+      <c r="C230">
         <v>26</v>
       </c>
-      <c r="D230" s="29">
-        <v>1</v>
-      </c>
-      <c r="E230" s="29">
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
         <v>4</v>
       </c>
       <c r="F230">
-        <v>3.86</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="G230">
-        <v>5.2</v>
+        <v>10.6</v>
       </c>
       <c r="H230" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I230" s="11">
         <f>G230/H230</f>
-        <v>0.37142857142857144</v>
+        <v>0.50476190476190474</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" t="s">
         <v>34</v>
       </c>
-      <c r="C231" s="29">
+      <c r="C231">
         <v>26</v>
       </c>
-      <c r="D231" s="29">
-        <v>1</v>
-      </c>
-      <c r="E231" s="29">
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
         <v>4</v>
       </c>
       <c r="F231">
-        <v>3.86</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G231">
-        <v>54.3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H231" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I231" s="11">
         <f t="shared" ref="I231:I293" si="16">G231/H231</f>
-        <v>3.8785714285714286</v>
+        <v>3.3380952380952378</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" t="s">
         <v>35</v>
       </c>
-      <c r="C232" s="29">
+      <c r="C232">
         <v>26</v>
       </c>
-      <c r="D232" s="29">
-        <v>1</v>
-      </c>
-      <c r="E232" s="29">
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
         <v>4</v>
       </c>
       <c r="F232">
-        <v>3.85</v>
+        <v>18.23</v>
       </c>
       <c r="G232">
-        <v>55.1</v>
+        <v>69</v>
       </c>
       <c r="H232" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I232" s="11">
         <f t="shared" si="16"/>
-        <v>3.9357142857142859</v>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" t="s">
         <v>33</v>
       </c>
-      <c r="C233" s="29">
+      <c r="C233">
         <v>26</v>
       </c>
-      <c r="D233" s="29">
+      <c r="D233">
         <v>2</v>
       </c>
-      <c r="E233" s="29">
+      <c r="E233">
         <v>4</v>
       </c>
       <c r="F233">
-        <v>3.85</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="G233">
-        <v>5.9</v>
+        <v>21.1</v>
       </c>
       <c r="H233" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I233" s="11">
         <f t="shared" si="16"/>
-        <v>0.42142857142857143</v>
+        <v>1.0047619047619047</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" t="s">
         <v>34</v>
       </c>
-      <c r="C234" s="29">
+      <c r="C234">
         <v>26</v>
       </c>
-      <c r="D234" s="29">
+      <c r="D234">
         <v>2</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234">
         <v>4</v>
       </c>
       <c r="F234">
-        <v>3.86</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G234">
-        <v>103.5</v>
+        <v>129.4</v>
       </c>
       <c r="H234" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I234" s="11">
         <f t="shared" si="16"/>
-        <v>7.3928571428571432</v>
+        <v>6.1619047619047622</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" t="s">
         <v>35</v>
       </c>
-      <c r="C235" s="29">
+      <c r="C235">
         <v>26</v>
       </c>
-      <c r="D235" s="29">
+      <c r="D235">
         <v>2</v>
       </c>
-      <c r="E235" s="29">
+      <c r="E235">
         <v>4</v>
       </c>
       <c r="F235">
-        <v>3.86</v>
+        <v>18.23</v>
       </c>
       <c r="G235">
-        <v>104.5</v>
+        <v>122.6</v>
       </c>
       <c r="H235" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I235" s="11">
         <f t="shared" si="16"/>
-        <v>7.4642857142857144</v>
+        <v>5.8380952380952378</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" t="s">
         <v>33</v>
       </c>
-      <c r="C236" s="29">
+      <c r="C236">
         <v>26</v>
       </c>
-      <c r="D236" s="29">
-        <v>3</v>
-      </c>
-      <c r="E236" s="29">
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
         <v>4</v>
       </c>
       <c r="F236">
-        <v>3.84</v>
+        <v>18.25</v>
       </c>
       <c r="G236">
-        <v>11</v>
+        <v>26.2</v>
       </c>
       <c r="H236" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I236" s="11">
         <f t="shared" si="16"/>
-        <v>0.7857142857142857</v>
+        <v>1.2476190476190476</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B237" s="11" t="s">
+      <c r="B237" t="s">
         <v>34</v>
       </c>
-      <c r="C237" s="29">
+      <c r="C237">
         <v>26</v>
       </c>
-      <c r="D237" s="29">
-        <v>3</v>
-      </c>
-      <c r="E237" s="29">
+      <c r="D237">
+        <v>3</v>
+      </c>
+      <c r="E237">
         <v>4</v>
       </c>
       <c r="F237">
-        <v>3.86</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G237">
-        <v>111</v>
+        <v>150.6</v>
       </c>
       <c r="H237" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I237" s="11">
         <f t="shared" si="16"/>
-        <v>7.9285714285714288</v>
+        <v>7.1714285714285708</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" t="s">
         <v>35</v>
       </c>
-      <c r="C238" s="29">
+      <c r="C238">
         <v>26</v>
       </c>
-      <c r="D238" s="29">
-        <v>3</v>
-      </c>
-      <c r="E238" s="29">
+      <c r="D238">
+        <v>3</v>
+      </c>
+      <c r="E238">
         <v>4</v>
       </c>
       <c r="F238">
-        <v>3.86</v>
+        <v>18.22</v>
       </c>
       <c r="G238">
-        <v>111.4</v>
+        <v>149.9</v>
       </c>
       <c r="H238" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I238" s="11">
         <f t="shared" si="16"/>
-        <v>7.9571428571428573</v>
+        <v>7.1380952380952385</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" t="s">
         <v>33</v>
       </c>
-      <c r="C239" s="29">
+      <c r="C239">
         <v>26</v>
       </c>
-      <c r="D239" s="29">
+      <c r="D239">
         <v>4</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239">
         <v>4</v>
       </c>
       <c r="F239">
-        <v>3.86</v>
+        <v>18.23</v>
       </c>
       <c r="G239">
-        <v>12.3</v>
+        <v>29.2</v>
       </c>
       <c r="H239" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I239" s="11">
         <f t="shared" si="16"/>
-        <v>0.87857142857142867</v>
+        <v>1.3904761904761904</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" t="s">
         <v>34</v>
       </c>
-      <c r="C240" s="29">
+      <c r="C240">
         <v>26</v>
       </c>
-      <c r="D240" s="29">
+      <c r="D240">
         <v>4</v>
       </c>
-      <c r="E240" s="29">
+      <c r="E240">
         <v>4</v>
       </c>
       <c r="F240">
-        <v>3.86</v>
+        <v>18.23</v>
       </c>
       <c r="G240">
-        <v>124.7</v>
+        <v>167.2</v>
       </c>
       <c r="H240" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I240" s="11">
         <f t="shared" si="16"/>
-        <v>8.9071428571428566</v>
+        <v>7.9619047619047612</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" t="s">
         <v>35</v>
       </c>
-      <c r="C241" s="29">
+      <c r="C241">
         <v>26</v>
       </c>
-      <c r="D241" s="29">
+      <c r="D241">
         <v>4</v>
       </c>
-      <c r="E241" s="29">
+      <c r="E241">
         <v>4</v>
       </c>
       <c r="F241">
-        <v>3.86</v>
+        <v>18.23</v>
       </c>
       <c r="G241">
-        <v>123.9</v>
+        <v>165</v>
       </c>
       <c r="H241" s="11">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I241" s="11">
         <f t="shared" si="16"/>
-        <v>8.85</v>
+        <v>7.8571428571428568</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -63272,7 +63032,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="M6:P25">
+  <conditionalFormatting pivot="1" sqref="M6:R25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9F9E0C-2CF3-426A-A752-03ACF83C5B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC58BF-FB15-43E2-A233-BE60EC824D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6936" yWindow="624" windowWidth="20268" windowHeight="18888" firstSheet="5" activeTab="7" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <pivotCache cacheId="1" r:id="rId10"/>
     <pivotCache cacheId="2" r:id="rId11"/>
     <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="25" r:id="rId13"/>
+    <pivotCache cacheId="32" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -737,331 +737,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -8030,7 +7706,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43984.75993310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="297" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43984.792755208335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="297" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Fusion (4)"/>
   </cacheSource>
@@ -8085,10 +7761,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.6" maxValue="194"/>
     </cacheField>
     <cacheField name="Base" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.4" maxValue="41.4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="12.7" maxValue="41.4"/>
     </cacheField>
     <cacheField name="Speed Up" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.7735849056603772E-2" maxValue="15.342105263157896"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.7735849056603772E-2" maxValue="12.322834645669293"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -19716,20 +19392,20 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1.95"/>
-    <n v="3.8"/>
-    <n v="14"/>
-    <n v="0.27142857142857141"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="11.4"/>
-    <n v="11.4"/>
+    <n v="1.18"/>
+    <n v="9.5"/>
+    <n v="12.7"/>
+    <n v="0.74803149606299213"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="12.7"/>
+    <n v="12.7"/>
     <n v="1"/>
   </r>
   <r>
@@ -19738,505 +19414,505 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1.95"/>
-    <n v="11.2"/>
-    <n v="11.4"/>
-    <n v="0.98245614035087714"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="6.9"/>
-    <n v="11.4"/>
-    <n v="0.60526315789473684"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="21.7"/>
-    <n v="11.4"/>
-    <n v="1.9035087719298245"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="21.9"/>
-    <n v="11.4"/>
-    <n v="1.9210526315789471"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="9.6"/>
-    <n v="11.4"/>
-    <n v="0.84210526315789469"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="30.9"/>
-    <n v="11.4"/>
-    <n v="2.7105263157894735"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="30.6"/>
-    <n v="11.4"/>
-    <n v="2.6842105263157894"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="12.4"/>
-    <n v="11.4"/>
-    <n v="1.0877192982456141"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
+    <n v="1.18"/>
+    <n v="12.7"/>
+    <n v="12.7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="16.7"/>
+    <n v="12.7"/>
+    <n v="1.3149606299212599"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="22.7"/>
+    <n v="12.7"/>
+    <n v="1.7874015748031495"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="22.4"/>
+    <n v="12.7"/>
+    <n v="1.7637795275590551"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="24.3"/>
+    <n v="12.7"/>
+    <n v="1.9133858267716537"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="31.5"/>
+    <n v="12.7"/>
+    <n v="2.4803149606299213"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="31.3"/>
+    <n v="12.7"/>
+    <n v="2.4645669291338583"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.19"/>
+    <n v="29.4"/>
+    <n v="12.7"/>
+    <n v="2.3149606299212597"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="40.9"/>
+    <n v="12.7"/>
+    <n v="3.2204724409448819"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.18"/>
     <n v="39.799999999999997"/>
-    <n v="11.4"/>
-    <n v="3.4912280701754383"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="1.95"/>
-    <n v="38.9"/>
-    <n v="11.4"/>
-    <n v="3.4122807017543857"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.9"/>
-    <n v="13.4"/>
-    <n v="11.4"/>
-    <n v="1.1754385964912282"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="49.2"/>
-    <n v="11.4"/>
-    <n v="4.3157894736842106"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="49"/>
-    <n v="11.4"/>
-    <n v="4.2982456140350873"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="25.9"/>
-    <n v="11.4"/>
-    <n v="2.2719298245614032"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="95.8"/>
-    <n v="11.4"/>
-    <n v="8.4035087719298236"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="94.1"/>
-    <n v="11.4"/>
-    <n v="8.2543859649122808"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.88"/>
-    <n v="35.299999999999997"/>
-    <n v="11.4"/>
-    <n v="3.0964912280701751"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="136.69999999999999"/>
-    <n v="11.4"/>
-    <n v="11.991228070175437"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="134"/>
-    <n v="11.4"/>
-    <n v="11.754385964912281"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="46.4"/>
-    <n v="11.4"/>
-    <n v="4.0701754385964906"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="174.9"/>
-    <n v="11.4"/>
-    <n v="15.342105263157896"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="1.89"/>
-    <n v="173.2"/>
-    <n v="11.4"/>
-    <n v="15.192982456140349"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="5.3"/>
-    <n v="11.4"/>
-    <n v="0.46491228070175433"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="38"/>
-    <n v="11.4"/>
-    <n v="3.333333333333333"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="37.700000000000003"/>
-    <n v="11.4"/>
-    <n v="3.3070175438596494"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="10"/>
-    <n v="11.4"/>
-    <n v="0.8771929824561403"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="72.2"/>
-    <n v="11.4"/>
-    <n v="6.333333333333333"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="68.7"/>
-    <n v="11.4"/>
-    <n v="6.0263157894736841"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="14.5"/>
-    <n v="11.4"/>
-    <n v="1.2719298245614035"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="104.9"/>
-    <n v="11.4"/>
-    <n v="9.2017543859649127"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="101.6"/>
-    <n v="11.4"/>
-    <n v="8.9122807017543852"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="18.8"/>
-    <n v="11.4"/>
-    <n v="1.6491228070175439"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="134.6"/>
-    <n v="11.4"/>
-    <n v="11.807017543859649"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="3"/>
-    <n v="130.69999999999999"/>
-    <n v="11.4"/>
-    <n v="11.464912280701753"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.78"/>
-    <n v="3.8"/>
-    <n v="11.4"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="37"/>
-    <n v="11.4"/>
-    <n v="3.2456140350877192"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="37.200000000000003"/>
-    <n v="11.4"/>
-    <n v="3.263157894736842"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="7"/>
-    <n v="11.4"/>
-    <n v="0.61403508771929827"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="72.3"/>
-    <n v="11.4"/>
-    <n v="6.3421052631578947"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="71.5"/>
-    <n v="11.4"/>
-    <n v="6.2719298245614032"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.84"/>
-    <n v="10.4"/>
-    <n v="11.4"/>
-    <n v="0.91228070175438591"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.85"/>
-    <n v="108.2"/>
-    <n v="11.4"/>
-    <n v="9.4912280701754383"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="106.6"/>
-    <n v="11.4"/>
-    <n v="9.3508771929824555"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.83"/>
-    <n v="13.5"/>
-    <n v="11.4"/>
-    <n v="1.1842105263157894"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="141.6"/>
-    <n v="11.4"/>
-    <n v="12.421052631578947"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="3.86"/>
-    <n v="139.4"/>
-    <n v="11.4"/>
-    <n v="12.228070175438596"/>
+    <n v="12.7"/>
+    <n v="3.1338582677165352"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.21"/>
+    <n v="28.8"/>
+    <n v="12.7"/>
+    <n v="2.2677165354330708"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="56.7"/>
+    <n v="12.7"/>
+    <n v="4.4645669291338583"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="55.1"/>
+    <n v="12.7"/>
+    <n v="4.3385826771653546"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="56.1"/>
+    <n v="12.7"/>
+    <n v="4.4173228346456694"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="106"/>
+    <n v="12.7"/>
+    <n v="8.346456692913387"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="104.8"/>
+    <n v="12.7"/>
+    <n v="8.2519685039370074"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="81.8"/>
+    <n v="12.7"/>
+    <n v="6.4409448818897639"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="151"/>
+    <n v="12.7"/>
+    <n v="11.889763779527559"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="152"/>
+    <n v="12.7"/>
+    <n v="11.968503937007874"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="69.8"/>
+    <n v="12.7"/>
+    <n v="5.4960629921259843"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="146.4"/>
+    <n v="12.7"/>
+    <n v="11.527559055118111"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="143"/>
+    <n v="12.7"/>
+    <n v="11.259842519685041"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12.03"/>
+    <n v="9.3000000000000007"/>
+    <n v="12.7"/>
+    <n v="0.73228346456692928"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.94"/>
+    <n v="41.8"/>
+    <n v="12.7"/>
+    <n v="3.2913385826771653"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="41.4"/>
+    <n v="12.7"/>
+    <n v="3.2598425196850394"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.98"/>
+    <n v="18.899999999999999"/>
+    <n v="12.7"/>
+    <n v="1.4881889763779528"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="81.8"/>
+    <n v="12.7"/>
+    <n v="6.4409448818897639"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.94"/>
+    <n v="80.7"/>
+    <n v="12.7"/>
+    <n v="6.3543307086614176"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.94"/>
+    <n v="27.9"/>
+    <n v="12.7"/>
+    <n v="2.1968503937007875"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.94"/>
+    <n v="120.3"/>
+    <n v="12.7"/>
+    <n v="9.4724409448818907"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="119.1"/>
+    <n v="12.7"/>
+    <n v="9.3779527559055111"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="35.799999999999997"/>
+    <n v="12.7"/>
+    <n v="2.8188976377952755"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="155.30000000000001"/>
+    <n v="12.7"/>
+    <n v="12.228346456692915"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="153.69999999999999"/>
+    <n v="12.7"/>
+    <n v="12.102362204724409"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.12"/>
+    <n v="6.6"/>
+    <n v="12.7"/>
+    <n v="0.51968503937007871"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.260000000000002"/>
+    <n v="42.8"/>
+    <n v="12.7"/>
+    <n v="3.3700787401574801"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="42"/>
+    <n v="12.7"/>
+    <n v="3.3070866141732287"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.21"/>
+    <n v="12.5"/>
+    <n v="12.7"/>
+    <n v="0.98425196850393704"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.260000000000002"/>
+    <n v="81.599999999999994"/>
+    <n v="12.7"/>
+    <n v="6.4251968503937009"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.25"/>
+    <n v="81.3"/>
+    <n v="12.7"/>
+    <n v="6.4015748031496065"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.02"/>
+    <n v="19.2"/>
+    <n v="12.7"/>
+    <n v="1.5118110236220472"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="118.2"/>
+    <n v="12.7"/>
+    <n v="9.3070866141732296"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.239999999999998"/>
+    <n v="119.4"/>
+    <n v="12.7"/>
+    <n v="9.4015748031496074"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.27"/>
+    <n v="24.9"/>
+    <n v="12.7"/>
+    <n v="1.9606299212598426"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="156.5"/>
+    <n v="12.7"/>
+    <n v="12.322834645669293"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="155.69999999999999"/>
+    <n v="12.7"/>
+    <n v="12.259842519685039"/>
   </r>
   <r>
     <x v="0"/>
@@ -20503,36 +20179,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="198">
+    <format dxfId="90">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="196">
+    <format dxfId="88">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="87">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="86">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="85">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="191">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20542,7 +20218,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="190">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20552,7 +20228,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="189">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20562,29 +20238,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="188">
+    <format dxfId="80">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="79">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="78">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="77">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="76">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20594,7 +20270,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20604,7 +20280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="180">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20918,7 +20594,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="179">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21201,7 +20877,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="178">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21491,26 +21167,26 @@
     <dataField name="Speed Up " fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="177">
+    <format dxfId="69">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="68">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="67">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="66">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="172">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21524,7 +21200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21538,7 +21214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="170">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21552,26 +21228,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="169">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="60">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="59">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="58">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="164">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21585,7 +21261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21599,7 +21275,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="162">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21640,7 +21316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
   <location ref="L2:Z25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -21818,26 +21494,26 @@
     <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="54">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="28">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="29">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="30">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21851,7 +21527,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21865,7 +21541,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21879,26 +21555,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21912,7 +21588,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21926,7 +21602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21940,22 +21616,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="44">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="45">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="46">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="47">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -21965,7 +21641,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -21975,7 +21651,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -21986,7 +21662,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -21997,7 +21673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -22006,7 +21682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -53121,9 +52797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DB23A-8D81-4433-B1C6-7993A3C53A82}">
   <dimension ref="A1:AL297"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H242" sqref="H242:H289"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53586,7 +53262,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="42">
-        <v>0.98245614035087714</v>
+        <v>1</v>
       </c>
       <c r="X7" s="42">
         <v>1</v>
@@ -53663,10 +53339,10 @@
         <v>1.5952380952380953</v>
       </c>
       <c r="V8" s="42">
-        <v>1.9035087719298245</v>
+        <v>1.7874015748031495</v>
       </c>
       <c r="W8" s="42">
-        <v>1.9210526315789471</v>
+        <v>1.7637795275590551</v>
       </c>
       <c r="X8" s="42">
         <v>1.7924528301886793</v>
@@ -53743,10 +53419,10 @@
         <v>1.6428571428571428</v>
       </c>
       <c r="V9" s="42">
-        <v>2.7105263157894735</v>
+        <v>2.4803149606299213</v>
       </c>
       <c r="W9" s="42">
-        <v>2.6842105263157894</v>
+        <v>2.4645669291338583</v>
       </c>
       <c r="X9" s="42">
         <v>2.0691823899371067</v>
@@ -53825,10 +53501,10 @@
         <v>1.7571428571428571</v>
       </c>
       <c r="V10" s="42">
-        <v>3.4912280701754383</v>
+        <v>3.2204724409448819</v>
       </c>
       <c r="W10" s="42">
-        <v>3.4122807017543857</v>
+        <v>3.1338582677165352</v>
       </c>
       <c r="X10" s="42">
         <v>2.1257861635220126</v>
@@ -53960,10 +53636,10 @@
         <v>3.6047619047619048</v>
       </c>
       <c r="V12" s="42">
-        <v>4.3157894736842106</v>
+        <v>4.4645669291338583</v>
       </c>
       <c r="W12" s="42">
-        <v>4.2982456140350873</v>
+        <v>4.3385826771653546</v>
       </c>
       <c r="X12" s="42">
         <v>4.5471698113207548</v>
@@ -54040,10 +53716,10 @@
         <v>6.6857142857142859</v>
       </c>
       <c r="V13" s="42">
-        <v>8.4035087719298236</v>
+        <v>8.346456692913387</v>
       </c>
       <c r="W13" s="42">
-        <v>8.2543859649122808</v>
+        <v>8.2519685039370074</v>
       </c>
       <c r="X13" s="42">
         <v>7.8993710691823891</v>
@@ -54120,10 +53796,10 @@
         <v>6.9619047619047612</v>
       </c>
       <c r="V14" s="42">
-        <v>11.991228070175437</v>
+        <v>11.889763779527559</v>
       </c>
       <c r="W14" s="42">
-        <v>11.754385964912281</v>
+        <v>11.968503937007874</v>
       </c>
       <c r="X14" s="42">
         <v>8.9119496855345908</v>
@@ -54202,10 +53878,10 @@
         <v>7.1285714285714281</v>
       </c>
       <c r="V15" s="42">
-        <v>15.342105263157896</v>
+        <v>11.527559055118111</v>
       </c>
       <c r="W15" s="42">
-        <v>15.192982456140349</v>
+        <v>11.259842519685041</v>
       </c>
       <c r="X15" s="42">
         <v>9.1823899371069189</v>
@@ -54337,10 +54013,10 @@
         <v>3.5</v>
       </c>
       <c r="V17" s="42">
-        <v>3.333333333333333</v>
+        <v>3.2913385826771653</v>
       </c>
       <c r="W17" s="42">
-        <v>3.3070175438596494</v>
+        <v>3.2598425196850394</v>
       </c>
       <c r="X17" s="42">
         <v>2.6603773584905657</v>
@@ -54417,10 +54093,10 @@
         <v>6.2952380952380951</v>
       </c>
       <c r="V18" s="42">
-        <v>6.333333333333333</v>
+        <v>6.4409448818897639</v>
       </c>
       <c r="W18" s="42">
-        <v>6.0263157894736841</v>
+        <v>6.3543307086614176</v>
       </c>
       <c r="X18" s="42">
         <v>4.867924528301887</v>
@@ -54497,10 +54173,10 @@
         <v>7.6571428571428575</v>
       </c>
       <c r="V19" s="42">
-        <v>9.2017543859649127</v>
+        <v>9.4724409448818907</v>
       </c>
       <c r="W19" s="42">
-        <v>8.9122807017543852</v>
+        <v>9.3779527559055111</v>
       </c>
       <c r="X19" s="42">
         <v>4.7924528301886795</v>
@@ -54579,10 +54255,10 @@
         <v>7.409523809523809</v>
       </c>
       <c r="V20" s="42">
-        <v>11.807017543859649</v>
+        <v>12.228346456692915</v>
       </c>
       <c r="W20" s="42">
-        <v>11.464912280701753</v>
+        <v>12.102362204724409</v>
       </c>
       <c r="X20" s="42">
         <v>5.2955974842767297</v>
@@ -54714,10 +54390,10 @@
         <v>3.2857142857142856</v>
       </c>
       <c r="V22" s="42">
-        <v>3.2456140350877192</v>
+        <v>3.3700787401574801</v>
       </c>
       <c r="W22" s="42">
-        <v>3.263157894736842</v>
+        <v>3.3070866141732287</v>
       </c>
       <c r="X22" s="42">
         <v>1.3018867924528301</v>
@@ -54794,10 +54470,10 @@
         <v>5.8380952380952378</v>
       </c>
       <c r="V23" s="42">
-        <v>6.3421052631578947</v>
+        <v>6.4251968503937009</v>
       </c>
       <c r="W23" s="42">
-        <v>6.2719298245614032</v>
+        <v>6.4015748031496065</v>
       </c>
       <c r="X23" s="42">
         <v>2.283018867924528</v>
@@ -54874,10 +54550,10 @@
         <v>7.1380952380952385</v>
       </c>
       <c r="V24" s="42">
-        <v>9.4912280701754383</v>
+        <v>9.3070866141732296</v>
       </c>
       <c r="W24" s="42">
-        <v>9.3508771929824555</v>
+        <v>9.4015748031496074</v>
       </c>
       <c r="X24" s="42">
         <v>2.7044025157232703</v>
@@ -54956,10 +54632,10 @@
         <v>7.8571428571428568</v>
       </c>
       <c r="V25" s="42">
-        <v>12.421052631578947</v>
+        <v>12.322834645669293</v>
       </c>
       <c r="W25" s="42">
-        <v>12.228070175438596</v>
+        <v>12.259842519685039</v>
       </c>
       <c r="X25" s="42">
         <v>3.1069182389937104</v>

--- a/src/Simulation/Native/stats.xlsx
+++ b/src/Simulation/Native/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\depot\Git\qsharp-runtime\src\Simulation\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC58BF-FB15-43E2-A233-BE60EC824D6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B558991C-91FB-46AA-9741-383ED3C4983D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="624" windowWidth="20268" windowHeight="18888" firstSheet="5" activeTab="7" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
+    <workbookView xWindow="9360" yWindow="624" windowWidth="20268" windowHeight="18888" firstSheet="5" activeTab="7" xr2:uid="{5FEEEFE3-C5E9-4691-A26D-4009EEFDD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <pivotCache cacheId="1" r:id="rId10"/>
     <pivotCache cacheId="2" r:id="rId11"/>
     <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="32" r:id="rId13"/>
+    <pivotCache cacheId="18" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="131">
   <si>
     <t>Time (s)</t>
   </si>
@@ -498,6 +498,9 @@
   <si>
     <t>30.4K</t>
   </si>
+  <si>
+    <t>AVX512</t>
+  </si>
 </sst>
 </file>
 
@@ -737,7 +740,331 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="199">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -7706,7 +8033,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43984.792755208335" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="297" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dave Wecker" refreshedDate="43997.470021412038" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="330" xr:uid="{B4252D37-54C4-4ED0-BA45-001F17D93652}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="Fusion (4)"/>
   </cacheSource>
@@ -7720,11 +8047,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Simulator" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="Generic"/>
         <s v="AVX"/>
         <s v="AVX2"/>
         <s v="Liquid"/>
+        <s v="AVX512"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -16745,7 +17073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="297">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="330">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -20003,8 +20331,371 @@
     <n v="0.13962264150943396"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="0"/>
     <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.1599999999999999"/>
+    <n v="33.1"/>
+    <n v="33.1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.1599999999999999"/>
+    <n v="54.1"/>
+    <n v="33.1"/>
+    <n v="1.6344410876132931"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.1599999999999999"/>
+    <n v="62.4"/>
+    <n v="33.1"/>
+    <n v="1.8851963746223563"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.1599999999999999"/>
+    <n v="48.7"/>
+    <n v="33.1"/>
+    <n v="1.4712990936555892"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.07"/>
+    <n v="122.8"/>
+    <n v="33.1"/>
+    <n v="3.7099697885196372"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.07"/>
+    <n v="169.7"/>
+    <n v="33.1"/>
+    <n v="5.1268882175226578"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.07"/>
+    <n v="183.3"/>
+    <n v="33.1"/>
+    <n v="5.5377643504531724"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.07"/>
+    <n v="167.3"/>
+    <n v="33.1"/>
+    <n v="5.0543806646525677"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12.14"/>
+    <n v="99.5"/>
+    <n v="33.1"/>
+    <n v="3.0060422960725073"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12.14"/>
+    <n v="135.19999999999999"/>
+    <n v="33.1"/>
+    <n v="4.0845921450151055"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12.14"/>
+    <n v="138.9"/>
+    <n v="33.1"/>
+    <n v="4.1963746223564957"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="12.14"/>
+    <n v="124"/>
+    <n v="33.1"/>
+    <n v="3.7462235649546827"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="60.6"/>
+    <n v="33.1"/>
+    <n v="1.8308157099697884"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="91.4"/>
+    <n v="33.1"/>
+    <n v="2.7613293051359515"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="93.1"/>
+    <n v="33.1"/>
+    <n v="2.8126888217522654"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="86.5"/>
+    <n v="33.1"/>
+    <n v="2.6132930513595163"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.1599999999999999"/>
+    <n v="15.6"/>
+    <n v="15.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="15.6"/>
+    <n v="15.6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="25.8"/>
+    <n v="15.6"/>
+    <n v="1.653846153846154"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="32"/>
+    <n v="15.6"/>
+    <n v="2.0512820512820515"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.18"/>
+    <n v="34.9"/>
+    <n v="15.6"/>
+    <n v="2.2371794871794872"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="69.7"/>
+    <n v="15.6"/>
+    <n v="4.4679487179487181"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="125.3"/>
+    <n v="15.6"/>
+    <n v="8.0320512820512828"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="144.9"/>
+    <n v="15.6"/>
+    <n v="9.2884615384615383"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.2"/>
+    <n v="147.9"/>
+    <n v="15.6"/>
+    <n v="9.4807692307692317"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.95"/>
+    <n v="72.599999999999994"/>
+    <n v="15.6"/>
+    <n v="4.6538461538461533"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="132.80000000000001"/>
+    <n v="15.6"/>
+    <n v="8.5128205128205146"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="146.80000000000001"/>
+    <n v="15.6"/>
+    <n v="9.4102564102564106"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11.93"/>
+    <n v="145"/>
+    <n v="15.6"/>
+    <n v="9.2948717948717956"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="18.27"/>
+    <n v="48.9"/>
+    <n v="15.6"/>
+    <n v="3.1346153846153846"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="18.22"/>
+    <n v="85.3"/>
+    <n v="15.6"/>
+    <n v="5.4679487179487181"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="18.23"/>
+    <n v="98.5"/>
+    <n v="15.6"/>
+    <n v="6.3141025641025639"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18.25"/>
+    <n v="98.5"/>
+    <n v="15.6"/>
+    <n v="6.3141025641025639"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="4"/>
     <x v="4"/>
@@ -20179,36 +20870,36 @@
     <dataField name="kGpS " fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="90">
+    <format dxfId="198">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="196">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="195">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="194">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="193">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="192">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="191">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20218,7 +20909,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="190">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20228,7 +20919,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20238,29 +20929,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="188">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="187">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="186">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="185">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="184">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20270,7 +20961,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="181">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20280,7 +20971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="180">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -20594,7 +21285,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="71">
+    <format dxfId="179">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20877,7 +21568,7 @@
     <dataField name="Speed Up " fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="70">
+    <format dxfId="178">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21167,26 +21858,26 @@
     <dataField name="Speed Up " fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="69">
+    <format dxfId="177">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="176">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="175">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="174">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="173">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="172">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21200,7 +21891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="171">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21214,7 +21905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="170">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21228,26 +21919,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="169">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="168">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="167">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="166">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21261,7 +21952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21275,7 +21966,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="162">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21316,8 +22007,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
-  <location ref="L2:Z25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{872FE7F9-99AF-4A71-AE57-226758E0BB48}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Width, Thrds" colHeaderCaption="Qs">
+  <location ref="L2:AB25" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="4">
@@ -21328,12 +22019,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0">
-      <items count="5">
-        <item n="Gen" h="1" x="0"/>
+      <items count="6">
         <item x="1"/>
         <item x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item x="3"/>
+        <item n="Gen" h="1" x="0"/>
+        <item h="1" x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -21438,82 +22130,88 @@
     <field x="0"/>
     <field x="1"/>
   </colFields>
-  <colItems count="14">
+  <colItems count="16">
     <i>
       <x/>
       <x/>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
     <i r="2">
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="4"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
       <x/>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="1"/>
-      <x v="1"/>
+      <x/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
     <i r="2">
       <x v="2"/>
     </i>
     <i r="2">
-      <x v="4"/>
+      <x v="3"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Speed Up " fld="8" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="27">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="55">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="56">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="57">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21522,12 +22220,12 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21536,12 +22234,12 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21550,31 +22248,31 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="63">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="64">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="65">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21583,12 +22281,12 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21597,12 +22295,12 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -21611,27 +22309,27 @@
           <reference field="1" count="3">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="71">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="72">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="73">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="2"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="74">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="2">
@@ -21641,7 +22339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="0"/>
@@ -21651,7 +22349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -21662,7 +22360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="0" count="0" selected="0"/>
@@ -21673,7 +22371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -21682,7 +22380,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -52795,11 +53493,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8DB23A-8D81-4433-B1C6-7993A3C53A82}">
-  <dimension ref="A1:AL297"/>
+  <dimension ref="A1:AL330"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U49" sqref="U49"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52816,16 +53514,16 @@
     <col min="16" max="16" width="5.5546875" style="40" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.77734375" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.77734375" style="42" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.109375" style="42" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4.5546875" style="42" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="5.44140625" style="11" customWidth="1"/>
@@ -52931,8 +53629,6 @@
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
@@ -52978,17 +53674,17 @@
       <c r="Q3" s="29"/>
       <c r="R3" s="29"/>
       <c r="S3" s="29"/>
-      <c r="T3" s="29">
+      <c r="T3" s="29"/>
+      <c r="U3" s="29">
         <v>26</v>
       </c>
-      <c r="U3" s="29"/>
       <c r="V3" s="29"/>
       <c r="W3" s="29"/>
       <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
@@ -53041,20 +53737,21 @@
       </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
-      <c r="T4" s="40" t="s">
+      <c r="T4" s="42"/>
+      <c r="U4" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="V4" s="40" t="s">
+      <c r="V4" s="40"/>
+      <c r="W4" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
@@ -53115,31 +53812,35 @@
         <v>35</v>
       </c>
       <c r="S5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="U5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="V5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="W5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="X5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="Y5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Z5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AA5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="AA5"/>
-      <c r="AB5"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -53190,8 +53891,6 @@
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
@@ -53251,16 +53950,16 @@
       <c r="R7" s="42">
         <v>1.0914454277286136</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42">
-        <v>1</v>
-      </c>
+      <c r="S7" s="42">
+        <v>1</v>
+      </c>
+      <c r="T7" s="42"/>
       <c r="U7" s="42">
+        <v>1</v>
+      </c>
+      <c r="V7" s="42">
         <v>0.93333333333333335</v>
       </c>
-      <c r="V7" s="42">
-        <v>1</v>
-      </c>
       <c r="W7" s="42">
         <v>1</v>
       </c>
@@ -53268,10 +53967,14 @@
         <v>1</v>
       </c>
       <c r="Y7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="42">
         <v>1.0440251572327044</v>
       </c>
-      <c r="AA7"/>
-      <c r="AB7"/>
+      <c r="AA7" s="42">
+        <v>2</v>
+      </c>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -53331,27 +54034,31 @@
       <c r="R8" s="42">
         <v>1.5486725663716814</v>
       </c>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42">
+      <c r="S8" s="42">
+        <v>1.6344410876132931</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42">
         <v>1.638095238095238</v>
       </c>
-      <c r="U8" s="42">
+      <c r="V8" s="42">
         <v>1.5952380952380953</v>
       </c>
-      <c r="V8" s="42">
+      <c r="W8" s="42">
         <v>1.7874015748031495</v>
       </c>
-      <c r="W8" s="42">
+      <c r="X8" s="42">
         <v>1.7637795275590551</v>
       </c>
-      <c r="X8" s="42">
+      <c r="Y8" s="42">
         <v>1.7924528301886793</v>
       </c>
-      <c r="Y8" s="42">
+      <c r="Z8" s="42">
         <v>1.6037735849056602</v>
       </c>
-      <c r="AA8"/>
-      <c r="AB8"/>
+      <c r="AA8" s="42">
+        <v>1.653846153846154</v>
+      </c>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -53411,27 +54118,31 @@
       <c r="R9" s="42">
         <v>1.6991150442477878</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42">
+      <c r="S9" s="42">
+        <v>1.8851963746223563</v>
+      </c>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42">
         <v>1.6619047619047618</v>
       </c>
-      <c r="U9" s="42">
+      <c r="V9" s="42">
         <v>1.6428571428571428</v>
       </c>
-      <c r="V9" s="42">
+      <c r="W9" s="42">
         <v>2.4803149606299213</v>
       </c>
-      <c r="W9" s="42">
+      <c r="X9" s="42">
         <v>2.4645669291338583</v>
       </c>
-      <c r="X9" s="42">
+      <c r="Y9" s="42">
         <v>2.0691823899371067</v>
       </c>
-      <c r="Y9" s="42">
+      <c r="Z9" s="42">
         <v>2.1446540880503147</v>
       </c>
-      <c r="AA9"/>
-      <c r="AB9"/>
+      <c r="AA9" s="42">
+        <v>2.0512820512820515</v>
+      </c>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -53492,31 +54203,35 @@
         <v>1.7256637168141593</v>
       </c>
       <c r="S10" s="42">
+        <v>1.4712990936555892</v>
+      </c>
+      <c r="T10" s="42">
         <v>4.4247787610619468E-2</v>
       </c>
-      <c r="T10" s="42">
+      <c r="U10" s="42">
         <v>1.8047619047619048</v>
       </c>
-      <c r="U10" s="42">
+      <c r="V10" s="42">
         <v>1.7571428571428571</v>
       </c>
-      <c r="V10" s="42">
+      <c r="W10" s="42">
         <v>3.2204724409448819</v>
       </c>
-      <c r="W10" s="42">
+      <c r="X10" s="42">
         <v>3.1338582677165352</v>
       </c>
-      <c r="X10" s="42">
+      <c r="Y10" s="42">
         <v>2.1257861635220126</v>
       </c>
-      <c r="Y10" s="42">
+      <c r="Z10" s="42">
         <v>2.2578616352201255</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="AA10" s="42">
+        <v>2.2371794871794872</v>
+      </c>
+      <c r="AB10" s="42">
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="AA10"/>
-      <c r="AB10"/>
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -53567,8 +54282,6 @@
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
       <c r="U11" s="42"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -53628,27 +54341,31 @@
       <c r="R12" s="42">
         <v>3.9498525073746316</v>
       </c>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42">
+      <c r="S12" s="42">
+        <v>3.7099697885196372</v>
+      </c>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42">
         <v>3.657142857142857</v>
       </c>
-      <c r="U12" s="42">
+      <c r="V12" s="42">
         <v>3.6047619047619048</v>
       </c>
-      <c r="V12" s="42">
+      <c r="W12" s="42">
         <v>4.4645669291338583</v>
       </c>
-      <c r="W12" s="42">
+      <c r="X12" s="42">
         <v>4.3385826771653546</v>
       </c>
-      <c r="X12" s="42">
+      <c r="Y12" s="42">
         <v>4.5471698113207548</v>
       </c>
-      <c r="Y12" s="42">
+      <c r="Z12" s="42">
         <v>4.7295597484276728</v>
       </c>
-      <c r="AA12"/>
-      <c r="AB12"/>
+      <c r="AA12" s="42">
+        <v>4.4679487179487181</v>
+      </c>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -53708,27 +54425,31 @@
       <c r="R13" s="42">
         <v>4.3893805309734519</v>
       </c>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42">
+      <c r="S13" s="42">
+        <v>5.1268882175226578</v>
+      </c>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42">
         <v>6.2047619047619049</v>
       </c>
-      <c r="U13" s="42">
+      <c r="V13" s="42">
         <v>6.6857142857142859</v>
       </c>
-      <c r="V13" s="42">
+      <c r="W13" s="42">
         <v>8.346456692913387</v>
       </c>
-      <c r="W13" s="42">
+      <c r="X13" s="42">
         <v>8.2519685039370074</v>
       </c>
-      <c r="X13" s="42">
+      <c r="Y13" s="42">
         <v>7.8993710691823891</v>
       </c>
-      <c r="Y13" s="42">
+      <c r="Z13" s="42">
         <v>8.0440251572327046</v>
       </c>
-      <c r="AA13"/>
-      <c r="AB13"/>
+      <c r="AA13" s="42">
+        <v>8.0320512820512828</v>
+      </c>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -53788,27 +54509,31 @@
       <c r="R14" s="42">
         <v>4.1032448377581119</v>
       </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42">
+      <c r="S14" s="42">
+        <v>5.5377643504531724</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42">
         <v>7.8000000000000007</v>
       </c>
-      <c r="U14" s="42">
+      <c r="V14" s="42">
         <v>6.9619047619047612</v>
       </c>
-      <c r="V14" s="42">
+      <c r="W14" s="42">
         <v>11.889763779527559</v>
       </c>
-      <c r="W14" s="42">
+      <c r="X14" s="42">
         <v>11.968503937007874</v>
       </c>
-      <c r="X14" s="42">
+      <c r="Y14" s="42">
         <v>8.9119496855345908</v>
       </c>
-      <c r="Y14" s="42">
+      <c r="Z14" s="42">
         <v>9.3459119496855347</v>
       </c>
-      <c r="AA14"/>
-      <c r="AB14"/>
+      <c r="AA14" s="42">
+        <v>9.2884615384615383</v>
+      </c>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -53869,31 +54594,35 @@
         <v>4.3274336283185839</v>
       </c>
       <c r="S15" s="42">
+        <v>5.0543806646525677</v>
+      </c>
+      <c r="T15" s="42">
         <v>7.6696165191740412E-2</v>
       </c>
-      <c r="T15" s="42">
+      <c r="U15" s="42">
         <v>7.8714285714285719</v>
       </c>
-      <c r="U15" s="42">
+      <c r="V15" s="42">
         <v>7.1285714285714281</v>
       </c>
-      <c r="V15" s="42">
+      <c r="W15" s="42">
         <v>11.527559055118111</v>
       </c>
-      <c r="W15" s="42">
+      <c r="X15" s="42">
         <v>11.259842519685041</v>
       </c>
-      <c r="X15" s="42">
+      <c r="Y15" s="42">
         <v>9.1823899371069189</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Z15" s="42">
         <v>9.5031446540880502</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="AA15" s="42">
+        <v>9.4807692307692317</v>
+      </c>
+      <c r="AB15" s="42">
         <v>5.0314465408805034E-2</v>
       </c>
-      <c r="AA15"/>
-      <c r="AB15"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -53944,8 +54673,6 @@
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
@@ -54005,27 +54732,31 @@
       <c r="R17" s="42">
         <v>2.3392330383480826</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42">
+      <c r="S17" s="42">
+        <v>3.0060422960725073</v>
+      </c>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42">
         <v>3.1904761904761907</v>
       </c>
-      <c r="U17" s="42">
+      <c r="V17" s="42">
         <v>3.5</v>
       </c>
-      <c r="V17" s="42">
+      <c r="W17" s="42">
         <v>3.2913385826771653</v>
       </c>
-      <c r="W17" s="42">
+      <c r="X17" s="42">
         <v>3.2598425196850394</v>
       </c>
-      <c r="X17" s="42">
+      <c r="Y17" s="42">
         <v>2.6603773584905657</v>
       </c>
-      <c r="Y17" s="42">
+      <c r="Z17" s="42">
         <v>3.742138364779874</v>
       </c>
-      <c r="AA17"/>
-      <c r="AB17"/>
+      <c r="AA17" s="42">
+        <v>4.6538461538461533</v>
+      </c>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
@@ -54085,27 +54816,31 @@
       <c r="R18" s="42">
         <v>2.7699115044247788</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42">
+      <c r="S18" s="42">
+        <v>4.0845921450151055</v>
+      </c>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42">
         <v>6.2714285714285705</v>
       </c>
-      <c r="U18" s="42">
+      <c r="V18" s="42">
         <v>6.2952380952380951</v>
       </c>
-      <c r="V18" s="42">
+      <c r="W18" s="42">
         <v>6.4409448818897639</v>
       </c>
-      <c r="W18" s="42">
+      <c r="X18" s="42">
         <v>6.3543307086614176</v>
       </c>
-      <c r="X18" s="42">
+      <c r="Y18" s="42">
         <v>4.867924528301887</v>
       </c>
-      <c r="Y18" s="42">
+      <c r="Z18" s="42">
         <v>6.6352201257861632</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18"/>
+      <c r="AA18" s="42">
+        <v>8.5128205128205146</v>
+      </c>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
@@ -54165,27 +54900,31 @@
       <c r="R19" s="42">
         <v>2.9764011799410031</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42">
+      <c r="S19" s="42">
+        <v>4.1963746223564957</v>
+      </c>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42">
         <v>7.3714285714285719</v>
       </c>
-      <c r="U19" s="42">
+      <c r="V19" s="42">
         <v>7.6571428571428575</v>
       </c>
-      <c r="V19" s="42">
+      <c r="W19" s="42">
         <v>9.4724409448818907</v>
       </c>
-      <c r="W19" s="42">
+      <c r="X19" s="42">
         <v>9.3779527559055111</v>
       </c>
-      <c r="X19" s="42">
+      <c r="Y19" s="42">
         <v>4.7924528301886795</v>
       </c>
-      <c r="Y19" s="42">
+      <c r="Z19" s="42">
         <v>7.1635220125786168</v>
       </c>
-      <c r="AA19"/>
-      <c r="AB19"/>
+      <c r="AA19" s="42">
+        <v>9.4102564102564106</v>
+      </c>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
@@ -54246,31 +54985,35 @@
         <v>2.8849557522123894</v>
       </c>
       <c r="S20" s="42">
+        <v>3.7462235649546827</v>
+      </c>
+      <c r="T20" s="42">
         <v>0.17699115044247787</v>
       </c>
-      <c r="T20" s="42">
+      <c r="U20" s="42">
         <v>8.0047619047619047</v>
       </c>
-      <c r="U20" s="42">
+      <c r="V20" s="42">
         <v>7.409523809523809</v>
       </c>
-      <c r="V20" s="42">
+      <c r="W20" s="42">
         <v>12.228346456692915</v>
       </c>
-      <c r="W20" s="42">
+      <c r="X20" s="42">
         <v>12.102362204724409</v>
       </c>
-      <c r="X20" s="42">
+      <c r="Y20" s="42">
         <v>5.2955974842767297</v>
       </c>
-      <c r="Y20" s="42">
+      <c r="Z20" s="42">
         <v>7.5723270440251573</v>
       </c>
-      <c r="Z20" s="42">
+      <c r="AA20" s="42">
+        <v>9.2948717948717956</v>
+      </c>
+      <c r="AB20" s="42">
         <v>0.12641509433962261</v>
       </c>
-      <c r="AA20"/>
-      <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
@@ -54321,8 +55064,6 @@
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
@@ -54382,27 +55123,31 @@
       <c r="R22" s="42">
         <v>0.98230088495575218</v>
       </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42">
+      <c r="S22" s="42">
+        <v>1.8308157099697884</v>
+      </c>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42">
         <v>3.3380952380952378</v>
       </c>
-      <c r="U22" s="42">
+      <c r="V22" s="42">
         <v>3.2857142857142856</v>
       </c>
-      <c r="V22" s="42">
+      <c r="W22" s="42">
         <v>3.3700787401574801</v>
       </c>
-      <c r="W22" s="42">
+      <c r="X22" s="42">
         <v>3.3070866141732287</v>
       </c>
-      <c r="X22" s="42">
+      <c r="Y22" s="42">
         <v>1.3018867924528301</v>
       </c>
-      <c r="Y22" s="42">
+      <c r="Z22" s="42">
         <v>1.4968553459119498</v>
       </c>
-      <c r="AA22"/>
-      <c r="AB22"/>
+      <c r="AA22" s="42">
+        <v>3.1346153846153846</v>
+      </c>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
@@ -54462,27 +55207,31 @@
       <c r="R23" s="42">
         <v>1.4926253687315636</v>
       </c>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42">
+      <c r="S23" s="42">
+        <v>2.7613293051359515</v>
+      </c>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42">
         <v>6.1619047619047622</v>
       </c>
-      <c r="U23" s="42">
+      <c r="V23" s="42">
         <v>5.8380952380952378</v>
       </c>
-      <c r="V23" s="42">
+      <c r="W23" s="42">
         <v>6.4251968503937009</v>
       </c>
-      <c r="W23" s="42">
+      <c r="X23" s="42">
         <v>6.4015748031496065</v>
       </c>
-      <c r="X23" s="42">
+      <c r="Y23" s="42">
         <v>2.283018867924528</v>
       </c>
-      <c r="Y23" s="42">
+      <c r="Z23" s="42">
         <v>2.5786163522012577</v>
       </c>
-      <c r="AA23"/>
-      <c r="AB23"/>
+      <c r="AA23" s="42">
+        <v>5.4679487179487181</v>
+      </c>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
@@ -54542,27 +55291,31 @@
       <c r="R24" s="42">
         <v>1.5250737463126844</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42">
+      <c r="S24" s="42">
+        <v>2.8126888217522654</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42">
         <v>7.1714285714285708</v>
       </c>
-      <c r="U24" s="42">
+      <c r="V24" s="42">
         <v>7.1380952380952385</v>
       </c>
-      <c r="V24" s="42">
+      <c r="W24" s="42">
         <v>9.3070866141732296</v>
       </c>
-      <c r="W24" s="42">
+      <c r="X24" s="42">
         <v>9.4015748031496074</v>
       </c>
-      <c r="X24" s="42">
+      <c r="Y24" s="42">
         <v>2.7044025157232703</v>
       </c>
-      <c r="Y24" s="42">
+      <c r="Z24" s="42">
         <v>3.1069182389937104</v>
       </c>
-      <c r="AA24"/>
-      <c r="AB24"/>
+      <c r="AA24" s="42">
+        <v>6.3141025641025639</v>
+      </c>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
@@ -54623,31 +55376,35 @@
         <v>1.5309734513274336</v>
       </c>
       <c r="S25" s="42">
+        <v>2.6132930513595163</v>
+      </c>
+      <c r="T25" s="42">
         <v>0.17699115044247787</v>
       </c>
-      <c r="T25" s="42">
+      <c r="U25" s="42">
         <v>7.9619047619047612</v>
       </c>
-      <c r="U25" s="42">
+      <c r="V25" s="42">
         <v>7.8571428571428568</v>
       </c>
-      <c r="V25" s="42">
+      <c r="W25" s="42">
         <v>12.322834645669293</v>
       </c>
-      <c r="W25" s="42">
+      <c r="X25" s="42">
         <v>12.259842519685039</v>
       </c>
-      <c r="X25" s="42">
+      <c r="Y25" s="42">
         <v>3.1069182389937104</v>
       </c>
-      <c r="Y25" s="42">
+      <c r="Z25" s="42">
         <v>3.4528301886792452</v>
       </c>
-      <c r="Z25" s="42">
+      <c r="AA25" s="42">
+        <v>6.3141025641025639</v>
+      </c>
+      <c r="AB25" s="42">
         <v>0.13962264150943396</v>
       </c>
-      <c r="AA25"/>
-      <c r="AB25"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -62968,7 +63725,7 @@
         <v>15.9</v>
       </c>
       <c r="I294" s="11">
-        <f t="shared" ref="I294:I297" si="17">G294/H294</f>
+        <f t="shared" ref="I294:I313" si="17">G294/H294</f>
         <v>3.7735849056603772E-2</v>
       </c>
     </row>
@@ -63062,9 +63819,1002 @@
         <v>0.13962264150943396</v>
       </c>
     </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>49</v>
+      </c>
+      <c r="B298" t="s">
+        <v>130</v>
+      </c>
+      <c r="C298">
+        <v>15</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G298">
+        <v>33.1</v>
+      </c>
+      <c r="H298" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I298" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>49</v>
+      </c>
+      <c r="B299" t="s">
+        <v>130</v>
+      </c>
+      <c r="C299">
+        <v>15</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G299">
+        <v>54.1</v>
+      </c>
+      <c r="H299" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I299" s="11">
+        <f t="shared" si="17"/>
+        <v>1.6344410876132931</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>49</v>
+      </c>
+      <c r="B300" t="s">
+        <v>130</v>
+      </c>
+      <c r="C300">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G300">
+        <v>62.4</v>
+      </c>
+      <c r="H300" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I300" s="11">
+        <f t="shared" si="17"/>
+        <v>1.8851963746223563</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>49</v>
+      </c>
+      <c r="B301" t="s">
+        <v>130</v>
+      </c>
+      <c r="C301">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>4</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G301">
+        <v>48.7</v>
+      </c>
+      <c r="H301" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I301" s="11">
+        <f t="shared" si="17"/>
+        <v>1.4712990936555892</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>49</v>
+      </c>
+      <c r="B302" t="s">
+        <v>130</v>
+      </c>
+      <c r="C302">
+        <v>15</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
+        <v>6.07</v>
+      </c>
+      <c r="G302">
+        <v>122.8</v>
+      </c>
+      <c r="H302" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I302" s="11">
+        <f t="shared" si="17"/>
+        <v>3.7099697885196372</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>49</v>
+      </c>
+      <c r="B303" t="s">
+        <v>130</v>
+      </c>
+      <c r="C303">
+        <v>15</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303">
+        <v>6.07</v>
+      </c>
+      <c r="G303">
+        <v>169.7</v>
+      </c>
+      <c r="H303" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I303" s="11">
+        <f t="shared" si="17"/>
+        <v>5.1268882175226578</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>49</v>
+      </c>
+      <c r="B304" t="s">
+        <v>130</v>
+      </c>
+      <c r="C304">
+        <v>15</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>6.07</v>
+      </c>
+      <c r="G304">
+        <v>183.3</v>
+      </c>
+      <c r="H304" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I304" s="11">
+        <f t="shared" si="17"/>
+        <v>5.5377643504531724</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>49</v>
+      </c>
+      <c r="B305" t="s">
+        <v>130</v>
+      </c>
+      <c r="C305">
+        <v>15</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305">
+        <v>6.07</v>
+      </c>
+      <c r="G305">
+        <v>167.3</v>
+      </c>
+      <c r="H305" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I305" s="11">
+        <f t="shared" si="17"/>
+        <v>5.0543806646525677</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>49</v>
+      </c>
+      <c r="B306" t="s">
+        <v>130</v>
+      </c>
+      <c r="C306">
+        <v>15</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="F306">
+        <v>12.14</v>
+      </c>
+      <c r="G306">
+        <v>99.5</v>
+      </c>
+      <c r="H306" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I306" s="11">
+        <f t="shared" si="17"/>
+        <v>3.0060422960725073</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>49</v>
+      </c>
+      <c r="B307" t="s">
+        <v>130</v>
+      </c>
+      <c r="C307">
+        <v>15</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>12.14</v>
+      </c>
+      <c r="G307">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="H307" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I307" s="11">
+        <f t="shared" si="17"/>
+        <v>4.0845921450151055</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>49</v>
+      </c>
+      <c r="B308" t="s">
+        <v>130</v>
+      </c>
+      <c r="C308">
+        <v>15</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308">
+        <v>12.14</v>
+      </c>
+      <c r="G308">
+        <v>138.9</v>
+      </c>
+      <c r="H308" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I308" s="11">
+        <f t="shared" si="17"/>
+        <v>4.1963746223564957</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>49</v>
+      </c>
+      <c r="B309" t="s">
+        <v>130</v>
+      </c>
+      <c r="C309">
+        <v>15</v>
+      </c>
+      <c r="D309">
+        <v>4</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+      <c r="F309">
+        <v>12.14</v>
+      </c>
+      <c r="G309">
+        <v>124</v>
+      </c>
+      <c r="H309" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I309" s="11">
+        <f t="shared" si="17"/>
+        <v>3.7462235649546827</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" t="s">
+        <v>130</v>
+      </c>
+      <c r="C310">
+        <v>15</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310">
+        <v>4</v>
+      </c>
+      <c r="F310">
+        <v>17</v>
+      </c>
+      <c r="G310">
+        <v>60.6</v>
+      </c>
+      <c r="H310" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I310" s="11">
+        <f t="shared" si="17"/>
+        <v>1.8308157099697884</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>49</v>
+      </c>
+      <c r="B311" t="s">
+        <v>130</v>
+      </c>
+      <c r="C311">
+        <v>15</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>4</v>
+      </c>
+      <c r="F311">
+        <v>17</v>
+      </c>
+      <c r="G311">
+        <v>91.4</v>
+      </c>
+      <c r="H311" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I311" s="11">
+        <f t="shared" si="17"/>
+        <v>2.7613293051359515</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>49</v>
+      </c>
+      <c r="B312" t="s">
+        <v>130</v>
+      </c>
+      <c r="C312">
+        <v>15</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+      <c r="F312">
+        <v>17</v>
+      </c>
+      <c r="G312">
+        <v>93.1</v>
+      </c>
+      <c r="H312" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I312" s="11">
+        <f t="shared" si="17"/>
+        <v>2.8126888217522654</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>49</v>
+      </c>
+      <c r="B313" t="s">
+        <v>130</v>
+      </c>
+      <c r="C313">
+        <v>15</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+      <c r="F313">
+        <v>17</v>
+      </c>
+      <c r="G313">
+        <v>86.5</v>
+      </c>
+      <c r="H313" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="I313" s="11">
+        <f t="shared" si="17"/>
+        <v>2.6132930513595163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B314" t="s">
+        <v>130</v>
+      </c>
+      <c r="C314">
+        <v>26</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G314">
+        <v>15.6</v>
+      </c>
+      <c r="H314" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I314" s="11">
+        <f t="shared" ref="I314:I329" si="18">G314/H314</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>49</v>
+      </c>
+      <c r="B315" t="s">
+        <v>130</v>
+      </c>
+      <c r="C315">
+        <v>26</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>1.18</v>
+      </c>
+      <c r="G315">
+        <v>15.6</v>
+      </c>
+      <c r="H315" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I315" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>49</v>
+      </c>
+      <c r="B316" t="s">
+        <v>130</v>
+      </c>
+      <c r="C316">
+        <v>26</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>1.18</v>
+      </c>
+      <c r="G316">
+        <v>25.8</v>
+      </c>
+      <c r="H316" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I316" s="11">
+        <f t="shared" si="18"/>
+        <v>1.653846153846154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>49</v>
+      </c>
+      <c r="B317" t="s">
+        <v>130</v>
+      </c>
+      <c r="C317">
+        <v>26</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>1.18</v>
+      </c>
+      <c r="G317">
+        <v>32</v>
+      </c>
+      <c r="H317" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I317" s="11">
+        <f t="shared" si="18"/>
+        <v>2.0512820512820515</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>49</v>
+      </c>
+      <c r="B318" t="s">
+        <v>130</v>
+      </c>
+      <c r="C318">
+        <v>26</v>
+      </c>
+      <c r="D318">
+        <v>4</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>1.18</v>
+      </c>
+      <c r="G318">
+        <v>34.9</v>
+      </c>
+      <c r="H318" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I318" s="11">
+        <f t="shared" si="18"/>
+        <v>2.2371794871794872</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>49</v>
+      </c>
+      <c r="B319" t="s">
+        <v>130</v>
+      </c>
+      <c r="C319">
+        <v>26</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>2</v>
+      </c>
+      <c r="F319">
+        <v>6.2</v>
+      </c>
+      <c r="G319">
+        <v>69.7</v>
+      </c>
+      <c r="H319" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I319" s="11">
+        <f t="shared" si="18"/>
+        <v>4.4679487179487181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>49</v>
+      </c>
+      <c r="B320" t="s">
+        <v>130</v>
+      </c>
+      <c r="C320">
+        <v>26</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>2</v>
+      </c>
+      <c r="F320">
+        <v>6.2</v>
+      </c>
+      <c r="G320">
+        <v>125.3</v>
+      </c>
+      <c r="H320" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I320" s="11">
+        <f t="shared" si="18"/>
+        <v>8.0320512820512828</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>49</v>
+      </c>
+      <c r="B321" t="s">
+        <v>130</v>
+      </c>
+      <c r="C321">
+        <v>26</v>
+      </c>
+      <c r="D321">
+        <v>3</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>6.2</v>
+      </c>
+      <c r="G321">
+        <v>144.9</v>
+      </c>
+      <c r="H321" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I321" s="11">
+        <f t="shared" si="18"/>
+        <v>9.2884615384615383</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>49</v>
+      </c>
+      <c r="B322" t="s">
+        <v>130</v>
+      </c>
+      <c r="C322">
+        <v>26</v>
+      </c>
+      <c r="D322">
+        <v>4</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>6.2</v>
+      </c>
+      <c r="G322">
+        <v>147.9</v>
+      </c>
+      <c r="H322" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I322" s="11">
+        <f t="shared" si="18"/>
+        <v>9.4807692307692317</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>49</v>
+      </c>
+      <c r="B323" t="s">
+        <v>130</v>
+      </c>
+      <c r="C323">
+        <v>26</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>11.95</v>
+      </c>
+      <c r="G323">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H323" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I323" s="11">
+        <f t="shared" si="18"/>
+        <v>4.6538461538461533</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>49</v>
+      </c>
+      <c r="B324" t="s">
+        <v>130</v>
+      </c>
+      <c r="C324">
+        <v>26</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324">
+        <v>3</v>
+      </c>
+      <c r="F324">
+        <v>11.93</v>
+      </c>
+      <c r="G324">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="H324" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I324" s="11">
+        <f t="shared" si="18"/>
+        <v>8.5128205128205146</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>49</v>
+      </c>
+      <c r="B325" t="s">
+        <v>130</v>
+      </c>
+      <c r="C325">
+        <v>26</v>
+      </c>
+      <c r="D325">
+        <v>3</v>
+      </c>
+      <c r="E325">
+        <v>3</v>
+      </c>
+      <c r="F325">
+        <v>11.93</v>
+      </c>
+      <c r="G325">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="H325" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I325" s="11">
+        <f t="shared" si="18"/>
+        <v>9.4102564102564106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>49</v>
+      </c>
+      <c r="B326" t="s">
+        <v>130</v>
+      </c>
+      <c r="C326">
+        <v>26</v>
+      </c>
+      <c r="D326">
+        <v>4</v>
+      </c>
+      <c r="E326">
+        <v>3</v>
+      </c>
+      <c r="F326">
+        <v>11.93</v>
+      </c>
+      <c r="G326">
+        <v>145</v>
+      </c>
+      <c r="H326" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I326" s="11">
+        <f t="shared" si="18"/>
+        <v>9.2948717948717956</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>49</v>
+      </c>
+      <c r="B327" t="s">
+        <v>130</v>
+      </c>
+      <c r="C327">
+        <v>26</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>4</v>
+      </c>
+      <c r="F327">
+        <v>18.27</v>
+      </c>
+      <c r="G327">
+        <v>48.9</v>
+      </c>
+      <c r="H327" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I327" s="11">
+        <f t="shared" si="18"/>
+        <v>3.1346153846153846</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>49</v>
+      </c>
+      <c r="B328" t="s">
+        <v>130</v>
+      </c>
+      <c r="C328">
+        <v>26</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328">
+        <v>4</v>
+      </c>
+      <c r="F328">
+        <v>18.22</v>
+      </c>
+      <c r="G328">
+        <v>85.3</v>
+      </c>
+      <c r="H328" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I328" s="11">
+        <f t="shared" si="18"/>
+        <v>5.4679487179487181</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>49</v>
+      </c>
+      <c r="B329" t="s">
+        <v>130</v>
+      </c>
+      <c r="C329">
+        <v>26</v>
+      </c>
+      <c r="D329">
+        <v>3</v>
+      </c>
+      <c r="E329">
+        <v>4</v>
+      </c>
+      <c r="F329">
+        <v>18.23</v>
+      </c>
+      <c r="G329">
+        <v>98.5</v>
+      </c>
+      <c r="H329" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I329" s="11">
+        <f t="shared" si="18"/>
+        <v>6.3141025641025639</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>49</v>
+      </c>
+      <c r="B330" t="s">
+        <v>130</v>
+      </c>
+      <c r="C330">
+        <v>26</v>
+      </c>
+      <c r="D330">
+        <v>4</v>
+      </c>
+      <c r="E330">
+        <v>4</v>
+      </c>
+      <c r="F330">
+        <v>18.25</v>
+      </c>
+      <c r="G330">
+        <v>98.5</v>
+      </c>
+      <c r="H330" s="11">
+        <v>15.6</v>
+      </c>
+      <c r="I330" s="11">
+        <f t="shared" ref="I330" si="19">G330/H330</f>
+        <v>6.3141025641025639</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="L2:AA25">
+    <sortCondition ref="M5"/>
+  </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="M6:Z25">
+  <conditionalFormatting pivot="1" sqref="M6:AB25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
